--- a/宜科电子/大庆沃尔沃总装物流PTL项目/大庆沃尔沃PTL项目信息汇总.xlsx
+++ b/宜科电子/大庆沃尔沃总装物流PTL项目/大庆沃尔沃PTL项目信息汇总.xlsx
@@ -13,7 +13,7 @@
     <sheet name="大庆沃尔沃PTLIP地址申请" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PTL_INFO!$E$1:$E$921</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PTL_INFO!$B$1:$B$921</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4386" uniqueCount="513">
   <si>
     <t>Id</t>
   </si>
@@ -1826,7 +1826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1882,6 +1882,7 @@
     <xf numFmtId="47" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2228,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M921"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2243,7 +2244,8 @@
     <col min="7" max="7" width="12.453125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.26953125" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.453125" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.7265625" style="14"/>
@@ -2316,8 +2318,8 @@
         <v>384</v>
       </c>
       <c r="I2" s="19"/>
-      <c r="J2" s="22">
-        <v>45205.594020772201</v>
+      <c r="J2" s="25">
+        <v>45205.5940162037</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>10</v>
@@ -2778,7 +2780,7 @@
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="22">
-        <v>45205.594009730601</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>10</v>
@@ -2815,7 +2817,7 @@
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="22">
-        <v>45205.593741051998</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>10</v>
@@ -2854,7 +2856,7 @@
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="22">
-        <v>45205.593685230699</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>10</v>
@@ -2893,7 +2895,7 @@
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="22">
-        <v>45205.593683390398</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>10</v>
@@ -2932,7 +2934,7 @@
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="22">
-        <v>45205.5937563876</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>10</v>
@@ -2971,7 +2973,7 @@
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="22">
-        <v>45205.593755160698</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>10</v>
@@ -3010,7 +3012,7 @@
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="22">
-        <v>45205.593760681499</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>10</v>
@@ -3049,7 +3051,7 @@
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="22">
-        <v>45205.593760068099</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>10</v>
@@ -3088,7 +3090,7 @@
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="22">
-        <v>45205.593759454699</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>10</v>
@@ -3127,7 +3129,7 @@
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="22">
-        <v>45205.593738598298</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>10</v>
@@ -3166,7 +3168,7 @@
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="22">
-        <v>45205.593752093599</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>10</v>
@@ -3205,7 +3207,7 @@
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="22">
-        <v>45205.5937502534</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>10</v>
@@ -3244,7 +3246,7 @@
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="22">
-        <v>45205.593746572798</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>10</v>
@@ -3283,7 +3285,7 @@
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="22">
-        <v>45205.593745959399</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K27" s="19" t="s">
         <v>10</v>
@@ -3322,7 +3324,7 @@
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="22">
-        <v>45205.593745345999</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>10</v>
@@ -3361,7 +3363,7 @@
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="22">
-        <v>45205.593748413099</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>10</v>
@@ -3400,7 +3402,7 @@
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="22">
-        <v>45205.593747799699</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K30" s="19" t="s">
         <v>10</v>
@@ -3439,7 +3441,7 @@
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="22">
-        <v>45205.5937447326</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K31" s="19" t="s">
         <v>10</v>
@@ -3478,7 +3480,7 @@
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="22">
-        <v>45205.593744119098</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K32" s="19" t="s">
         <v>10</v>
@@ -3517,7 +3519,7 @@
       </c>
       <c r="I33" s="19"/>
       <c r="J33" s="22">
-        <v>45205.593754547299</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K33" s="19" t="s">
         <v>10</v>
@@ -3556,7 +3558,7 @@
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="22">
-        <v>45205.593753933899</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K34" s="19" t="s">
         <v>10</v>
@@ -3595,7 +3597,7 @@
       </c>
       <c r="I35" s="19"/>
       <c r="J35" s="22">
-        <v>45205.593749639898</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K35" s="19" t="s">
         <v>10</v>
@@ -3634,7 +3636,7 @@
       </c>
       <c r="I36" s="19"/>
       <c r="J36" s="22">
-        <v>45205.593749026499</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K36" s="19" t="s">
         <v>10</v>
@@ -3673,7 +3675,7 @@
       </c>
       <c r="I37" s="19"/>
       <c r="J37" s="22">
-        <v>45205.593743505699</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K37" s="19" t="s">
         <v>10</v>
@@ -3712,7 +3714,7 @@
       </c>
       <c r="I38" s="19"/>
       <c r="J38" s="22">
-        <v>45205.593742892299</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K38" s="19" t="s">
         <v>10</v>
@@ -3751,7 +3753,7 @@
       </c>
       <c r="I39" s="19"/>
       <c r="J39" s="22">
-        <v>45205.593720195699</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K39" s="19" t="s">
         <v>10</v>
@@ -3790,7 +3792,7 @@
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="22">
-        <v>45205.593720809098</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K40" s="19" t="s">
         <v>10</v>
@@ -3829,7 +3831,7 @@
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="22">
-        <v>45205.593734917798</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K41" s="19" t="s">
         <v>10</v>
@@ -3868,7 +3870,7 @@
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="22">
-        <v>45205.593733690999</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K42" s="19" t="s">
         <v>10</v>
@@ -3907,7 +3909,7 @@
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="22">
-        <v>45205.593736758099</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K43" s="19" t="s">
         <v>10</v>
@@ -3946,7 +3948,7 @@
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="22">
-        <v>45205.593737984898</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K44" s="19" t="s">
         <v>10</v>
@@ -3985,7 +3987,7 @@
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="22">
-        <v>45205.593729396998</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K45" s="19" t="s">
         <v>10</v>
@@ -4024,7 +4026,7 @@
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="22">
-        <v>45205.593731850699</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K46" s="19" t="s">
         <v>10</v>
@@ -4063,7 +4065,7 @@
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="22">
-        <v>45205.593730010398</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K47" s="19" t="s">
         <v>10</v>
@@ -4102,7 +4104,7 @@
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="22">
-        <v>45205.593718355398</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K48" s="19" t="s">
         <v>10</v>
@@ -4141,7 +4143,7 @@
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="22">
-        <v>45205.5937244897</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K49" s="19" t="s">
         <v>10</v>
@@ -4180,7 +4182,7 @@
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="22">
-        <v>45205.593723876198</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K50" s="19" t="s">
         <v>10</v>
@@ -4219,7 +4221,7 @@
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="22">
-        <v>45205.593725716499</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K51" s="19" t="s">
         <v>10</v>
@@ -4258,7 +4260,7 @@
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="22">
-        <v>45205.593725103099</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K52" s="19" t="s">
         <v>10</v>
@@ -4297,7 +4299,7 @@
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="22">
-        <v>45205.5937330776</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K53" s="19" t="s">
         <v>10</v>
@@ -4336,7 +4338,7 @@
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="22">
-        <v>45205.593726329898</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K54" s="19" t="s">
         <v>10</v>
@@ -4375,7 +4377,7 @@
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="22">
-        <v>45205.593723262798</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K55" s="19" t="s">
         <v>10</v>
@@ -4414,7 +4416,7 @@
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="22">
-        <v>45205.593722035999</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K56" s="19" t="s">
         <v>10</v>
@@ -4453,7 +4455,7 @@
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="22">
-        <v>45205.593721422498</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K57" s="19" t="s">
         <v>10</v>
@@ -4491,10 +4493,18 @@
         <v>384</v>
       </c>
       <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
+      <c r="J58" s="22">
+        <v>45205.594020772201</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="19">
+        <v>1</v>
+      </c>
+      <c r="M58" s="19" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
@@ -4523,7 +4533,7 @@
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="22">
-        <v>45205.593714674898</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K59" s="19" t="s">
         <v>10</v>
@@ -4562,7 +4572,7 @@
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="22">
-        <v>45205.593714061499</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K60" s="19" t="s">
         <v>10</v>
@@ -4601,7 +4611,7 @@
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="22">
-        <v>45205.593716515199</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K61" s="19" t="s">
         <v>10</v>
@@ -4640,7 +4650,7 @@
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="22">
-        <v>45205.593717741998</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K62" s="19" t="s">
         <v>10</v>
@@ -4679,7 +4689,7 @@
       </c>
       <c r="I63" s="19"/>
       <c r="J63" s="22">
-        <v>45205.593715901799</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K63" s="19" t="s">
         <v>10</v>
@@ -4718,7 +4728,7 @@
       </c>
       <c r="I64" s="19"/>
       <c r="J64" s="22">
-        <v>45205.593684617299</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K64" s="19" t="s">
         <v>10</v>
@@ -4757,7 +4767,7 @@
       </c>
       <c r="I65" s="19"/>
       <c r="J65" s="22">
-        <v>45205.593704860199</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K65" s="19" t="s">
         <v>10</v>
@@ -4796,7 +4806,7 @@
       </c>
       <c r="I66" s="19"/>
       <c r="J66" s="22">
-        <v>45205.593712221198</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K66" s="19" t="s">
         <v>10</v>
@@ -4835,7 +4845,7 @@
       </c>
       <c r="I67" s="19"/>
       <c r="J67" s="22">
-        <v>45205.593708540699</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K67" s="19" t="s">
         <v>10</v>
@@ -4874,7 +4884,7 @@
       </c>
       <c r="I68" s="19"/>
       <c r="J68" s="22">
-        <v>45205.593707313899</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K68" s="19" t="s">
         <v>10</v>
@@ -4913,7 +4923,7 @@
       </c>
       <c r="I69" s="19"/>
       <c r="J69" s="22">
-        <v>45205.593707927299</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K69" s="19" t="s">
         <v>10</v>
@@ -4952,7 +4962,7 @@
       </c>
       <c r="I70" s="19"/>
       <c r="J70" s="22">
-        <v>45205.593706700398</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K70" s="19" t="s">
         <v>10</v>
@@ -4991,7 +5001,7 @@
       </c>
       <c r="I71" s="19"/>
       <c r="J71" s="22">
-        <v>45205.593704246698</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K71" s="19" t="s">
         <v>10</v>
@@ -5030,7 +5040,7 @@
       </c>
       <c r="I72" s="19"/>
       <c r="J72" s="22">
-        <v>45205.593703633298</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K72" s="19" t="s">
         <v>10</v>
@@ -5069,7 +5079,7 @@
       </c>
       <c r="I73" s="19"/>
       <c r="J73" s="22">
-        <v>45205.593703019898</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K73" s="19" t="s">
         <v>10</v>
@@ -5108,7 +5118,7 @@
       </c>
       <c r="I74" s="19"/>
       <c r="J74" s="22">
-        <v>45205.593700566198</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K74" s="19" t="s">
         <v>10</v>
@@ -5147,7 +5157,7 @@
       </c>
       <c r="I75" s="19"/>
       <c r="J75" s="22">
-        <v>45205.593696272299</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K75" s="19" t="s">
         <v>10</v>
@@ -5186,7 +5196,7 @@
       </c>
       <c r="I76" s="19"/>
       <c r="J76" s="22">
-        <v>45205.593695045398</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K76" s="19" t="s">
         <v>10</v>
@@ -5225,7 +5235,7 @@
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="22">
-        <v>45205.593701179598</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K77" s="19" t="s">
         <v>10</v>
@@ -5264,7 +5274,7 @@
       </c>
       <c r="I78" s="19"/>
       <c r="J78" s="22">
-        <v>45205.593699339399</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K78" s="19" t="s">
         <v>10</v>
@@ -5303,7 +5313,7 @@
       </c>
       <c r="I79" s="19"/>
       <c r="J79" s="22">
-        <v>45205.593698112498</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K79" s="19" t="s">
         <v>10</v>
@@ -5342,7 +5352,7 @@
       </c>
       <c r="I80" s="19"/>
       <c r="J80" s="22">
-        <v>45205.593694431998</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K80" s="19" t="s">
         <v>10</v>
@@ -5381,7 +5391,7 @@
       </c>
       <c r="I81" s="19"/>
       <c r="J81" s="22">
-        <v>45205.593693818599</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K81" s="19" t="s">
         <v>10</v>
@@ -5420,7 +5430,7 @@
       </c>
       <c r="I82" s="19"/>
       <c r="J82" s="22">
-        <v>45205.593692591698</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K82" s="19" t="s">
         <v>10</v>
@@ -5459,7 +5469,7 @@
       </c>
       <c r="I83" s="19"/>
       <c r="J83" s="22">
-        <v>45205.593690751499</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K83" s="19" t="s">
         <v>10</v>
@@ -5498,7 +5508,7 @@
       </c>
       <c r="I84" s="19"/>
       <c r="J84" s="22">
-        <v>45205.593689524598</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K84" s="19" t="s">
         <v>10</v>
@@ -5537,7 +5547,7 @@
       </c>
       <c r="I85" s="19"/>
       <c r="J85" s="22">
-        <v>45205.593688297799</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K85" s="19" t="s">
         <v>10</v>
@@ -5576,7 +5586,7 @@
       </c>
       <c r="I86" s="19"/>
       <c r="J86" s="22">
-        <v>45205.593687070897</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K86" s="19" t="s">
         <v>10</v>
@@ -5615,7 +5625,7 @@
       </c>
       <c r="I87" s="19"/>
       <c r="J87" s="22">
-        <v>45205.593686457498</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K87" s="19" t="s">
         <v>10</v>
@@ -5654,7 +5664,7 @@
       </c>
       <c r="I88" s="19"/>
       <c r="J88" s="22">
-        <v>45205.593685844098</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K88" s="19" t="s">
         <v>10</v>
@@ -5693,7 +5703,7 @@
       </c>
       <c r="I89" s="19"/>
       <c r="J89" s="22">
-        <v>45205.593684003798</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K89" s="19" t="s">
         <v>10</v>
@@ -5732,7 +5742,7 @@
       </c>
       <c r="I90" s="19"/>
       <c r="J90" s="22">
-        <v>45205.593601191897</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K90" s="19" t="s">
         <v>10</v>
@@ -5771,7 +5781,7 @@
       </c>
       <c r="I91" s="19"/>
       <c r="J91" s="22">
-        <v>45205.593602418798</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K91" s="19" t="s">
         <v>10</v>
@@ -5810,7 +5820,7 @@
       </c>
       <c r="I92" s="19"/>
       <c r="J92" s="22">
-        <v>45205.593599351698</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K92" s="19" t="s">
         <v>10</v>
@@ -5849,7 +5859,7 @@
       </c>
       <c r="I93" s="19"/>
       <c r="J93" s="22">
-        <v>45205.593687684399</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K93" s="19" t="s">
         <v>10</v>
@@ -5888,7 +5898,7 @@
       </c>
       <c r="I94" s="19"/>
       <c r="J94" s="22">
-        <v>45205.593688911198</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K94" s="19" t="s">
         <v>10</v>
@@ -5927,7 +5937,7 @@
       </c>
       <c r="I95" s="19"/>
       <c r="J95" s="22">
-        <v>45205.593690138099</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K95" s="19" t="s">
         <v>10</v>
@@ -5966,7 +5976,7 @@
       </c>
       <c r="I96" s="19"/>
       <c r="J96" s="22">
-        <v>45205.593691364898</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K96" s="19" t="s">
         <v>10</v>
@@ -6005,7 +6015,7 @@
       </c>
       <c r="I97" s="19"/>
       <c r="J97" s="22">
-        <v>45205.593693205199</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K97" s="19" t="s">
         <v>10</v>
@@ -6039,12 +6049,12 @@
       <c r="G98" s="19">
         <v>10</v>
       </c>
-      <c r="H98" s="19" t="s">
+      <c r="H98" s="18" t="s">
         <v>497</v>
       </c>
       <c r="I98" s="19"/>
       <c r="J98" s="22">
-        <v>45205.593691978298</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K98" s="19" t="s">
         <v>10</v>
@@ -6078,12 +6088,12 @@
       <c r="G99" s="19">
         <v>11</v>
       </c>
-      <c r="H99" s="19" t="s">
+      <c r="H99" s="18" t="s">
         <v>497</v>
       </c>
       <c r="I99" s="19"/>
       <c r="J99" s="22">
-        <v>45205.593696885699</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K99" s="19" t="s">
         <v>10</v>
@@ -6122,7 +6132,7 @@
       </c>
       <c r="I100" s="19"/>
       <c r="J100" s="22">
-        <v>45205.593697499098</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K100" s="19" t="s">
         <v>10</v>
@@ -6161,7 +6171,7 @@
       </c>
       <c r="I101" s="19"/>
       <c r="J101" s="22">
-        <v>45205.593698725999</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K101" s="19" t="s">
         <v>10</v>
@@ -6200,7 +6210,7 @@
       </c>
       <c r="I102" s="19"/>
       <c r="J102" s="22">
-        <v>45205.593702406499</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K102" s="19" t="s">
         <v>10</v>
@@ -6239,7 +6249,7 @@
       </c>
       <c r="I103" s="19"/>
       <c r="J103" s="22">
-        <v>45205.593695658798</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K103" s="19" t="s">
         <v>10</v>
@@ -6278,7 +6288,7 @@
       </c>
       <c r="I104" s="19"/>
       <c r="J104" s="22">
-        <v>45205.593699952798</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K104" s="19" t="s">
         <v>10</v>
@@ -6317,7 +6327,7 @@
       </c>
       <c r="I105" s="19"/>
       <c r="J105" s="22">
-        <v>45205.593701793099</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K105" s="19" t="s">
         <v>10</v>
@@ -6356,7 +6366,7 @@
       </c>
       <c r="I106" s="19"/>
       <c r="J106" s="22">
-        <v>45205.593596284598</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K106" s="19" t="s">
         <v>10</v>
@@ -6390,12 +6400,12 @@
       <c r="G107" s="19">
         <v>19</v>
       </c>
-      <c r="H107" s="19" t="s">
+      <c r="H107" s="18" t="s">
         <v>497</v>
       </c>
       <c r="I107" s="19"/>
       <c r="J107" s="22">
-        <v>45205.593599965097</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K107" s="19" t="s">
         <v>10</v>
@@ -6434,7 +6444,7 @@
       </c>
       <c r="I108" s="19"/>
       <c r="J108" s="22">
-        <v>45205.593601805398</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K108" s="19" t="s">
         <v>10</v>
@@ -6473,7 +6483,7 @@
       </c>
       <c r="I109" s="19"/>
       <c r="J109" s="22">
-        <v>45205.593603032197</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K109" s="19" t="s">
         <v>10</v>
@@ -6512,7 +6522,7 @@
       </c>
       <c r="I110" s="19"/>
       <c r="J110" s="22">
-        <v>45205.593596897997</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K110" s="19" t="s">
         <v>10</v>
@@ -6551,7 +6561,7 @@
       </c>
       <c r="I111" s="19"/>
       <c r="J111" s="22">
-        <v>45205.593709154098</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K111" s="19" t="s">
         <v>10</v>
@@ -6590,7 +6600,7 @@
       </c>
       <c r="I112" s="19"/>
       <c r="J112" s="22">
-        <v>45205.593710994399</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K112" s="19" t="s">
         <v>10</v>
@@ -6629,7 +6639,7 @@
       </c>
       <c r="I113" s="19"/>
       <c r="J113" s="22">
-        <v>45205.593705473599</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K113" s="19" t="s">
         <v>10</v>
@@ -6668,7 +6678,7 @@
       </c>
       <c r="I114" s="19"/>
       <c r="J114" s="22">
-        <v>45205.593706086998</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K114" s="19" t="s">
         <v>10</v>
@@ -6707,7 +6717,7 @@
       </c>
       <c r="I115" s="19"/>
       <c r="J115" s="22">
-        <v>45205.593709767498</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K115" s="19" t="s">
         <v>10</v>
@@ -6746,7 +6756,7 @@
       </c>
       <c r="I116" s="19"/>
       <c r="J116" s="22">
-        <v>45205.593710380999</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K116" s="19" t="s">
         <v>10</v>
@@ -6785,7 +6795,7 @@
       </c>
       <c r="I117" s="19"/>
       <c r="J117" s="22">
-        <v>45205.593711607798</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K117" s="19" t="s">
         <v>10</v>
@@ -6824,7 +6834,7 @@
       </c>
       <c r="I118" s="19"/>
       <c r="J118" s="22">
-        <v>45205.593712834598</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K118" s="19" t="s">
         <v>10</v>
@@ -6858,12 +6868,12 @@
       <c r="G119" s="19">
         <v>31</v>
       </c>
-      <c r="H119" s="19" t="s">
+      <c r="H119" s="18" t="s">
         <v>497</v>
       </c>
       <c r="I119" s="19"/>
       <c r="J119" s="22">
-        <v>45205.593713448099</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K119" s="19" t="s">
         <v>10</v>
@@ -6902,7 +6912,7 @@
       </c>
       <c r="I120" s="19"/>
       <c r="J120" s="22">
-        <v>45205.593597511397</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K120" s="19" t="s">
         <v>10</v>
@@ -6941,7 +6951,7 @@
       </c>
       <c r="I121" s="19"/>
       <c r="J121" s="22">
-        <v>45205.593598124797</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K121" s="19" t="s">
         <v>10</v>
@@ -6980,7 +6990,7 @@
       </c>
       <c r="I122" s="19"/>
       <c r="J122" s="22">
-        <v>45205.593598738298</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K122" s="19" t="s">
         <v>10</v>
@@ -7010,12 +7020,12 @@
       <c r="G123" s="19">
         <v>54</v>
       </c>
-      <c r="H123" s="19" t="s">
+      <c r="H123" s="18" t="s">
         <v>497</v>
       </c>
       <c r="I123" s="19"/>
       <c r="J123" s="22">
-        <v>45205.593717128599</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K123" s="19" t="s">
         <v>10</v>
@@ -7049,10 +7059,18 @@
         <v>384</v>
       </c>
       <c r="I124" s="19"/>
-      <c r="J124" s="19"/>
-      <c r="K124" s="19"/>
-      <c r="L124" s="19"/>
-      <c r="M124" s="19"/>
+      <c r="J124" s="22">
+        <v>45205.594020772201</v>
+      </c>
+      <c r="K124" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L124" s="19">
+        <v>1</v>
+      </c>
+      <c r="M124" s="19" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
@@ -7077,7 +7095,7 @@
       </c>
       <c r="I125" s="19"/>
       <c r="J125" s="22">
-        <v>45205.593715288298</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K125" s="19" t="s">
         <v>10</v>
@@ -7112,7 +7130,7 @@
       </c>
       <c r="I126" s="19"/>
       <c r="J126" s="22">
-        <v>45205.593727556799</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K126" s="19" t="s">
         <v>10</v>
@@ -7151,7 +7169,7 @@
       </c>
       <c r="I127" s="19"/>
       <c r="J127" s="22">
-        <v>45205.593728170199</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K127" s="19" t="s">
         <v>10</v>
@@ -7190,7 +7208,7 @@
       </c>
       <c r="I128" s="19"/>
       <c r="J128" s="22">
-        <v>45205.593722649399</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K128" s="19" t="s">
         <v>10</v>
@@ -7229,7 +7247,7 @@
       </c>
       <c r="I129" s="19"/>
       <c r="J129" s="22">
-        <v>45205.593732464098</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K129" s="19" t="s">
         <v>10</v>
@@ -7268,7 +7286,7 @@
       </c>
       <c r="I130" s="19"/>
       <c r="J130" s="22">
-        <v>45205.593726943298</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K130" s="19" t="s">
         <v>10</v>
@@ -7307,7 +7325,7 @@
       </c>
       <c r="I131" s="19"/>
       <c r="J131" s="22">
-        <v>45205.593637383798</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K131" s="19" t="s">
         <v>10</v>
@@ -7346,7 +7364,7 @@
       </c>
       <c r="I132" s="19"/>
       <c r="J132" s="22">
-        <v>45205.593626342197</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K132" s="19" t="s">
         <v>10</v>
@@ -7385,7 +7403,7 @@
       </c>
       <c r="I133" s="19"/>
       <c r="J133" s="22">
-        <v>45205.593637997197</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K133" s="19" t="s">
         <v>10</v>
@@ -7424,7 +7442,7 @@
       </c>
       <c r="I134" s="19"/>
       <c r="J134" s="22">
-        <v>45205.593631249598</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K134" s="19" t="s">
         <v>10</v>
@@ -7463,7 +7481,7 @@
       </c>
       <c r="I135" s="19"/>
       <c r="J135" s="22">
-        <v>45205.593626955597</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K135" s="19" t="s">
         <v>10</v>
@@ -7499,10 +7517,18 @@
         <v>384</v>
       </c>
       <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19"/>
+      <c r="J136" s="22">
+        <v>45205.594020772201</v>
+      </c>
+      <c r="K136" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L136" s="19">
+        <v>1</v>
+      </c>
+      <c r="M136" s="19" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="19"/>
@@ -7529,7 +7555,7 @@
       </c>
       <c r="I137" s="19"/>
       <c r="J137" s="22">
-        <v>45205.593730623899</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K137" s="19" t="s">
         <v>10</v>
@@ -7568,7 +7594,7 @@
       </c>
       <c r="I138" s="19"/>
       <c r="J138" s="22">
-        <v>45205.593728783599</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K138" s="19" t="s">
         <v>10</v>
@@ -7602,12 +7628,12 @@
       <c r="G139" s="19">
         <v>70</v>
       </c>
-      <c r="H139" s="19" t="s">
+      <c r="H139" s="18" t="s">
         <v>498</v>
       </c>
       <c r="I139" s="19"/>
       <c r="J139" s="22">
-        <v>45205.593737371499</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K139" s="19" t="s">
         <v>10</v>
@@ -7646,7 +7672,7 @@
       </c>
       <c r="I140" s="19"/>
       <c r="J140" s="22">
-        <v>45205.5937361447</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K140" s="19" t="s">
         <v>10</v>
@@ -7685,7 +7711,7 @@
       </c>
       <c r="I141" s="19"/>
       <c r="J141" s="22">
-        <v>45205.593718968899</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K141" s="19" t="s">
         <v>10</v>
@@ -7724,7 +7750,7 @@
       </c>
       <c r="I142" s="19"/>
       <c r="J142" s="22">
-        <v>45205.593734304399</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K142" s="19" t="s">
         <v>10</v>
@@ -7763,7 +7789,7 @@
       </c>
       <c r="I143" s="19"/>
       <c r="J143" s="22">
-        <v>45205.593735531198</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K143" s="19" t="s">
         <v>10</v>
@@ -7802,7 +7828,7 @@
       </c>
       <c r="I144" s="19"/>
       <c r="J144" s="22">
-        <v>45205.593719582299</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K144" s="19" t="s">
         <v>10</v>
@@ -7839,7 +7865,7 @@
       </c>
       <c r="I145" s="19"/>
       <c r="J145" s="22">
-        <v>45205.593731237299</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K145" s="19" t="s">
         <v>10</v>
@@ -7878,7 +7904,7 @@
       </c>
       <c r="I146" s="19"/>
       <c r="J146" s="22">
-        <v>45205.593625728798</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K146" s="19" t="s">
         <v>10</v>
@@ -7912,12 +7938,12 @@
       <c r="G147" s="19">
         <v>78</v>
       </c>
-      <c r="H147" s="19" t="s">
+      <c r="H147" s="18" t="s">
         <v>498</v>
       </c>
       <c r="I147" s="19"/>
       <c r="J147" s="22">
-        <v>45205.593629409297</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K147" s="19" t="s">
         <v>10</v>
@@ -7956,7 +7982,7 @@
       </c>
       <c r="I148" s="19"/>
       <c r="J148" s="22">
-        <v>45205.593633089899</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K148" s="19" t="s">
         <v>10</v>
@@ -7995,7 +8021,7 @@
       </c>
       <c r="I149" s="19"/>
       <c r="J149" s="22">
-        <v>45205.593627569098</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K149" s="19" t="s">
         <v>10</v>
@@ -8034,7 +8060,7 @@
       </c>
       <c r="I150" s="19"/>
       <c r="J150" s="22">
-        <v>45205.593632476397</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K150" s="19" t="s">
         <v>10</v>
@@ -8073,7 +8099,7 @@
       </c>
       <c r="I151" s="19"/>
       <c r="J151" s="22">
-        <v>45205.593636770398</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K151" s="19" t="s">
         <v>10</v>
@@ -8112,7 +8138,7 @@
       </c>
       <c r="I152" s="19"/>
       <c r="J152" s="22">
-        <v>45205.593634316698</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K152" s="19" t="s">
         <v>10</v>
@@ -8151,7 +8177,7 @@
       </c>
       <c r="I153" s="19"/>
       <c r="J153" s="22">
-        <v>45205.593633703298</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K153" s="19" t="s">
         <v>10</v>
@@ -8190,7 +8216,7 @@
       </c>
       <c r="I154" s="19"/>
       <c r="J154" s="22">
-        <v>45205.593636156998</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K154" s="19" t="s">
         <v>10</v>
@@ -8224,12 +8250,12 @@
       <c r="G155" s="19">
         <v>86</v>
       </c>
-      <c r="H155" s="19" t="s">
+      <c r="H155" s="18" t="s">
         <v>499</v>
       </c>
       <c r="I155" s="19"/>
       <c r="J155" s="22">
-        <v>45205.593628182498</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K155" s="19" t="s">
         <v>10</v>
@@ -8268,7 +8294,7 @@
       </c>
       <c r="I156" s="19"/>
       <c r="J156" s="22">
-        <v>45205.593635543497</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K156" s="19" t="s">
         <v>10</v>
@@ -8307,7 +8333,7 @@
       </c>
       <c r="I157" s="19"/>
       <c r="J157" s="22">
-        <v>45205.593634930097</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K157" s="19" t="s">
         <v>10</v>
@@ -8346,7 +8372,7 @@
       </c>
       <c r="I158" s="19"/>
       <c r="J158" s="22">
-        <v>45205.593628795898</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K158" s="19" t="s">
         <v>10</v>
@@ -8385,7 +8411,7 @@
       </c>
       <c r="I159" s="19"/>
       <c r="J159" s="22">
-        <v>45205.593747186198</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K159" s="19" t="s">
         <v>10</v>
@@ -8424,7 +8450,7 @@
       </c>
       <c r="I160" s="19"/>
       <c r="J160" s="22">
-        <v>45205.593751480199</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K160" s="19" t="s">
         <v>10</v>
@@ -8463,7 +8489,7 @@
       </c>
       <c r="I161" s="19"/>
       <c r="J161" s="22">
-        <v>45205.5937533205</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K161" s="19" t="s">
         <v>10</v>
@@ -8502,7 +8528,7 @@
       </c>
       <c r="I162" s="19"/>
       <c r="J162" s="22">
-        <v>45205.5937588413</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K162" s="19" t="s">
         <v>10</v>
@@ -8541,7 +8567,7 @@
       </c>
       <c r="I163" s="19"/>
       <c r="J163" s="22">
-        <v>45205.593630022799</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K163" s="19" t="s">
         <v>10</v>
@@ -8580,7 +8606,7 @@
       </c>
       <c r="I164" s="19"/>
       <c r="J164" s="22">
-        <v>45205.593630636198</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K164" s="19" t="s">
         <v>10</v>
@@ -8619,7 +8645,7 @@
       </c>
       <c r="I165" s="19"/>
       <c r="J165" s="22">
-        <v>45205.593631862997</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K165" s="19" t="s">
         <v>10</v>
@@ -8653,12 +8679,12 @@
       <c r="G166" s="19">
         <v>108</v>
       </c>
-      <c r="H166" s="19" t="s">
+      <c r="H166" s="18" t="s">
         <v>499</v>
       </c>
       <c r="I166" s="19"/>
       <c r="J166" s="22">
-        <v>45205.593755774098</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K166" s="19" t="s">
         <v>10</v>
@@ -8697,7 +8723,7 @@
       </c>
       <c r="I167" s="19"/>
       <c r="J167" s="22">
-        <v>45205.593757000999</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K167" s="19" t="s">
         <v>10</v>
@@ -8736,7 +8762,7 @@
       </c>
       <c r="I168" s="19"/>
       <c r="J168" s="22">
-        <v>45205.593757614399</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K168" s="19" t="s">
         <v>10</v>
@@ -8775,7 +8801,7 @@
       </c>
       <c r="I169" s="19"/>
       <c r="J169" s="22">
-        <v>45205.593758227798</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K169" s="19" t="s">
         <v>10</v>
@@ -8814,7 +8840,7 @@
       </c>
       <c r="I170" s="19"/>
       <c r="J170" s="22">
-        <v>45205.5937416655</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K170" s="19" t="s">
         <v>10</v>
@@ -8853,7 +8879,7 @@
       </c>
       <c r="I171" s="19"/>
       <c r="J171" s="22">
-        <v>45205.593750866799</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K171" s="19" t="s">
         <v>10</v>
@@ -8892,7 +8918,7 @@
       </c>
       <c r="I172" s="19"/>
       <c r="J172" s="22">
-        <v>45205.593742278899</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K172" s="19" t="s">
         <v>10</v>
@@ -8931,7 +8957,7 @@
       </c>
       <c r="I173" s="19"/>
       <c r="J173" s="22">
-        <v>45205.593739211799</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K173" s="19" t="s">
         <v>10</v>
@@ -8965,12 +8991,12 @@
       <c r="G174" s="19">
         <v>116</v>
       </c>
-      <c r="H174" s="19" t="s">
+      <c r="H174" s="18" t="s">
         <v>499</v>
       </c>
       <c r="I174" s="19"/>
       <c r="J174" s="22">
-        <v>45205.593739825199</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K174" s="19" t="s">
         <v>10</v>
@@ -9009,7 +9035,7 @@
       </c>
       <c r="I175" s="19"/>
       <c r="J175" s="22">
-        <v>45205.593752706998</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K175" s="19" t="s">
         <v>10</v>
@@ -9048,7 +9074,7 @@
       </c>
       <c r="I176" s="19"/>
       <c r="J176" s="22">
-        <v>45205.593740438599</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K176" s="19" t="s">
         <v>10</v>
@@ -9087,7 +9113,7 @@
       </c>
       <c r="I177" s="19"/>
       <c r="J177" s="22">
-        <v>45205.593761294898</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K177" s="19" t="s">
         <v>10</v>
@@ -9126,7 +9152,7 @@
       </c>
       <c r="I178" s="19"/>
       <c r="J178" s="22">
-        <v>45205.5937619084</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K178" s="19" t="s">
         <v>10</v>
@@ -9165,7 +9191,7 @@
       </c>
       <c r="I179" s="19"/>
       <c r="J179" s="22">
-        <v>45205.593762521799</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K179" s="19" t="s">
         <v>10</v>
@@ -9204,7 +9230,7 @@
       </c>
       <c r="I180" s="19"/>
       <c r="J180" s="22">
-        <v>45205.593763135199</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K180" s="19" t="s">
         <v>10</v>
@@ -9243,7 +9269,7 @@
       </c>
       <c r="I181" s="19"/>
       <c r="J181" s="22">
-        <v>45205.593763748599</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K181" s="19" t="s">
         <v>10</v>
@@ -9282,7 +9308,7 @@
       </c>
       <c r="I182" s="19"/>
       <c r="J182" s="22">
-        <v>45205.593764361998</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K182" s="19" t="s">
         <v>10</v>
@@ -9321,7 +9347,7 @@
       </c>
       <c r="I183" s="19"/>
       <c r="J183" s="22">
-        <v>45205.5937649755</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K183" s="19" t="s">
         <v>10</v>
@@ -9355,12 +9381,12 @@
       <c r="G184" s="19">
         <v>126</v>
       </c>
-      <c r="H184" s="19" t="s">
+      <c r="H184" s="18" t="s">
         <v>497</v>
       </c>
       <c r="I184" s="19"/>
       <c r="J184" s="22">
-        <v>45205.593766202299</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K184" s="19" t="s">
         <v>10</v>
@@ -9399,7 +9425,7 @@
       </c>
       <c r="I185" s="19"/>
       <c r="J185" s="22">
-        <v>45205.593766815698</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K185" s="19" t="s">
         <v>10</v>
@@ -9438,7 +9464,7 @@
       </c>
       <c r="I186" s="19"/>
       <c r="J186" s="22">
-        <v>45205.5937674292</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K186" s="19" t="s">
         <v>10</v>
@@ -9472,12 +9498,12 @@
       <c r="G187" s="19">
         <v>129</v>
       </c>
-      <c r="H187" s="19" t="s">
+      <c r="H187" s="18" t="s">
         <v>497</v>
       </c>
       <c r="I187" s="19"/>
       <c r="J187" s="22">
-        <v>45205.5937680426</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K187" s="19" t="s">
         <v>10</v>
@@ -9516,7 +9542,7 @@
       </c>
       <c r="I188" s="19"/>
       <c r="J188" s="22">
-        <v>45205.593768655999</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K188" s="19" t="s">
         <v>10</v>
@@ -9555,7 +9581,7 @@
       </c>
       <c r="I189" s="19"/>
       <c r="J189" s="22">
-        <v>45205.593769269399</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K189" s="19" t="s">
         <v>10</v>
@@ -9594,7 +9620,7 @@
       </c>
       <c r="I190" s="19"/>
       <c r="J190" s="22">
-        <v>45205.593769882798</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K190" s="19" t="s">
         <v>10</v>
@@ -9633,7 +9659,7 @@
       </c>
       <c r="I191" s="19"/>
       <c r="J191" s="22">
-        <v>45205.593765588899</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K191" s="19" t="s">
         <v>10</v>
@@ -9672,7 +9698,7 @@
       </c>
       <c r="I192" s="19"/>
       <c r="J192" s="22">
-        <v>45205.5937735634</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K192" s="19" t="s">
         <v>10</v>
@@ -9711,7 +9737,7 @@
       </c>
       <c r="I193" s="19"/>
       <c r="J193" s="22">
-        <v>45205.593772949898</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K193" s="19" t="s">
         <v>10</v>
@@ -9750,7 +9776,7 @@
       </c>
       <c r="I194" s="19"/>
       <c r="J194" s="22">
-        <v>45205.593774176799</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K194" s="19" t="s">
         <v>10</v>
@@ -9789,7 +9815,7 @@
       </c>
       <c r="I195" s="19"/>
       <c r="J195" s="22">
-        <v>45205.593772336499</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K195" s="19" t="s">
         <v>10</v>
@@ -9828,7 +9854,7 @@
       </c>
       <c r="I196" s="19"/>
       <c r="J196" s="22">
-        <v>45205.593771109699</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K196" s="19" t="s">
         <v>10</v>
@@ -13609,10 +13635,12 @@
       <c r="G318" s="19">
         <v>117</v>
       </c>
-      <c r="H318" s="19"/>
+      <c r="H318" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="I318" s="19"/>
       <c r="J318" s="22">
-        <v>45205.593603645597</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K318" s="19" t="s">
         <v>10</v>
@@ -13646,10 +13674,12 @@
       <c r="G319" s="19">
         <v>116</v>
       </c>
-      <c r="H319" s="19"/>
+      <c r="H319" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="I319" s="19"/>
       <c r="J319" s="22">
-        <v>45205.593604259098</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K319" s="19" t="s">
         <v>10</v>
@@ -13683,10 +13713,12 @@
       <c r="G320" s="19">
         <v>113</v>
       </c>
-      <c r="H320" s="19"/>
+      <c r="H320" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="I320" s="19"/>
       <c r="J320" s="22">
-        <v>45205.593604872498</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K320" s="19" t="s">
         <v>10</v>
@@ -13720,10 +13752,12 @@
       <c r="G321" s="19">
         <v>105</v>
       </c>
-      <c r="H321" s="19"/>
+      <c r="H321" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="I321" s="19"/>
       <c r="J321" s="22">
-        <v>45205.593605485898</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K321" s="19" t="s">
         <v>10</v>
@@ -13757,10 +13791,12 @@
       <c r="G322" s="19">
         <v>115</v>
       </c>
-      <c r="H322" s="19"/>
+      <c r="H322" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="I322" s="19"/>
       <c r="J322" s="22">
-        <v>45205.593606099297</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K322" s="19" t="s">
         <v>10</v>
@@ -13794,10 +13830,12 @@
       <c r="G323" s="19">
         <v>106</v>
       </c>
-      <c r="H323" s="19"/>
+      <c r="H323" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="I323" s="19"/>
       <c r="J323" s="22">
-        <v>45205.593606712697</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K323" s="19" t="s">
         <v>10</v>
@@ -13831,10 +13869,12 @@
       <c r="G324" s="19">
         <v>107</v>
       </c>
-      <c r="H324" s="19"/>
+      <c r="H324" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="I324" s="19"/>
       <c r="J324" s="22">
-        <v>45205.593607326198</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K324" s="19" t="s">
         <v>10</v>
@@ -13868,10 +13908,12 @@
       <c r="G325" s="19">
         <v>120</v>
       </c>
-      <c r="H325" s="19"/>
+      <c r="H325" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="I325" s="19"/>
       <c r="J325" s="22">
-        <v>45205.593607939598</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K325" s="19" t="s">
         <v>10</v>
@@ -13905,10 +13947,12 @@
       <c r="G326" s="19">
         <v>110</v>
       </c>
-      <c r="H326" s="19"/>
+      <c r="H326" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="I326" s="19"/>
       <c r="J326" s="22">
-        <v>45205.593608552997</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K326" s="19" t="s">
         <v>10</v>
@@ -13942,10 +13986,12 @@
       <c r="G327" s="19">
         <v>108</v>
       </c>
-      <c r="H327" s="19"/>
+      <c r="H327" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="I327" s="19"/>
       <c r="J327" s="22">
-        <v>45205.593609166397</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K327" s="19" t="s">
         <v>10</v>
@@ -13979,10 +14025,12 @@
       <c r="G328" s="19">
         <v>114</v>
       </c>
-      <c r="H328" s="19"/>
+      <c r="H328" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="I328" s="19"/>
       <c r="J328" s="22">
-        <v>45205.593609779797</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K328" s="19" t="s">
         <v>10</v>
@@ -14021,7 +14069,7 @@
       </c>
       <c r="I329" s="19"/>
       <c r="J329" s="22">
-        <v>45205.593610393298</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K329" s="19" t="s">
         <v>10</v>
@@ -14055,10 +14103,12 @@
       <c r="G330" s="19">
         <v>112</v>
       </c>
-      <c r="H330" s="19"/>
+      <c r="H330" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="I330" s="19"/>
       <c r="J330" s="22">
-        <v>45205.593611006698</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K330" s="19" t="s">
         <v>10</v>
@@ -14092,10 +14142,12 @@
       <c r="G331" s="19">
         <v>109</v>
       </c>
-      <c r="H331" s="19"/>
+      <c r="H331" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="I331" s="19"/>
       <c r="J331" s="22">
-        <v>45205.593611006698</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K331" s="19" t="s">
         <v>10</v>
@@ -14129,10 +14181,12 @@
       <c r="G332" s="19">
         <v>118</v>
       </c>
-      <c r="H332" s="19"/>
+      <c r="H332" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="I332" s="19"/>
       <c r="J332" s="22">
-        <v>45205.593611006698</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K332" s="19" t="s">
         <v>10</v>
@@ -14171,7 +14225,7 @@
       </c>
       <c r="I333" s="19"/>
       <c r="J333" s="22">
-        <v>45205.593611620097</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K333" s="19" t="s">
         <v>10</v>
@@ -14205,9 +14259,12 @@
       <c r="G334" s="19">
         <v>119</v>
       </c>
+      <c r="H334" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="I334" s="19"/>
       <c r="J334" s="22">
-        <v>45205.593611620097</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K334" s="19" t="s">
         <v>10</v>
@@ -14928,7 +14985,7 @@
       </c>
       <c r="I357" s="19"/>
       <c r="J357" s="22">
-        <v>45205.593962497202</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K357" s="19" t="s">
         <v>10</v>
@@ -14967,7 +15024,7 @@
       </c>
       <c r="I358" s="19"/>
       <c r="J358" s="22">
-        <v>45205.5939588166</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K358" s="19" t="s">
         <v>10</v>
@@ -15006,7 +15063,7 @@
       </c>
       <c r="I359" s="19"/>
       <c r="J359" s="22">
-        <v>45205.593959430102</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K359" s="19" t="s">
         <v>10</v>
@@ -15045,7 +15102,7 @@
       </c>
       <c r="I360" s="19"/>
       <c r="J360" s="22">
-        <v>45205.593960043501</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K360" s="19" t="s">
         <v>10</v>
@@ -15084,7 +15141,7 @@
       </c>
       <c r="I361" s="19"/>
       <c r="J361" s="22">
-        <v>45205.593960656901</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K361" s="19" t="s">
         <v>10</v>
@@ -15123,7 +15180,7 @@
       </c>
       <c r="I362" s="19"/>
       <c r="J362" s="22">
-        <v>45205.593949001901</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K362" s="19" t="s">
         <v>10</v>
@@ -15162,7 +15219,7 @@
       </c>
       <c r="I363" s="19"/>
       <c r="J363" s="22">
-        <v>45205.593949615301</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K363" s="19" t="s">
         <v>10</v>
@@ -15201,7 +15258,7 @@
       </c>
       <c r="I364" s="19"/>
       <c r="J364" s="22">
-        <v>45205.593944708002</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K364" s="19" t="s">
         <v>10</v>
@@ -15240,7 +15297,7 @@
       </c>
       <c r="I365" s="19"/>
       <c r="J365" s="22">
-        <v>45205.593951455601</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K365" s="19" t="s">
         <v>10</v>
@@ -15279,7 +15336,7 @@
       </c>
       <c r="I366" s="19"/>
       <c r="J366" s="22">
-        <v>45205.593952069001</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K366" s="19" t="s">
         <v>10</v>
@@ -15318,7 +15375,7 @@
       </c>
       <c r="I367" s="19"/>
       <c r="J367" s="22">
-        <v>45205.5939526824</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K367" s="19" t="s">
         <v>10</v>
@@ -15357,7 +15414,7 @@
       </c>
       <c r="I368" s="19"/>
       <c r="J368" s="22">
-        <v>45205.593953295902</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K368" s="19" t="s">
         <v>10</v>
@@ -15396,7 +15453,7 @@
       </c>
       <c r="I369" s="19"/>
       <c r="J369" s="22">
-        <v>45205.593953909301</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K369" s="19" t="s">
         <v>10</v>
@@ -15435,7 +15492,7 @@
       </c>
       <c r="I370" s="19"/>
       <c r="J370" s="22">
-        <v>45205.593954522701</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K370" s="19" t="s">
         <v>10</v>
@@ -15474,7 +15531,7 @@
       </c>
       <c r="I371" s="19"/>
       <c r="J371" s="22">
-        <v>45205.593955136101</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K371" s="19" t="s">
         <v>10</v>
@@ -15512,8 +15569,8 @@
         <v>512</v>
       </c>
       <c r="I372" s="19"/>
-      <c r="J372" s="22">
-        <v>45205.5939557495</v>
+      <c r="J372" s="25">
+        <v>45205.5940162037</v>
       </c>
       <c r="K372" s="19" t="s">
         <v>10</v>
@@ -15552,7 +15609,7 @@
       </c>
       <c r="I373" s="19"/>
       <c r="J373" s="22">
-        <v>45205.593956363002</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K373" s="19" t="s">
         <v>10</v>
@@ -15591,7 +15648,7 @@
       </c>
       <c r="I374" s="19"/>
       <c r="J374" s="22">
-        <v>45205.593956976401</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K374" s="19" t="s">
         <v>10</v>
@@ -15630,7 +15687,7 @@
       </c>
       <c r="I375" s="19"/>
       <c r="J375" s="22">
-        <v>45205.593957589801</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K375" s="19" t="s">
         <v>10</v>
@@ -15669,7 +15726,7 @@
       </c>
       <c r="I376" s="19"/>
       <c r="J376" s="22">
-        <v>45205.593957589801</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K376" s="19" t="s">
         <v>10</v>
@@ -15708,7 +15765,7 @@
       </c>
       <c r="I377" s="19"/>
       <c r="J377" s="22">
-        <v>45205.593958203201</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K377" s="19" t="s">
         <v>10</v>
@@ -15747,7 +15804,7 @@
       </c>
       <c r="I378" s="19"/>
       <c r="J378" s="22">
-        <v>45205.5939612703</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K378" s="19" t="s">
         <v>10</v>
@@ -15786,7 +15843,7 @@
       </c>
       <c r="I379" s="19"/>
       <c r="J379" s="22">
-        <v>45205.593961883802</v>
+        <v>45205.594020772201</v>
       </c>
       <c r="K379" s="19" t="s">
         <v>10</v>
@@ -32452,7 +32509,6 @@
       <c r="M921" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E921"/>
   <sortState ref="A2:M89">
     <sortCondition descending="1" ref="G73"/>
   </sortState>
@@ -33302,11 +33358,11 @@
       <c r="H1" t="s">
         <v>334</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -33330,9 +33386,9 @@
       <c r="G2" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -33356,9 +33412,9 @@
       <c r="G3" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -33382,9 +33438,9 @@
       <c r="G4" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -33408,9 +33464,9 @@
       <c r="G5" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -33434,9 +33490,9 @@
       <c r="G6" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -34241,7 +34297,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>446</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -34270,7 +34326,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="8" t="s">
         <v>392</v>
       </c>
@@ -34295,7 +34351,7 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="8" t="s">
         <v>455</v>
       </c>
@@ -34320,7 +34376,7 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="8" t="s">
         <v>394</v>
       </c>
@@ -34345,7 +34401,7 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="8" t="s">
         <v>395</v>
       </c>
@@ -34370,7 +34426,7 @@
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
         <v>396</v>
       </c>
@@ -34395,7 +34451,7 @@
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="8" t="s">
         <v>397</v>
       </c>

--- a/宜科电子/大庆沃尔沃总装物流PTL项目/大庆沃尔沃PTL项目信息汇总.xlsx
+++ b/宜科电子/大庆沃尔沃总装物流PTL项目/大庆沃尔沃PTL项目信息汇总.xlsx
@@ -1826,7 +1826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1895,6 +1895,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2227,10 +2229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M921"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J322" sqref="J322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2244,7 +2247,7 @@
     <col min="7" max="7" width="12.453125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.26953125" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" style="31" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.36328125" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.453125" style="14" bestFit="1" customWidth="1"/>
@@ -2279,7 +2282,7 @@
       <c r="I1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="30" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="19" t="s">
@@ -2292,7 +2295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>740</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>746</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="20">
         <v>1</v>
@@ -2407,7 +2410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="15">
         <v>1</v>
@@ -2444,7 +2447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="15">
         <v>1</v>
@@ -2480,7 +2483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>863</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>745</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>740</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>748</v>
       </c>
@@ -2636,7 +2639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>766</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>746</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>736</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>765</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="20">
         <v>1</v>
@@ -2829,7 +2832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>229</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>226</v>
       </c>
@@ -2907,7 +2910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>735</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>744</v>
       </c>
@@ -2985,7 +2988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>737</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>759</v>
       </c>
@@ -3063,7 +3066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>761</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>760</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>626</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>84</v>
       </c>
@@ -3219,7 +3222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>635</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>632</v>
       </c>
@@ -3297,7 +3300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>632</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>627</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>635</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>632</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>632</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>638</v>
       </c>
@@ -3531,7 +3534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>631</v>
       </c>
@@ -3570,7 +3573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>617</v>
       </c>
@@ -3609,7 +3612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>614</v>
       </c>
@@ -3648,7 +3651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>614</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>609</v>
       </c>
@@ -3726,7 +3729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>635</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>615</v>
       </c>
@@ -3804,7 +3807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>613</v>
       </c>
@@ -3843,7 +3846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>625</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>611</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>621</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>620</v>
       </c>
@@ -3999,7 +4002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>624</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>635</v>
       </c>
@@ -4077,7 +4080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>637</v>
       </c>
@@ -4116,7 +4119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>636</v>
       </c>
@@ -4155,7 +4158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>622</v>
       </c>
@@ -4194,7 +4197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>612</v>
       </c>
@@ -4233,7 +4236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>616</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>608</v>
       </c>
@@ -4311,7 +4314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>634</v>
       </c>
@@ -4350,7 +4353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>633</v>
       </c>
@@ -4389,7 +4392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>610</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>619</v>
       </c>
@@ -4467,7 +4470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>623</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>613</v>
       </c>
@@ -4545,7 +4548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>628</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>618</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>630</v>
       </c>
@@ -4662,7 +4665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>629</v>
       </c>
@@ -4701,7 +4704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>228</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>227</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>739</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>749</v>
       </c>
@@ -4857,7 +4860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>752</v>
       </c>
@@ -4896,7 +4899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>758</v>
       </c>
@@ -4935,7 +4938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>744</v>
       </c>
@@ -4974,7 +4977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>744</v>
       </c>
@@ -5013,7 +5016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>764</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>743</v>
       </c>
@@ -5091,7 +5094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>744</v>
       </c>
@@ -5130,7 +5133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>762</v>
       </c>
@@ -5169,7 +5172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>756</v>
       </c>
@@ -5208,7 +5211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>757</v>
       </c>
@@ -5247,7 +5250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>745</v>
       </c>
@@ -5286,7 +5289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>745</v>
       </c>
@@ -5325,7 +5328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>751</v>
       </c>
@@ -5364,7 +5367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>742</v>
       </c>
@@ -5403,7 +5406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>741</v>
       </c>
@@ -5442,7 +5445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>754</v>
       </c>
@@ -5481,7 +5484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>755</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>753</v>
       </c>
@@ -5559,7 +5562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>763</v>
       </c>
@@ -5598,7 +5601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>763</v>
       </c>
@@ -5637,7 +5640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>763</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>763</v>
       </c>
@@ -5715,7 +5718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>92</v>
       </c>
@@ -5754,7 +5757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>94</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>89</v>
       </c>
@@ -5832,7 +5835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>503</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>518</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>497</v>
       </c>
@@ -5949,7 +5952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>504</v>
       </c>
@@ -5988,7 +5991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>493</v>
       </c>
@@ -6027,7 +6030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>498</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>398</v>
       </c>
@@ -6105,7 +6108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>396</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>393</v>
       </c>
@@ -6183,7 +6186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>399</v>
       </c>
@@ -6222,7 +6225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>392</v>
       </c>
@@ -6261,7 +6264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>395</v>
       </c>
@@ -6300,7 +6303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>397</v>
       </c>
@@ -6339,7 +6342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>84</v>
       </c>
@@ -6378,7 +6381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>90</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19">
         <v>93</v>
       </c>
@@ -6456,7 +6459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19">
         <v>95</v>
       </c>
@@ -6495,7 +6498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19">
         <v>85</v>
       </c>
@@ -6534,7 +6537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="19">
         <v>394</v>
       </c>
@@ -6573,7 +6576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="19">
         <v>577</v>
       </c>
@@ -6612,7 +6615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="19">
         <v>576</v>
       </c>
@@ -6651,7 +6654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="19">
         <v>575</v>
       </c>
@@ -6690,7 +6693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="19">
         <v>574</v>
       </c>
@@ -6729,7 +6732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="19">
         <v>583</v>
       </c>
@@ -6768,7 +6771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="19">
         <v>582</v>
       </c>
@@ -6807,7 +6810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="19">
         <v>573</v>
       </c>
@@ -6846,7 +6849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
         <v>572</v>
       </c>
@@ -6885,7 +6888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="19">
         <v>86</v>
       </c>
@@ -6924,7 +6927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="19">
         <v>87</v>
       </c>
@@ -6963,7 +6966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
         <v>88</v>
       </c>
@@ -7002,7 +7005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
       <c r="B123" s="20">
         <v>3</v>
@@ -7037,7 +7040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
       <c r="B124" s="20">
         <v>3</v>
@@ -7072,7 +7075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="20">
         <v>3</v>
@@ -7107,7 +7110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
       <c r="B126" s="20">
         <v>3</v>
@@ -7142,7 +7145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
         <v>579</v>
       </c>
@@ -7181,7 +7184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
         <v>578</v>
       </c>
@@ -7220,7 +7223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="19">
         <v>581</v>
       </c>
@@ -7259,7 +7262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="19">
         <v>580</v>
       </c>
@@ -7298,7 +7301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="19">
         <v>151</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="19">
         <v>133</v>
       </c>
@@ -7376,7 +7379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="19">
         <v>152</v>
       </c>
@@ -7415,7 +7418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="19">
         <v>141</v>
       </c>
@@ -7454,7 +7457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="19">
         <v>134</v>
       </c>
@@ -7493,7 +7496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="19"/>
       <c r="B136" s="20">
         <v>3</v>
@@ -7530,7 +7533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="19"/>
       <c r="B137" s="20">
         <v>3</v>
@@ -7567,7 +7570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="19">
         <v>279</v>
       </c>
@@ -7606,7 +7609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="19">
         <v>282</v>
       </c>
@@ -7645,7 +7648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="19">
         <v>280</v>
       </c>
@@ -7684,7 +7687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="19">
         <v>276</v>
       </c>
@@ -7723,7 +7726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="19">
         <v>281</v>
       </c>
@@ -7762,7 +7765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="19">
         <v>278</v>
       </c>
@@ -7801,7 +7804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="19">
         <v>277</v>
       </c>
@@ -7840,7 +7843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="19"/>
       <c r="B145" s="20">
         <v>3</v>
@@ -7877,7 +7880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="19">
         <v>132</v>
       </c>
@@ -7916,7 +7919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="19">
         <v>138</v>
       </c>
@@ -7955,7 +7958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="19">
         <v>144</v>
       </c>
@@ -7994,7 +7997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="19">
         <v>135</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="19">
         <v>143</v>
       </c>
@@ -8072,7 +8075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="19">
         <v>150</v>
       </c>
@@ -8111,7 +8114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="19">
         <v>146</v>
       </c>
@@ -8150,7 +8153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="19">
         <v>145</v>
       </c>
@@ -8189,7 +8192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="19">
         <v>149</v>
       </c>
@@ -8228,7 +8231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="19">
         <v>136</v>
       </c>
@@ -8267,7 +8270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="19">
         <v>148</v>
       </c>
@@ -8306,7 +8309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="19">
         <v>147</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="19">
         <v>137</v>
       </c>
@@ -8384,7 +8387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="19">
         <v>388</v>
       </c>
@@ -8423,7 +8426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="19">
         <v>387</v>
       </c>
@@ -8462,7 +8465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="19">
         <v>390</v>
       </c>
@@ -8501,7 +8504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="19">
         <v>730</v>
       </c>
@@ -8540,7 +8543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="19">
         <v>139</v>
       </c>
@@ -8579,7 +8582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="19">
         <v>140</v>
       </c>
@@ -8618,7 +8621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="19">
         <v>142</v>
       </c>
@@ -8657,7 +8660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="19">
         <v>727</v>
       </c>
@@ -8696,7 +8699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="19">
         <v>734</v>
       </c>
@@ -8735,7 +8738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="19">
         <v>731</v>
       </c>
@@ -8774,7 +8777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="19">
         <v>728</v>
       </c>
@@ -8813,7 +8816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="19">
         <v>729</v>
       </c>
@@ -8852,7 +8855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="19">
         <v>732</v>
       </c>
@@ -8891,7 +8894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="19">
         <v>733</v>
       </c>
@@ -8930,7 +8933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="19">
         <v>386</v>
       </c>
@@ -8969,7 +8972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="19">
         <v>389</v>
       </c>
@@ -9008,7 +9011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="19">
         <v>404</v>
       </c>
@@ -9047,7 +9050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="19">
         <v>407</v>
       </c>
@@ -9086,7 +9089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="19">
         <v>401</v>
       </c>
@@ -9125,7 +9128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="19">
         <v>403</v>
       </c>
@@ -9164,7 +9167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="19">
         <v>405</v>
       </c>
@@ -9203,7 +9206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="19">
         <v>400</v>
       </c>
@@ -9242,7 +9245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="19">
         <v>402</v>
       </c>
@@ -9281,7 +9284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="19">
         <v>409</v>
       </c>
@@ -9320,7 +9323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="19">
         <v>406</v>
       </c>
@@ -9359,7 +9362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="19">
         <v>408</v>
       </c>
@@ -9398,7 +9401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="19">
         <v>420</v>
       </c>
@@ -9437,7 +9440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="19">
         <v>424</v>
       </c>
@@ -9476,7 +9479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="19">
         <v>421</v>
       </c>
@@ -9515,7 +9518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="19">
         <v>373</v>
       </c>
@@ -9554,7 +9557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="19">
         <v>372</v>
       </c>
@@ -9593,7 +9596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="19">
         <v>374</v>
       </c>
@@ -9632,7 +9635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="19">
         <v>368</v>
       </c>
@@ -9671,7 +9674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="19">
         <v>371</v>
       </c>
@@ -9710,7 +9713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="19">
         <v>370</v>
       </c>
@@ -9749,7 +9752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="19">
         <v>369</v>
       </c>
@@ -9788,7 +9791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="19">
         <v>423</v>
       </c>
@@ -9827,7 +9830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="19">
         <v>419</v>
       </c>
@@ -9866,7 +9869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="19">
         <v>864</v>
       </c>
@@ -9893,7 +9896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="19">
         <v>288</v>
       </c>
@@ -9924,7 +9927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="19">
         <v>323</v>
       </c>
@@ -9955,7 +9958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="19">
         <v>324</v>
       </c>
@@ -9986,7 +9989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="19">
         <v>298</v>
       </c>
@@ -10017,7 +10020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="19">
         <v>299</v>
       </c>
@@ -10048,7 +10051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="19">
         <v>333</v>
       </c>
@@ -10079,7 +10082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="19">
         <v>334</v>
       </c>
@@ -10110,7 +10113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="19">
         <v>5</v>
       </c>
@@ -10141,7 +10144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="19">
         <v>9</v>
       </c>
@@ -10172,7 +10175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="19">
         <v>289</v>
       </c>
@@ -10203,7 +10206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="19">
         <v>8</v>
       </c>
@@ -10234,7 +10237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="19">
         <v>12</v>
       </c>
@@ -10265,7 +10268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="19">
         <v>6</v>
       </c>
@@ -10296,7 +10299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="19">
         <v>10</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="19">
         <v>211</v>
       </c>
@@ -10358,7 +10361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="19">
         <v>212</v>
       </c>
@@ -10389,7 +10392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="19">
         <v>213</v>
       </c>
@@ -10420,7 +10423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="19">
         <v>214</v>
       </c>
@@ -10451,7 +10454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="19">
         <v>290</v>
       </c>
@@ -10482,7 +10485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="19">
         <v>291</v>
       </c>
@@ -10513,7 +10516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="19">
         <v>306</v>
       </c>
@@ -10544,7 +10547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="19">
         <v>341</v>
       </c>
@@ -10575,7 +10578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="19">
         <v>342</v>
       </c>
@@ -10606,7 +10609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="19">
         <v>325</v>
       </c>
@@ -10637,7 +10640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="19">
         <v>326</v>
       </c>
@@ -10668,7 +10671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="19">
         <v>331</v>
       </c>
@@ -10699,7 +10702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="19">
         <v>332</v>
       </c>
@@ -10730,7 +10733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="19">
         <v>296</v>
       </c>
@@ -10761,7 +10764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="19">
         <v>297</v>
       </c>
@@ -10792,7 +10795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="19">
         <v>307</v>
       </c>
@@ -10823,7 +10826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="19">
         <v>294</v>
       </c>
@@ -10854,7 +10857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="19">
         <v>295</v>
       </c>
@@ -10885,7 +10888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="19">
         <v>292</v>
       </c>
@@ -10916,7 +10919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="19">
         <v>293</v>
       </c>
@@ -10947,7 +10950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="19">
         <v>327</v>
       </c>
@@ -10978,7 +10981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="19">
         <v>328</v>
       </c>
@@ -11009,7 +11012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="19">
         <v>329</v>
       </c>
@@ -11040,7 +11043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="19">
         <v>330</v>
       </c>
@@ -11071,7 +11074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="19">
         <v>14</v>
       </c>
@@ -11102,7 +11105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="19">
         <v>15</v>
       </c>
@@ -11133,7 +11136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="19">
         <v>16</v>
       </c>
@@ -11164,7 +11167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="19">
         <v>18</v>
       </c>
@@ -11195,7 +11198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="19">
         <v>19</v>
       </c>
@@ -11226,7 +11229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="19">
         <v>20</v>
       </c>
@@ -11257,7 +11260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="19">
         <v>21</v>
       </c>
@@ -11288,7 +11291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="19">
         <v>22</v>
       </c>
@@ -11319,7 +11322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="19">
         <v>23</v>
       </c>
@@ -11350,7 +11353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="19">
         <v>24</v>
       </c>
@@ -11381,7 +11384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="19">
         <v>25</v>
       </c>
@@ -11412,7 +11415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="19">
         <v>26</v>
       </c>
@@ -11443,7 +11446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="19">
         <v>28</v>
       </c>
@@ -11474,7 +11477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="19">
         <v>29</v>
       </c>
@@ -11505,7 +11508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="19">
         <v>30</v>
       </c>
@@ -11536,7 +11539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="19">
         <v>42</v>
       </c>
@@ -11567,7 +11570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="19">
         <v>43</v>
       </c>
@@ -11598,7 +11601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="19">
         <v>44</v>
       </c>
@@ -11629,7 +11632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="19">
         <v>46</v>
       </c>
@@ -11660,7 +11663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="19">
         <v>47</v>
       </c>
@@ -11691,7 +11694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="19">
         <v>48</v>
       </c>
@@ -11722,7 +11725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="19">
         <v>49</v>
       </c>
@@ -11753,7 +11756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="19">
         <v>50</v>
       </c>
@@ -11784,7 +11787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="19">
         <v>51</v>
       </c>
@@ -11815,7 +11818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="19">
         <v>52</v>
       </c>
@@ -11846,7 +11849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="19">
         <v>53</v>
       </c>
@@ -11877,7 +11880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="19">
         <v>54</v>
       </c>
@@ -11908,7 +11911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="19">
         <v>55</v>
       </c>
@@ -11939,7 +11942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="19">
         <v>56</v>
       </c>
@@ -11970,7 +11973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="19">
         <v>57</v>
       </c>
@@ -12001,7 +12004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="19">
         <v>58</v>
       </c>
@@ -12032,7 +12035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="19">
         <v>59</v>
       </c>
@@ -12063,7 +12066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="19">
         <v>60</v>
       </c>
@@ -12094,7 +12097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="19">
         <v>61</v>
       </c>
@@ -12125,7 +12128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="19">
         <v>62</v>
       </c>
@@ -12156,7 +12159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="19">
         <v>63</v>
       </c>
@@ -12187,7 +12190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="19">
         <v>64</v>
       </c>
@@ -12218,7 +12221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="19">
         <v>65</v>
       </c>
@@ -12249,7 +12252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="19">
         <v>66</v>
       </c>
@@ -12280,7 +12283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="19">
         <v>27</v>
       </c>
@@ -12311,7 +12314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="19">
         <v>110</v>
       </c>
@@ -12342,7 +12345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="19">
         <v>111</v>
       </c>
@@ -12373,7 +12376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="19">
         <v>112</v>
       </c>
@@ -12404,7 +12407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="19">
         <v>113</v>
       </c>
@@ -12435,7 +12438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="19">
         <v>114</v>
       </c>
@@ -12466,7 +12469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="19">
         <v>115</v>
       </c>
@@ -12497,7 +12500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="19">
         <v>116</v>
       </c>
@@ -12528,7 +12531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="19">
         <v>117</v>
       </c>
@@ -12559,7 +12562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="19">
         <v>118</v>
       </c>
@@ -12590,7 +12593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="19">
         <v>119</v>
       </c>
@@ -12621,7 +12624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="19">
         <v>120</v>
       </c>
@@ -12652,7 +12655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="19">
         <v>121</v>
       </c>
@@ -12683,7 +12686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="19">
         <v>122</v>
       </c>
@@ -12714,7 +12717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="19">
         <v>123</v>
       </c>
@@ -12745,7 +12748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="19">
         <v>124</v>
       </c>
@@ -12776,7 +12779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="19">
         <v>125</v>
       </c>
@@ -12807,7 +12810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="19">
         <v>126</v>
       </c>
@@ -12838,7 +12841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="19">
         <v>127</v>
       </c>
@@ -12869,7 +12872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="19">
         <v>128</v>
       </c>
@@ -12900,7 +12903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="19">
         <v>129</v>
       </c>
@@ -12931,7 +12934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="19">
         <v>130</v>
       </c>
@@ -12962,7 +12965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="19">
         <v>131</v>
       </c>
@@ -12993,7 +12996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="19">
         <v>836</v>
       </c>
@@ -13024,7 +13027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="19">
         <v>837</v>
       </c>
@@ -13055,7 +13058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="19">
         <v>843</v>
       </c>
@@ -13086,7 +13089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="19">
         <v>844</v>
       </c>
@@ -13117,7 +13120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="19">
         <v>847</v>
       </c>
@@ -13148,7 +13151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="19">
         <v>857</v>
       </c>
@@ -13179,7 +13182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="19">
         <v>546</v>
       </c>
@@ -13210,7 +13213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="19">
         <v>552</v>
       </c>
@@ -13241,7 +13244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="19">
         <v>553</v>
       </c>
@@ -13272,7 +13275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="19">
         <v>557</v>
       </c>
@@ -13303,7 +13306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="19">
         <v>558</v>
       </c>
@@ -13334,7 +13337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="19">
         <v>809</v>
       </c>
@@ -13365,7 +13368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="19">
         <v>823</v>
       </c>
@@ -13396,7 +13399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="19">
         <v>829</v>
       </c>
@@ -13427,7 +13430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="19">
         <v>835</v>
       </c>
@@ -13458,7 +13461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="19">
         <v>872</v>
       </c>
@@ -13489,7 +13492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="19">
         <v>878</v>
       </c>
@@ -13520,7 +13523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="19">
         <v>880</v>
       </c>
@@ -13551,7 +13554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="19">
         <v>79</v>
       </c>
@@ -13582,7 +13585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="19">
         <v>91</v>
       </c>
@@ -13615,32 +13618,32 @@
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="19">
-        <v>96</v>
+        <v>607</v>
       </c>
       <c r="B318" s="20">
         <v>2</v>
       </c>
       <c r="C318" s="19" t="s">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="D318" s="21">
-        <v>32245970</v>
+        <v>32211930</v>
       </c>
       <c r="E318" s="23" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="F318" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G318" s="19">
-        <v>117</v>
-      </c>
-      <c r="H318" s="19" t="s">
-        <v>384</v>
+        <v>1</v>
+      </c>
+      <c r="H318" s="18" t="s">
+        <v>511</v>
       </c>
       <c r="I318" s="19"/>
-      <c r="J318" s="22">
-        <v>45205.594020772201</v>
+      <c r="J318" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K318" s="19" t="s">
         <v>10</v>
@@ -13654,32 +13657,32 @@
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="19">
-        <v>97</v>
+        <v>606</v>
       </c>
       <c r="B319" s="20">
         <v>2</v>
       </c>
       <c r="C319" s="19" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="D319" s="21">
-        <v>32245973</v>
+        <v>31658380</v>
       </c>
       <c r="E319" s="23" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="F319" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G319" s="19">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="H319" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I319" s="19"/>
-      <c r="J319" s="22">
-        <v>45205.594020772201</v>
+      <c r="J319" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K319" s="19" t="s">
         <v>10</v>
@@ -13693,32 +13696,32 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="19">
-        <v>98</v>
+        <v>603</v>
       </c>
       <c r="B320" s="20">
         <v>2</v>
       </c>
       <c r="C320" s="19" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="D320" s="21">
-        <v>32320073</v>
+        <v>31360873</v>
       </c>
       <c r="E320" s="23" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="F320" s="20">
+        <v>1</v>
+      </c>
+      <c r="G320" s="19">
         <v>3</v>
-      </c>
-      <c r="G320" s="19">
-        <v>113</v>
       </c>
       <c r="H320" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I320" s="19"/>
-      <c r="J320" s="22">
-        <v>45205.594020772201</v>
+      <c r="J320" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K320" s="19" t="s">
         <v>10</v>
@@ -13732,32 +13735,32 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="19">
-        <v>99</v>
+        <v>604</v>
       </c>
       <c r="B321" s="20">
         <v>2</v>
       </c>
       <c r="C321" s="19" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="D321" s="21">
-        <v>32320074</v>
+        <v>31360909</v>
       </c>
       <c r="E321" s="23" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="F321" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G321" s="19">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="H321" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I321" s="19"/>
-      <c r="J321" s="22">
-        <v>45205.594020772201</v>
+      <c r="J321" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K321" s="19" t="s">
         <v>10</v>
@@ -13771,32 +13774,32 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="19">
-        <v>100</v>
+        <v>605</v>
       </c>
       <c r="B322" s="20">
         <v>2</v>
       </c>
       <c r="C322" s="19" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="D322" s="21">
-        <v>32320075</v>
+        <v>31429274</v>
       </c>
       <c r="E322" s="23" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="F322" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G322" s="19">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="H322" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I322" s="19"/>
-      <c r="J322" s="22">
-        <v>45205.594020772201</v>
+      <c r="J322" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K322" s="19" t="s">
         <v>10</v>
@@ -13810,32 +13813,32 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="19">
-        <v>101</v>
+        <v>590</v>
       </c>
       <c r="B323" s="20">
         <v>2</v>
       </c>
       <c r="C323" s="19" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="D323" s="21">
-        <v>32320076</v>
+        <v>32269384</v>
       </c>
       <c r="E323" s="23" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="F323" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G323" s="19">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="H323" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I323" s="19"/>
-      <c r="J323" s="22">
-        <v>45205.594020772201</v>
+      <c r="J323" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K323" s="19" t="s">
         <v>10</v>
@@ -13849,32 +13852,32 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="19">
-        <v>102</v>
+        <v>602</v>
       </c>
       <c r="B324" s="20">
         <v>2</v>
       </c>
       <c r="C324" s="19" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="D324" s="21">
-        <v>32344966</v>
+        <v>32346016</v>
       </c>
       <c r="E324" s="23" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="F324" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G324" s="19">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="H324" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I324" s="19"/>
-      <c r="J324" s="22">
-        <v>45205.594020772201</v>
+      <c r="J324" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K324" s="19" t="s">
         <v>10</v>
@@ -13888,32 +13891,32 @@
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="19">
-        <v>103</v>
+        <v>600</v>
       </c>
       <c r="B325" s="20">
         <v>2</v>
       </c>
       <c r="C325" s="19" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="D325" s="21">
-        <v>32344967</v>
+        <v>32269450</v>
       </c>
       <c r="E325" s="23" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="F325" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G325" s="19">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="H325" s="19" t="s">
-        <v>384</v>
+        <v>512</v>
       </c>
       <c r="I325" s="19"/>
-      <c r="J325" s="22">
-        <v>45205.594020772201</v>
+      <c r="J325" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K325" s="19" t="s">
         <v>10</v>
@@ -13927,32 +13930,32 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="19">
-        <v>104</v>
+        <v>587</v>
       </c>
       <c r="B326" s="20">
         <v>2</v>
       </c>
       <c r="C326" s="19" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="D326" s="21">
-        <v>32356651</v>
+        <v>32269378</v>
       </c>
       <c r="E326" s="23" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="F326" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G326" s="19">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="H326" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I326" s="19"/>
-      <c r="J326" s="22">
-        <v>45205.594020772201</v>
+      <c r="J326" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K326" s="19" t="s">
         <v>10</v>
@@ -13966,32 +13969,32 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="19">
-        <v>105</v>
+        <v>592</v>
       </c>
       <c r="B327" s="20">
         <v>2</v>
       </c>
       <c r="C327" s="19" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="D327" s="21">
-        <v>32356652</v>
+        <v>32269386</v>
       </c>
       <c r="E327" s="23" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="F327" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G327" s="19">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="H327" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I327" s="19"/>
-      <c r="J327" s="22">
-        <v>45205.594020772201</v>
+      <c r="J327" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K327" s="19" t="s">
         <v>10</v>
@@ -14005,32 +14008,32 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="19">
-        <v>106</v>
+        <v>591</v>
       </c>
       <c r="B328" s="20">
         <v>2</v>
       </c>
       <c r="C328" s="19" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="D328" s="21">
-        <v>32371276</v>
+        <v>32269385</v>
       </c>
       <c r="E328" s="23" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="F328" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G328" s="19">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="H328" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I328" s="19"/>
-      <c r="J328" s="22">
-        <v>45205.594020772201</v>
+      <c r="J328" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K328" s="19" t="s">
         <v>10</v>
@@ -14044,32 +14047,32 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="19">
-        <v>107</v>
+        <v>586</v>
       </c>
       <c r="B329" s="20">
         <v>2</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="D329" s="21">
-        <v>32374210</v>
+        <v>31658548</v>
       </c>
       <c r="E329" s="23" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="F329" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G329" s="19">
-        <v>121</v>
-      </c>
-      <c r="H329" s="18" t="s">
-        <v>510</v>
+        <v>57</v>
+      </c>
+      <c r="H329" s="19" t="s">
+        <v>384</v>
       </c>
       <c r="I329" s="19"/>
-      <c r="J329" s="22">
-        <v>45205.594020772201</v>
+      <c r="J329" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K329" s="19" t="s">
         <v>10</v>
@@ -14083,32 +14086,32 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="19">
-        <v>108</v>
+        <v>593</v>
       </c>
       <c r="B330" s="20">
         <v>2</v>
       </c>
       <c r="C330" s="19" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="D330" s="21">
-        <v>32374212</v>
+        <v>32269387</v>
       </c>
       <c r="E330" s="23" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="F330" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G330" s="19">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="H330" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I330" s="19"/>
-      <c r="J330" s="22">
-        <v>45205.594020772201</v>
+      <c r="J330" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K330" s="19" t="s">
         <v>10</v>
@@ -14122,32 +14125,32 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="19">
-        <v>108</v>
+        <v>594</v>
       </c>
       <c r="B331" s="20">
         <v>2</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="D331" s="21">
-        <v>32374213</v>
+        <v>32269388</v>
       </c>
       <c r="E331" s="23" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="F331" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G331" s="19">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="H331" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I331" s="19"/>
-      <c r="J331" s="22">
-        <v>45205.594020772201</v>
+      <c r="J331" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K331" s="19" t="s">
         <v>10</v>
@@ -14161,32 +14164,32 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="19">
-        <v>108</v>
+        <v>597</v>
       </c>
       <c r="B332" s="20">
         <v>2</v>
       </c>
       <c r="C332" s="19" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="D332" s="21">
-        <v>32374214</v>
+        <v>32281437</v>
       </c>
       <c r="E332" s="23" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="F332" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G332" s="19">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="H332" s="19" t="s">
-        <v>384</v>
+        <v>512</v>
       </c>
       <c r="I332" s="19"/>
-      <c r="J332" s="22">
-        <v>45205.594020772201</v>
+      <c r="J332" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K332" s="19" t="s">
         <v>10</v>
@@ -14200,32 +14203,32 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="19">
-        <v>109</v>
+        <v>589</v>
       </c>
       <c r="B333" s="20">
         <v>2</v>
       </c>
       <c r="C333" s="19" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="D333" s="21">
-        <v>32374239</v>
+        <v>32269383</v>
       </c>
       <c r="E333" s="23" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="F333" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G333" s="19">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="H333" s="19" t="s">
-        <v>384</v>
+        <v>512</v>
       </c>
       <c r="I333" s="19"/>
-      <c r="J333" s="22">
-        <v>45205.594020772201</v>
+      <c r="J333" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K333" s="19" t="s">
         <v>10</v>
@@ -14239,32 +14242,32 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="19">
-        <v>109</v>
+        <v>595</v>
       </c>
       <c r="B334" s="20">
         <v>2</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="D334" s="21">
-        <v>32374136</v>
+        <v>32269404</v>
       </c>
       <c r="E334" s="23" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="F334" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G334" s="19">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="H334" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I334" s="19"/>
-      <c r="J334" s="22">
-        <v>45205.594020772201</v>
+      <c r="J334" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K334" s="19" t="s">
         <v>10</v>
@@ -14276,7 +14279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="19">
         <v>488</v>
       </c>
@@ -14307,7 +14310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="19">
         <v>489</v>
       </c>
@@ -14338,7 +14341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="19">
         <v>490</v>
       </c>
@@ -14369,7 +14372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="19">
         <v>491</v>
       </c>
@@ -14400,7 +14403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="19">
         <v>492</v>
       </c>
@@ -14431,7 +14434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="19">
         <v>866</v>
       </c>
@@ -14462,7 +14465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="19">
         <v>867</v>
       </c>
@@ -14493,7 +14496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="19">
         <v>870</v>
       </c>
@@ -14524,7 +14527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="19">
         <v>875</v>
       </c>
@@ -14555,7 +14558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="19">
         <v>455</v>
       </c>
@@ -14586,7 +14589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="19">
         <v>456</v>
       </c>
@@ -14617,7 +14620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="19">
         <v>459</v>
       </c>
@@ -14648,7 +14651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="19">
         <v>462</v>
       </c>
@@ -14679,7 +14682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="19">
         <v>219</v>
       </c>
@@ -14710,7 +14713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="19">
         <v>224</v>
       </c>
@@ -14741,7 +14744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="19">
         <v>218</v>
       </c>
@@ -14772,7 +14775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="19">
         <v>427</v>
       </c>
@@ -14803,7 +14806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="19">
         <v>428</v>
       </c>
@@ -14834,7 +14837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="19">
         <v>431</v>
       </c>
@@ -14865,7 +14868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="19">
         <v>432</v>
       </c>
@@ -14896,7 +14899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="19">
         <v>429</v>
       </c>
@@ -14927,7 +14930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="19">
         <v>430</v>
       </c>
@@ -14960,32 +14963,32 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" s="19">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B357" s="20">
         <v>2</v>
       </c>
       <c r="C357" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D357" s="21">
-        <v>31658380</v>
+        <v>32329455</v>
       </c>
       <c r="E357" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F357" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G357" s="19">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="H357" s="19" t="s">
-        <v>384</v>
+        <v>512</v>
       </c>
       <c r="I357" s="19"/>
-      <c r="J357" s="22">
-        <v>45205.594020772201</v>
+      <c r="J357" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K357" s="19" t="s">
         <v>10</v>
@@ -14999,32 +15002,32 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" s="19">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B358" s="20">
         <v>2</v>
       </c>
       <c r="C358" s="19" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D358" s="21">
-        <v>31429274</v>
+        <v>32269405</v>
       </c>
       <c r="E358" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F358" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G358" s="19">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="H358" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I358" s="19"/>
-      <c r="J358" s="22">
-        <v>45205.594020772201</v>
+      <c r="J358" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K358" s="19" t="s">
         <v>10</v>
@@ -15038,32 +15041,32 @@
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" s="19">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B359" s="20">
         <v>2</v>
       </c>
       <c r="C359" s="19" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D359" s="21">
-        <v>32211930</v>
+        <v>32346012</v>
       </c>
       <c r="E359" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F359" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G359" s="19">
-        <v>1</v>
-      </c>
-      <c r="H359" s="18" t="s">
-        <v>511</v>
+        <v>101</v>
+      </c>
+      <c r="H359" s="19" t="s">
+        <v>384</v>
       </c>
       <c r="I359" s="19"/>
-      <c r="J359" s="22">
-        <v>45205.594020772201</v>
+      <c r="J359" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K359" s="19" t="s">
         <v>10</v>
@@ -15077,32 +15080,32 @@
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" s="19">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="B360" s="20">
         <v>2</v>
       </c>
       <c r="C360" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D360" s="21">
-        <v>31360873</v>
+        <v>32269379</v>
       </c>
       <c r="E360" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F360" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G360" s="19">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="H360" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I360" s="19"/>
-      <c r="J360" s="22">
-        <v>45205.594020772201</v>
+      <c r="J360" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K360" s="19" t="s">
         <v>10</v>
@@ -15116,32 +15119,32 @@
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" s="19">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B361" s="20">
         <v>2</v>
       </c>
       <c r="C361" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D361" s="21">
-        <v>31360909</v>
+        <v>32333165</v>
       </c>
       <c r="E361" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F361" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G361" s="19">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="H361" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I361" s="19"/>
-      <c r="J361" s="22">
-        <v>45205.594020772201</v>
+      <c r="J361" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K361" s="19" t="s">
         <v>10</v>
@@ -15155,32 +15158,32 @@
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="19">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="B362" s="20">
         <v>2</v>
       </c>
       <c r="C362" s="19" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D362" s="21">
-        <v>32269378</v>
+        <v>32329454</v>
       </c>
       <c r="E362" s="23" t="s">
         <v>240</v>
       </c>
       <c r="F362" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G362" s="19">
-        <v>54</v>
-      </c>
-      <c r="H362" s="19" t="s">
-        <v>384</v>
+        <v>104</v>
+      </c>
+      <c r="H362" s="18" t="s">
+        <v>509</v>
       </c>
       <c r="I362" s="19"/>
-      <c r="J362" s="22">
-        <v>45205.594020772201</v>
+      <c r="J362" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K362" s="19" t="s">
         <v>10</v>
@@ -15194,32 +15197,32 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" s="19">
-        <v>588</v>
+        <v>99</v>
       </c>
       <c r="B363" s="20">
         <v>2</v>
       </c>
       <c r="C363" s="19" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="D363" s="21">
-        <v>32269379</v>
+        <v>32320074</v>
       </c>
       <c r="E363" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F363" s="20">
         <v>3</v>
       </c>
       <c r="G363" s="19">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H363" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I363" s="19"/>
-      <c r="J363" s="22">
-        <v>45205.594020772201</v>
+      <c r="J363" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K363" s="19" t="s">
         <v>10</v>
@@ -15233,32 +15236,32 @@
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" s="19">
-        <v>591</v>
+        <v>101</v>
       </c>
       <c r="B364" s="20">
         <v>2</v>
       </c>
       <c r="C364" s="19" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="D364" s="21">
-        <v>32269385</v>
+        <v>32320076</v>
       </c>
       <c r="E364" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F364" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G364" s="19">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="H364" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I364" s="19"/>
-      <c r="J364" s="22">
-        <v>45205.594020772201</v>
+      <c r="J364" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K364" s="19" t="s">
         <v>10</v>
@@ -15272,32 +15275,32 @@
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" s="19">
-        <v>592</v>
+        <v>102</v>
       </c>
       <c r="B365" s="20">
         <v>2</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="D365" s="21">
-        <v>32269386</v>
+        <v>32344966</v>
       </c>
       <c r="E365" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F365" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G365" s="19">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="H365" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I365" s="19"/>
-      <c r="J365" s="22">
-        <v>45205.594020772201</v>
+      <c r="J365" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K365" s="19" t="s">
         <v>10</v>
@@ -15311,32 +15314,32 @@
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" s="19">
-        <v>593</v>
+        <v>105</v>
       </c>
       <c r="B366" s="20">
         <v>2</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="D366" s="21">
-        <v>32269387</v>
+        <v>32356652</v>
       </c>
       <c r="E366" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F366" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G366" s="19">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="H366" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I366" s="19"/>
-      <c r="J366" s="22">
-        <v>45205.594020772201</v>
+      <c r="J366" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K366" s="19" t="s">
         <v>10</v>
@@ -15350,32 +15353,32 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" s="19">
-        <v>594</v>
+        <v>108</v>
       </c>
       <c r="B367" s="20">
         <v>2</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="D367" s="21">
-        <v>32269388</v>
+        <v>32374213</v>
       </c>
       <c r="E367" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F367" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G367" s="19">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="H367" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I367" s="19"/>
-      <c r="J367" s="22">
-        <v>45205.594020772201</v>
+      <c r="J367" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K367" s="19" t="s">
         <v>10</v>
@@ -15389,32 +15392,32 @@
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="19">
-        <v>595</v>
+        <v>104</v>
       </c>
       <c r="B368" s="20">
         <v>2</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="D368" s="21">
-        <v>32269404</v>
+        <v>32356651</v>
       </c>
       <c r="E368" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F368" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G368" s="19">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="H368" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I368" s="19"/>
-      <c r="J368" s="22">
-        <v>45205.594020772201</v>
+      <c r="J368" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K368" s="19" t="s">
         <v>10</v>
@@ -15428,32 +15431,32 @@
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="19">
-        <v>596</v>
+        <v>109</v>
       </c>
       <c r="B369" s="20">
         <v>2</v>
       </c>
       <c r="C369" s="19" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="D369" s="21">
-        <v>32269405</v>
+        <v>32374239</v>
       </c>
       <c r="E369" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F369" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G369" s="19">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="H369" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I369" s="19"/>
-      <c r="J369" s="22">
-        <v>45205.594020772201</v>
+      <c r="J369" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K369" s="19" t="s">
         <v>10</v>
@@ -15467,32 +15470,32 @@
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="19">
-        <v>590</v>
+        <v>108</v>
       </c>
       <c r="B370" s="20">
         <v>2</v>
       </c>
       <c r="C370" s="19" t="s">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="D370" s="21">
-        <v>32269384</v>
+        <v>32374212</v>
       </c>
       <c r="E370" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F370" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G370" s="19">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="H370" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I370" s="19"/>
-      <c r="J370" s="22">
-        <v>45205.594020772201</v>
+      <c r="J370" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K370" s="19" t="s">
         <v>10</v>
@@ -15506,32 +15509,32 @@
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="19">
-        <v>589</v>
+        <v>98</v>
       </c>
       <c r="B371" s="20">
         <v>2</v>
       </c>
       <c r="C371" s="19" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="D371" s="21">
-        <v>32269383</v>
+        <v>32320073</v>
       </c>
       <c r="E371" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F371" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G371" s="19">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="H371" s="19" t="s">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="I371" s="19"/>
-      <c r="J371" s="22">
-        <v>45205.594020772201</v>
+      <c r="J371" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K371" s="19" t="s">
         <v>10</v>
@@ -15545,32 +15548,32 @@
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="19">
-        <v>597</v>
+        <v>106</v>
       </c>
       <c r="B372" s="20">
         <v>2</v>
       </c>
       <c r="C372" s="19" t="s">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="D372" s="21">
-        <v>32281437</v>
+        <v>32371276</v>
       </c>
       <c r="E372" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F372" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G372" s="19">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="H372" s="19" t="s">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="I372" s="19"/>
-      <c r="J372" s="25">
-        <v>45205.5940162037</v>
+      <c r="J372" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K372" s="19" t="s">
         <v>10</v>
@@ -15584,32 +15587,32 @@
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="19">
-        <v>598</v>
+        <v>100</v>
       </c>
       <c r="B373" s="20">
         <v>2</v>
       </c>
       <c r="C373" s="19" t="s">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="D373" s="21">
-        <v>32329454</v>
+        <v>32320075</v>
       </c>
       <c r="E373" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F373" s="20">
         <v>3</v>
       </c>
       <c r="G373" s="19">
-        <v>104</v>
-      </c>
-      <c r="H373" s="18" t="s">
-        <v>509</v>
+        <v>115</v>
+      </c>
+      <c r="H373" s="19" t="s">
+        <v>384</v>
       </c>
       <c r="I373" s="19"/>
-      <c r="J373" s="22">
-        <v>45205.594020772201</v>
+      <c r="J373" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K373" s="19" t="s">
         <v>10</v>
@@ -15623,32 +15626,32 @@
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="19">
-        <v>599</v>
+        <v>97</v>
       </c>
       <c r="B374" s="20">
         <v>2</v>
       </c>
       <c r="C374" s="19" t="s">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="D374" s="21">
-        <v>32329455</v>
+        <v>32245973</v>
       </c>
       <c r="E374" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F374" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G374" s="19">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="H374" s="19" t="s">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="I374" s="19"/>
-      <c r="J374" s="22">
-        <v>45205.594020772201</v>
+      <c r="J374" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K374" s="19" t="s">
         <v>10</v>
@@ -15662,32 +15665,32 @@
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="19">
-        <v>600</v>
+        <v>96</v>
       </c>
       <c r="B375" s="20">
         <v>2</v>
       </c>
       <c r="C375" s="19" t="s">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="D375" s="21">
-        <v>32269450</v>
+        <v>32245970</v>
       </c>
       <c r="E375" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F375" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G375" s="19">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="H375" s="19" t="s">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="I375" s="19"/>
-      <c r="J375" s="22">
-        <v>45205.594020772201</v>
+      <c r="J375" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K375" s="19" t="s">
         <v>10</v>
@@ -15701,32 +15704,32 @@
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="19">
-        <v>600</v>
+        <v>108</v>
       </c>
       <c r="B376" s="20">
         <v>2</v>
       </c>
       <c r="C376" s="19" t="s">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="D376" s="21">
-        <v>32333165</v>
+        <v>32374214</v>
       </c>
       <c r="E376" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F376" s="20">
         <v>3</v>
       </c>
       <c r="G376" s="19">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="H376" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I376" s="19"/>
-      <c r="J376" s="22">
-        <v>45205.594020772201</v>
+      <c r="J376" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K376" s="19" t="s">
         <v>10</v>
@@ -15740,32 +15743,32 @@
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="19">
-        <v>601</v>
+        <v>109</v>
       </c>
       <c r="B377" s="20">
         <v>2</v>
       </c>
       <c r="C377" s="19" t="s">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="D377" s="21">
-        <v>32346012</v>
+        <v>32374136</v>
       </c>
       <c r="E377" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F377" s="20">
         <v>3</v>
       </c>
       <c r="G377" s="19">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="H377" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I377" s="19"/>
-      <c r="J377" s="22">
-        <v>45205.594020772201</v>
+      <c r="J377" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K377" s="19" t="s">
         <v>10</v>
@@ -15779,32 +15782,32 @@
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="19">
-        <v>602</v>
+        <v>103</v>
       </c>
       <c r="B378" s="20">
         <v>2</v>
       </c>
       <c r="C378" s="19" t="s">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="D378" s="21">
-        <v>32346016</v>
+        <v>32344967</v>
       </c>
       <c r="E378" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F378" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G378" s="19">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="H378" s="19" t="s">
         <v>384</v>
       </c>
       <c r="I378" s="19"/>
-      <c r="J378" s="22">
-        <v>45205.594020772201</v>
+      <c r="J378" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K378" s="19" t="s">
         <v>10</v>
@@ -15818,32 +15821,32 @@
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="19">
-        <v>586</v>
+        <v>107</v>
       </c>
       <c r="B379" s="20">
         <v>2</v>
       </c>
       <c r="C379" s="19" t="s">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="D379" s="21">
-        <v>31658548</v>
+        <v>32374210</v>
       </c>
       <c r="E379" s="23" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="F379" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G379" s="19">
-        <v>57</v>
-      </c>
-      <c r="H379" s="19" t="s">
-        <v>384</v>
+        <v>121</v>
+      </c>
+      <c r="H379" s="18" t="s">
+        <v>510</v>
       </c>
       <c r="I379" s="19"/>
-      <c r="J379" s="22">
-        <v>45205.594020772201</v>
+      <c r="J379" s="30">
+        <v>45267.989155092589</v>
       </c>
       <c r="K379" s="19" t="s">
         <v>10</v>
@@ -15855,7 +15858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="19">
         <v>632</v>
       </c>
@@ -15886,7 +15889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="19">
         <v>683</v>
       </c>
@@ -15917,7 +15920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="19">
         <v>663</v>
       </c>
@@ -15948,7 +15951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="19">
         <v>530</v>
       </c>
@@ -15979,7 +15982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="19">
         <v>528</v>
       </c>
@@ -16010,7 +16013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="19">
         <v>547</v>
       </c>
@@ -16041,7 +16044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="19">
         <v>549</v>
       </c>
@@ -16072,7 +16075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="19">
         <v>550</v>
       </c>
@@ -16103,7 +16106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="19">
         <v>551</v>
       </c>
@@ -16134,7 +16137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="19">
         <v>812</v>
       </c>
@@ -16165,7 +16168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="19">
         <v>811</v>
       </c>
@@ -16196,7 +16199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="19">
         <v>817</v>
       </c>
@@ -16227,7 +16230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="19">
         <v>819</v>
       </c>
@@ -16258,7 +16261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="19">
         <v>825</v>
       </c>
@@ -16289,7 +16292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="19">
         <v>831</v>
       </c>
@@ -16320,7 +16323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="19">
         <v>216</v>
       </c>
@@ -16351,7 +16354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="19">
         <v>217</v>
       </c>
@@ -16382,7 +16385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="19">
         <v>220</v>
       </c>
@@ -16413,7 +16416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="19">
         <v>221</v>
       </c>
@@ -16444,7 +16447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="19">
         <v>222</v>
       </c>
@@ -16475,7 +16478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="19">
         <v>223</v>
       </c>
@@ -16506,7 +16509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="19">
         <v>215</v>
       </c>
@@ -16537,7 +16540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="19">
         <v>2</v>
       </c>
@@ -16568,7 +16571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="19">
         <v>3</v>
       </c>
@@ -16599,7 +16602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="19">
         <v>4</v>
       </c>
@@ -16630,7 +16633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="19">
         <v>1</v>
       </c>
@@ -16661,7 +16664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="19">
         <v>205</v>
       </c>
@@ -16692,7 +16695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="19">
         <v>208</v>
       </c>
@@ -16723,7 +16726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="19">
         <v>209</v>
       </c>
@@ -16754,7 +16757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="19">
         <v>210</v>
       </c>
@@ -16785,7 +16788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="19">
         <v>244</v>
       </c>
@@ -16816,7 +16819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="19">
         <v>260</v>
       </c>
@@ -16847,7 +16850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="19">
         <v>283</v>
       </c>
@@ -16878,7 +16881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="19">
         <v>302</v>
       </c>
@@ -16909,7 +16912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="19">
         <v>303</v>
       </c>
@@ -16940,7 +16943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="19">
         <v>305</v>
       </c>
@@ -16971,7 +16974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="19">
         <v>300</v>
       </c>
@@ -17002,7 +17005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="19">
         <v>301</v>
       </c>
@@ -17033,7 +17036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="19">
         <v>335</v>
       </c>
@@ -17064,7 +17067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="19">
         <v>337</v>
       </c>
@@ -17095,7 +17098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="19">
         <v>338</v>
       </c>
@@ -17126,7 +17129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="19">
         <v>340</v>
       </c>
@@ -17157,7 +17160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="19">
         <v>316</v>
       </c>
@@ -17188,7 +17191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="19">
         <v>314</v>
       </c>
@@ -17219,7 +17222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="19">
         <v>315</v>
       </c>
@@ -17250,7 +17253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="19">
         <v>312</v>
       </c>
@@ -17281,7 +17284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="19">
         <v>313</v>
       </c>
@@ -17312,7 +17315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="19">
         <v>349</v>
       </c>
@@ -17343,7 +17346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="19">
         <v>350</v>
       </c>
@@ -17374,7 +17377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="19">
         <v>351</v>
       </c>
@@ -17405,7 +17408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="19">
         <v>352</v>
       </c>
@@ -17436,7 +17439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="19">
         <v>284</v>
       </c>
@@ -17467,7 +17470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="19">
         <v>308</v>
       </c>
@@ -17498,7 +17501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="19">
         <v>309</v>
       </c>
@@ -17529,7 +17532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="19">
         <v>310</v>
       </c>
@@ -17560,7 +17563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="19">
         <v>311</v>
       </c>
@@ -17591,7 +17594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="19">
         <v>343</v>
       </c>
@@ -17622,7 +17625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="19">
         <v>344</v>
       </c>
@@ -17653,7 +17656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="19">
         <v>345</v>
       </c>
@@ -17684,7 +17687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="19">
         <v>346</v>
       </c>
@@ -17715,7 +17718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="19">
         <v>347</v>
       </c>
@@ -17746,7 +17749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="19">
         <v>348</v>
       </c>
@@ -17777,7 +17780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="19">
         <v>320</v>
       </c>
@@ -17808,7 +17811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="19">
         <v>321</v>
       </c>
@@ -17839,7 +17842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="19">
         <v>353</v>
       </c>
@@ -17870,7 +17873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="19">
         <v>354</v>
       </c>
@@ -17901,7 +17904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="19">
         <v>355</v>
       </c>
@@ -17932,7 +17935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="19">
         <v>356</v>
       </c>
@@ -17963,7 +17966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="19">
         <v>357</v>
       </c>
@@ -17994,7 +17997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="19">
         <v>358</v>
       </c>
@@ -18025,7 +18028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="19">
         <v>359</v>
       </c>
@@ -18056,7 +18059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="19">
         <v>361</v>
       </c>
@@ -18087,7 +18090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="19">
         <v>362</v>
       </c>
@@ -18118,7 +18121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="19">
         <v>363</v>
       </c>
@@ -18149,7 +18152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="19">
         <v>364</v>
       </c>
@@ -18180,7 +18183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="19">
         <v>365</v>
       </c>
@@ -18211,7 +18214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="19">
         <v>366</v>
       </c>
@@ -18242,7 +18245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="19">
         <v>367</v>
       </c>
@@ -18273,7 +18276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="19">
         <v>738</v>
       </c>
@@ -18304,7 +18307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="19">
         <v>541</v>
       </c>
@@ -18335,7 +18338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="19">
         <v>542</v>
       </c>
@@ -18366,7 +18369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="19">
         <v>543</v>
       </c>
@@ -18397,7 +18400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="19">
         <v>544</v>
       </c>
@@ -18428,7 +18431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="19">
         <v>545</v>
       </c>
@@ -18459,7 +18462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="19">
         <v>460</v>
       </c>
@@ -18490,7 +18493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="19">
         <v>461</v>
       </c>
@@ -18521,7 +18524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="19">
         <v>750</v>
       </c>
@@ -18552,7 +18555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="19">
         <v>747</v>
       </c>
@@ -18583,7 +18586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="19">
         <v>748</v>
       </c>
@@ -18614,7 +18617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="19">
         <v>336</v>
       </c>
@@ -18645,7 +18648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="19">
         <v>287</v>
       </c>
@@ -18676,7 +18679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="19">
         <v>322</v>
       </c>
@@ -18707,7 +18710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="19">
         <v>648</v>
       </c>
@@ -18738,7 +18741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="19">
         <v>649</v>
       </c>
@@ -18769,7 +18772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="19">
         <v>650</v>
       </c>
@@ -18800,7 +18803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="19">
         <v>653</v>
       </c>
@@ -18831,7 +18834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="19">
         <v>655</v>
       </c>
@@ -18862,7 +18865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="19">
         <v>661</v>
       </c>
@@ -18893,7 +18896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="19">
         <v>651</v>
       </c>
@@ -18924,7 +18927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="19">
         <v>657</v>
       </c>
@@ -18955,7 +18958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="19">
         <v>654</v>
       </c>
@@ -18986,7 +18989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="19">
         <v>656</v>
       </c>
@@ -19017,7 +19020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="19">
         <v>658</v>
       </c>
@@ -19048,7 +19051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="19">
         <v>662</v>
       </c>
@@ -19079,7 +19082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="19">
         <v>495</v>
       </c>
@@ -19110,7 +19113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="19">
         <v>501</v>
       </c>
@@ -19141,7 +19144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="19">
         <v>502</v>
       </c>
@@ -19172,7 +19175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="19">
         <v>505</v>
       </c>
@@ -19203,7 +19206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="19">
         <v>713</v>
       </c>
@@ -19234,7 +19237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="19">
         <v>714</v>
       </c>
@@ -19265,7 +19268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="19">
         <v>715</v>
       </c>
@@ -19296,7 +19299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="19">
         <v>716</v>
       </c>
@@ -19327,7 +19330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="19">
         <v>717</v>
       </c>
@@ -19358,7 +19361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="19">
         <v>718</v>
       </c>
@@ -19389,7 +19392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="19">
         <v>719</v>
       </c>
@@ -19420,7 +19423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="19">
         <v>720</v>
       </c>
@@ -19451,7 +19454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="19">
         <v>721</v>
       </c>
@@ -19482,7 +19485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="19">
         <v>722</v>
       </c>
@@ -19513,7 +19516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="19">
         <v>723</v>
       </c>
@@ -19544,7 +19547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="19">
         <v>724</v>
       </c>
@@ -19575,7 +19578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="19">
         <v>725</v>
       </c>
@@ -19606,7 +19609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="19">
         <v>726</v>
       </c>
@@ -19637,7 +19640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="19">
         <v>776</v>
       </c>
@@ -19668,7 +19671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="19">
         <v>777</v>
       </c>
@@ -19699,7 +19702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="19">
         <v>778</v>
       </c>
@@ -19730,7 +19733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="19">
         <v>779</v>
       </c>
@@ -19761,7 +19764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="19">
         <v>780</v>
       </c>
@@ -19792,7 +19795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="19">
         <v>781</v>
       </c>
@@ -19823,7 +19826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="19">
         <v>782</v>
       </c>
@@ -19854,7 +19857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="19">
         <v>783</v>
       </c>
@@ -19885,7 +19888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="19">
         <v>784</v>
       </c>
@@ -19916,7 +19919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="19">
         <v>785</v>
       </c>
@@ -19947,7 +19950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="19">
         <v>786</v>
       </c>
@@ -19978,7 +19981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="19">
         <v>787</v>
       </c>
@@ -20009,7 +20012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="19">
         <v>788</v>
       </c>
@@ -20040,7 +20043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="19">
         <v>789</v>
       </c>
@@ -20071,7 +20074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="19">
         <v>772</v>
       </c>
@@ -20102,7 +20105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="19">
         <v>773</v>
       </c>
@@ -20133,7 +20136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="19">
         <v>774</v>
       </c>
@@ -20164,7 +20167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="19">
         <v>775</v>
       </c>
@@ -20195,7 +20198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="19">
         <v>767</v>
       </c>
@@ -20226,7 +20229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="19">
         <v>768</v>
       </c>
@@ -20257,7 +20260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="19">
         <v>769</v>
       </c>
@@ -20288,7 +20291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="19">
         <v>770</v>
       </c>
@@ -20319,7 +20322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="19">
         <v>771</v>
       </c>
@@ -20350,7 +20353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="19">
         <v>704</v>
       </c>
@@ -20381,7 +20384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="19">
         <v>705</v>
       </c>
@@ -20412,7 +20415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="19">
         <v>706</v>
       </c>
@@ -20443,7 +20446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="19">
         <v>707</v>
       </c>
@@ -20474,7 +20477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="19">
         <v>708</v>
       </c>
@@ -20505,7 +20508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="19">
         <v>709</v>
       </c>
@@ -20536,7 +20539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="19">
         <v>710</v>
       </c>
@@ -20567,7 +20570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="19">
         <v>711</v>
       </c>
@@ -20598,7 +20601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="19">
         <v>712</v>
       </c>
@@ -20629,7 +20632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="19">
         <v>375</v>
       </c>
@@ -20660,7 +20663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="19">
         <v>378</v>
       </c>
@@ -20691,7 +20694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="19">
         <v>379</v>
       </c>
@@ -20722,7 +20725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="19">
         <v>383</v>
       </c>
@@ -20753,7 +20756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="19">
         <v>384</v>
       </c>
@@ -20784,7 +20787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="19">
         <v>385</v>
       </c>
@@ -20815,7 +20818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="19">
         <v>380</v>
       </c>
@@ -20846,7 +20849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="19">
         <v>376</v>
       </c>
@@ -20877,7 +20880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="19">
         <v>377</v>
       </c>
@@ -20908,7 +20911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="19">
         <v>381</v>
       </c>
@@ -20939,7 +20942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="19">
         <v>382</v>
       </c>
@@ -20970,7 +20973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="19">
         <v>494</v>
       </c>
@@ -21001,7 +21004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="19">
         <v>496</v>
       </c>
@@ -21032,7 +21035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="19">
         <v>499</v>
       </c>
@@ -21063,7 +21066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="19">
         <v>500</v>
       </c>
@@ -21094,7 +21097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="19">
         <v>506</v>
       </c>
@@ -21125,7 +21128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="19">
         <v>507</v>
       </c>
@@ -21156,7 +21159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="19">
         <v>508</v>
       </c>
@@ -21187,7 +21190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="19">
         <v>509</v>
       </c>
@@ -21218,7 +21221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="19">
         <v>510</v>
       </c>
@@ -21249,7 +21252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="19">
         <v>511</v>
       </c>
@@ -21280,7 +21283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="19">
         <v>512</v>
       </c>
@@ -21311,7 +21314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="19">
         <v>513</v>
       </c>
@@ -21342,7 +21345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="19">
         <v>515</v>
       </c>
@@ -21373,7 +21376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="19">
         <v>516</v>
       </c>
@@ -21404,7 +21407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="19">
         <v>517</v>
       </c>
@@ -21435,7 +21438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="19">
         <v>519</v>
       </c>
@@ -21466,7 +21469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="19">
         <v>520</v>
       </c>
@@ -21497,7 +21500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="19">
         <v>521</v>
       </c>
@@ -21528,7 +21531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="19">
         <v>522</v>
       </c>
@@ -21559,7 +21562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="19">
         <v>523</v>
       </c>
@@ -21590,7 +21593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="19">
         <v>524</v>
       </c>
@@ -21621,7 +21624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="19">
         <v>514</v>
       </c>
@@ -21652,7 +21655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="19">
         <v>76</v>
       </c>
@@ -21683,7 +21686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="19">
         <v>77</v>
       </c>
@@ -21714,7 +21717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="19">
         <v>80</v>
       </c>
@@ -21745,7 +21748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="19">
         <v>82</v>
       </c>
@@ -21776,7 +21779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="19">
         <v>83</v>
       </c>
@@ -21807,7 +21810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="19">
         <v>78</v>
       </c>
@@ -21838,7 +21841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="19">
         <v>81</v>
       </c>
@@ -21869,7 +21872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="19">
         <v>800</v>
       </c>
@@ -21900,7 +21903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="19">
         <v>802</v>
       </c>
@@ -21931,7 +21934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="19">
         <v>803</v>
       </c>
@@ -21962,7 +21965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="19">
         <v>804</v>
       </c>
@@ -21993,7 +21996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="19">
         <v>807</v>
       </c>
@@ -22024,7 +22027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="19">
         <v>810</v>
       </c>
@@ -22055,7 +22058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="19">
         <v>813</v>
       </c>
@@ -22086,7 +22089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="19">
         <v>814</v>
       </c>
@@ -22117,7 +22120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="19">
         <v>818</v>
       </c>
@@ -22148,7 +22151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="19">
         <v>820</v>
       </c>
@@ -22179,7 +22182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="19">
         <v>822</v>
       </c>
@@ -22210,7 +22213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="19">
         <v>824</v>
       </c>
@@ -22241,7 +22244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="19">
         <v>826</v>
       </c>
@@ -22272,7 +22275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="19">
         <v>828</v>
       </c>
@@ -22303,7 +22306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="19">
         <v>830</v>
       </c>
@@ -22334,7 +22337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="19">
         <v>832</v>
       </c>
@@ -22365,7 +22368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="19">
         <v>834</v>
       </c>
@@ -22396,7 +22399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="19">
         <v>806</v>
       </c>
@@ -22427,7 +22430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="19">
         <v>808</v>
       </c>
@@ -22458,7 +22461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="19">
         <v>805</v>
       </c>
@@ -22489,7 +22492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="19">
         <v>801</v>
       </c>
@@ -22520,7 +22523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="19">
         <v>440</v>
       </c>
@@ -22551,7 +22554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="19">
         <v>441</v>
       </c>
@@ -22582,7 +22585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="19">
         <v>444</v>
       </c>
@@ -22613,7 +22616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="19">
         <v>445</v>
       </c>
@@ -22644,7 +22647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="19">
         <v>439</v>
       </c>
@@ -22675,7 +22678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="19">
         <v>442</v>
       </c>
@@ -22706,7 +22709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="19">
         <v>443</v>
       </c>
@@ -22737,7 +22740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="19">
         <v>865</v>
       </c>
@@ -22768,7 +22771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="19">
         <v>868</v>
       </c>
@@ -22799,7 +22802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="19">
         <v>869</v>
       </c>
@@ -22830,7 +22833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="19">
         <v>873</v>
       </c>
@@ -22861,7 +22864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="19">
         <v>877</v>
       </c>
@@ -22892,7 +22895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="19">
         <v>879</v>
       </c>
@@ -22923,7 +22926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="19">
         <v>871</v>
       </c>
@@ -22946,7 +22949,7 @@
       <c r="L608" s="19"/>
       <c r="M608" s="19"/>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="19">
         <v>874</v>
       </c>
@@ -22969,7 +22972,7 @@
       <c r="L609" s="19"/>
       <c r="M609" s="19"/>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="19">
         <v>876</v>
       </c>
@@ -22992,7 +22995,7 @@
       <c r="L610" s="19"/>
       <c r="M610" s="19"/>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="19">
         <v>67</v>
       </c>
@@ -23023,7 +23026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="19">
         <v>68</v>
       </c>
@@ -23054,7 +23057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="19">
         <v>72</v>
       </c>
@@ -23085,7 +23088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="19">
         <v>73</v>
       </c>
@@ -23116,7 +23119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="19">
         <v>410</v>
       </c>
@@ -23147,7 +23150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="19">
         <v>391</v>
       </c>
@@ -23178,7 +23181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="19">
         <v>457</v>
       </c>
@@ -23209,7 +23212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="19">
         <v>458</v>
       </c>
@@ -23240,7 +23243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="19">
         <v>453</v>
       </c>
@@ -23271,7 +23274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="19">
         <v>454</v>
       </c>
@@ -23302,7 +23305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="19">
         <v>69</v>
       </c>
@@ -23333,7 +23336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="19">
         <v>70</v>
       </c>
@@ -23364,7 +23367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="19">
         <v>71</v>
       </c>
@@ -23395,7 +23398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="19">
         <v>74</v>
       </c>
@@ -23426,7 +23429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="19">
         <v>659</v>
       </c>
@@ -23457,7 +23460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="19">
         <v>660</v>
       </c>
@@ -23488,7 +23491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="19">
         <v>652</v>
       </c>
@@ -23519,7 +23522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="19">
         <v>285</v>
       </c>
@@ -23550,7 +23553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="19">
         <v>286</v>
       </c>
@@ -23581,7 +23584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="19">
         <v>317</v>
       </c>
@@ -23612,7 +23615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="19">
         <v>318</v>
       </c>
@@ -23643,7 +23646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="19">
         <v>838</v>
       </c>
@@ -23674,7 +23677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="19">
         <v>845</v>
       </c>
@@ -23705,7 +23708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="19">
         <v>846</v>
       </c>
@@ -23736,7 +23739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="19">
         <v>858</v>
       </c>
@@ -23767,7 +23770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="19">
         <v>153</v>
       </c>
@@ -23798,7 +23801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="637" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="19">
         <v>154</v>
       </c>
@@ -23829,7 +23832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="19">
         <v>155</v>
       </c>
@@ -23860,7 +23863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="639" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="19">
         <v>156</v>
       </c>
@@ -23891,7 +23894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="19">
         <v>157</v>
       </c>
@@ -23922,7 +23925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="641" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="19">
         <v>158</v>
       </c>
@@ -23953,7 +23956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="642" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="19">
         <v>159</v>
       </c>
@@ -23984,7 +23987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="643" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="19">
         <v>160</v>
       </c>
@@ -24015,7 +24018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="644" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="19">
         <v>161</v>
       </c>
@@ -24046,7 +24049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="645" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="19">
         <v>162</v>
       </c>
@@ -24077,7 +24080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="646" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="19">
         <v>163</v>
       </c>
@@ -24108,7 +24111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="647" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="19">
         <v>164</v>
       </c>
@@ -24139,7 +24142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="648" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="19">
         <v>165</v>
       </c>
@@ -24170,7 +24173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="649" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="19">
         <v>166</v>
       </c>
@@ -24201,7 +24204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="650" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="19">
         <v>167</v>
       </c>
@@ -24232,7 +24235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="651" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="19">
         <v>168</v>
       </c>
@@ -24263,7 +24266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="652" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:13" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="19">
         <v>169</v>
       </c>
@@ -24294,7 +24297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="653" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="19">
         <v>170</v>
       </c>
@@ -24325,7 +24328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="654" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="19">
         <v>171</v>
       </c>
@@ -24356,7 +24359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="655" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="19">
         <v>172</v>
       </c>
@@ -24387,7 +24390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="656" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="19">
         <v>173</v>
       </c>
@@ -24418,7 +24421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="657" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="19">
         <v>174</v>
       </c>
@@ -24449,7 +24452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="658" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:13" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="19">
         <v>175</v>
       </c>
@@ -24480,7 +24483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="659" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="19">
         <v>176</v>
       </c>
@@ -24511,7 +24514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="660" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="19">
         <v>177</v>
       </c>
@@ -24542,7 +24545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="661" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="19">
         <v>178</v>
       </c>
@@ -24573,7 +24576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="662" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="19">
         <v>179</v>
       </c>
@@ -24604,7 +24607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="663" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="19">
         <v>180</v>
       </c>
@@ -24635,7 +24638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="664" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="19">
         <v>181</v>
       </c>
@@ -24666,7 +24669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="665" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="19">
         <v>182</v>
       </c>
@@ -24697,7 +24700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="666" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="19">
         <v>183</v>
       </c>
@@ -24728,7 +24731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="667" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="19">
         <v>184</v>
       </c>
@@ -24759,7 +24762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="19">
         <v>185</v>
       </c>
@@ -24790,7 +24793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="19">
         <v>186</v>
       </c>
@@ -24821,7 +24824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="19">
         <v>187</v>
       </c>
@@ -24852,7 +24855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="19">
         <v>188</v>
       </c>
@@ -24883,7 +24886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="19">
         <v>189</v>
       </c>
@@ -24914,7 +24917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="19">
         <v>190</v>
       </c>
@@ -24945,7 +24948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="19">
         <v>191</v>
       </c>
@@ -24976,7 +24979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="19">
         <v>192</v>
       </c>
@@ -25007,7 +25010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="19">
         <v>193</v>
       </c>
@@ -25038,7 +25041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="19">
         <v>194</v>
       </c>
@@ -25069,7 +25072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="19">
         <v>195</v>
       </c>
@@ -25100,7 +25103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="19">
         <v>196</v>
       </c>
@@ -25131,7 +25134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="19">
         <v>197</v>
       </c>
@@ -25162,7 +25165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="19">
         <v>198</v>
       </c>
@@ -25193,7 +25196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="19">
         <v>199</v>
       </c>
@@ -25224,7 +25227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="19">
         <v>200</v>
       </c>
@@ -25255,7 +25258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="19">
         <v>201</v>
       </c>
@@ -25286,7 +25289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="19">
         <v>202</v>
       </c>
@@ -25317,7 +25320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="19">
         <v>203</v>
       </c>
@@ -25348,7 +25351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="19">
         <v>204</v>
       </c>
@@ -25379,7 +25382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="19">
         <v>856</v>
       </c>
@@ -25410,7 +25413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="19">
         <v>11</v>
       </c>
@@ -25441,7 +25444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="19">
         <v>264</v>
       </c>
@@ -25472,7 +25475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="19">
         <v>266</v>
       </c>
@@ -25503,7 +25506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="19">
         <v>265</v>
       </c>
@@ -25534,7 +25537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="19">
         <v>268</v>
       </c>
@@ -25565,7 +25568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="19">
         <v>267</v>
       </c>
@@ -25596,7 +25599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="19">
         <v>339</v>
       </c>
@@ -25627,7 +25630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="19">
         <v>319</v>
       </c>
@@ -25658,7 +25661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="19">
         <v>468</v>
       </c>
@@ -25689,7 +25692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="19">
         <v>469</v>
       </c>
@@ -25720,7 +25723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="19">
         <v>474</v>
       </c>
@@ -25751,7 +25754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="19">
         <v>475</v>
       </c>
@@ -25782,7 +25785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="19">
         <v>476</v>
       </c>
@@ -25813,7 +25816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="19">
         <v>463</v>
       </c>
@@ -25844,7 +25847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="19">
         <v>464</v>
       </c>
@@ -25875,7 +25878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="19">
         <v>465</v>
       </c>
@@ -25906,7 +25909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="19">
         <v>466</v>
       </c>
@@ -25937,7 +25940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="19">
         <v>467</v>
       </c>
@@ -25968,7 +25971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="19">
         <v>478</v>
       </c>
@@ -25999,7 +26002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="19">
         <v>477</v>
       </c>
@@ -26030,7 +26033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="19">
         <v>271</v>
       </c>
@@ -26061,7 +26064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="19">
         <v>273</v>
       </c>
@@ -26092,7 +26095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="19">
         <v>241</v>
       </c>
@@ -26123,7 +26126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="19">
         <v>242</v>
       </c>
@@ -26154,7 +26157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="19">
         <v>243</v>
       </c>
@@ -26185,7 +26188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="19">
         <v>240</v>
       </c>
@@ -26216,7 +26219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="19">
         <v>684</v>
       </c>
@@ -26247,7 +26250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="19">
         <v>685</v>
       </c>
@@ -26278,7 +26281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="19">
         <v>686</v>
       </c>
@@ -26309,7 +26312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="19">
         <v>687</v>
       </c>
@@ -26340,7 +26343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="19">
         <v>688</v>
       </c>
@@ -26371,7 +26374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="19">
         <v>689</v>
       </c>
@@ -26402,7 +26405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="19">
         <v>690</v>
       </c>
@@ -26433,7 +26436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="19">
         <v>691</v>
       </c>
@@ -26464,7 +26467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="19">
         <v>692</v>
       </c>
@@ -26495,7 +26498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="19">
         <v>693</v>
       </c>
@@ -26526,7 +26529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="19">
         <v>694</v>
       </c>
@@ -26557,7 +26560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="19">
         <v>695</v>
       </c>
@@ -26588,7 +26591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="19">
         <v>696</v>
       </c>
@@ -26619,7 +26622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="19">
         <v>697</v>
       </c>
@@ -26650,7 +26653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="19">
         <v>698</v>
       </c>
@@ -26681,7 +26684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="19">
         <v>699</v>
       </c>
@@ -26712,7 +26715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="19">
         <v>700</v>
       </c>
@@ -26743,7 +26746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="19">
         <v>701</v>
       </c>
@@ -26774,7 +26777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="19">
         <v>702</v>
       </c>
@@ -26805,7 +26808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="19">
         <v>703</v>
       </c>
@@ -26836,7 +26839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="19">
         <v>643</v>
       </c>
@@ -26867,7 +26870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="19">
         <v>644</v>
       </c>
@@ -26898,7 +26901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="19">
         <v>645</v>
       </c>
@@ -26929,7 +26932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="19">
         <v>646</v>
       </c>
@@ -26960,7 +26963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="19">
         <v>647</v>
       </c>
@@ -26991,7 +26994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="19">
         <v>261</v>
       </c>
@@ -27022,7 +27025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="19">
         <v>262</v>
       </c>
@@ -27053,7 +27056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="19">
         <v>263</v>
       </c>
@@ -27084,7 +27087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="19">
         <v>41</v>
       </c>
@@ -27115,7 +27118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="19">
         <v>45</v>
       </c>
@@ -27146,7 +27149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="19">
         <v>360</v>
       </c>
@@ -27177,7 +27180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="19">
         <v>436</v>
       </c>
@@ -27208,7 +27211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="19">
         <v>437</v>
       </c>
@@ -27239,7 +27242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="19">
         <v>438</v>
       </c>
@@ -27270,7 +27273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="19">
         <v>471</v>
       </c>
@@ -27301,7 +27304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="19">
         <v>411</v>
       </c>
@@ -27332,7 +27335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="19">
         <v>412</v>
       </c>
@@ -27363,7 +27366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="19">
         <v>413</v>
       </c>
@@ -27394,7 +27397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="19">
         <v>414</v>
       </c>
@@ -27425,7 +27428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="19">
         <v>415</v>
       </c>
@@ -27456,7 +27459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="19">
         <v>416</v>
       </c>
@@ -27487,7 +27490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="756" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="19">
         <v>417</v>
       </c>
@@ -27515,7 +27518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="757" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="19">
         <v>418</v>
       </c>
@@ -27543,7 +27546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="758" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="19">
         <v>422</v>
       </c>
@@ -27571,7 +27574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="759" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="19">
         <v>425</v>
       </c>
@@ -27599,7 +27602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="760" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="19">
         <v>426</v>
       </c>
@@ -27627,7 +27630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="761" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="19">
         <v>473</v>
       </c>
@@ -27655,7 +27658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="762" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="19">
         <v>472</v>
       </c>
@@ -27683,7 +27686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="763" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="19">
         <v>269</v>
       </c>
@@ -27711,7 +27714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="764" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="19">
         <v>270</v>
       </c>
@@ -27739,7 +27742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="765" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="19">
         <v>272</v>
       </c>
@@ -27767,7 +27770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="766" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="19">
         <v>274</v>
       </c>
@@ -27795,7 +27798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="767" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="19">
         <v>275</v>
       </c>
@@ -27823,7 +27826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="768" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="19">
         <v>470</v>
       </c>
@@ -27851,7 +27854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="769" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="19">
         <v>230</v>
       </c>
@@ -27879,7 +27882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="770" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="19">
         <v>231</v>
       </c>
@@ -27907,7 +27910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="771" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="19">
         <v>232</v>
       </c>
@@ -27935,7 +27938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="772" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="19">
         <v>639</v>
       </c>
@@ -27963,7 +27966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="773" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="19">
         <v>640</v>
       </c>
@@ -27991,7 +27994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="774" spans="1:13" s="19" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:13" s="19" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="19">
         <v>641</v>
       </c>
@@ -28019,7 +28022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="775" spans="1:13" s="19" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:13" s="19" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="19">
         <v>642</v>
       </c>
@@ -28047,7 +28050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="776" spans="1:13" s="19" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:13" s="19" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="19">
         <v>32</v>
       </c>
@@ -28075,7 +28078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="777" spans="1:13" s="19" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:13" s="19" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="19">
         <v>33</v>
       </c>
@@ -28103,7 +28106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="778" spans="1:13" s="19" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:13" s="19" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="19">
         <v>35</v>
       </c>
@@ -28131,7 +28134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="779" spans="1:13" s="19" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:13" s="19" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="19">
         <v>38</v>
       </c>
@@ -28159,7 +28162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="780" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="19">
         <v>40</v>
       </c>
@@ -28187,7 +28190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="781" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="19">
         <v>562</v>
       </c>
@@ -28215,7 +28218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="782" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="19">
         <v>563</v>
       </c>
@@ -28243,7 +28246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="783" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="19">
         <v>564</v>
       </c>
@@ -28271,7 +28274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="784" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="19">
         <v>567</v>
       </c>
@@ -28299,7 +28302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="785" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="19">
         <v>862</v>
       </c>
@@ -28327,7 +28330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="786" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:13" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="19">
         <v>854</v>
       </c>
@@ -28355,7 +28358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="787" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="19">
         <v>861</v>
       </c>
@@ -28386,7 +28389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="788" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:13" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="19">
         <v>839</v>
       </c>
@@ -28417,7 +28420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="19">
         <v>840</v>
       </c>
@@ -28448,7 +28451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="19">
         <v>841</v>
       </c>
@@ -28479,7 +28482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="19">
         <v>842</v>
       </c>
@@ -28510,7 +28513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="19">
         <v>848</v>
       </c>
@@ -28541,7 +28544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="19">
         <v>849</v>
       </c>
@@ -28572,7 +28575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="19">
         <v>850</v>
       </c>
@@ -28603,7 +28606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="19">
         <v>851</v>
       </c>
@@ -28634,7 +28637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="19">
         <v>852</v>
       </c>
@@ -28665,7 +28668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="19">
         <v>853</v>
       </c>
@@ -28696,7 +28699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="19">
         <v>859</v>
       </c>
@@ -28727,7 +28730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="19">
         <v>860</v>
       </c>
@@ -28758,7 +28761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="19">
         <v>855</v>
       </c>
@@ -28789,7 +28792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="19">
         <v>531</v>
       </c>
@@ -28820,7 +28823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="19">
         <v>525</v>
       </c>
@@ -28851,7 +28854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="19">
         <v>529</v>
       </c>
@@ -28882,7 +28885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="19">
         <v>527</v>
       </c>
@@ -28913,7 +28916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="19">
         <v>526</v>
       </c>
@@ -28944,7 +28947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="19">
         <v>548</v>
       </c>
@@ -28975,7 +28978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="19">
         <v>554</v>
       </c>
@@ -29006,7 +29009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="19">
         <v>555</v>
       </c>
@@ -29037,7 +29040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="19">
         <v>556</v>
       </c>
@@ -29068,7 +29071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="19">
         <v>559</v>
       </c>
@@ -29099,7 +29102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="19">
         <v>560</v>
       </c>
@@ -29130,7 +29133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="19">
         <v>816</v>
       </c>
@@ -29161,7 +29164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="19">
         <v>815</v>
       </c>
@@ -29192,7 +29195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="19">
         <v>821</v>
       </c>
@@ -29223,7 +29226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="19">
         <v>827</v>
       </c>
@@ -29254,7 +29257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="19">
         <v>833</v>
       </c>
@@ -29285,7 +29288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="19">
         <v>565</v>
       </c>
@@ -29316,7 +29319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="19">
         <v>568</v>
       </c>
@@ -29347,7 +29350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="19">
         <v>569</v>
       </c>
@@ -29378,7 +29381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="820" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="19">
         <v>570</v>
       </c>
@@ -29409,7 +29412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="19">
         <v>571</v>
       </c>
@@ -29440,7 +29443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="19">
         <v>792</v>
       </c>
@@ -29471,7 +29474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="19">
         <v>793</v>
       </c>
@@ -29502,7 +29505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="19">
         <v>794</v>
       </c>
@@ -29533,7 +29536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="19">
         <v>795</v>
       </c>
@@ -29564,7 +29567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="19">
         <v>796</v>
       </c>
@@ -29595,7 +29598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="19">
         <v>566</v>
       </c>
@@ -29626,7 +29629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="828" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="19">
         <v>561</v>
       </c>
@@ -29657,7 +29660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="19">
         <v>797</v>
       </c>
@@ -29688,7 +29691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="830" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="19">
         <v>798</v>
       </c>
@@ -29719,7 +29722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="831" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="19">
         <v>799</v>
       </c>
@@ -29750,7 +29753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="19">
         <v>790</v>
       </c>
@@ -29781,7 +29784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="19">
         <v>791</v>
       </c>
@@ -29812,7 +29815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="19">
         <v>206</v>
       </c>
@@ -29843,7 +29846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="19">
         <v>207</v>
       </c>
@@ -29874,7 +29877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="19">
         <v>7</v>
       </c>
@@ -29905,7 +29908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="837" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="19">
         <v>248</v>
       </c>
@@ -29936,7 +29939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="19">
         <v>250</v>
       </c>
@@ -29967,7 +29970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="839" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" s="19">
         <v>249</v>
       </c>
@@ -29998,7 +30001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="840" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="19">
         <v>252</v>
       </c>
@@ -30029,7 +30032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="841" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="19">
         <v>251</v>
       </c>
@@ -30060,7 +30063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="842" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="19">
         <v>304</v>
       </c>
@@ -30091,7 +30094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="843" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="19">
         <v>451</v>
       </c>
@@ -30122,7 +30125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="844" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="19">
         <v>452</v>
       </c>
@@ -30153,7 +30156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="845" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="19">
         <v>479</v>
       </c>
@@ -30184,7 +30187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="846" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="19">
         <v>483</v>
       </c>
@@ -30215,7 +30218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="847" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="19">
         <v>480</v>
       </c>
@@ -30246,7 +30249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="848" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="19">
         <v>481</v>
       </c>
@@ -30277,7 +30280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="849" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="19">
         <v>482</v>
       </c>
@@ -30308,7 +30311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="850" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="19">
         <v>446</v>
       </c>
@@ -30339,7 +30342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="851" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="19">
         <v>447</v>
       </c>
@@ -30370,7 +30373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="852" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="19">
         <v>448</v>
       </c>
@@ -30401,7 +30404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="19">
         <v>449</v>
       </c>
@@ -30432,7 +30435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" s="19">
         <v>450</v>
       </c>
@@ -30463,7 +30466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="19">
         <v>255</v>
       </c>
@@ -30494,7 +30497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="856" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="19">
         <v>257</v>
       </c>
@@ -30525,7 +30528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="857" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="19">
         <v>236</v>
       </c>
@@ -30556,7 +30559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="858" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="19">
         <v>237</v>
       </c>
@@ -30587,7 +30590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="859" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="19">
         <v>238</v>
       </c>
@@ -30618,7 +30621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="860" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="19">
         <v>239</v>
       </c>
@@ -30649,7 +30652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="861" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="19">
         <v>664</v>
       </c>
@@ -30680,7 +30683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="862" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="19">
         <v>665</v>
       </c>
@@ -30711,7 +30714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="863" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="19">
         <v>666</v>
       </c>
@@ -30742,7 +30745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="864" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="19">
         <v>667</v>
       </c>
@@ -30773,7 +30776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="865" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="19">
         <v>668</v>
       </c>
@@ -30804,7 +30807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="866" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="19">
         <v>669</v>
       </c>
@@ -30835,7 +30838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="867" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="19">
         <v>670</v>
       </c>
@@ -30866,7 +30869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="19">
         <v>671</v>
       </c>
@@ -30897,7 +30900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="19">
         <v>672</v>
       </c>
@@ -30928,7 +30931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="870" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="19">
         <v>673</v>
       </c>
@@ -30959,7 +30962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="871" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="19">
         <v>674</v>
       </c>
@@ -30990,7 +30993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="872" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="19">
         <v>679</v>
       </c>
@@ -31021,7 +31024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="873" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="19">
         <v>680</v>
       </c>
@@ -31052,7 +31055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="874" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="19">
         <v>681</v>
       </c>
@@ -31083,7 +31086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="875" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="19">
         <v>675</v>
       </c>
@@ -31114,7 +31117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="876" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="19">
         <v>676</v>
       </c>
@@ -31145,7 +31148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="877" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="19">
         <v>677</v>
       </c>
@@ -31176,7 +31179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="878" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="19">
         <v>678</v>
       </c>
@@ -31207,7 +31210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="879" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="19">
         <v>682</v>
       </c>
@@ -31238,7 +31241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="880" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="19">
         <v>536</v>
       </c>
@@ -31269,7 +31272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="881" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="19">
         <v>537</v>
       </c>
@@ -31300,7 +31303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="882" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="19">
         <v>538</v>
       </c>
@@ -31331,7 +31334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="883" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="19">
         <v>539</v>
       </c>
@@ -31362,7 +31365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="884" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="19">
         <v>540</v>
       </c>
@@ -31393,7 +31396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="885" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="19">
         <v>245</v>
       </c>
@@ -31424,7 +31427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="886" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="19">
         <v>246</v>
       </c>
@@ -31455,7 +31458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="887" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" s="19">
         <v>247</v>
       </c>
@@ -31486,7 +31489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="888" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="19">
         <v>13</v>
       </c>
@@ -31517,7 +31520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="889" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="19">
         <v>17</v>
       </c>
@@ -31548,7 +31551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="890" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="19">
         <v>433</v>
       </c>
@@ -31579,7 +31582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="891" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="19">
         <v>434</v>
       </c>
@@ -31610,7 +31613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="892" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="19">
         <v>435</v>
       </c>
@@ -31641,7 +31644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="893" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="19">
         <v>486</v>
       </c>
@@ -31672,7 +31675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="894" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="19">
         <v>485</v>
       </c>
@@ -31703,7 +31706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="895" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="19">
         <v>253</v>
       </c>
@@ -31734,7 +31737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="896" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="19">
         <v>254</v>
       </c>
@@ -31765,7 +31768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="897" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="19">
         <v>256</v>
       </c>
@@ -31796,7 +31799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="898" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="19">
         <v>258</v>
       </c>
@@ -31827,7 +31830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="899" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="19">
         <v>259</v>
       </c>
@@ -31858,7 +31861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="900" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="19">
         <v>484</v>
       </c>
@@ -31889,7 +31892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="901" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="19">
         <v>487</v>
       </c>
@@ -31920,7 +31923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="902" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="19">
         <v>233</v>
       </c>
@@ -31951,7 +31954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="903" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="19">
         <v>234</v>
       </c>
@@ -31982,7 +31985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="904" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" s="19">
         <v>235</v>
       </c>
@@ -32013,7 +32016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="905" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="19">
         <v>532</v>
       </c>
@@ -32044,7 +32047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="906" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="19">
         <v>533</v>
       </c>
@@ -32075,7 +32078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="907" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="19">
         <v>534</v>
       </c>
@@ -32106,7 +32109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="908" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="19">
         <v>535</v>
       </c>
@@ -32137,7 +32140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="909" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="19">
         <v>31</v>
       </c>
@@ -32168,7 +32171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="910" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="19">
         <v>34</v>
       </c>
@@ -32199,7 +32202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="911" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="19">
         <v>36</v>
       </c>
@@ -32230,7 +32233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="912" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" s="19">
         <v>37</v>
       </c>
@@ -32261,7 +32264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="913" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" s="19">
         <v>39</v>
       </c>
@@ -32292,7 +32295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="914" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="19">
         <v>75</v>
       </c>
@@ -32321,7 +32324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="915" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="19">
         <v>225</v>
       </c>
@@ -32350,7 +32353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="916" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="19">
         <v>584</v>
       </c>
@@ -32379,7 +32382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="917" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="19">
         <v>585</v>
       </c>
@@ -32408,7 +32411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="918" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="19">
         <v>863</v>
       </c>
@@ -32437,7 +32440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="919" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" s="19">
         <v>864</v>
       </c>
@@ -32466,7 +32469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="920" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" s="19">
         <v>864</v>
       </c>
@@ -32487,7 +32490,7 @@
       <c r="L920" s="19"/>
       <c r="M920" s="19"/>
     </row>
-    <row r="921" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" s="19">
         <v>864</v>
       </c>
@@ -32509,8 +32512,15 @@
       <c r="M921" s="19"/>
     </row>
   </sheetData>
-  <sortState ref="A2:M89">
-    <sortCondition descending="1" ref="G73"/>
+  <autoFilter ref="B1:B921">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A318:M379">
+    <sortCondition ref="G1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/宜科电子/大庆沃尔沃总装物流PTL项目/大庆沃尔沃PTL项目信息汇总.xlsx
+++ b/宜科电子/大庆沃尔沃总装物流PTL项目/大庆沃尔沃PTL项目信息汇总.xlsx
@@ -2220,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -23379,7 +23379,7 @@
         <v>222</v>
       </c>
       <c r="F562" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G562" s="8">
         <v>65</v>
@@ -23417,7 +23417,7 @@
         <v>222</v>
       </c>
       <c r="F563" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G563" s="8">
         <v>66</v>
@@ -23455,7 +23455,7 @@
         <v>222</v>
       </c>
       <c r="F564" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G564" s="8">
         <v>67</v>
@@ -23493,7 +23493,7 @@
         <v>222</v>
       </c>
       <c r="F565" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G565" s="8">
         <v>68</v>
@@ -23531,7 +23531,7 @@
         <v>222</v>
       </c>
       <c r="F566" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G566" s="8">
         <v>69</v>
@@ -26024,31 +26024,31 @@
     </row>
     <row r="632" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A632" s="8">
-        <v>700</v>
+        <v>645</v>
       </c>
       <c r="B632" s="9">
         <v>16</v>
       </c>
       <c r="C632" s="8" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D632" s="10">
-        <v>40001701</v>
+        <v>31108865</v>
       </c>
       <c r="E632" s="12" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F632" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G632" s="8">
-        <v>101</v>
-      </c>
-      <c r="H632" s="8" t="s">
-        <v>336</v>
+        <v>51</v>
+      </c>
+      <c r="H632" s="17" t="s">
+        <v>494</v>
       </c>
       <c r="J632" s="11">
-        <v>45205.594001142701</v>
+        <v>45205.5939674045</v>
       </c>
       <c r="K632" s="8" t="s">
         <v>10</v>
@@ -26062,31 +26062,31 @@
     </row>
     <row r="633" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A633" s="8">
-        <v>701</v>
+        <v>644</v>
       </c>
       <c r="B633" s="9">
         <v>16</v>
       </c>
       <c r="C633" s="8" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D633" s="10">
-        <v>40008538</v>
+        <v>31108859</v>
       </c>
       <c r="E633" s="12" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F633" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G633" s="8">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="H633" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J633" s="11">
-        <v>45205.594001756101</v>
+        <v>45205.593966791101</v>
       </c>
       <c r="K633" s="8" t="s">
         <v>10</v>
@@ -26100,31 +26100,31 @@
     </row>
     <row r="634" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A634" s="8">
-        <v>702</v>
+        <v>643</v>
       </c>
       <c r="B634" s="9">
         <v>16</v>
       </c>
       <c r="C634" s="8" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D634" s="10">
-        <v>40008539</v>
+        <v>31108851</v>
       </c>
       <c r="E634" s="12" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F634" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G634" s="8">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="H634" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J634" s="11">
-        <v>45205.594001756101</v>
+        <v>45205.593966177701</v>
       </c>
       <c r="K634" s="8" t="s">
         <v>10</v>
@@ -26138,31 +26138,31 @@
     </row>
     <row r="635" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A635" s="8">
-        <v>695</v>
+        <v>646</v>
       </c>
       <c r="B635" s="9">
         <v>16</v>
       </c>
       <c r="C635" s="8" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D635" s="10">
-        <v>39794986</v>
+        <v>32211775</v>
       </c>
       <c r="E635" s="12" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F635" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G635" s="8">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="H635" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J635" s="11">
-        <v>45205.593998075601</v>
+        <v>45205.593968018002</v>
       </c>
       <c r="K635" s="8" t="s">
         <v>10</v>
@@ -26176,31 +26176,31 @@
     </row>
     <row r="636" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A636" s="8">
-        <v>696</v>
+        <v>647</v>
       </c>
       <c r="B636" s="9">
         <v>16</v>
       </c>
       <c r="C636" s="8" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D636" s="10">
-        <v>39849800</v>
+        <v>32245327</v>
       </c>
       <c r="E636" s="12" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F636" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G636" s="8">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="H636" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J636" s="11">
-        <v>45205.593998689001</v>
+        <v>45205.593968631401</v>
       </c>
       <c r="K636" s="8" t="s">
         <v>10</v>
@@ -26214,31 +26214,31 @@
     </row>
     <row r="637" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A637" s="8">
-        <v>698</v>
+        <v>642</v>
       </c>
       <c r="B637" s="9">
         <v>16</v>
       </c>
       <c r="C637" s="8" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="D637" s="10">
-        <v>39849819</v>
+        <v>32245325</v>
       </c>
       <c r="E637" s="12" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F637" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G637" s="8">
-        <v>106</v>
-      </c>
-      <c r="H637" s="8" t="s">
-        <v>336</v>
+        <v>56</v>
+      </c>
+      <c r="H637" s="17" t="s">
+        <v>494</v>
       </c>
       <c r="J637" s="11">
-        <v>45205.593999915902</v>
+        <v>45205.593965564301</v>
       </c>
       <c r="K637" s="8" t="s">
         <v>10</v>
@@ -26252,31 +26252,31 @@
     </row>
     <row r="638" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A638" s="8">
-        <v>703</v>
+        <v>640</v>
       </c>
       <c r="B638" s="9">
         <v>16</v>
       </c>
       <c r="C638" s="8" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="D638" s="10">
-        <v>40010977</v>
+        <v>31108857</v>
       </c>
       <c r="E638" s="12" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F638" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G638" s="8">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="H638" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J638" s="11">
-        <v>45205.594002369602</v>
+        <v>45205.5939643374</v>
       </c>
       <c r="K638" s="8" t="s">
         <v>10</v>
@@ -26290,31 +26290,31 @@
     </row>
     <row r="639" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A639" s="8">
-        <v>697</v>
+        <v>639</v>
       </c>
       <c r="B639" s="9">
         <v>16</v>
       </c>
       <c r="C639" s="8" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="D639" s="10">
-        <v>39849807</v>
+        <v>31108849</v>
       </c>
       <c r="E639" s="12" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F639" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G639" s="8">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="H639" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J639" s="11">
-        <v>45205.593999302502</v>
+        <v>45205.593963724001</v>
       </c>
       <c r="K639" s="8" t="s">
         <v>10</v>
@@ -26328,31 +26328,31 @@
     </row>
     <row r="640" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A640" s="8">
-        <v>694</v>
+        <v>641</v>
       </c>
       <c r="B640" s="9">
         <v>16</v>
       </c>
       <c r="C640" s="8" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="D640" s="10">
-        <v>39790187</v>
+        <v>32211771</v>
       </c>
       <c r="E640" s="12" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F640" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G640" s="8">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="H640" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J640" s="11">
-        <v>45205.593997462202</v>
+        <v>45205.593964950902</v>
       </c>
       <c r="K640" s="8" t="s">
         <v>10</v>
@@ -26366,7 +26366,7 @@
     </row>
     <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A641" s="8">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B641" s="9">
         <v>16</v>
@@ -26375,7 +26375,7 @@
         <v>272</v>
       </c>
       <c r="D641" s="10">
-        <v>39849822</v>
+        <v>40001701</v>
       </c>
       <c r="E641" s="12" t="s">
         <v>270</v>
@@ -26384,13 +26384,13 @@
         <v>3</v>
       </c>
       <c r="G641" s="8">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H641" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J641" s="11">
-        <v>45205.594000529301</v>
+        <v>45205.594001142701</v>
       </c>
       <c r="K641" s="8" t="s">
         <v>10</v>
@@ -26404,16 +26404,16 @@
     </row>
     <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642" s="8">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="B642" s="9">
         <v>16</v>
       </c>
       <c r="C642" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D642" s="10">
-        <v>31689696</v>
+        <v>40008538</v>
       </c>
       <c r="E642" s="12" t="s">
         <v>270</v>
@@ -26422,13 +26422,13 @@
         <v>3</v>
       </c>
       <c r="G642" s="8">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H642" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J642" s="11">
-        <v>45205.593992554801</v>
+        <v>45205.594001756101</v>
       </c>
       <c r="K642" s="8" t="s">
         <v>10</v>
@@ -26442,16 +26442,16 @@
     </row>
     <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A643" s="8">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="B643" s="9">
         <v>16</v>
       </c>
       <c r="C643" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D643" s="10">
-        <v>32211370</v>
+        <v>40008539</v>
       </c>
       <c r="E643" s="12" t="s">
         <v>270</v>
@@ -26460,13 +26460,13 @@
         <v>3</v>
       </c>
       <c r="G643" s="8">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H643" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J643" s="11">
-        <v>45205.593993168201</v>
+        <v>45205.594001756101</v>
       </c>
       <c r="K643" s="8" t="s">
         <v>10</v>
@@ -26480,16 +26480,16 @@
     </row>
     <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A644" s="8">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="B644" s="9">
         <v>16</v>
       </c>
       <c r="C644" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D644" s="10">
-        <v>32368295</v>
+        <v>39794986</v>
       </c>
       <c r="E644" s="12" t="s">
         <v>270</v>
@@ -26498,13 +26498,13 @@
         <v>3</v>
       </c>
       <c r="G644" s="8">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H644" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J644" s="11">
-        <v>45205.593991941401</v>
+        <v>45205.593998075601</v>
       </c>
       <c r="K644" s="8" t="s">
         <v>10</v>
@@ -26518,16 +26518,16 @@
     </row>
     <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A645" s="8">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="B645" s="9">
         <v>16</v>
       </c>
       <c r="C645" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D645" s="10">
-        <v>31689698</v>
+        <v>39849800</v>
       </c>
       <c r="E645" s="12" t="s">
         <v>270</v>
@@ -26536,13 +26536,13 @@
         <v>3</v>
       </c>
       <c r="G645" s="8">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H645" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J645" s="11">
-        <v>45205.593995008501</v>
+        <v>45205.593998689001</v>
       </c>
       <c r="K645" s="8" t="s">
         <v>10</v>
@@ -26556,16 +26556,16 @@
     </row>
     <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A646" s="8">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="B646" s="9">
         <v>16</v>
       </c>
       <c r="C646" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D646" s="10">
-        <v>32368297</v>
+        <v>39849819</v>
       </c>
       <c r="E646" s="12" t="s">
         <v>270</v>
@@ -26574,13 +26574,13 @@
         <v>3</v>
       </c>
       <c r="G646" s="8">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H646" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J646" s="11">
-        <v>45205.593993781702</v>
+        <v>45205.593999915902</v>
       </c>
       <c r="K646" s="8" t="s">
         <v>10</v>
@@ -26594,16 +26594,16 @@
     </row>
     <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A647" s="8">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="B647" s="9">
         <v>16</v>
       </c>
       <c r="C647" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D647" s="10">
-        <v>32368381</v>
+        <v>40010977</v>
       </c>
       <c r="E647" s="12" t="s">
         <v>270</v>
@@ -26612,13 +26612,13 @@
         <v>3</v>
       </c>
       <c r="G647" s="8">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H647" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J647" s="11">
-        <v>45205.593996848802</v>
+        <v>45205.594002369602</v>
       </c>
       <c r="K647" s="8" t="s">
         <v>10</v>
@@ -26632,16 +26632,16 @@
     </row>
     <row r="648" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A648" s="8">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="B648" s="9">
         <v>16</v>
       </c>
       <c r="C648" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D648" s="10">
-        <v>32368300</v>
+        <v>39849807</v>
       </c>
       <c r="E648" s="12" t="s">
         <v>270</v>
@@ -26650,13 +26650,13 @@
         <v>3</v>
       </c>
       <c r="G648" s="8">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H648" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J648" s="11">
-        <v>45205.593991328002</v>
+        <v>45205.593999302502</v>
       </c>
       <c r="K648" s="8" t="s">
         <v>10</v>
@@ -26670,16 +26670,16 @@
     </row>
     <row r="649" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A649" s="8">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B649" s="9">
         <v>16</v>
       </c>
       <c r="C649" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D649" s="10">
-        <v>32368299</v>
+        <v>39790187</v>
       </c>
       <c r="E649" s="12" t="s">
         <v>270</v>
@@ -26688,13 +26688,13 @@
         <v>3</v>
       </c>
       <c r="G649" s="8">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H649" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J649" s="11">
-        <v>45205.593994395102</v>
+        <v>45205.593997462202</v>
       </c>
       <c r="K649" s="8" t="s">
         <v>10</v>
@@ -26708,16 +26708,16 @@
     </row>
     <row r="650" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A650" s="8">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="B650" s="9">
         <v>16</v>
       </c>
       <c r="C650" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D650" s="10">
-        <v>32211373</v>
+        <v>39849822</v>
       </c>
       <c r="E650" s="12" t="s">
         <v>270</v>
@@ -26726,13 +26726,13 @@
         <v>3</v>
       </c>
       <c r="G650" s="8">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H650" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J650" s="11">
-        <v>45205.593993168201</v>
+        <v>45205.594000529301</v>
       </c>
       <c r="K650" s="8" t="s">
         <v>10</v>
@@ -26746,7 +26746,7 @@
     </row>
     <row r="651" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A651" s="8">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B651" s="9">
         <v>16</v>
@@ -26755,7 +26755,7 @@
         <v>271</v>
       </c>
       <c r="D651" s="10">
-        <v>32368302</v>
+        <v>31689696</v>
       </c>
       <c r="E651" s="12" t="s">
         <v>270</v>
@@ -26764,13 +26764,13 @@
         <v>3</v>
       </c>
       <c r="G651" s="8">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H651" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J651" s="11">
-        <v>45205.593995621901</v>
+        <v>45205.593992554801</v>
       </c>
       <c r="K651" s="8" t="s">
         <v>10</v>
@@ -26793,7 +26793,7 @@
         <v>271</v>
       </c>
       <c r="D652" s="10">
-        <v>32211374</v>
+        <v>32211370</v>
       </c>
       <c r="E652" s="12" t="s">
         <v>270</v>
@@ -26802,10 +26802,10 @@
         <v>3</v>
       </c>
       <c r="G652" s="8">
-        <v>121</v>
-      </c>
-      <c r="H652" s="17" t="s">
-        <v>449</v>
+        <v>112</v>
+      </c>
+      <c r="H652" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="J652" s="11">
         <v>45205.593993168201</v>
@@ -26822,16 +26822,16 @@
     </row>
     <row r="653" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A653" s="8">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B653" s="9">
         <v>16</v>
       </c>
       <c r="C653" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D653" s="10">
-        <v>31477312</v>
+        <v>32368295</v>
       </c>
       <c r="E653" s="12" t="s">
         <v>270</v>
@@ -26840,13 +26840,13 @@
         <v>3</v>
       </c>
       <c r="G653" s="8">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H653" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J653" s="11">
-        <v>45205.593990714602</v>
+        <v>45205.593991941401</v>
       </c>
       <c r="K653" s="8" t="s">
         <v>10</v>
@@ -26860,7 +26860,7 @@
     </row>
     <row r="654" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A654" s="8">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B654" s="9">
         <v>16</v>
@@ -26869,7 +26869,7 @@
         <v>271</v>
       </c>
       <c r="D654" s="10">
-        <v>32368282</v>
+        <v>31689698</v>
       </c>
       <c r="E654" s="12" t="s">
         <v>270</v>
@@ -26878,13 +26878,13 @@
         <v>3</v>
       </c>
       <c r="G654" s="8">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H654" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J654" s="11">
-        <v>45205.593994395102</v>
+        <v>45205.593995008501</v>
       </c>
       <c r="K654" s="8" t="s">
         <v>10</v>
@@ -26898,7 +26898,7 @@
     </row>
     <row r="655" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A655" s="8">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B655" s="9">
         <v>16</v>
@@ -26907,7 +26907,7 @@
         <v>271</v>
       </c>
       <c r="D655" s="10">
-        <v>32368379</v>
+        <v>32368297</v>
       </c>
       <c r="E655" s="12" t="s">
         <v>270</v>
@@ -26916,13 +26916,13 @@
         <v>3</v>
       </c>
       <c r="G655" s="8">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H655" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J655" s="11">
-        <v>45205.593996235402</v>
+        <v>45205.593993781702</v>
       </c>
       <c r="K655" s="8" t="s">
         <v>10</v>
@@ -28618,31 +28618,31 @@
     </row>
     <row r="702" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A702" s="8">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="B702" s="9">
         <v>18</v>
       </c>
       <c r="C702" s="8" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="D702" s="10">
-        <v>32368725</v>
+        <v>31108866</v>
       </c>
       <c r="E702" s="12" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="F702" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G702" s="8">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="H702" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J702" s="11">
-        <v>45205.593872937599</v>
+        <v>45205.593902995301</v>
       </c>
       <c r="K702" s="8" t="s">
         <v>10</v>
@@ -28656,31 +28656,31 @@
     </row>
     <row r="703" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A703" s="8">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="B703" s="9">
         <v>18</v>
       </c>
       <c r="C703" s="8" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="D703" s="10">
-        <v>32368727</v>
+        <v>32211764</v>
       </c>
       <c r="E703" s="12" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="F703" s="9">
+        <v>1</v>
+      </c>
+      <c r="G703" s="8">
         <v>2</v>
       </c>
-      <c r="G703" s="8">
-        <v>54</v>
-      </c>
       <c r="H703" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J703" s="11">
-        <v>45205.593873551101</v>
+        <v>45205.5939036087</v>
       </c>
       <c r="K703" s="8" t="s">
         <v>10</v>
@@ -28694,31 +28694,31 @@
     </row>
     <row r="704" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A704" s="8">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="B704" s="9">
         <v>18</v>
       </c>
       <c r="C704" s="8" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D704" s="10">
-        <v>32368753</v>
+        <v>32274399</v>
       </c>
       <c r="E704" s="12" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="F704" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G704" s="8">
-        <v>55</v>
-      </c>
-      <c r="H704" s="17" t="s">
-        <v>486</v>
+        <v>3</v>
+      </c>
+      <c r="H704" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="J704" s="11">
-        <v>45205.5938741645</v>
+        <v>45205.593899314801</v>
       </c>
       <c r="K704" s="8" t="s">
         <v>10</v>
@@ -28819,31 +28819,31 @@
     </row>
     <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708" s="8">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="B708" s="9">
         <v>18</v>
       </c>
       <c r="C708" s="8" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="D708" s="10">
-        <v>32368760</v>
+        <v>32274403</v>
       </c>
       <c r="E708" s="12" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="F708" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G708" s="8">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="H708" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J708" s="11">
-        <v>45205.5938839792</v>
+        <v>45205.593907902701</v>
       </c>
       <c r="K708" s="8" t="s">
         <v>10</v>
@@ -28857,31 +28857,31 @@
     </row>
     <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709" s="8">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="B709" s="9">
         <v>18</v>
       </c>
       <c r="C709" s="8" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="D709" s="10">
-        <v>32372012</v>
+        <v>32211757</v>
       </c>
       <c r="E709" s="12" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="F709" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G709" s="8">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="H709" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J709" s="11">
-        <v>45205.5938864329</v>
+        <v>45205.593904835601</v>
       </c>
       <c r="K709" s="8" t="s">
         <v>10</v>
@@ -28895,31 +28895,31 @@
     </row>
     <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710" s="8">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="B710" s="9">
         <v>18</v>
       </c>
       <c r="C710" s="8" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="D710" s="10">
-        <v>31365842</v>
+        <v>31108852</v>
       </c>
       <c r="E710" s="12" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="F710" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G710" s="8">
-        <v>56</v>
-      </c>
-      <c r="H710" s="17" t="s">
-        <v>486</v>
+        <v>6</v>
+      </c>
+      <c r="H710" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="J710" s="11">
-        <v>45205.5938870463</v>
+        <v>45205.5939072892</v>
       </c>
       <c r="K710" s="8" t="s">
         <v>10</v>
@@ -28933,31 +28933,31 @@
     </row>
     <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711" s="8">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="B711" s="9">
         <v>18</v>
       </c>
       <c r="C711" s="8" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="D711" s="10">
-        <v>32132070</v>
+        <v>31108860</v>
       </c>
       <c r="E711" s="12" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="F711" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G711" s="8">
-        <v>59</v>
-      </c>
-      <c r="H711" s="8" t="s">
-        <v>336</v>
+        <v>7</v>
+      </c>
+      <c r="H711" s="17" t="s">
+        <v>484</v>
       </c>
       <c r="J711" s="11">
-        <v>45205.5938802987</v>
+        <v>45205.593905449001</v>
       </c>
       <c r="K711" s="8" t="s">
         <v>10</v>
@@ -28971,31 +28971,31 @@
     </row>
     <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712" s="8">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="B712" s="9">
         <v>18</v>
       </c>
       <c r="C712" s="8" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="D712" s="10">
-        <v>32132072</v>
+        <v>31108862</v>
       </c>
       <c r="E712" s="12" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="F712" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G712" s="8">
-        <v>61</v>
-      </c>
-      <c r="H712" s="8" t="s">
-        <v>336</v>
+        <v>8</v>
+      </c>
+      <c r="H712" s="17" t="s">
+        <v>484</v>
       </c>
       <c r="J712" s="11">
-        <v>45205.593881525499</v>
+        <v>45205.5939005416</v>
       </c>
       <c r="K712" s="8" t="s">
         <v>10</v>
@@ -29009,31 +29009,31 @@
     </row>
     <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713" s="8">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="B713" s="9">
         <v>18</v>
       </c>
       <c r="C713" s="8" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D713" s="10">
-        <v>32132074</v>
+        <v>31108854</v>
       </c>
       <c r="E713" s="12" t="s">
-        <v>172</v>
+        <v>487</v>
       </c>
       <c r="F713" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G713" s="8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="H713" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J713" s="11">
-        <v>45205.593882139001</v>
+        <v>45205.5938956342</v>
       </c>
       <c r="K713" s="8" t="s">
         <v>10</v>
@@ -29871,31 +29871,31 @@
     </row>
     <row r="742" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A742" s="8">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="B742" s="9">
         <v>18</v>
       </c>
       <c r="C742" s="8" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="D742" s="10">
-        <v>31108854</v>
+        <v>32368725</v>
       </c>
       <c r="E742" s="12" t="s">
-        <v>487</v>
+        <v>164</v>
       </c>
       <c r="F742" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G742" s="8">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="H742" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J742" s="11">
-        <v>45205.5938956342</v>
+        <v>45205.593872937599</v>
       </c>
       <c r="K742" s="8" t="s">
         <v>10</v>
@@ -29909,31 +29909,31 @@
     </row>
     <row r="743" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A743" s="8">
-        <v>483</v>
+        <v>434</v>
       </c>
       <c r="B743" s="9">
         <v>18</v>
       </c>
       <c r="C743" s="8" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="D743" s="10">
-        <v>32274399</v>
+        <v>32368727</v>
       </c>
       <c r="E743" s="12" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="F743" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G743" s="8">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="H743" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J743" s="11">
-        <v>45205.593899314801</v>
+        <v>45205.593873551101</v>
       </c>
       <c r="K743" s="8" t="s">
         <v>10</v>
@@ -29947,31 +29947,31 @@
     </row>
     <row r="744" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A744" s="8">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="B744" s="9">
         <v>18</v>
       </c>
       <c r="C744" s="8" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="D744" s="10">
-        <v>31108862</v>
+        <v>32368753</v>
       </c>
       <c r="E744" s="12" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="F744" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G744" s="8">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="H744" s="17" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J744" s="11">
-        <v>45205.5939005416</v>
+        <v>45205.5938741645</v>
       </c>
       <c r="K744" s="8" t="s">
         <v>10</v>
@@ -29985,31 +29985,31 @@
     </row>
     <row r="745" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A745" s="8">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="B745" s="9">
         <v>18</v>
       </c>
       <c r="C745" s="8" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="D745" s="10">
-        <v>31108866</v>
+        <v>31365842</v>
       </c>
       <c r="E745" s="12" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F745" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G745" s="8">
-        <v>1</v>
-      </c>
-      <c r="H745" s="8" t="s">
-        <v>336</v>
+        <v>56</v>
+      </c>
+      <c r="H745" s="17" t="s">
+        <v>486</v>
       </c>
       <c r="J745" s="11">
-        <v>45205.593902995301</v>
+        <v>45205.5938870463</v>
       </c>
       <c r="K745" s="8" t="s">
         <v>10</v>
@@ -30023,31 +30023,31 @@
     </row>
     <row r="746" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A746" s="8">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="B746" s="9">
         <v>18</v>
       </c>
       <c r="C746" s="8" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="D746" s="10">
-        <v>32211764</v>
+        <v>32368760</v>
       </c>
       <c r="E746" s="12" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F746" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G746" s="8">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="H746" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J746" s="11">
-        <v>45205.5939036087</v>
+        <v>45205.5938839792</v>
       </c>
       <c r="K746" s="8" t="s">
         <v>10</v>
@@ -30061,31 +30061,31 @@
     </row>
     <row r="747" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A747" s="8">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="B747" s="9">
         <v>18</v>
       </c>
       <c r="C747" s="8" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="D747" s="10">
-        <v>32211757</v>
+        <v>32372012</v>
       </c>
       <c r="E747" s="12" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="F747" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G747" s="8">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="H747" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J747" s="11">
-        <v>45205.593904835601</v>
+        <v>45205.5938864329</v>
       </c>
       <c r="K747" s="8" t="s">
         <v>10</v>
@@ -30099,31 +30099,31 @@
     </row>
     <row r="748" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A748" s="8">
-        <v>485</v>
+        <v>447</v>
       </c>
       <c r="B748" s="9">
         <v>18</v>
       </c>
       <c r="C748" s="8" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="D748" s="10">
-        <v>31108860</v>
+        <v>32132070</v>
       </c>
       <c r="E748" s="12" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="F748" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G748" s="8">
-        <v>7</v>
-      </c>
-      <c r="H748" s="17" t="s">
-        <v>484</v>
+        <v>59</v>
+      </c>
+      <c r="H748" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="J748" s="11">
-        <v>45205.593905449001</v>
+        <v>45205.5938802987</v>
       </c>
       <c r="K748" s="8" t="s">
         <v>10</v>
@@ -30137,31 +30137,31 @@
     </row>
     <row r="749" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A749" s="8">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="B749" s="9">
         <v>18</v>
       </c>
       <c r="C749" s="8" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D749" s="10">
-        <v>31108852</v>
+        <v>32132074</v>
       </c>
       <c r="E749" s="12" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="F749" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G749" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="H749" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J749" s="11">
-        <v>45205.5939072892</v>
+        <v>45205.593882139001</v>
       </c>
       <c r="K749" s="8" t="s">
         <v>10</v>
@@ -30175,31 +30175,31 @@
     </row>
     <row r="750" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A750" s="8">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="B750" s="9">
         <v>18</v>
       </c>
       <c r="C750" s="8" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="D750" s="10">
-        <v>32274403</v>
+        <v>32132072</v>
       </c>
       <c r="E750" s="12" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="F750" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G750" s="8">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="H750" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J750" s="11">
-        <v>45205.593907902701</v>
+        <v>45205.593881525499</v>
       </c>
       <c r="K750" s="8" t="s">
         <v>10</v>
@@ -32875,31 +32875,31 @@
     </row>
     <row r="843" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A843" s="8">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="B843" s="9">
         <v>16</v>
       </c>
       <c r="C843" s="8" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D843" s="10">
-        <v>31108849</v>
+        <v>32368381</v>
       </c>
       <c r="E843" s="12" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="F843" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G843" s="8">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="H843" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J843" s="11">
-        <v>45205.593963724001</v>
+        <v>45205.593996848802</v>
       </c>
       <c r="K843" s="8" t="s">
         <v>10</v>
@@ -32913,31 +32913,31 @@
     </row>
     <row r="844" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A844" s="8">
-        <v>640</v>
+        <v>690</v>
       </c>
       <c r="B844" s="9">
         <v>16</v>
       </c>
       <c r="C844" s="8" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D844" s="10">
-        <v>31108857</v>
+        <v>32368300</v>
       </c>
       <c r="E844" s="12" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="F844" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G844" s="8">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="H844" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J844" s="11">
-        <v>45205.5939643374</v>
+        <v>45205.593991328002</v>
       </c>
       <c r="K844" s="8" t="s">
         <v>10</v>
@@ -32951,31 +32951,31 @@
     </row>
     <row r="845" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A845" s="8">
-        <v>641</v>
+        <v>689</v>
       </c>
       <c r="B845" s="9">
         <v>16</v>
       </c>
       <c r="C845" s="8" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D845" s="10">
-        <v>32211771</v>
+        <v>32368299</v>
       </c>
       <c r="E845" s="12" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="F845" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G845" s="8">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="H845" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J845" s="11">
-        <v>45205.593964950902</v>
+        <v>45205.593994395102</v>
       </c>
       <c r="K845" s="8" t="s">
         <v>10</v>
@@ -32989,31 +32989,31 @@
     </row>
     <row r="846" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A846" s="8">
-        <v>642</v>
+        <v>686</v>
       </c>
       <c r="B846" s="9">
         <v>16</v>
       </c>
       <c r="C846" s="8" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D846" s="10">
-        <v>32245325</v>
+        <v>32211373</v>
       </c>
       <c r="E846" s="12" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="F846" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G846" s="8">
-        <v>56</v>
-      </c>
-      <c r="H846" s="17" t="s">
-        <v>494</v>
+        <v>119</v>
+      </c>
+      <c r="H846" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="J846" s="11">
-        <v>45205.593965564301</v>
+        <v>45205.593993168201</v>
       </c>
       <c r="K846" s="8" t="s">
         <v>10</v>
@@ -33027,31 +33027,31 @@
     </row>
     <row r="847" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A847" s="8">
-        <v>643</v>
+        <v>691</v>
       </c>
       <c r="B847" s="9">
         <v>16</v>
       </c>
       <c r="C847" s="8" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D847" s="10">
-        <v>31108851</v>
+        <v>32368302</v>
       </c>
       <c r="E847" s="12" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F847" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G847" s="8">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="H847" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J847" s="11">
-        <v>45205.593966177701</v>
+        <v>45205.593995621901</v>
       </c>
       <c r="K847" s="8" t="s">
         <v>10</v>
@@ -33065,31 +33065,31 @@
     </row>
     <row r="848" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A848" s="8">
-        <v>644</v>
+        <v>686</v>
       </c>
       <c r="B848" s="9">
         <v>16</v>
       </c>
       <c r="C848" s="8" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D848" s="10">
-        <v>31108859</v>
+        <v>32211374</v>
       </c>
       <c r="E848" s="12" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F848" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G848" s="8">
-        <v>52</v>
-      </c>
-      <c r="H848" s="8" t="s">
-        <v>336</v>
+        <v>121</v>
+      </c>
+      <c r="H848" s="17" t="s">
+        <v>449</v>
       </c>
       <c r="J848" s="11">
-        <v>45205.593966791101</v>
+        <v>45205.593993168201</v>
       </c>
       <c r="K848" s="8" t="s">
         <v>10</v>
@@ -33103,31 +33103,31 @@
     </row>
     <row r="849" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A849" s="8">
-        <v>645</v>
+        <v>683</v>
       </c>
       <c r="B849" s="9">
         <v>16</v>
       </c>
       <c r="C849" s="8" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D849" s="10">
-        <v>31108865</v>
+        <v>31477312</v>
       </c>
       <c r="E849" s="12" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F849" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G849" s="8">
-        <v>51</v>
-      </c>
-      <c r="H849" s="17" t="s">
-        <v>494</v>
+        <v>122</v>
+      </c>
+      <c r="H849" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="J849" s="11">
-        <v>45205.5939674045</v>
+        <v>45205.593990714602</v>
       </c>
       <c r="K849" s="8" t="s">
         <v>10</v>
@@ -33141,31 +33141,31 @@
     </row>
     <row r="850" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A850" s="8">
-        <v>646</v>
+        <v>689</v>
       </c>
       <c r="B850" s="9">
         <v>16</v>
       </c>
       <c r="C850" s="8" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D850" s="10">
-        <v>32211775</v>
+        <v>32368282</v>
       </c>
       <c r="E850" s="12" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F850" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G850" s="8">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="H850" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J850" s="11">
-        <v>45205.593968018002</v>
+        <v>45205.593994395102</v>
       </c>
       <c r="K850" s="8" t="s">
         <v>10</v>
@@ -33179,31 +33179,31 @@
     </row>
     <row r="851" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A851" s="8">
-        <v>647</v>
+        <v>692</v>
       </c>
       <c r="B851" s="9">
         <v>16</v>
       </c>
       <c r="C851" s="8" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D851" s="10">
-        <v>32245327</v>
+        <v>32368379</v>
       </c>
       <c r="E851" s="12" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F851" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G851" s="8">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="H851" s="8" t="s">
         <v>336</v>
       </c>
       <c r="J851" s="11">
-        <v>45205.593968631401</v>
+        <v>45205.593996235402</v>
       </c>
       <c r="K851" s="8" t="s">
         <v>10</v>
@@ -36453,11 +36453,7 @@
       <c r="J964" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M964">
-    <sortState ref="A673:M964">
-      <sortCondition ref="G801"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:M964"/>
   <sortState ref="A239:M344">
     <sortCondition ref="E1"/>
   </sortState>
@@ -36472,7 +36468,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E619" sqref="E619"/>
+      <selection activeCell="J550" sqref="J550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/宜科电子/大庆沃尔沃总装物流PTL项目/大庆沃尔沃PTL项目信息汇总.xlsx
+++ b/宜科电子/大庆沃尔沃总装物流PTL项目/大庆沃尔沃PTL项目信息汇总.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="814"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="814" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PTL_INFO" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="备注" sheetId="8" r:id="rId2"/>
     <sheet name="PTL_GateWay_INFO" sheetId="3" r:id="rId3"/>
     <sheet name="XGate个数" sheetId="6" r:id="rId4"/>
     <sheet name="大庆沃尔沃PTLIP地址申请" sheetId="5" r:id="rId5"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5252" uniqueCount="524">
   <si>
     <t>Id</t>
   </si>
@@ -1791,6 +1791,10 @@
   </si>
   <si>
     <t>gatewayid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLF显示BTR信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2569,8 +2573,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A511" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F522" sqref="F522"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G419" sqref="G419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -17858,7 +17862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" s="12">
         <v>292</v>
       </c>
@@ -17896,7 +17900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" s="12">
         <v>292</v>
       </c>
@@ -17934,7 +17938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" s="12">
         <v>292</v>
       </c>
@@ -17972,7 +17976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" s="12">
         <v>292</v>
       </c>
@@ -18010,7 +18014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" s="12">
         <v>292</v>
       </c>
@@ -18048,7 +18052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" s="12">
         <v>292</v>
       </c>
@@ -18086,7 +18090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" s="12">
         <v>292</v>
       </c>
@@ -18124,7 +18128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="12">
         <v>292</v>
       </c>
@@ -18162,7 +18166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="12">
         <v>292</v>
       </c>
@@ -18200,7 +18204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" s="12">
         <v>292</v>
       </c>
@@ -18238,7 +18242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" s="12">
         <v>292</v>
       </c>
@@ -18276,7 +18280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="12">
         <v>292</v>
       </c>
@@ -18314,7 +18318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="12">
         <v>292</v>
       </c>
@@ -18352,7 +18356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" s="12">
         <v>292</v>
       </c>
@@ -18390,7 +18394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" s="12">
         <v>292</v>
       </c>
@@ -18428,7 +18432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="12">
         <v>292</v>
       </c>
@@ -18466,7 +18470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" s="12">
         <v>292</v>
       </c>
@@ -18504,7 +18508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="12">
         <v>292</v>
       </c>
@@ -18542,7 +18546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" s="12">
         <v>292</v>
       </c>
@@ -18580,7 +18584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" s="12">
         <v>292</v>
       </c>
@@ -18618,7 +18622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" s="12">
         <v>292</v>
       </c>
@@ -18656,7 +18660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" s="12">
         <v>292</v>
       </c>
@@ -18694,7 +18698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" s="12">
         <v>292</v>
       </c>
@@ -18732,7 +18736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" s="12">
         <v>292</v>
       </c>
@@ -18770,7 +18774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="12">
         <v>292</v>
       </c>
@@ -18808,7 +18812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" s="12">
         <v>292</v>
       </c>
@@ -18846,7 +18850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" s="12">
         <v>292</v>
       </c>
@@ -18884,7 +18888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" s="12">
         <v>292</v>
       </c>
@@ -18922,7 +18926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" s="12">
         <v>292</v>
       </c>
@@ -18960,7 +18964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="12">
         <v>292</v>
       </c>
@@ -18998,7 +19002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="12">
         <v>292</v>
       </c>
@@ -19036,7 +19040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="12">
         <v>292</v>
       </c>
@@ -19074,7 +19078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="12">
         <v>292</v>
       </c>
@@ -19112,7 +19116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="12">
         <v>292</v>
       </c>
@@ -19150,7 +19154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="12">
         <v>292</v>
       </c>
@@ -19188,7 +19192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="12">
         <v>292</v>
       </c>
@@ -19226,7 +19230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="12">
         <v>292</v>
       </c>
@@ -19264,7 +19268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="12">
         <v>292</v>
       </c>
@@ -19302,7 +19306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="12">
         <v>292</v>
       </c>
@@ -19340,7 +19344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="12">
         <v>292</v>
       </c>
@@ -19378,7 +19382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="12">
         <v>292</v>
       </c>
@@ -19416,7 +19420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="12">
         <v>292</v>
       </c>
@@ -19454,7 +19458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="12">
         <v>292</v>
       </c>
@@ -19492,7 +19496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="12">
         <v>292</v>
       </c>
@@ -19530,7 +19534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="12">
         <v>292</v>
       </c>
@@ -19568,7 +19572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="12">
         <v>292</v>
       </c>
@@ -19606,7 +19610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="12">
         <v>292</v>
       </c>
@@ -19644,7 +19648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="12">
         <v>292</v>
       </c>
@@ -19682,7 +19686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="12">
         <v>292</v>
       </c>
@@ -19720,7 +19724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="12">
         <v>292</v>
       </c>
@@ -19758,7 +19762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="12">
         <v>292</v>
       </c>
@@ -19796,7 +19800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="12">
         <v>292</v>
       </c>
@@ -19834,7 +19838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="12">
         <v>292</v>
       </c>
@@ -19872,7 +19876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="12">
         <v>292</v>
       </c>
@@ -19910,7 +19914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="12">
         <v>292</v>
       </c>
@@ -19948,7 +19952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="12">
         <v>292</v>
       </c>
@@ -19986,7 +19990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="12">
         <v>292</v>
       </c>
@@ -20024,7 +20028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="12">
         <v>292</v>
       </c>
@@ -20062,7 +20066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="12">
         <v>292</v>
       </c>
@@ -20100,7 +20104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="12">
         <v>292</v>
       </c>
@@ -20138,7 +20142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="12">
         <v>292</v>
       </c>
@@ -20176,7 +20180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="12">
         <v>292</v>
       </c>
@@ -20214,7 +20218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="12">
         <v>292</v>
       </c>
@@ -20252,7 +20256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="12">
         <v>292</v>
       </c>
@@ -20290,7 +20294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="12">
         <v>292</v>
       </c>
@@ -20328,7 +20332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="12">
         <v>292</v>
       </c>
@@ -20366,7 +20370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="12">
         <v>292</v>
       </c>
@@ -20404,7 +20408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="12">
         <v>292</v>
       </c>
@@ -20442,7 +20446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="12">
         <v>292</v>
       </c>
@@ -20480,7 +20484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="12">
         <v>292</v>
       </c>
@@ -20518,7 +20522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="12">
         <v>292</v>
       </c>
@@ -20556,7 +20560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="12">
         <v>292</v>
       </c>
@@ -20594,7 +20598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="12">
         <v>292</v>
       </c>
@@ -20632,7 +20636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="12">
         <v>292</v>
       </c>
@@ -20670,7 +20674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="12">
         <v>292</v>
       </c>
@@ -20708,7 +20712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="12">
         <v>292</v>
       </c>
@@ -20746,7 +20750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="12">
         <v>292</v>
       </c>
@@ -20784,7 +20788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="12">
         <v>292</v>
       </c>
@@ -20822,7 +20826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="12">
         <v>292</v>
       </c>
@@ -20860,7 +20864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="12">
         <v>292</v>
       </c>
@@ -20898,7 +20902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="12">
         <v>292</v>
       </c>
@@ -20936,7 +20940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="12">
         <v>292</v>
       </c>
@@ -20974,7 +20978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="12">
         <v>292</v>
       </c>
@@ -21012,7 +21016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="12">
         <v>292</v>
       </c>
@@ -21050,7 +21054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="12">
         <v>292</v>
       </c>
@@ -21088,7 +21092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="12">
         <v>292</v>
       </c>
@@ -21126,7 +21130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="12">
         <v>292</v>
       </c>
@@ -21164,7 +21168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="12">
         <v>292</v>
       </c>
@@ -21202,7 +21206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="12">
         <v>292</v>
       </c>
@@ -21240,7 +21244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="12">
         <v>292</v>
       </c>
@@ -21278,7 +21282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="12">
         <v>292</v>
       </c>
@@ -21316,7 +21320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="12">
         <v>292</v>
       </c>
@@ -21354,7 +21358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="12">
         <v>292</v>
       </c>
@@ -21392,7 +21396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="12">
         <v>292</v>
       </c>
@@ -21430,7 +21434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="12">
         <v>292</v>
       </c>
@@ -21468,7 +21472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="12">
         <v>292</v>
       </c>
@@ -21506,7 +21510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="12">
         <v>292</v>
       </c>
@@ -21544,7 +21548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="12">
         <v>292</v>
       </c>
@@ -21582,7 +21586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="12">
         <v>292</v>
       </c>
@@ -21620,7 +21624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="12">
         <v>292</v>
       </c>
@@ -21658,7 +21662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="12">
         <v>292</v>
       </c>
@@ -21696,7 +21700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="12">
         <v>292</v>
       </c>
@@ -21734,7 +21738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="12">
         <v>292</v>
       </c>
@@ -21772,7 +21776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="12">
         <v>292</v>
       </c>
@@ -21810,7 +21814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="12">
         <v>292</v>
       </c>
@@ -21848,7 +21852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="12">
         <v>292</v>
       </c>
@@ -21886,7 +21890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="12">
         <v>292</v>
       </c>
@@ -21924,7 +21928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="12">
         <v>292</v>
       </c>
@@ -21962,7 +21966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="12">
         <v>292</v>
       </c>
@@ -22000,7 +22004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="12">
         <v>292</v>
       </c>
@@ -22038,7 +22042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="12">
         <v>292</v>
       </c>
@@ -22076,7 +22080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="12">
         <v>292</v>
       </c>
@@ -22114,7 +22118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="12">
         <v>292</v>
       </c>
@@ -22152,7 +22156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="12">
         <v>292</v>
       </c>
@@ -22190,7 +22194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="12">
         <v>292</v>
       </c>
@@ -22228,7 +22232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="12">
         <v>292</v>
       </c>
@@ -22266,7 +22270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="12">
         <v>292</v>
       </c>
@@ -22304,7 +22308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="12">
         <v>292</v>
       </c>
@@ -22342,7 +22346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="12">
         <v>292</v>
       </c>
@@ -22380,7 +22384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="12">
         <v>292</v>
       </c>
@@ -22418,7 +22422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="12">
         <v>292</v>
       </c>
@@ -22456,7 +22460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="12">
         <v>292</v>
       </c>
@@ -22494,7 +22498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="12">
         <v>292</v>
       </c>
@@ -22532,7 +22536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="12">
         <v>292</v>
       </c>
@@ -22573,7 +22577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="12">
         <v>292</v>
       </c>
@@ -22614,7 +22618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="12">
         <v>292</v>
       </c>
@@ -22655,7 +22659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="12">
         <v>292</v>
       </c>
@@ -29990,7 +29994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="12">
         <v>292</v>
       </c>
@@ -30031,7 +30035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="12">
         <v>292</v>
       </c>
@@ -30072,7 +30076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="12">
         <v>292</v>
       </c>
@@ -30113,7 +30117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="12">
         <v>292</v>
       </c>
@@ -30154,7 +30158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="12">
         <v>292</v>
       </c>
@@ -30195,7 +30199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="12">
         <v>292</v>
       </c>
@@ -30236,7 +30240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="12">
         <v>292</v>
       </c>
@@ -30277,7 +30281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="12">
         <v>292</v>
       </c>
@@ -30318,7 +30322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="12">
         <v>292</v>
       </c>
@@ -30359,7 +30363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="12">
         <v>292</v>
       </c>
@@ -30400,7 +30404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="12">
         <v>292</v>
       </c>
@@ -30441,7 +30445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="12">
         <v>292</v>
       </c>
@@ -30482,7 +30486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="12">
         <v>292</v>
       </c>
@@ -30523,7 +30527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="12">
         <v>292</v>
       </c>
@@ -30564,7 +30568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="12">
         <v>292</v>
       </c>
@@ -30605,7 +30609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="12">
         <v>292</v>
       </c>
@@ -30646,7 +30650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="12">
         <v>292</v>
       </c>
@@ -30687,7 +30691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="12">
         <v>292</v>
       </c>
@@ -30728,7 +30732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="12">
         <v>292</v>
       </c>
@@ -30769,7 +30773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="12">
         <v>292</v>
       </c>
@@ -30810,7 +30814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="12">
         <v>292</v>
       </c>
@@ -30851,7 +30855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="12">
         <v>292</v>
       </c>
@@ -30892,7 +30896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="12">
         <v>292</v>
       </c>
@@ -30933,7 +30937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="12">
         <v>292</v>
       </c>
@@ -30974,7 +30978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="12">
         <v>292</v>
       </c>
@@ -31015,7 +31019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="12">
         <v>292</v>
       </c>
@@ -31056,7 +31060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="12">
         <v>292</v>
       </c>
@@ -31097,7 +31101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="12">
         <v>292</v>
       </c>
@@ -31138,7 +31142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="12">
         <v>292</v>
       </c>
@@ -31179,7 +31183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="12">
         <v>292</v>
       </c>
@@ -31220,7 +31224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="12">
         <v>292</v>
       </c>
@@ -31261,7 +31265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="12">
         <v>292</v>
       </c>
@@ -31302,7 +31306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="12">
         <v>292</v>
       </c>
@@ -31343,7 +31347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="12">
         <v>292</v>
       </c>
@@ -31384,7 +31388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="12">
         <v>292</v>
       </c>
@@ -31425,7 +31429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="12">
         <v>292</v>
       </c>
@@ -31466,7 +31470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="12">
         <v>292</v>
       </c>
@@ -31507,7 +31511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="12">
         <v>292</v>
       </c>
@@ -31548,7 +31552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="12">
         <v>292</v>
       </c>
@@ -31589,7 +31593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="12">
         <v>292</v>
       </c>
@@ -31630,7 +31634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="12">
         <v>292</v>
       </c>
@@ -31671,7 +31675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="12">
         <v>292</v>
       </c>
@@ -39098,7 +39102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" s="12">
         <v>292</v>
       </c>
@@ -39139,7 +39143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" s="12">
         <v>292</v>
       </c>
@@ -39180,7 +39184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" s="12">
         <v>292</v>
       </c>
@@ -39221,7 +39225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" s="12">
         <v>292</v>
       </c>
@@ -39262,7 +39266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" s="12">
         <v>292</v>
       </c>
@@ -39303,7 +39307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="12">
         <v>292</v>
       </c>
@@ -39344,7 +39348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" s="12">
         <v>292</v>
       </c>
@@ -39385,7 +39389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="12">
         <v>292</v>
       </c>
@@ -39426,7 +39430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="12">
         <v>292</v>
       </c>
@@ -39467,7 +39471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="961" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" s="12">
         <v>292</v>
       </c>
@@ -39508,7 +39512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="962" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" s="12">
         <v>292</v>
       </c>
@@ -39549,7 +39553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="963" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="12">
         <v>292</v>
       </c>
@@ -39590,7 +39594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="964" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="12">
         <v>292</v>
       </c>
@@ -39631,7 +39635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="965" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="12">
         <v>292</v>
       </c>
@@ -39672,7 +39676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="966" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="12">
         <v>292</v>
       </c>
@@ -39713,7 +39717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="967" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" s="12">
         <v>292</v>
       </c>
@@ -39754,7 +39758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="968" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" s="12">
         <v>292</v>
       </c>
@@ -39795,7 +39799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="969" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" s="12">
         <v>292</v>
       </c>
@@ -39836,7 +39840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="970" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" s="12">
         <v>292</v>
       </c>
@@ -39877,7 +39881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="971" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" s="12">
         <v>292</v>
       </c>
@@ -39918,7 +39922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="972" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="12">
         <v>292</v>
       </c>
@@ -40446,10 +40450,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M987">
-    <filterColumn colId="1">
+    <filterColumn colId="4">
       <filters>
-        <filter val="6"/>
-        <filter val="13"/>
+        <filter val="BTR"/>
       </filters>
     </filterColumn>
     <sortState ref="A709:M750">
@@ -40467,39 +40470,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>521</v>
       </c>
       <c r="B1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:H6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41400,7 +41444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -42072,7 +42116,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/宜科电子/大庆沃尔沃总装物流PTL项目/大庆沃尔沃PTL项目信息汇总.xlsx
+++ b/宜科电子/大庆沃尔沃总装物流PTL项目/大庆沃尔沃PTL项目信息汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="814" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="814"/>
   </bookViews>
   <sheets>
     <sheet name="PTL_INFO" sheetId="4" r:id="rId1"/>
@@ -1984,7 +1984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2166,13 +2166,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2194,6 +2194,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2573,8 +2612,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M1015"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G419" sqref="G419"/>
+    <sheetView tabSelected="1" topLeftCell="A887" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H892" sqref="H892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2585,7 +2624,7 @@
     <col min="4" max="4" width="16.08984375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" style="12" customWidth="1"/>
     <col min="6" max="6" width="10.90625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="66" customWidth="1"/>
     <col min="8" max="8" width="10.1796875" style="11" customWidth="1"/>
     <col min="9" max="9" width="14.08984375" style="10" customWidth="1"/>
     <col min="10" max="10" width="11.7265625" style="15" customWidth="1"/>
@@ -2614,7 +2653,7 @@
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="71" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -2655,7 +2694,7 @@
       <c r="F2" s="11">
         <v>1</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="68">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -2693,7 +2732,7 @@
       <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="68">
         <v>2</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -2731,7 +2770,7 @@
       <c r="F4" s="11">
         <v>1</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="68">
         <v>3</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -2769,7 +2808,7 @@
       <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="68">
         <v>4</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -2807,7 +2846,7 @@
       <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="68">
         <v>5</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -2845,7 +2884,7 @@
       <c r="F7" s="11">
         <v>1</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="68">
         <v>6</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -2883,7 +2922,7 @@
       <c r="F8" s="11">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="68">
         <v>7</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -2921,7 +2960,7 @@
       <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="68">
         <v>8</v>
       </c>
       <c r="H9" s="10" t="s">
@@ -2959,7 +2998,7 @@
       <c r="F10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="68">
         <v>9</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -2997,7 +3036,7 @@
       <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="68">
         <v>10</v>
       </c>
       <c r="H11" s="10" t="s">
@@ -3035,7 +3074,7 @@
       <c r="F12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="68">
         <v>11</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -3073,7 +3112,7 @@
       <c r="F13" s="11">
         <v>1</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="68">
         <v>12</v>
       </c>
       <c r="H13" s="10" t="s">
@@ -3111,7 +3150,7 @@
       <c r="F14" s="11">
         <v>1</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="68">
         <v>13</v>
       </c>
       <c r="H14" s="10" t="s">
@@ -3149,7 +3188,7 @@
       <c r="F15" s="11">
         <v>1</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="68">
         <v>14</v>
       </c>
       <c r="H15" s="10" t="s">
@@ -3187,7 +3226,7 @@
       <c r="F16" s="11">
         <v>1</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="68">
         <v>15</v>
       </c>
       <c r="H16" s="10" t="s">
@@ -3225,7 +3264,7 @@
       <c r="F17" s="11">
         <v>1</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="68">
         <v>16</v>
       </c>
       <c r="H17" s="10" t="s">
@@ -3263,7 +3302,7 @@
       <c r="F18" s="11">
         <v>1</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="68">
         <v>17</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -3301,7 +3340,7 @@
       <c r="F19" s="11">
         <v>1</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="68">
         <v>18</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -3339,7 +3378,7 @@
       <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="68">
         <v>19</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -3377,7 +3416,7 @@
       <c r="F21" s="11">
         <v>1</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="68">
         <v>20</v>
       </c>
       <c r="H21" s="10" t="s">
@@ -3415,7 +3454,7 @@
       <c r="F22" s="11">
         <v>1</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="68">
         <v>21</v>
       </c>
       <c r="H22" s="10" t="s">
@@ -3453,7 +3492,7 @@
       <c r="F23" s="11">
         <v>1</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="68">
         <v>22</v>
       </c>
       <c r="H23" s="10" t="s">
@@ -3491,7 +3530,7 @@
       <c r="F24" s="11">
         <v>1</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="68">
         <v>23</v>
       </c>
       <c r="H24" s="10" t="s">
@@ -3529,7 +3568,7 @@
       <c r="F25" s="11">
         <v>1</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="68">
         <v>24</v>
       </c>
       <c r="H25" s="16" t="s">
@@ -3567,7 +3606,7 @@
       <c r="F26" s="11">
         <v>1</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="68">
         <v>25</v>
       </c>
       <c r="H26" s="10" t="s">
@@ -3605,7 +3644,7 @@
       <c r="F27" s="11">
         <v>1</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="68">
         <v>26</v>
       </c>
       <c r="H27" s="10" t="s">
@@ -3643,7 +3682,7 @@
       <c r="F28" s="11">
         <v>1</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="68">
         <v>27</v>
       </c>
       <c r="H28" s="16" t="s">
@@ -3681,7 +3720,7 @@
       <c r="F29" s="11">
         <v>1</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="68">
         <v>28</v>
       </c>
       <c r="H29" s="10" t="s">
@@ -3719,7 +3758,7 @@
       <c r="F30" s="11">
         <v>1</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="68">
         <v>29</v>
       </c>
       <c r="H30" s="10" t="s">
@@ -3757,7 +3796,7 @@
       <c r="F31" s="11">
         <v>2</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="68">
         <v>51</v>
       </c>
       <c r="H31" s="16" t="s">
@@ -3795,7 +3834,7 @@
       <c r="F32" s="11">
         <v>2</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="68">
         <v>52</v>
       </c>
       <c r="H32" s="10" t="s">
@@ -3833,7 +3872,7 @@
       <c r="F33" s="11">
         <v>2</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="68">
         <v>53</v>
       </c>
       <c r="H33" s="10" t="s">
@@ -3871,7 +3910,7 @@
       <c r="F34" s="11">
         <v>2</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="68">
         <v>54</v>
       </c>
       <c r="H34" s="10" t="s">
@@ -3909,7 +3948,7 @@
       <c r="F35" s="11">
         <v>2</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="68">
         <v>55</v>
       </c>
       <c r="H35" s="10" t="s">
@@ -3947,7 +3986,7 @@
       <c r="F36" s="11">
         <v>2</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="68">
         <v>56</v>
       </c>
       <c r="H36" s="10" t="s">
@@ -3985,7 +4024,7 @@
       <c r="F37" s="11">
         <v>2</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="68">
         <v>57</v>
       </c>
       <c r="H37" s="10" t="s">
@@ -4023,7 +4062,7 @@
       <c r="F38" s="11">
         <v>2</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="68">
         <v>58</v>
       </c>
       <c r="H38" s="10" t="s">
@@ -4061,7 +4100,7 @@
       <c r="F39" s="11">
         <v>2</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="68">
         <v>59</v>
       </c>
       <c r="H39" s="10" t="s">
@@ -4099,7 +4138,7 @@
       <c r="F40" s="11">
         <v>2</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="68">
         <v>60</v>
       </c>
       <c r="H40" s="10" t="s">
@@ -4137,7 +4176,7 @@
       <c r="F41" s="11">
         <v>2</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="68">
         <v>61</v>
       </c>
       <c r="H41" s="10" t="s">
@@ -4175,7 +4214,7 @@
       <c r="F42" s="11">
         <v>2</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="68">
         <v>62</v>
       </c>
       <c r="H42" s="10" t="s">
@@ -4213,7 +4252,7 @@
       <c r="F43" s="11">
         <v>2</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="68">
         <v>63</v>
       </c>
       <c r="H43" s="10" t="s">
@@ -4251,7 +4290,7 @@
       <c r="F44" s="11">
         <v>2</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="68">
         <v>64</v>
       </c>
       <c r="H44" s="10" t="s">
@@ -4289,7 +4328,7 @@
       <c r="F45" s="11">
         <v>2</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="68">
         <v>65</v>
       </c>
       <c r="H45" s="10" t="s">
@@ -4327,7 +4366,7 @@
       <c r="F46" s="11">
         <v>2</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="68">
         <v>66</v>
       </c>
       <c r="H46" s="10" t="s">
@@ -4365,7 +4404,7 @@
       <c r="F47" s="11">
         <v>2</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="68">
         <v>67</v>
       </c>
       <c r="H47" s="10" t="s">
@@ -4403,7 +4442,7 @@
       <c r="F48" s="11">
         <v>2</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="68">
         <v>68</v>
       </c>
       <c r="H48" s="10" t="s">
@@ -4441,7 +4480,7 @@
       <c r="F49" s="11">
         <v>2</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="68">
         <v>69</v>
       </c>
       <c r="H49" s="10" t="s">
@@ -4479,7 +4518,7 @@
       <c r="F50" s="11">
         <v>2</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="68">
         <v>70</v>
       </c>
       <c r="H50" s="10" t="s">
@@ -4517,7 +4556,7 @@
       <c r="F51" s="11">
         <v>2</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="68">
         <v>71</v>
       </c>
       <c r="H51" s="10" t="s">
@@ -4555,7 +4594,7 @@
       <c r="F52" s="11">
         <v>2</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="68">
         <v>72</v>
       </c>
       <c r="H52" s="10" t="s">
@@ -4593,7 +4632,7 @@
       <c r="F53" s="11">
         <v>2</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="68">
         <v>73</v>
       </c>
       <c r="H53" s="10" t="s">
@@ -4631,7 +4670,7 @@
       <c r="F54" s="11">
         <v>2</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="68">
         <v>74</v>
       </c>
       <c r="H54" s="10" t="s">
@@ -4669,7 +4708,7 @@
       <c r="F55" s="11">
         <v>2</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="68">
         <v>75</v>
       </c>
       <c r="H55" s="10" t="s">
@@ -4707,7 +4746,7 @@
       <c r="F56" s="11">
         <v>2</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="68">
         <v>76</v>
       </c>
       <c r="H56" s="10" t="s">
@@ -4745,7 +4784,7 @@
       <c r="F57" s="11">
         <v>2</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="68">
         <v>77</v>
       </c>
       <c r="H57" s="10" t="s">
@@ -4783,7 +4822,7 @@
       <c r="F58" s="11">
         <v>2</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="68">
         <v>78</v>
       </c>
       <c r="H58" s="10" t="s">
@@ -4821,7 +4860,7 @@
       <c r="F59" s="11">
         <v>2</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="68">
         <v>79</v>
       </c>
       <c r="H59" s="10" t="s">
@@ -4859,7 +4898,7 @@
       <c r="F60" s="11">
         <v>2</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="68">
         <v>80</v>
       </c>
       <c r="H60" s="10" t="s">
@@ -4897,7 +4936,7 @@
       <c r="F61" s="11">
         <v>2</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="68">
         <v>81</v>
       </c>
       <c r="H61" s="10" t="s">
@@ -4935,7 +4974,7 @@
       <c r="F62" s="11">
         <v>2</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="68">
         <v>82</v>
       </c>
       <c r="H62" s="10" t="s">
@@ -4973,7 +5012,7 @@
       <c r="F63" s="11">
         <v>2</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="68">
         <v>83</v>
       </c>
       <c r="H63" s="10" t="s">
@@ -5011,7 +5050,7 @@
       <c r="F64" s="11">
         <v>2</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="68">
         <v>84</v>
       </c>
       <c r="H64" s="10" t="s">
@@ -5049,7 +5088,7 @@
       <c r="F65" s="11">
         <v>2</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="68">
         <v>85</v>
       </c>
       <c r="H65" s="10" t="s">
@@ -5087,7 +5126,7 @@
       <c r="F66" s="11">
         <v>2</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="68">
         <v>86</v>
       </c>
       <c r="H66" s="10" t="s">
@@ -5125,7 +5164,7 @@
       <c r="F67" s="11">
         <v>2</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="68">
         <v>87</v>
       </c>
       <c r="H67" s="10" t="s">
@@ -5163,7 +5202,7 @@
       <c r="F68" s="11">
         <v>3</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="66">
         <v>101</v>
       </c>
       <c r="H68" s="10" t="s">
@@ -5201,7 +5240,7 @@
       <c r="F69" s="11">
         <v>3</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="66">
         <v>102</v>
       </c>
       <c r="H69" s="10" t="s">
@@ -5239,7 +5278,7 @@
       <c r="F70" s="11">
         <v>3</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="66">
         <v>103</v>
       </c>
       <c r="H70" s="10" t="s">
@@ -5277,7 +5316,7 @@
       <c r="F71" s="11">
         <v>3</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="66">
         <v>104</v>
       </c>
       <c r="H71" s="10" t="s">
@@ -5315,7 +5354,7 @@
       <c r="F72" s="11">
         <v>3</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="66">
         <v>105</v>
       </c>
       <c r="H72" s="10" t="s">
@@ -5353,7 +5392,7 @@
       <c r="F73" s="11">
         <v>3</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="66">
         <v>106</v>
       </c>
       <c r="H73" s="10" t="s">
@@ -5391,7 +5430,7 @@
       <c r="F74" s="11">
         <v>3</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="66">
         <v>107</v>
       </c>
       <c r="H74" s="10" t="s">
@@ -5429,7 +5468,7 @@
       <c r="F75" s="11">
         <v>3</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="66">
         <v>108</v>
       </c>
       <c r="H75" s="10" t="s">
@@ -5467,7 +5506,7 @@
       <c r="F76" s="11">
         <v>3</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="66">
         <v>109</v>
       </c>
       <c r="H76" s="10" t="s">
@@ -5505,7 +5544,7 @@
       <c r="F77" s="11">
         <v>3</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="66">
         <v>110</v>
       </c>
       <c r="H77" s="10" t="s">
@@ -5543,7 +5582,7 @@
       <c r="F78" s="11">
         <v>3</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G78" s="66">
         <v>111</v>
       </c>
       <c r="H78" s="10" t="s">
@@ -5581,7 +5620,7 @@
       <c r="F79" s="11">
         <v>3</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="66">
         <v>112</v>
       </c>
       <c r="H79" s="10" t="s">
@@ -5619,7 +5658,7 @@
       <c r="F80" s="11">
         <v>3</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="66">
         <v>113</v>
       </c>
       <c r="H80" s="10" t="s">
@@ -5657,7 +5696,7 @@
       <c r="F81" s="11">
         <v>3</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="66">
         <v>114</v>
       </c>
       <c r="H81" s="10" t="s">
@@ -5695,7 +5734,7 @@
       <c r="F82" s="11">
         <v>3</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="66">
         <v>115</v>
       </c>
       <c r="H82" s="10" t="s">
@@ -5733,7 +5772,7 @@
       <c r="F83" s="11">
         <v>3</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="66">
         <v>116</v>
       </c>
       <c r="H83" s="10" t="s">
@@ -5771,7 +5810,7 @@
       <c r="F84" s="11">
         <v>3</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G84" s="66">
         <v>117</v>
       </c>
       <c r="H84" s="10" t="s">
@@ -5809,7 +5848,7 @@
       <c r="F85" s="11">
         <v>3</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="66">
         <v>118</v>
       </c>
       <c r="H85" s="10" t="s">
@@ -5847,7 +5886,7 @@
       <c r="F86" s="11">
         <v>3</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="66">
         <v>119</v>
       </c>
       <c r="H86" s="10" t="s">
@@ -5885,7 +5924,7 @@
       <c r="F87" s="11">
         <v>3</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G87" s="66">
         <v>120</v>
       </c>
       <c r="H87" s="16" t="s">
@@ -5923,7 +5962,7 @@
       <c r="F88" s="11">
         <v>4</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="66">
         <v>151</v>
       </c>
       <c r="H88" s="10" t="s">
@@ -5961,7 +6000,7 @@
       <c r="F89" s="11">
         <v>4</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="66">
         <v>152</v>
       </c>
       <c r="H89" s="10" t="s">
@@ -5999,7 +6038,7 @@
       <c r="F90" s="11">
         <v>4</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="66">
         <v>153</v>
       </c>
       <c r="H90" s="10" t="s">
@@ -6037,7 +6076,7 @@
       <c r="F91" s="11">
         <v>4</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G91" s="66">
         <v>154</v>
       </c>
       <c r="H91" s="10" t="s">
@@ -6075,7 +6114,7 @@
       <c r="F92" s="11">
         <v>1</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="66">
         <v>1</v>
       </c>
       <c r="H92" s="16" t="s">
@@ -6113,7 +6152,7 @@
       <c r="F93" s="11">
         <v>1</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G93" s="66">
         <v>2</v>
       </c>
       <c r="H93" s="10" t="s">
@@ -6151,7 +6190,7 @@
       <c r="F94" s="11">
         <v>1</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="66">
         <v>3</v>
       </c>
       <c r="H94" s="10" t="s">
@@ -6189,7 +6228,7 @@
       <c r="F95" s="11">
         <v>1</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G95" s="66">
         <v>4</v>
       </c>
       <c r="H95" s="10" t="s">
@@ -6227,7 +6266,7 @@
       <c r="F96" s="11">
         <v>1</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G96" s="66">
         <v>5</v>
       </c>
       <c r="H96" s="10" t="s">
@@ -6265,7 +6304,7 @@
       <c r="F97" s="11">
         <v>2</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G97" s="66">
         <v>51</v>
       </c>
       <c r="H97" s="10" t="s">
@@ -6303,7 +6342,7 @@
       <c r="F98" s="11">
         <v>2</v>
       </c>
-      <c r="G98" s="10">
+      <c r="G98" s="66">
         <v>52</v>
       </c>
       <c r="H98" s="10" t="s">
@@ -6341,7 +6380,7 @@
       <c r="F99" s="11">
         <v>2</v>
       </c>
-      <c r="G99" s="10">
+      <c r="G99" s="66">
         <v>53</v>
       </c>
       <c r="H99" s="10" t="s">
@@ -6379,7 +6418,7 @@
       <c r="F100" s="11">
         <v>2</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G100" s="66">
         <v>54</v>
       </c>
       <c r="H100" s="10" t="s">
@@ -6417,7 +6456,7 @@
       <c r="F101" s="11">
         <v>2</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="66">
         <v>55</v>
       </c>
       <c r="H101" s="10" t="s">
@@ -6455,7 +6494,7 @@
       <c r="F102" s="11">
         <v>2</v>
       </c>
-      <c r="G102" s="10">
+      <c r="G102" s="66">
         <v>56</v>
       </c>
       <c r="H102" s="16" t="s">
@@ -6493,7 +6532,7 @@
       <c r="F103" s="11">
         <v>2</v>
       </c>
-      <c r="G103" s="10">
+      <c r="G103" s="66">
         <v>57</v>
       </c>
       <c r="H103" s="10" t="s">
@@ -6531,7 +6570,7 @@
       <c r="F104" s="11">
         <v>2</v>
       </c>
-      <c r="G104" s="10">
+      <c r="G104" s="66">
         <v>58</v>
       </c>
       <c r="H104" s="10" t="s">
@@ -6569,7 +6608,7 @@
       <c r="F105" s="11">
         <v>2</v>
       </c>
-      <c r="G105" s="10">
+      <c r="G105" s="66">
         <v>59</v>
       </c>
       <c r="H105" s="10" t="s">
@@ -6607,7 +6646,7 @@
       <c r="F106" s="11">
         <v>2</v>
       </c>
-      <c r="G106" s="10">
+      <c r="G106" s="66">
         <v>60</v>
       </c>
       <c r="H106" s="10" t="s">
@@ -6645,7 +6684,7 @@
       <c r="F107" s="11">
         <v>2</v>
       </c>
-      <c r="G107" s="10">
+      <c r="G107" s="66">
         <v>61</v>
       </c>
       <c r="H107" s="16" t="s">
@@ -6683,7 +6722,7 @@
       <c r="F108" s="11">
         <v>2</v>
       </c>
-      <c r="G108" s="10">
+      <c r="G108" s="66">
         <v>62</v>
       </c>
       <c r="H108" s="10" t="s">
@@ -6721,7 +6760,7 @@
       <c r="F109" s="11">
         <v>2</v>
       </c>
-      <c r="G109" s="10">
+      <c r="G109" s="66">
         <v>63</v>
       </c>
       <c r="H109" s="16" t="s">
@@ -6759,7 +6798,7 @@
       <c r="F110" s="11">
         <v>2</v>
       </c>
-      <c r="G110" s="10">
+      <c r="G110" s="66">
         <v>64</v>
       </c>
       <c r="H110" s="10" t="s">
@@ -6797,7 +6836,7 @@
       <c r="F111" s="11">
         <v>3</v>
       </c>
-      <c r="G111" s="10">
+      <c r="G111" s="66">
         <v>101</v>
       </c>
       <c r="H111" s="10" t="s">
@@ -6835,7 +6874,7 @@
       <c r="F112" s="11">
         <v>3</v>
       </c>
-      <c r="G112" s="10">
+      <c r="G112" s="66">
         <v>102</v>
       </c>
       <c r="H112" s="10" t="s">
@@ -6873,7 +6912,7 @@
       <c r="F113" s="11">
         <v>3</v>
       </c>
-      <c r="G113" s="10">
+      <c r="G113" s="66">
         <v>103</v>
       </c>
       <c r="H113" s="10" t="s">
@@ -6911,7 +6950,7 @@
       <c r="F114" s="11">
         <v>3</v>
       </c>
-      <c r="G114" s="10">
+      <c r="G114" s="66">
         <v>104</v>
       </c>
       <c r="H114" s="16" t="s">
@@ -6949,7 +6988,7 @@
       <c r="F115" s="11">
         <v>3</v>
       </c>
-      <c r="G115" s="13">
+      <c r="G115" s="68">
         <v>105</v>
       </c>
       <c r="H115" s="10" t="s">
@@ -6987,7 +7026,7 @@
       <c r="F116" s="11">
         <v>3</v>
       </c>
-      <c r="G116" s="13">
+      <c r="G116" s="68">
         <v>106</v>
       </c>
       <c r="H116" s="10" t="s">
@@ -7025,7 +7064,7 @@
       <c r="F117" s="11">
         <v>3</v>
       </c>
-      <c r="G117" s="13">
+      <c r="G117" s="68">
         <v>107</v>
       </c>
       <c r="H117" s="10" t="s">
@@ -7063,7 +7102,7 @@
       <c r="F118" s="11">
         <v>3</v>
       </c>
-      <c r="G118" s="13">
+      <c r="G118" s="68">
         <v>108</v>
       </c>
       <c r="H118" s="10" t="s">
@@ -7101,7 +7140,7 @@
       <c r="F119" s="11">
         <v>3</v>
       </c>
-      <c r="G119" s="13">
+      <c r="G119" s="68">
         <v>109</v>
       </c>
       <c r="H119" s="10" t="s">
@@ -7139,7 +7178,7 @@
       <c r="F120" s="11">
         <v>3</v>
       </c>
-      <c r="G120" s="13">
+      <c r="G120" s="68">
         <v>110</v>
       </c>
       <c r="H120" s="10" t="s">
@@ -7177,7 +7216,7 @@
       <c r="F121" s="11">
         <v>3</v>
       </c>
-      <c r="G121" s="13">
+      <c r="G121" s="68">
         <v>111</v>
       </c>
       <c r="H121" s="10" t="s">
@@ -7215,7 +7254,7 @@
       <c r="F122" s="11">
         <v>3</v>
       </c>
-      <c r="G122" s="13">
+      <c r="G122" s="68">
         <v>112</v>
       </c>
       <c r="H122" s="10" t="s">
@@ -7253,7 +7292,7 @@
       <c r="F123" s="11">
         <v>3</v>
       </c>
-      <c r="G123" s="13">
+      <c r="G123" s="68">
         <v>113</v>
       </c>
       <c r="H123" s="10" t="s">
@@ -7291,7 +7330,7 @@
       <c r="F124" s="11">
         <v>3</v>
       </c>
-      <c r="G124" s="13">
+      <c r="G124" s="68">
         <v>114</v>
       </c>
       <c r="H124" s="10" t="s">
@@ -7329,7 +7368,7 @@
       <c r="F125" s="11">
         <v>3</v>
       </c>
-      <c r="G125" s="13">
+      <c r="G125" s="68">
         <v>115</v>
       </c>
       <c r="H125" s="10" t="s">
@@ -7367,7 +7406,7 @@
       <c r="F126" s="11">
         <v>3</v>
       </c>
-      <c r="G126" s="13">
+      <c r="G126" s="68">
         <v>116</v>
       </c>
       <c r="H126" s="10" t="s">
@@ -7405,7 +7444,7 @@
       <c r="F127" s="11">
         <v>3</v>
       </c>
-      <c r="G127" s="13">
+      <c r="G127" s="68">
         <v>117</v>
       </c>
       <c r="H127" s="10" t="s">
@@ -7443,7 +7482,7 @@
       <c r="F128" s="11">
         <v>3</v>
       </c>
-      <c r="G128" s="13">
+      <c r="G128" s="68">
         <v>118</v>
       </c>
       <c r="H128" s="10" t="s">
@@ -7481,7 +7520,7 @@
       <c r="F129" s="11">
         <v>3</v>
       </c>
-      <c r="G129" s="13">
+      <c r="G129" s="68">
         <v>119</v>
       </c>
       <c r="H129" s="10" t="s">
@@ -7519,7 +7558,7 @@
       <c r="F130" s="11">
         <v>3</v>
       </c>
-      <c r="G130" s="13">
+      <c r="G130" s="68">
         <v>120</v>
       </c>
       <c r="H130" s="10" t="s">
@@ -7557,7 +7596,7 @@
       <c r="F131" s="11">
         <v>3</v>
       </c>
-      <c r="G131" s="13">
+      <c r="G131" s="68">
         <v>121</v>
       </c>
       <c r="H131" s="16" t="s">
@@ -7595,7 +7634,7 @@
       <c r="F132" s="11">
         <v>1</v>
       </c>
-      <c r="G132" s="10">
+      <c r="G132" s="66">
         <v>1</v>
       </c>
       <c r="H132" s="16" t="s">
@@ -7633,7 +7672,7 @@
       <c r="F133" s="11">
         <v>1</v>
       </c>
-      <c r="G133" s="10">
+      <c r="G133" s="66">
         <v>2</v>
       </c>
       <c r="H133" s="10" t="s">
@@ -7671,7 +7710,7 @@
       <c r="F134" s="11">
         <v>1</v>
       </c>
-      <c r="G134" s="10">
+      <c r="G134" s="66">
         <v>3</v>
       </c>
       <c r="H134" s="10" t="s">
@@ -7709,7 +7748,7 @@
       <c r="F135" s="11">
         <v>1</v>
       </c>
-      <c r="G135" s="10">
+      <c r="G135" s="66">
         <v>5</v>
       </c>
       <c r="H135" s="10" t="s">
@@ -7747,7 +7786,7 @@
       <c r="F136" s="11">
         <v>1</v>
       </c>
-      <c r="G136" s="10">
+      <c r="G136" s="66">
         <v>6</v>
       </c>
       <c r="H136" s="10" t="s">
@@ -7785,7 +7824,7 @@
       <c r="F137" s="11">
         <v>1</v>
       </c>
-      <c r="G137" s="10">
+      <c r="G137" s="66">
         <v>7</v>
       </c>
       <c r="H137" s="10" t="s">
@@ -7823,7 +7862,7 @@
       <c r="F138" s="11">
         <v>1</v>
       </c>
-      <c r="G138" s="10">
+      <c r="G138" s="66">
         <v>8</v>
       </c>
       <c r="H138" s="10" t="s">
@@ -7861,7 +7900,7 @@
       <c r="F139" s="11">
         <v>1</v>
       </c>
-      <c r="G139" s="10">
+      <c r="G139" s="66">
         <v>9</v>
       </c>
       <c r="H139" s="10" t="s">
@@ -7899,7 +7938,7 @@
       <c r="F140" s="11">
         <v>2</v>
       </c>
-      <c r="G140" s="10">
+      <c r="G140" s="66">
         <v>51</v>
       </c>
       <c r="H140" s="10" t="s">
@@ -7937,7 +7976,7 @@
       <c r="F141" s="11">
         <v>2</v>
       </c>
-      <c r="G141" s="10">
+      <c r="G141" s="66">
         <v>52</v>
       </c>
       <c r="H141" s="10" t="s">
@@ -7975,7 +8014,7 @@
       <c r="F142" s="11">
         <v>2</v>
       </c>
-      <c r="G142" s="10">
+      <c r="G142" s="66">
         <v>53</v>
       </c>
       <c r="H142" s="10" t="s">
@@ -8013,7 +8052,7 @@
       <c r="F143" s="11">
         <v>2</v>
       </c>
-      <c r="G143" s="10">
+      <c r="G143" s="66">
         <v>62</v>
       </c>
       <c r="H143" s="10" t="s">
@@ -8051,7 +8090,7 @@
       <c r="F144" s="11">
         <v>2</v>
       </c>
-      <c r="G144" s="10">
+      <c r="G144" s="66">
         <v>63</v>
       </c>
       <c r="H144" s="10" t="s">
@@ -8089,7 +8128,7 @@
       <c r="F145" s="11">
         <v>2</v>
       </c>
-      <c r="G145" s="10">
+      <c r="G145" s="66">
         <v>64</v>
       </c>
       <c r="H145" s="10" t="s">
@@ -8127,7 +8166,7 @@
       <c r="F146" s="11">
         <v>2</v>
       </c>
-      <c r="G146" s="10">
+      <c r="G146" s="66">
         <v>65</v>
       </c>
       <c r="H146" s="10" t="s">
@@ -8165,7 +8204,7 @@
       <c r="F147" s="11">
         <v>2</v>
       </c>
-      <c r="G147" s="10">
+      <c r="G147" s="66">
         <v>66</v>
       </c>
       <c r="H147" s="10" t="s">
@@ -8203,7 +8242,7 @@
       <c r="F148" s="11">
         <v>2</v>
       </c>
-      <c r="G148" s="10">
+      <c r="G148" s="66">
         <v>67</v>
       </c>
       <c r="H148" s="16" t="s">
@@ -8241,7 +8280,7 @@
       <c r="F149" s="11">
         <v>2</v>
       </c>
-      <c r="G149" s="10">
+      <c r="G149" s="66">
         <v>77</v>
       </c>
       <c r="H149" s="10" t="s">
@@ -8279,7 +8318,7 @@
       <c r="F150" s="11">
         <v>2</v>
       </c>
-      <c r="G150" s="10">
+      <c r="G150" s="66">
         <v>78</v>
       </c>
       <c r="H150" s="10" t="s">
@@ -8317,7 +8356,7 @@
       <c r="F151" s="11">
         <v>2</v>
       </c>
-      <c r="G151" s="10">
+      <c r="G151" s="66">
         <v>79</v>
       </c>
       <c r="H151" s="10" t="s">
@@ -8355,7 +8394,7 @@
       <c r="F152" s="23">
         <v>2</v>
       </c>
-      <c r="G152" s="13">
+      <c r="G152" s="68">
         <v>80</v>
       </c>
       <c r="H152" s="10" t="s">
@@ -8393,7 +8432,7 @@
       <c r="F153" s="23">
         <v>2</v>
       </c>
-      <c r="G153" s="13">
+      <c r="G153" s="68">
         <v>81</v>
       </c>
       <c r="H153" s="10" t="s">
@@ -8431,7 +8470,7 @@
       <c r="F154" s="23">
         <v>2</v>
       </c>
-      <c r="G154" s="13">
+      <c r="G154" s="68">
         <v>82</v>
       </c>
       <c r="H154" s="10" t="s">
@@ -8469,7 +8508,7 @@
       <c r="F155" s="23">
         <v>2</v>
       </c>
-      <c r="G155" s="13">
+      <c r="G155" s="68">
         <v>83</v>
       </c>
       <c r="H155" s="10" t="s">
@@ -8507,7 +8546,7 @@
       <c r="F156" s="23">
         <v>2</v>
       </c>
-      <c r="G156" s="13">
+      <c r="G156" s="68">
         <v>84</v>
       </c>
       <c r="H156" s="10" t="s">
@@ -8545,7 +8584,7 @@
       <c r="F157" s="23">
         <v>2</v>
       </c>
-      <c r="G157" s="13">
+      <c r="G157" s="68">
         <v>85</v>
       </c>
       <c r="H157" s="10" t="s">
@@ -8583,7 +8622,7 @@
       <c r="F158" s="23">
         <v>2</v>
       </c>
-      <c r="G158" s="13">
+      <c r="G158" s="68">
         <v>86</v>
       </c>
       <c r="H158" s="10" t="s">
@@ -8621,7 +8660,7 @@
       <c r="F159" s="23">
         <v>2</v>
       </c>
-      <c r="G159" s="13">
+      <c r="G159" s="68">
         <v>87</v>
       </c>
       <c r="H159" s="10" t="s">
@@ -8659,7 +8698,7 @@
       <c r="F160" s="23">
         <v>2</v>
       </c>
-      <c r="G160" s="13">
+      <c r="G160" s="68">
         <v>88</v>
       </c>
       <c r="H160" s="10" t="s">
@@ -8697,7 +8736,7 @@
       <c r="F161" s="23">
         <v>2</v>
       </c>
-      <c r="G161" s="13">
+      <c r="G161" s="68">
         <v>89</v>
       </c>
       <c r="H161" s="10" t="s">
@@ -8735,7 +8774,7 @@
       <c r="F162" s="23">
         <v>2</v>
       </c>
-      <c r="G162" s="13">
+      <c r="G162" s="68">
         <v>90</v>
       </c>
       <c r="H162" s="10" t="s">
@@ -8773,7 +8812,7 @@
       <c r="F163" s="11">
         <v>3</v>
       </c>
-      <c r="G163" s="10">
+      <c r="G163" s="66">
         <v>105</v>
       </c>
       <c r="H163" s="10" t="s">
@@ -8811,7 +8850,7 @@
       <c r="F164" s="11">
         <v>3</v>
       </c>
-      <c r="G164" s="10">
+      <c r="G164" s="66">
         <v>106</v>
       </c>
       <c r="H164" s="10" t="s">
@@ -8849,7 +8888,7 @@
       <c r="F165" s="11">
         <v>3</v>
       </c>
-      <c r="G165" s="10">
+      <c r="G165" s="66">
         <v>107</v>
       </c>
       <c r="H165" s="10" t="s">
@@ -8887,7 +8926,7 @@
       <c r="F166" s="11">
         <v>2</v>
       </c>
-      <c r="G166" s="10">
+      <c r="G166" s="66">
         <v>68</v>
       </c>
       <c r="H166" s="10" t="s">
@@ -8925,7 +8964,7 @@
       <c r="F167" s="11">
         <v>2</v>
       </c>
-      <c r="G167" s="10">
+      <c r="G167" s="66">
         <v>69</v>
       </c>
       <c r="H167" s="10" t="s">
@@ -8963,7 +9002,7 @@
       <c r="F168" s="11">
         <v>2</v>
       </c>
-      <c r="G168" s="10">
+      <c r="G168" s="66">
         <v>70</v>
       </c>
       <c r="H168" s="16" t="s">
@@ -9001,7 +9040,7 @@
       <c r="F169" s="11">
         <v>2</v>
       </c>
-      <c r="G169" s="10">
+      <c r="G169" s="66">
         <v>71</v>
       </c>
       <c r="H169" s="10" t="s">
@@ -9039,7 +9078,7 @@
       <c r="F170" s="11">
         <v>2</v>
       </c>
-      <c r="G170" s="10">
+      <c r="G170" s="66">
         <v>72</v>
       </c>
       <c r="H170" s="10" t="s">
@@ -9077,7 +9116,7 @@
       <c r="F171" s="11">
         <v>2</v>
       </c>
-      <c r="G171" s="10">
+      <c r="G171" s="66">
         <v>73</v>
       </c>
       <c r="H171" s="10" t="s">
@@ -9115,7 +9154,7 @@
       <c r="F172" s="11">
         <v>2</v>
       </c>
-      <c r="G172" s="10">
+      <c r="G172" s="66">
         <v>74</v>
       </c>
       <c r="H172" s="10" t="s">
@@ -9153,7 +9192,7 @@
       <c r="F173" s="11">
         <v>2</v>
       </c>
-      <c r="G173" s="10">
+      <c r="G173" s="66">
         <v>75</v>
       </c>
       <c r="H173" s="10" t="s">
@@ -9191,7 +9230,7 @@
       <c r="F174" s="11">
         <v>2</v>
       </c>
-      <c r="G174" s="10">
+      <c r="G174" s="66">
         <v>76</v>
       </c>
       <c r="H174" s="10" t="s">
@@ -9229,7 +9268,7 @@
       <c r="F175" s="11">
         <v>4</v>
       </c>
-      <c r="G175" s="10">
+      <c r="G175" s="66">
         <v>151</v>
       </c>
       <c r="H175" s="16" t="s">
@@ -9267,7 +9306,7 @@
       <c r="F176" s="11">
         <v>4</v>
       </c>
-      <c r="G176" s="10">
+      <c r="G176" s="66">
         <v>152</v>
       </c>
       <c r="H176" s="10" t="s">
@@ -9305,7 +9344,7 @@
       <c r="F177" s="11">
         <v>4</v>
       </c>
-      <c r="G177" s="10">
+      <c r="G177" s="66">
         <v>153</v>
       </c>
       <c r="H177" s="10" t="s">
@@ -9343,7 +9382,7 @@
       <c r="F178" s="11">
         <v>4</v>
       </c>
-      <c r="G178" s="10">
+      <c r="G178" s="66">
         <v>154</v>
       </c>
       <c r="H178" s="10" t="s">
@@ -9381,7 +9420,7 @@
       <c r="F179" s="26">
         <v>4</v>
       </c>
-      <c r="G179" s="16">
+      <c r="G179" s="69">
         <v>155</v>
       </c>
       <c r="H179" s="10" t="s">
@@ -9419,7 +9458,7 @@
       <c r="F180" s="26">
         <v>4</v>
       </c>
-      <c r="G180" s="16">
+      <c r="G180" s="69">
         <v>156</v>
       </c>
       <c r="H180" s="10" t="s">
@@ -9457,7 +9496,7 @@
       <c r="F181" s="26">
         <v>4</v>
       </c>
-      <c r="G181" s="16">
+      <c r="G181" s="69">
         <v>157</v>
       </c>
       <c r="H181" s="10" t="s">
@@ -9495,7 +9534,7 @@
       <c r="F182" s="11">
         <v>4</v>
       </c>
-      <c r="G182" s="10">
+      <c r="G182" s="66">
         <v>162</v>
       </c>
       <c r="H182" s="10" t="s">
@@ -9533,7 +9572,7 @@
       <c r="F183" s="11">
         <v>4</v>
       </c>
-      <c r="G183" s="10">
+      <c r="G183" s="66">
         <v>163</v>
       </c>
       <c r="H183" s="10" t="s">
@@ -9571,7 +9610,7 @@
       <c r="F184" s="11">
         <v>4</v>
       </c>
-      <c r="G184" s="10">
+      <c r="G184" s="66">
         <v>164</v>
       </c>
       <c r="H184" s="10" t="s">
@@ -9609,7 +9648,7 @@
       <c r="F185" s="11">
         <v>4</v>
       </c>
-      <c r="G185" s="10">
+      <c r="G185" s="66">
         <v>165</v>
       </c>
       <c r="H185" s="10" t="s">
@@ -9647,7 +9686,7 @@
       <c r="F186" s="11">
         <v>4</v>
       </c>
-      <c r="G186" s="10">
+      <c r="G186" s="66">
         <v>166</v>
       </c>
       <c r="H186" s="10" t="s">
@@ -9685,7 +9724,7 @@
       <c r="F187" s="11">
         <v>4</v>
       </c>
-      <c r="G187" s="10">
+      <c r="G187" s="66">
         <v>167</v>
       </c>
       <c r="H187" s="10" t="s">
@@ -9723,7 +9762,7 @@
       <c r="F188" s="11">
         <v>4</v>
       </c>
-      <c r="G188" s="10">
+      <c r="G188" s="66">
         <v>168</v>
       </c>
       <c r="H188" s="16" t="s">
@@ -9761,7 +9800,7 @@
       <c r="F189" s="11">
         <v>4</v>
       </c>
-      <c r="G189" s="10">
+      <c r="G189" s="66">
         <v>169</v>
       </c>
       <c r="H189" s="10" t="s">
@@ -9799,7 +9838,7 @@
       <c r="F190" s="11">
         <v>4</v>
       </c>
-      <c r="G190" s="10">
+      <c r="G190" s="66">
         <v>170</v>
       </c>
       <c r="H190" s="10" t="s">
@@ -9837,7 +9876,7 @@
       <c r="F191" s="11">
         <v>4</v>
       </c>
-      <c r="G191" s="10">
+      <c r="G191" s="66">
         <v>171</v>
       </c>
       <c r="H191" s="10" t="s">
@@ -9875,7 +9914,7 @@
       <c r="F192" s="11">
         <v>4</v>
       </c>
-      <c r="G192" s="10">
+      <c r="G192" s="66">
         <v>172</v>
       </c>
       <c r="H192" s="10" t="s">
@@ -9913,7 +9952,7 @@
       <c r="F193" s="11">
         <v>4</v>
       </c>
-      <c r="G193" s="10">
+      <c r="G193" s="66">
         <v>173</v>
       </c>
       <c r="H193" s="10" t="s">
@@ -9951,7 +9990,7 @@
       <c r="F194" s="11">
         <v>4</v>
       </c>
-      <c r="G194" s="10">
+      <c r="G194" s="66">
         <v>174</v>
       </c>
       <c r="H194" s="10" t="s">
@@ -9989,7 +10028,7 @@
       <c r="F195" s="11">
         <v>3</v>
       </c>
-      <c r="G195" s="10">
+      <c r="G195" s="66">
         <v>101</v>
       </c>
       <c r="H195" s="10" t="s">
@@ -10027,7 +10066,7 @@
       <c r="F196" s="11">
         <v>3</v>
       </c>
-      <c r="G196" s="10">
+      <c r="G196" s="66">
         <v>102</v>
       </c>
       <c r="H196" s="10" t="s">
@@ -10065,7 +10104,7 @@
       <c r="F197" s="11">
         <v>3</v>
       </c>
-      <c r="G197" s="10">
+      <c r="G197" s="66">
         <v>103</v>
       </c>
       <c r="H197" s="10" t="s">
@@ -10103,7 +10142,7 @@
       <c r="F198" s="11">
         <v>3</v>
       </c>
-      <c r="G198" s="10">
+      <c r="G198" s="66">
         <v>115</v>
       </c>
       <c r="H198" s="10" t="s">
@@ -10141,7 +10180,7 @@
       <c r="F199" s="11">
         <v>3</v>
       </c>
-      <c r="G199" s="10">
+      <c r="G199" s="66">
         <v>116</v>
       </c>
       <c r="H199" s="16" t="s">
@@ -10179,7 +10218,7 @@
       <c r="F200" s="11">
         <v>1</v>
       </c>
-      <c r="G200" s="10">
+      <c r="G200" s="66">
         <v>10</v>
       </c>
       <c r="H200" s="16" t="s">
@@ -10217,7 +10256,7 @@
       <c r="F201" s="11">
         <v>1</v>
       </c>
-      <c r="G201" s="10">
+      <c r="G201" s="66">
         <v>11</v>
       </c>
       <c r="H201" s="16" t="s">
@@ -10255,7 +10294,7 @@
       <c r="F202" s="11">
         <v>1</v>
       </c>
-      <c r="G202" s="10">
+      <c r="G202" s="66">
         <v>12</v>
       </c>
       <c r="H202" s="10" t="s">
@@ -10293,7 +10332,7 @@
       <c r="F203" s="11">
         <v>1</v>
       </c>
-      <c r="G203" s="10">
+      <c r="G203" s="66">
         <v>13</v>
       </c>
       <c r="H203" s="10" t="s">
@@ -10331,7 +10370,7 @@
       <c r="F204" s="11">
         <v>1</v>
       </c>
-      <c r="G204" s="10">
+      <c r="G204" s="66">
         <v>14</v>
       </c>
       <c r="H204" s="10" t="s">
@@ -10369,7 +10408,7 @@
       <c r="F205" s="11">
         <v>1</v>
       </c>
-      <c r="G205" s="10">
+      <c r="G205" s="66">
         <v>15</v>
       </c>
       <c r="H205" s="10" t="s">
@@ -10407,7 +10446,7 @@
       <c r="F206" s="11">
         <v>1</v>
       </c>
-      <c r="G206" s="10">
+      <c r="G206" s="66">
         <v>16</v>
       </c>
       <c r="H206" s="10" t="s">
@@ -10445,7 +10484,7 @@
       <c r="F207" s="11">
         <v>1</v>
       </c>
-      <c r="G207" s="10">
+      <c r="G207" s="66">
         <v>17</v>
       </c>
       <c r="H207" s="10" t="s">
@@ -10483,7 +10522,7 @@
       <c r="F208" s="11">
         <v>3</v>
       </c>
-      <c r="G208" s="10">
+      <c r="G208" s="66">
         <v>117</v>
       </c>
       <c r="H208" s="10" t="s">
@@ -10521,7 +10560,7 @@
       <c r="F209" s="11">
         <v>3</v>
       </c>
-      <c r="G209" s="10">
+      <c r="G209" s="66">
         <v>118</v>
       </c>
       <c r="H209" s="10" t="s">
@@ -10559,7 +10598,7 @@
       <c r="F210" s="11">
         <v>3</v>
       </c>
-      <c r="G210" s="10">
+      <c r="G210" s="66">
         <v>119</v>
       </c>
       <c r="H210" s="10" t="s">
@@ -10597,7 +10636,7 @@
       <c r="F211" s="11">
         <v>3</v>
       </c>
-      <c r="G211" s="10">
+      <c r="G211" s="66">
         <v>120</v>
       </c>
       <c r="H211" s="10" t="s">
@@ -10635,7 +10674,7 @@
       <c r="F212" s="11">
         <v>3</v>
       </c>
-      <c r="G212" s="10">
+      <c r="G212" s="66">
         <v>121</v>
       </c>
       <c r="H212" s="10" t="s">
@@ -10673,7 +10712,7 @@
       <c r="F213" s="11">
         <v>3</v>
       </c>
-      <c r="G213" s="10">
+      <c r="G213" s="66">
         <v>122</v>
       </c>
       <c r="H213" s="10" t="s">
@@ -10711,7 +10750,7 @@
       <c r="F214" s="11">
         <v>3</v>
       </c>
-      <c r="G214" s="10">
+      <c r="G214" s="66">
         <v>123</v>
       </c>
       <c r="H214" s="10" t="s">
@@ -10749,7 +10788,7 @@
       <c r="F215" s="11">
         <v>3</v>
       </c>
-      <c r="G215" s="10">
+      <c r="G215" s="66">
         <v>124</v>
       </c>
       <c r="H215" s="10" t="s">
@@ -10787,7 +10826,7 @@
       <c r="F216" s="11">
         <v>3</v>
       </c>
-      <c r="G216" s="10">
+      <c r="G216" s="66">
         <v>125</v>
       </c>
       <c r="H216" s="10" t="s">
@@ -10825,7 +10864,7 @@
       <c r="F217" s="11">
         <v>3</v>
       </c>
-      <c r="G217" s="10">
+      <c r="G217" s="66">
         <v>126</v>
       </c>
       <c r="H217" s="16" t="s">
@@ -10863,7 +10902,7 @@
       <c r="F218" s="26">
         <v>4</v>
       </c>
-      <c r="G218" s="16">
+      <c r="G218" s="69">
         <v>158</v>
       </c>
       <c r="H218" s="10" t="s">
@@ -10901,7 +10940,7 @@
       <c r="F219" s="11">
         <v>4</v>
       </c>
-      <c r="G219" s="10">
+      <c r="G219" s="66">
         <v>159</v>
       </c>
       <c r="H219" s="10" t="s">
@@ -10939,7 +10978,7 @@
       <c r="F220" s="11">
         <v>4</v>
       </c>
-      <c r="G220" s="10">
+      <c r="G220" s="66">
         <v>160</v>
       </c>
       <c r="H220" s="10" t="s">
@@ -10977,7 +11016,7 @@
       <c r="F221" s="11">
         <v>4</v>
       </c>
-      <c r="G221" s="10">
+      <c r="G221" s="66">
         <v>161</v>
       </c>
       <c r="H221" s="10" t="s">
@@ -11015,7 +11054,7 @@
       <c r="F222" s="11">
         <v>3</v>
       </c>
-      <c r="G222" s="10">
+      <c r="G222" s="66">
         <v>127</v>
       </c>
       <c r="H222" s="10" t="s">
@@ -11053,7 +11092,7 @@
       <c r="F223" s="11">
         <v>3</v>
       </c>
-      <c r="G223" s="10">
+      <c r="G223" s="66">
         <v>128</v>
       </c>
       <c r="H223" s="10" t="s">
@@ -11091,7 +11130,7 @@
       <c r="F224" s="11">
         <v>3</v>
       </c>
-      <c r="G224" s="10">
+      <c r="G224" s="66">
         <v>129</v>
       </c>
       <c r="H224" s="16" t="s">
@@ -11129,7 +11168,7 @@
       <c r="F225" s="11">
         <v>3</v>
       </c>
-      <c r="G225" s="10">
+      <c r="G225" s="66">
         <v>130</v>
       </c>
       <c r="H225" s="10" t="s">
@@ -11167,7 +11206,7 @@
       <c r="F226" s="11">
         <v>1</v>
       </c>
-      <c r="G226" s="10">
+      <c r="G226" s="66">
         <v>18</v>
       </c>
       <c r="H226" s="10" t="s">
@@ -11205,7 +11244,7 @@
       <c r="F227" s="11">
         <v>1</v>
       </c>
-      <c r="G227" s="10">
+      <c r="G227" s="66">
         <v>19</v>
       </c>
       <c r="H227" s="16" t="s">
@@ -11243,7 +11282,7 @@
       <c r="F228" s="11">
         <v>1</v>
       </c>
-      <c r="G228" s="10">
+      <c r="G228" s="66">
         <v>20</v>
       </c>
       <c r="H228" s="10" t="s">
@@ -11281,7 +11320,7 @@
       <c r="F229" s="11">
         <v>1</v>
       </c>
-      <c r="G229" s="10">
+      <c r="G229" s="66">
         <v>21</v>
       </c>
       <c r="H229" s="10" t="s">
@@ -11319,7 +11358,7 @@
       <c r="F230" s="11">
         <v>1</v>
       </c>
-      <c r="G230" s="10">
+      <c r="G230" s="66">
         <v>22</v>
       </c>
       <c r="H230" s="10" t="s">
@@ -11357,7 +11396,7 @@
       <c r="F231" s="11">
         <v>1</v>
       </c>
-      <c r="G231" s="10">
+      <c r="G231" s="66">
         <v>23</v>
       </c>
       <c r="H231" s="10" t="s">
@@ -11395,7 +11434,7 @@
       <c r="F232" s="11">
         <v>1</v>
       </c>
-      <c r="G232" s="10">
+      <c r="G232" s="66">
         <v>24</v>
       </c>
       <c r="H232" s="10" t="s">
@@ -11433,7 +11472,7 @@
       <c r="F233" s="11">
         <v>1</v>
       </c>
-      <c r="G233" s="10">
+      <c r="G233" s="66">
         <v>25</v>
       </c>
       <c r="H233" s="10" t="s">
@@ -11471,7 +11510,7 @@
       <c r="F234" s="11">
         <v>1</v>
       </c>
-      <c r="G234" s="10">
+      <c r="G234" s="66">
         <v>26</v>
       </c>
       <c r="H234" s="10" t="s">
@@ -11509,7 +11548,7 @@
       <c r="F235" s="11">
         <v>1</v>
       </c>
-      <c r="G235" s="10">
+      <c r="G235" s="66">
         <v>27</v>
       </c>
       <c r="H235" s="10" t="s">
@@ -11547,7 +11586,7 @@
       <c r="F236" s="11">
         <v>1</v>
       </c>
-      <c r="G236" s="10">
+      <c r="G236" s="66">
         <v>28</v>
       </c>
       <c r="H236" s="10" t="s">
@@ -11585,7 +11624,7 @@
       <c r="F237" s="11">
         <v>1</v>
       </c>
-      <c r="G237" s="10">
+      <c r="G237" s="66">
         <v>29</v>
       </c>
       <c r="H237" s="10" t="s">
@@ -11623,7 +11662,7 @@
       <c r="F238" s="11">
         <v>1</v>
       </c>
-      <c r="G238" s="10">
+      <c r="G238" s="66">
         <v>30</v>
       </c>
       <c r="H238" s="10" t="s">
@@ -11661,7 +11700,7 @@
       <c r="F239" s="11">
         <v>1</v>
       </c>
-      <c r="G239" s="10">
+      <c r="G239" s="66">
         <v>31</v>
       </c>
       <c r="H239" s="16" t="s">
@@ -11699,7 +11738,7 @@
       <c r="F240" s="11">
         <v>2</v>
       </c>
-      <c r="G240" s="10">
+      <c r="G240" s="66">
         <v>58</v>
       </c>
       <c r="H240" s="10" t="s">
@@ -11737,7 +11776,7 @@
       <c r="F241" s="11">
         <v>2</v>
       </c>
-      <c r="G241" s="10">
+      <c r="G241" s="66">
         <v>59</v>
       </c>
       <c r="H241" s="10" t="s">
@@ -11775,7 +11814,7 @@
       <c r="F242" s="11">
         <v>2</v>
       </c>
-      <c r="G242" s="10">
+      <c r="G242" s="66">
         <v>60</v>
       </c>
       <c r="H242" s="10" t="s">
@@ -11813,7 +11852,7 @@
       <c r="F243" s="11">
         <v>2</v>
       </c>
-      <c r="G243" s="10">
+      <c r="G243" s="66">
         <v>61</v>
       </c>
       <c r="H243" s="10" t="s">
@@ -11851,7 +11890,7 @@
       <c r="F244" s="11">
         <v>3</v>
       </c>
-      <c r="G244" s="10">
+      <c r="G244" s="66">
         <v>104</v>
       </c>
       <c r="H244" s="10" t="s">
@@ -11889,7 +11928,7 @@
       <c r="F245" s="11">
         <v>3</v>
       </c>
-      <c r="G245" s="10">
+      <c r="G245" s="66">
         <v>108</v>
       </c>
       <c r="H245" s="16" t="s">
@@ -11927,7 +11966,7 @@
       <c r="F246" s="11">
         <v>3</v>
       </c>
-      <c r="G246" s="10">
+      <c r="G246" s="66">
         <v>109</v>
       </c>
       <c r="H246" s="10" t="s">
@@ -11965,7 +12004,7 @@
       <c r="F247" s="11">
         <v>3</v>
       </c>
-      <c r="G247" s="10">
+      <c r="G247" s="66">
         <v>110</v>
       </c>
       <c r="H247" s="10" t="s">
@@ -12003,7 +12042,7 @@
       <c r="F248" s="11">
         <v>3</v>
       </c>
-      <c r="G248" s="10">
+      <c r="G248" s="66">
         <v>111</v>
       </c>
       <c r="H248" s="10" t="s">
@@ -12041,7 +12080,7 @@
       <c r="F249" s="11">
         <v>3</v>
       </c>
-      <c r="G249" s="10">
+      <c r="G249" s="66">
         <v>112</v>
       </c>
       <c r="H249" s="10" t="s">
@@ -12079,7 +12118,7 @@
       <c r="F250" s="11">
         <v>3</v>
       </c>
-      <c r="G250" s="10">
+      <c r="G250" s="66">
         <v>113</v>
       </c>
       <c r="H250" s="10" t="s">
@@ -12117,7 +12156,7 @@
       <c r="F251" s="11">
         <v>3</v>
       </c>
-      <c r="G251" s="10">
+      <c r="G251" s="66">
         <v>114</v>
       </c>
       <c r="H251" s="10" t="s">
@@ -12152,7 +12191,7 @@
       <c r="F252" s="11">
         <v>2</v>
       </c>
-      <c r="G252" s="10">
+      <c r="G252" s="66">
         <v>54</v>
       </c>
       <c r="H252" s="10" t="s">
@@ -12187,7 +12226,7 @@
       <c r="F253" s="11">
         <v>2</v>
       </c>
-      <c r="G253" s="10">
+      <c r="G253" s="66">
         <v>55</v>
       </c>
       <c r="H253" s="10" t="s">
@@ -12222,7 +12261,7 @@
       <c r="F254" s="11">
         <v>2</v>
       </c>
-      <c r="G254" s="10">
+      <c r="G254" s="66">
         <v>56</v>
       </c>
       <c r="H254" s="10" t="s">
@@ -12257,7 +12296,7 @@
       <c r="F255" s="11">
         <v>2</v>
       </c>
-      <c r="G255" s="10">
+      <c r="G255" s="66">
         <v>57</v>
       </c>
       <c r="H255" s="10" t="s">
@@ -12295,7 +12334,7 @@
       <c r="F256" s="11">
         <v>3</v>
       </c>
-      <c r="G256" s="10">
+      <c r="G256" s="66">
         <v>101</v>
       </c>
       <c r="H256" s="16" t="s">
@@ -12333,7 +12372,7 @@
       <c r="F257" s="11">
         <v>3</v>
       </c>
-      <c r="G257" s="10">
+      <c r="G257" s="66">
         <v>102</v>
       </c>
       <c r="H257" s="10" t="s">
@@ -12371,7 +12410,7 @@
       <c r="F258" s="11">
         <v>3</v>
       </c>
-      <c r="G258" s="10">
+      <c r="G258" s="66">
         <v>103</v>
       </c>
       <c r="H258" s="10" t="s">
@@ -12409,7 +12448,7 @@
       <c r="F259" s="11">
         <v>1</v>
       </c>
-      <c r="G259" s="10">
+      <c r="G259" s="66">
         <v>1</v>
       </c>
       <c r="H259" s="16" t="s">
@@ -12447,7 +12486,7 @@
       <c r="F260" s="11">
         <v>1</v>
       </c>
-      <c r="G260" s="10">
+      <c r="G260" s="66">
         <v>2</v>
       </c>
       <c r="H260" s="10" t="s">
@@ -12485,7 +12524,7 @@
       <c r="F261" s="11">
         <v>2</v>
       </c>
-      <c r="G261" s="10">
+      <c r="G261" s="66">
         <v>57</v>
       </c>
       <c r="H261" s="16" t="s">
@@ -12523,7 +12562,7 @@
       <c r="F262" s="11">
         <v>2</v>
       </c>
-      <c r="G262" s="10">
+      <c r="G262" s="66">
         <v>58</v>
       </c>
       <c r="H262" s="10" t="s">
@@ -12561,7 +12600,7 @@
       <c r="F263" s="11">
         <v>1</v>
       </c>
-      <c r="G263" s="10">
+      <c r="G263" s="66">
         <v>3</v>
       </c>
       <c r="H263" s="10" t="s">
@@ -12599,7 +12638,7 @@
       <c r="F264" s="11">
         <v>1</v>
       </c>
-      <c r="G264" s="10">
+      <c r="G264" s="66">
         <v>4</v>
       </c>
       <c r="H264" s="10" t="s">
@@ -12637,7 +12676,7 @@
       <c r="F265" s="11">
         <v>2</v>
       </c>
-      <c r="G265" s="10">
+      <c r="G265" s="66">
         <v>55</v>
       </c>
       <c r="H265" s="16" t="s">
@@ -12675,7 +12714,7 @@
       <c r="F266" s="11">
         <v>2</v>
       </c>
-      <c r="G266" s="10">
+      <c r="G266" s="66">
         <v>56</v>
       </c>
       <c r="H266" s="10" t="s">
@@ -12713,7 +12752,7 @@
       <c r="F267" s="11">
         <v>1</v>
       </c>
-      <c r="G267" s="10">
+      <c r="G267" s="66">
         <v>5</v>
       </c>
       <c r="H267" s="10" t="s">
@@ -12751,7 +12790,7 @@
       <c r="F268" s="11">
         <v>1</v>
       </c>
-      <c r="G268" s="10">
+      <c r="G268" s="66">
         <v>6</v>
       </c>
       <c r="H268" s="10" t="s">
@@ -12789,7 +12828,7 @@
       <c r="F269" s="11">
         <v>1</v>
       </c>
-      <c r="G269" s="10">
+      <c r="G269" s="66">
         <v>7</v>
       </c>
       <c r="H269" s="10" t="s">
@@ -12827,7 +12866,7 @@
       <c r="F270" s="11">
         <v>1</v>
       </c>
-      <c r="G270" s="10">
+      <c r="G270" s="66">
         <v>8</v>
       </c>
       <c r="H270" s="10" t="s">
@@ -12865,7 +12904,7 @@
       <c r="F271" s="11">
         <v>1</v>
       </c>
-      <c r="G271" s="10">
+      <c r="G271" s="66">
         <v>9</v>
       </c>
       <c r="H271" s="10" t="s">
@@ -12903,7 +12942,7 @@
       <c r="F272" s="11">
         <v>1</v>
       </c>
-      <c r="G272" s="10">
+      <c r="G272" s="66">
         <v>10</v>
       </c>
       <c r="H272" s="10" t="s">
@@ -12941,7 +12980,7 @@
       <c r="F273" s="11">
         <v>1</v>
       </c>
-      <c r="G273" s="10">
+      <c r="G273" s="66">
         <v>11</v>
       </c>
       <c r="H273" s="10" t="s">
@@ -12979,7 +13018,7 @@
       <c r="F274" s="11">
         <v>1</v>
       </c>
-      <c r="G274" s="10">
+      <c r="G274" s="66">
         <v>12</v>
       </c>
       <c r="H274" s="10" t="s">
@@ -13017,7 +13056,7 @@
       <c r="F275" s="11">
         <v>1</v>
       </c>
-      <c r="G275" s="10">
+      <c r="G275" s="66">
         <v>13</v>
       </c>
       <c r="H275" s="10" t="s">
@@ -13055,7 +13094,7 @@
       <c r="F276" s="11">
         <v>1</v>
       </c>
-      <c r="G276" s="10">
+      <c r="G276" s="66">
         <v>14</v>
       </c>
       <c r="H276" s="10" t="s">
@@ -13093,7 +13132,7 @@
       <c r="F277" s="11">
         <v>1</v>
       </c>
-      <c r="G277" s="10">
+      <c r="G277" s="66">
         <v>15</v>
       </c>
       <c r="H277" s="10" t="s">
@@ -13131,7 +13170,7 @@
       <c r="F278" s="11">
         <v>1</v>
       </c>
-      <c r="G278" s="10">
+      <c r="G278" s="66">
         <v>16</v>
       </c>
       <c r="H278" s="10" t="s">
@@ -13169,7 +13208,7 @@
       <c r="F279" s="11">
         <v>1</v>
       </c>
-      <c r="G279" s="10">
+      <c r="G279" s="66">
         <v>17</v>
       </c>
       <c r="H279" s="10" t="s">
@@ -13207,7 +13246,7 @@
       <c r="F280" s="11">
         <v>1</v>
       </c>
-      <c r="G280" s="10">
+      <c r="G280" s="66">
         <v>18</v>
       </c>
       <c r="H280" s="10" t="s">
@@ -13245,7 +13284,7 @@
       <c r="F281" s="11">
         <v>1</v>
       </c>
-      <c r="G281" s="10">
+      <c r="G281" s="66">
         <v>19</v>
       </c>
       <c r="H281" s="10" t="s">
@@ -13283,7 +13322,7 @@
       <c r="F282" s="11">
         <v>1</v>
       </c>
-      <c r="G282" s="10">
+      <c r="G282" s="66">
         <v>20</v>
       </c>
       <c r="H282" s="10" t="s">
@@ -13321,7 +13360,7 @@
       <c r="F283" s="11">
         <v>1</v>
       </c>
-      <c r="G283" s="10">
+      <c r="G283" s="66">
         <v>21</v>
       </c>
       <c r="H283" s="10" t="s">
@@ -13359,7 +13398,7 @@
       <c r="F284" s="11">
         <v>1</v>
       </c>
-      <c r="G284" s="10">
+      <c r="G284" s="66">
         <v>22</v>
       </c>
       <c r="H284" s="10" t="s">
@@ -13397,7 +13436,7 @@
       <c r="F285" s="11">
         <v>1</v>
       </c>
-      <c r="G285" s="10">
+      <c r="G285" s="66">
         <v>23</v>
       </c>
       <c r="H285" s="10" t="s">
@@ -13435,7 +13474,7 @@
       <c r="F286" s="11">
         <v>1</v>
       </c>
-      <c r="G286" s="10">
+      <c r="G286" s="66">
         <v>24</v>
       </c>
       <c r="H286" s="10" t="s">
@@ -13473,7 +13512,7 @@
       <c r="F287" s="11">
         <v>1</v>
       </c>
-      <c r="G287" s="10">
+      <c r="G287" s="66">
         <v>25</v>
       </c>
       <c r="H287" s="10" t="s">
@@ -13511,7 +13550,7 @@
       <c r="F288" s="11">
         <v>1</v>
       </c>
-      <c r="G288" s="10">
+      <c r="G288" s="66">
         <v>26</v>
       </c>
       <c r="H288" s="10" t="s">
@@ -13549,7 +13588,7 @@
       <c r="F289" s="11">
         <v>1</v>
       </c>
-      <c r="G289" s="10">
+      <c r="G289" s="66">
         <v>27</v>
       </c>
       <c r="H289" s="10" t="s">
@@ -13587,7 +13626,7 @@
       <c r="F290" s="11">
         <v>1</v>
       </c>
-      <c r="G290" s="10">
+      <c r="G290" s="66">
         <v>28</v>
       </c>
       <c r="H290" s="10" t="s">
@@ -13625,7 +13664,7 @@
       <c r="F291" s="11">
         <v>1</v>
       </c>
-      <c r="G291" s="10">
+      <c r="G291" s="66">
         <v>29</v>
       </c>
       <c r="H291" s="10" t="s">
@@ -13663,7 +13702,7 @@
       <c r="F292" s="11">
         <v>1</v>
       </c>
-      <c r="G292" s="10">
+      <c r="G292" s="66">
         <v>30</v>
       </c>
       <c r="H292" s="10" t="s">
@@ -13701,7 +13740,7 @@
       <c r="F293" s="11">
         <v>1</v>
       </c>
-      <c r="G293" s="10">
+      <c r="G293" s="66">
         <v>31</v>
       </c>
       <c r="H293" s="10" t="s">
@@ -13739,7 +13778,7 @@
       <c r="F294" s="11">
         <v>1</v>
       </c>
-      <c r="G294" s="10">
+      <c r="G294" s="66">
         <v>32</v>
       </c>
       <c r="H294" s="16" t="s">
@@ -13777,7 +13816,7 @@
       <c r="F295" s="11">
         <v>1</v>
       </c>
-      <c r="G295" s="10">
+      <c r="G295" s="66">
         <v>33</v>
       </c>
       <c r="H295" s="10" t="s">
@@ -13815,7 +13854,7 @@
       <c r="F296" s="11">
         <v>1</v>
       </c>
-      <c r="G296" s="10">
+      <c r="G296" s="66">
         <v>34</v>
       </c>
       <c r="H296" s="10" t="s">
@@ -13853,7 +13892,7 @@
       <c r="F297" s="11">
         <v>1</v>
       </c>
-      <c r="G297" s="10">
+      <c r="G297" s="66">
         <v>35</v>
       </c>
       <c r="H297" s="16" t="s">
@@ -13891,7 +13930,7 @@
       <c r="F298" s="11">
         <v>1</v>
       </c>
-      <c r="G298" s="10">
+      <c r="G298" s="66">
         <v>36</v>
       </c>
       <c r="H298" s="10" t="s">
@@ -13929,7 +13968,7 @@
       <c r="F299" s="11">
         <v>2</v>
       </c>
-      <c r="G299" s="10">
+      <c r="G299" s="66">
         <v>51</v>
       </c>
       <c r="H299" s="10" t="s">
@@ -13967,7 +14006,7 @@
       <c r="F300" s="11">
         <v>2</v>
       </c>
-      <c r="G300" s="10">
+      <c r="G300" s="66">
         <v>52</v>
       </c>
       <c r="H300" s="10" t="s">
@@ -14005,7 +14044,7 @@
       <c r="F301" s="11">
         <v>2</v>
       </c>
-      <c r="G301" s="10">
+      <c r="G301" s="66">
         <v>53</v>
       </c>
       <c r="H301" s="10" t="s">
@@ -14043,7 +14082,7 @@
       <c r="F302" s="11">
         <v>2</v>
       </c>
-      <c r="G302" s="10">
+      <c r="G302" s="66">
         <v>54</v>
       </c>
       <c r="H302" s="10" t="s">
@@ -14081,7 +14120,7 @@
       <c r="F303" s="11">
         <v>2</v>
       </c>
-      <c r="G303" s="10">
+      <c r="G303" s="66">
         <v>59</v>
       </c>
       <c r="H303" s="16" t="s">
@@ -14119,7 +14158,7 @@
       <c r="F304" s="11">
         <v>2</v>
       </c>
-      <c r="G304" s="10">
+      <c r="G304" s="66">
         <v>60</v>
       </c>
       <c r="H304" s="10" t="s">
@@ -14157,7 +14196,7 @@
       <c r="F305" s="11">
         <v>2</v>
       </c>
-      <c r="G305" s="10">
+      <c r="G305" s="66">
         <v>61</v>
       </c>
       <c r="H305" s="10" t="s">
@@ -14195,7 +14234,7 @@
       <c r="F306" s="11">
         <v>2</v>
       </c>
-      <c r="G306" s="10">
+      <c r="G306" s="66">
         <v>62</v>
       </c>
       <c r="H306" s="10" t="s">
@@ -14233,7 +14272,7 @@
       <c r="F307" s="11">
         <v>2</v>
       </c>
-      <c r="G307" s="10">
+      <c r="G307" s="66">
         <v>63</v>
       </c>
       <c r="H307" s="10" t="s">
@@ -14271,7 +14310,7 @@
       <c r="F308" s="11">
         <v>2</v>
       </c>
-      <c r="G308" s="10">
+      <c r="G308" s="66">
         <v>64</v>
       </c>
       <c r="H308" s="10" t="s">
@@ -14309,7 +14348,7 @@
       <c r="F309" s="11">
         <v>2</v>
       </c>
-      <c r="G309" s="10">
+      <c r="G309" s="66">
         <v>65</v>
       </c>
       <c r="H309" s="10" t="s">
@@ -14347,7 +14386,7 @@
       <c r="F310" s="11">
         <v>3</v>
       </c>
-      <c r="G310" s="10">
+      <c r="G310" s="66">
         <v>104</v>
       </c>
       <c r="H310" s="10" t="s">
@@ -14385,7 +14424,7 @@
       <c r="F311" s="11">
         <v>3</v>
       </c>
-      <c r="G311" s="10">
+      <c r="G311" s="66">
         <v>105</v>
       </c>
       <c r="H311" s="10" t="s">
@@ -14423,7 +14462,7 @@
       <c r="F312" s="11">
         <v>3</v>
       </c>
-      <c r="G312" s="10">
+      <c r="G312" s="66">
         <v>106</v>
       </c>
       <c r="H312" s="10" t="s">
@@ -14461,7 +14500,7 @@
       <c r="F313" s="11">
         <v>3</v>
       </c>
-      <c r="G313" s="10">
+      <c r="G313" s="66">
         <v>107</v>
       </c>
       <c r="H313" s="10" t="s">
@@ -14499,7 +14538,7 @@
       <c r="F314" s="11">
         <v>3</v>
       </c>
-      <c r="G314" s="10">
+      <c r="G314" s="66">
         <v>108</v>
       </c>
       <c r="H314" s="10" t="s">
@@ -14537,7 +14576,7 @@
       <c r="F315" s="11">
         <v>3</v>
       </c>
-      <c r="G315" s="10">
+      <c r="G315" s="66">
         <v>109</v>
       </c>
       <c r="H315" s="16" t="s">
@@ -14575,7 +14614,7 @@
       <c r="F316" s="11">
         <v>3</v>
       </c>
-      <c r="G316" s="10">
+      <c r="G316" s="66">
         <v>110</v>
       </c>
       <c r="H316" s="10" t="s">
@@ -14613,7 +14652,7 @@
       <c r="F317" s="11">
         <v>3</v>
       </c>
-      <c r="G317" s="10">
+      <c r="G317" s="66">
         <v>111</v>
       </c>
       <c r="H317" s="10" t="s">
@@ -14651,7 +14690,7 @@
       <c r="F318" s="11">
         <v>3</v>
       </c>
-      <c r="G318" s="10">
+      <c r="G318" s="66">
         <v>112</v>
       </c>
       <c r="H318" s="10" t="s">
@@ -14689,7 +14728,7 @@
       <c r="F319" s="11">
         <v>3</v>
       </c>
-      <c r="G319" s="10">
+      <c r="G319" s="66">
         <v>113</v>
       </c>
       <c r="H319" s="10" t="s">
@@ -14727,7 +14766,7 @@
       <c r="F320" s="11">
         <v>3</v>
       </c>
-      <c r="G320" s="10">
+      <c r="G320" s="66">
         <v>114</v>
       </c>
       <c r="H320" s="10" t="s">
@@ -14765,7 +14804,7 @@
       <c r="F321" s="11">
         <v>3</v>
       </c>
-      <c r="G321" s="10">
+      <c r="G321" s="66">
         <v>115</v>
       </c>
       <c r="H321" s="10" t="s">
@@ -14803,7 +14842,7 @@
       <c r="F322" s="11">
         <v>3</v>
       </c>
-      <c r="G322" s="10">
+      <c r="G322" s="66">
         <v>116</v>
       </c>
       <c r="H322" s="10" t="s">
@@ -14841,7 +14880,7 @@
       <c r="F323" s="11">
         <v>3</v>
       </c>
-      <c r="G323" s="10">
+      <c r="G323" s="66">
         <v>117</v>
       </c>
       <c r="H323" s="16" t="s">
@@ -14879,7 +14918,7 @@
       <c r="F324" s="11">
         <v>4</v>
       </c>
-      <c r="G324" s="10">
+      <c r="G324" s="66">
         <v>151</v>
       </c>
       <c r="H324" s="10" t="s">
@@ -14917,7 +14956,7 @@
       <c r="F325" s="11">
         <v>4</v>
       </c>
-      <c r="G325" s="10">
+      <c r="G325" s="66">
         <v>152</v>
       </c>
       <c r="H325" s="10" t="s">
@@ -14955,7 +14994,7 @@
       <c r="F326" s="11">
         <v>4</v>
       </c>
-      <c r="G326" s="10">
+      <c r="G326" s="66">
         <v>153</v>
       </c>
       <c r="H326" s="10" t="s">
@@ -14993,7 +15032,7 @@
       <c r="F327" s="11">
         <v>4</v>
       </c>
-      <c r="G327" s="10">
+      <c r="G327" s="66">
         <v>154</v>
       </c>
       <c r="H327" s="10" t="s">
@@ -15031,7 +15070,7 @@
       <c r="F328" s="11">
         <v>4</v>
       </c>
-      <c r="G328" s="10">
+      <c r="G328" s="66">
         <v>155</v>
       </c>
       <c r="H328" s="10" t="s">
@@ -15069,7 +15108,7 @@
       <c r="F329" s="11">
         <v>4</v>
       </c>
-      <c r="G329" s="10">
+      <c r="G329" s="66">
         <v>156</v>
       </c>
       <c r="H329" s="10" t="s">
@@ -15107,7 +15146,7 @@
       <c r="F330" s="11">
         <v>4</v>
       </c>
-      <c r="G330" s="10">
+      <c r="G330" s="66">
         <v>157</v>
       </c>
       <c r="H330" s="10" t="s">
@@ -15145,7 +15184,7 @@
       <c r="F331" s="11">
         <v>4</v>
       </c>
-      <c r="G331" s="10">
+      <c r="G331" s="66">
         <v>158</v>
       </c>
       <c r="H331" s="10" t="s">
@@ -15183,7 +15222,7 @@
       <c r="F332" s="11">
         <v>4</v>
       </c>
-      <c r="G332" s="10">
+      <c r="G332" s="66">
         <v>159</v>
       </c>
       <c r="H332" s="10" t="s">
@@ -15221,7 +15260,7 @@
       <c r="F333" s="11">
         <v>4</v>
       </c>
-      <c r="G333" s="10">
+      <c r="G333" s="66">
         <v>160</v>
       </c>
       <c r="H333" s="10" t="s">
@@ -15259,7 +15298,7 @@
       <c r="F334" s="11">
         <v>4</v>
       </c>
-      <c r="G334" s="10">
+      <c r="G334" s="66">
         <v>161</v>
       </c>
       <c r="H334" s="10" t="s">
@@ -15297,7 +15336,7 @@
       <c r="F335" s="11">
         <v>4</v>
       </c>
-      <c r="G335" s="10">
+      <c r="G335" s="66">
         <v>162</v>
       </c>
       <c r="H335" s="10" t="s">
@@ -15335,7 +15374,7 @@
       <c r="F336" s="11">
         <v>4</v>
       </c>
-      <c r="G336" s="10">
+      <c r="G336" s="66">
         <v>163</v>
       </c>
       <c r="H336" s="10" t="s">
@@ -15373,7 +15412,7 @@
       <c r="F337" s="11">
         <v>4</v>
       </c>
-      <c r="G337" s="10">
+      <c r="G337" s="66">
         <v>164</v>
       </c>
       <c r="H337" s="10" t="s">
@@ -15411,7 +15450,7 @@
       <c r="F338" s="11">
         <v>4</v>
       </c>
-      <c r="G338" s="10">
+      <c r="G338" s="66">
         <v>165</v>
       </c>
       <c r="H338" s="10" t="s">
@@ -15449,7 +15488,7 @@
       <c r="F339" s="11">
         <v>4</v>
       </c>
-      <c r="G339" s="10">
+      <c r="G339" s="66">
         <v>166</v>
       </c>
       <c r="H339" s="10" t="s">
@@ -15487,7 +15526,7 @@
       <c r="F340" s="11">
         <v>4</v>
       </c>
-      <c r="G340" s="10">
+      <c r="G340" s="66">
         <v>167</v>
       </c>
       <c r="H340" s="10" t="s">
@@ -15525,7 +15564,7 @@
       <c r="F341" s="11">
         <v>4</v>
       </c>
-      <c r="G341" s="10">
+      <c r="G341" s="66">
         <v>168</v>
       </c>
       <c r="H341" s="10" t="s">
@@ -15563,7 +15602,7 @@
       <c r="F342" s="11">
         <v>4</v>
       </c>
-      <c r="G342" s="10">
+      <c r="G342" s="66">
         <v>169</v>
       </c>
       <c r="H342" s="16" t="s">
@@ -15601,7 +15640,7 @@
       <c r="F343" s="11">
         <v>4</v>
       </c>
-      <c r="G343" s="10">
+      <c r="G343" s="66">
         <v>170</v>
       </c>
       <c r="H343" s="10" t="s">
@@ -15639,7 +15678,7 @@
       <c r="F344" s="11">
         <v>4</v>
       </c>
-      <c r="G344" s="10">
+      <c r="G344" s="66">
         <v>171</v>
       </c>
       <c r="H344" s="10" t="s">
@@ -15677,7 +15716,7 @@
       <c r="F345" s="11">
         <v>4</v>
       </c>
-      <c r="G345" s="10">
+      <c r="G345" s="66">
         <v>172</v>
       </c>
       <c r="H345" s="10" t="s">
@@ -15715,7 +15754,7 @@
       <c r="F346" s="11">
         <v>4</v>
       </c>
-      <c r="G346" s="10">
+      <c r="G346" s="66">
         <v>173</v>
       </c>
       <c r="H346" s="10" t="s">
@@ -15753,7 +15792,7 @@
       <c r="F347" s="11">
         <v>4</v>
       </c>
-      <c r="G347" s="10">
+      <c r="G347" s="66">
         <v>174</v>
       </c>
       <c r="H347" s="10" t="s">
@@ -15791,7 +15830,7 @@
       <c r="F348" s="11">
         <v>4</v>
       </c>
-      <c r="G348" s="10">
+      <c r="G348" s="66">
         <v>175</v>
       </c>
       <c r="H348" s="10" t="s">
@@ -15829,7 +15868,7 @@
       <c r="F349" s="11">
         <v>4</v>
       </c>
-      <c r="G349" s="10">
+      <c r="G349" s="66">
         <v>176</v>
       </c>
       <c r="H349" s="10" t="s">
@@ -15867,7 +15906,7 @@
       <c r="F350" s="11">
         <v>4</v>
       </c>
-      <c r="G350" s="10">
+      <c r="G350" s="66">
         <v>177</v>
       </c>
       <c r="H350" s="10" t="s">
@@ -15905,7 +15944,7 @@
       <c r="F351" s="11">
         <v>4</v>
       </c>
-      <c r="G351" s="10">
+      <c r="G351" s="66">
         <v>178</v>
       </c>
       <c r="H351" s="10" t="s">
@@ -15943,7 +15982,7 @@
       <c r="F352" s="11">
         <v>4</v>
       </c>
-      <c r="G352" s="10">
+      <c r="G352" s="66">
         <v>179</v>
       </c>
       <c r="H352" s="10" t="s">
@@ -15981,7 +16020,7 @@
       <c r="F353" s="11">
         <v>4</v>
       </c>
-      <c r="G353" s="10">
+      <c r="G353" s="66">
         <v>180</v>
       </c>
       <c r="H353" s="10" t="s">
@@ -16019,7 +16058,7 @@
       <c r="F354" s="11">
         <v>4</v>
       </c>
-      <c r="G354" s="10">
+      <c r="G354" s="66">
         <v>181</v>
       </c>
       <c r="H354" s="10" t="s">
@@ -16057,7 +16096,7 @@
       <c r="F355" s="11">
         <v>4</v>
       </c>
-      <c r="G355" s="10">
+      <c r="G355" s="66">
         <v>182</v>
       </c>
       <c r="H355" s="10" t="s">
@@ -16095,7 +16134,7 @@
       <c r="F356" s="11">
         <v>4</v>
       </c>
-      <c r="G356" s="10">
+      <c r="G356" s="66">
         <v>183</v>
       </c>
       <c r="H356" s="10" t="s">
@@ -16133,7 +16172,7 @@
       <c r="F357" s="11">
         <v>4</v>
       </c>
-      <c r="G357" s="10">
+      <c r="G357" s="66">
         <v>184</v>
       </c>
       <c r="H357" s="10" t="s">
@@ -16171,7 +16210,7 @@
       <c r="F358" s="11">
         <v>4</v>
       </c>
-      <c r="G358" s="10">
+      <c r="G358" s="66">
         <v>185</v>
       </c>
       <c r="H358" s="10" t="s">
@@ -16209,7 +16248,7 @@
       <c r="F359" s="11">
         <v>4</v>
       </c>
-      <c r="G359" s="10">
+      <c r="G359" s="66">
         <v>186</v>
       </c>
       <c r="H359" s="16" t="s">
@@ -16247,7 +16286,7 @@
       <c r="F360" s="11">
         <v>4</v>
       </c>
-      <c r="G360" s="10">
+      <c r="G360" s="66">
         <v>187</v>
       </c>
       <c r="H360" s="10" t="s">
@@ -16285,7 +16324,7 @@
       <c r="F361" s="11">
         <v>4</v>
       </c>
-      <c r="G361" s="10">
+      <c r="G361" s="66">
         <v>188</v>
       </c>
       <c r="H361" s="10" t="s">
@@ -16323,7 +16362,7 @@
       <c r="F362" s="11">
         <v>1</v>
       </c>
-      <c r="G362" s="10">
+      <c r="G362" s="66">
         <v>37</v>
       </c>
       <c r="H362" s="10" t="s">
@@ -16361,7 +16400,7 @@
       <c r="F363" s="11">
         <v>3</v>
       </c>
-      <c r="G363" s="10">
+      <c r="G363" s="66">
         <v>119</v>
       </c>
       <c r="H363" s="10" t="s">
@@ -16399,7 +16438,7 @@
       <c r="F364" s="11">
         <v>3</v>
       </c>
-      <c r="G364" s="10">
+      <c r="G364" s="66">
         <v>118</v>
       </c>
       <c r="H364" s="10" t="s">
@@ -16437,7 +16476,7 @@
       <c r="F365" s="11">
         <v>3</v>
       </c>
-      <c r="G365" s="10">
+      <c r="G365" s="66">
         <v>120</v>
       </c>
       <c r="H365" s="10" t="s">
@@ -16475,7 +16514,7 @@
       <c r="F366" s="11">
         <v>1</v>
       </c>
-      <c r="G366" s="10">
+      <c r="G366" s="66">
         <v>1</v>
       </c>
       <c r="H366" s="16" t="s">
@@ -16513,7 +16552,7 @@
       <c r="F367" s="11">
         <v>1</v>
       </c>
-      <c r="G367" s="10">
+      <c r="G367" s="66">
         <v>2</v>
       </c>
       <c r="H367" s="10" t="s">
@@ -16551,7 +16590,7 @@
       <c r="F368" s="11">
         <v>1</v>
       </c>
-      <c r="G368" s="10">
+      <c r="G368" s="66">
         <v>3</v>
       </c>
       <c r="H368" s="10" t="s">
@@ -16589,7 +16628,7 @@
       <c r="F369" s="11">
         <v>1</v>
       </c>
-      <c r="G369" s="10">
+      <c r="G369" s="66">
         <v>4</v>
       </c>
       <c r="H369" s="10" t="s">
@@ -16627,7 +16666,7 @@
       <c r="F370" s="11">
         <v>1</v>
       </c>
-      <c r="G370" s="10">
+      <c r="G370" s="66">
         <v>5</v>
       </c>
       <c r="H370" s="16" t="s">
@@ -16665,7 +16704,7 @@
       <c r="F371" s="11">
         <v>1</v>
       </c>
-      <c r="G371" s="10">
+      <c r="G371" s="66">
         <v>6</v>
       </c>
       <c r="H371" s="10" t="s">
@@ -16703,7 +16742,7 @@
       <c r="F372" s="11">
         <v>2</v>
       </c>
-      <c r="G372" s="10">
+      <c r="G372" s="66">
         <v>51</v>
       </c>
       <c r="H372" s="16" t="s">
@@ -16741,7 +16780,7 @@
       <c r="F373" s="11">
         <v>2</v>
       </c>
-      <c r="G373" s="10">
+      <c r="G373" s="66">
         <v>52</v>
       </c>
       <c r="H373" s="10" t="s">
@@ -16779,7 +16818,7 @@
       <c r="F374" s="11">
         <v>2</v>
       </c>
-      <c r="G374" s="10">
+      <c r="G374" s="66">
         <v>53</v>
       </c>
       <c r="H374" s="10" t="s">
@@ -16817,7 +16856,7 @@
       <c r="F375" s="11">
         <v>2</v>
       </c>
-      <c r="G375" s="10">
+      <c r="G375" s="66">
         <v>54</v>
       </c>
       <c r="H375" s="10" t="s">
@@ -16855,7 +16894,7 @@
       <c r="F376" s="11">
         <v>2</v>
       </c>
-      <c r="G376" s="10">
+      <c r="G376" s="66">
         <v>55</v>
       </c>
       <c r="H376" s="10" t="s">
@@ -16893,7 +16932,7 @@
       <c r="F377" s="11">
         <v>2</v>
       </c>
-      <c r="G377" s="10">
+      <c r="G377" s="66">
         <v>56</v>
       </c>
       <c r="H377" s="10" t="s">
@@ -16931,7 +16970,7 @@
       <c r="F378" s="11">
         <v>2</v>
       </c>
-      <c r="G378" s="10">
+      <c r="G378" s="66">
         <v>57</v>
       </c>
       <c r="H378" s="16" t="s">
@@ -16969,7 +17008,7 @@
       <c r="F379" s="11">
         <v>2</v>
       </c>
-      <c r="G379" s="10">
+      <c r="G379" s="66">
         <v>58</v>
       </c>
       <c r="H379" s="10" t="s">
@@ -17007,7 +17046,7 @@
       <c r="F380" s="11">
         <v>2</v>
       </c>
-      <c r="G380" s="10">
+      <c r="G380" s="66">
         <v>59</v>
       </c>
       <c r="H380" s="10" t="s">
@@ -17045,7 +17084,7 @@
       <c r="F381" s="11">
         <v>2</v>
       </c>
-      <c r="G381" s="10">
+      <c r="G381" s="66">
         <v>60</v>
       </c>
       <c r="H381" s="10" t="s">
@@ -17083,7 +17122,7 @@
       <c r="F382" s="11">
         <v>2</v>
       </c>
-      <c r="G382" s="10">
+      <c r="G382" s="66">
         <v>61</v>
       </c>
       <c r="H382" s="10" t="s">
@@ -17121,7 +17160,7 @@
       <c r="F383" s="11">
         <v>2</v>
       </c>
-      <c r="G383" s="10">
+      <c r="G383" s="66">
         <v>62</v>
       </c>
       <c r="H383" s="10" t="s">
@@ -17159,7 +17198,7 @@
       <c r="F384" s="11">
         <v>2</v>
       </c>
-      <c r="G384" s="10">
+      <c r="G384" s="66">
         <v>63</v>
       </c>
       <c r="H384" s="10" t="s">
@@ -17197,7 +17236,7 @@
       <c r="F385" s="11">
         <v>2</v>
       </c>
-      <c r="G385" s="10">
+      <c r="G385" s="66">
         <v>64</v>
       </c>
       <c r="H385" s="10" t="s">
@@ -17235,7 +17274,7 @@
       <c r="F386" s="11">
         <v>2</v>
       </c>
-      <c r="G386" s="10">
+      <c r="G386" s="66">
         <v>65</v>
       </c>
       <c r="H386" s="10" t="s">
@@ -17273,7 +17312,7 @@
       <c r="F387" s="11">
         <v>2</v>
       </c>
-      <c r="G387" s="10">
+      <c r="G387" s="66">
         <v>66</v>
       </c>
       <c r="H387" s="10" t="s">
@@ -17311,7 +17350,7 @@
       <c r="F388" s="11">
         <v>2</v>
       </c>
-      <c r="G388" s="10">
+      <c r="G388" s="66">
         <v>67</v>
       </c>
       <c r="H388" s="10" t="s">
@@ -17349,7 +17388,7 @@
       <c r="F389" s="11">
         <v>2</v>
       </c>
-      <c r="G389" s="10">
+      <c r="G389" s="66">
         <v>68</v>
       </c>
       <c r="H389" s="10" t="s">
@@ -17387,7 +17426,7 @@
       <c r="F390" s="11">
         <v>2</v>
       </c>
-      <c r="G390" s="10">
+      <c r="G390" s="66">
         <v>69</v>
       </c>
       <c r="H390" s="10" t="s">
@@ -17425,7 +17464,7 @@
       <c r="F391" s="11">
         <v>2</v>
       </c>
-      <c r="G391" s="10">
+      <c r="G391" s="66">
         <v>70</v>
       </c>
       <c r="H391" s="10" t="s">
@@ -17463,7 +17502,7 @@
       <c r="F392" s="11">
         <v>2</v>
       </c>
-      <c r="G392" s="10">
+      <c r="G392" s="66">
         <v>71</v>
       </c>
       <c r="H392" s="10" t="s">
@@ -17501,7 +17540,7 @@
       <c r="F393" s="11">
         <v>2</v>
       </c>
-      <c r="G393" s="10">
+      <c r="G393" s="66">
         <v>72</v>
       </c>
       <c r="H393" s="10" t="s">
@@ -17539,7 +17578,7 @@
       <c r="F394" s="11">
         <v>2</v>
       </c>
-      <c r="G394" s="10">
+      <c r="G394" s="66">
         <v>73</v>
       </c>
       <c r="H394" s="10" t="s">
@@ -17577,7 +17616,7 @@
       <c r="F395" s="11">
         <v>2</v>
       </c>
-      <c r="G395" s="10">
+      <c r="G395" s="66">
         <v>74</v>
       </c>
       <c r="H395" s="10" t="s">
@@ -17615,7 +17654,7 @@
       <c r="F396" s="11">
         <v>2</v>
       </c>
-      <c r="G396" s="10">
+      <c r="G396" s="66">
         <v>75</v>
       </c>
       <c r="H396" s="10" t="s">
@@ -17653,7 +17692,7 @@
       <c r="F397" s="11">
         <v>2</v>
       </c>
-      <c r="G397" s="10">
+      <c r="G397" s="66">
         <v>76</v>
       </c>
       <c r="H397" s="10" t="s">
@@ -17691,7 +17730,7 @@
       <c r="F398" s="11">
         <v>2</v>
       </c>
-      <c r="G398" s="10">
+      <c r="G398" s="66">
         <v>77</v>
       </c>
       <c r="H398" s="10" t="s">
@@ -17729,7 +17768,7 @@
       <c r="F399" s="11">
         <v>2</v>
       </c>
-      <c r="G399" s="10">
+      <c r="G399" s="66">
         <v>78</v>
       </c>
       <c r="H399" s="10" t="s">
@@ -17767,7 +17806,7 @@
       <c r="F400" s="11">
         <v>2</v>
       </c>
-      <c r="G400" s="10">
+      <c r="G400" s="66">
         <v>79</v>
       </c>
       <c r="H400" s="10" t="s">
@@ -17805,7 +17844,7 @@
       <c r="F401" s="11">
         <v>2</v>
       </c>
-      <c r="G401" s="10">
+      <c r="G401" s="66">
         <v>80</v>
       </c>
       <c r="H401" s="10" t="s">
@@ -17843,7 +17882,7 @@
       <c r="F402" s="11">
         <v>2</v>
       </c>
-      <c r="G402" s="10">
+      <c r="G402" s="66">
         <v>81</v>
       </c>
       <c r="H402" s="10" t="s">
@@ -17862,7 +17901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="12">
         <v>292</v>
       </c>
@@ -17881,7 +17920,7 @@
       <c r="F403" s="11">
         <v>3</v>
       </c>
-      <c r="G403" s="10">
+      <c r="G403" s="66">
         <v>101</v>
       </c>
       <c r="H403" s="10" t="s">
@@ -17900,7 +17939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="12">
         <v>292</v>
       </c>
@@ -17919,7 +17958,7 @@
       <c r="F404" s="11">
         <v>3</v>
       </c>
-      <c r="G404" s="10">
+      <c r="G404" s="66">
         <v>102</v>
       </c>
       <c r="H404" s="10" t="s">
@@ -17938,7 +17977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="12">
         <v>292</v>
       </c>
@@ -17957,7 +17996,7 @@
       <c r="F405" s="11">
         <v>3</v>
       </c>
-      <c r="G405" s="10">
+      <c r="G405" s="66">
         <v>103</v>
       </c>
       <c r="H405" s="10" t="s">
@@ -17976,7 +18015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="12">
         <v>292</v>
       </c>
@@ -17995,7 +18034,7 @@
       <c r="F406" s="11">
         <v>3</v>
       </c>
-      <c r="G406" s="10">
+      <c r="G406" s="66">
         <v>104</v>
       </c>
       <c r="H406" s="10" t="s">
@@ -18014,7 +18053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="12">
         <v>292</v>
       </c>
@@ -18033,7 +18072,7 @@
       <c r="F407" s="11">
         <v>3</v>
       </c>
-      <c r="G407" s="10">
+      <c r="G407" s="66">
         <v>105</v>
       </c>
       <c r="H407" s="10" t="s">
@@ -18052,7 +18091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="12">
         <v>292</v>
       </c>
@@ -18071,7 +18110,7 @@
       <c r="F408" s="11">
         <v>3</v>
       </c>
-      <c r="G408" s="10">
+      <c r="G408" s="66">
         <v>106</v>
       </c>
       <c r="H408" s="10" t="s">
@@ -18090,7 +18129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="12">
         <v>292</v>
       </c>
@@ -18109,7 +18148,7 @@
       <c r="F409" s="11">
         <v>3</v>
       </c>
-      <c r="G409" s="10">
+      <c r="G409" s="66">
         <v>107</v>
       </c>
       <c r="H409" s="10" t="s">
@@ -18128,7 +18167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="12">
         <v>292</v>
       </c>
@@ -18147,7 +18186,7 @@
       <c r="F410" s="11">
         <v>3</v>
       </c>
-      <c r="G410" s="10">
+      <c r="G410" s="66">
         <v>108</v>
       </c>
       <c r="H410" s="10" t="s">
@@ -18166,7 +18205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="12">
         <v>292</v>
       </c>
@@ -18185,7 +18224,7 @@
       <c r="F411" s="11">
         <v>3</v>
       </c>
-      <c r="G411" s="10">
+      <c r="G411" s="66">
         <v>109</v>
       </c>
       <c r="H411" s="10" t="s">
@@ -18204,7 +18243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="12">
         <v>292</v>
       </c>
@@ -18223,7 +18262,7 @@
       <c r="F412" s="11">
         <v>3</v>
       </c>
-      <c r="G412" s="10">
+      <c r="G412" s="66">
         <v>110</v>
       </c>
       <c r="H412" s="10" t="s">
@@ -18242,7 +18281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="12">
         <v>292</v>
       </c>
@@ -18261,7 +18300,7 @@
       <c r="F413" s="11">
         <v>3</v>
       </c>
-      <c r="G413" s="10">
+      <c r="G413" s="66">
         <v>111</v>
       </c>
       <c r="H413" s="10" t="s">
@@ -18280,7 +18319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="12">
         <v>292</v>
       </c>
@@ -18299,7 +18338,7 @@
       <c r="F414" s="11">
         <v>3</v>
       </c>
-      <c r="G414" s="10">
+      <c r="G414" s="66">
         <v>112</v>
       </c>
       <c r="H414" s="10" t="s">
@@ -18318,7 +18357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="12">
         <v>292</v>
       </c>
@@ -18337,7 +18376,7 @@
       <c r="F415" s="11">
         <v>3</v>
       </c>
-      <c r="G415" s="10">
+      <c r="G415" s="66">
         <v>113</v>
       </c>
       <c r="H415" s="10" t="s">
@@ -18356,7 +18395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="12">
         <v>292</v>
       </c>
@@ -18375,7 +18414,7 @@
       <c r="F416" s="11">
         <v>3</v>
       </c>
-      <c r="G416" s="10">
+      <c r="G416" s="66">
         <v>114</v>
       </c>
       <c r="H416" s="10" t="s">
@@ -18394,7 +18433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="12">
         <v>292</v>
       </c>
@@ -18413,7 +18452,7 @@
       <c r="F417" s="11">
         <v>3</v>
       </c>
-      <c r="G417" s="10">
+      <c r="G417" s="66">
         <v>115</v>
       </c>
       <c r="H417" s="10" t="s">
@@ -18432,7 +18471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="12">
         <v>292</v>
       </c>
@@ -18451,7 +18490,7 @@
       <c r="F418" s="11">
         <v>3</v>
       </c>
-      <c r="G418" s="10">
+      <c r="G418" s="66">
         <v>116</v>
       </c>
       <c r="H418" s="10" t="s">
@@ -18470,7 +18509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="12">
         <v>292</v>
       </c>
@@ -18489,7 +18528,7 @@
       <c r="F419" s="11">
         <v>3</v>
       </c>
-      <c r="G419" s="10">
+      <c r="G419" s="66">
         <v>117</v>
       </c>
       <c r="H419" s="10" t="s">
@@ -18508,7 +18547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="12">
         <v>292</v>
       </c>
@@ -18527,7 +18566,7 @@
       <c r="F420" s="11">
         <v>3</v>
       </c>
-      <c r="G420" s="10">
+      <c r="G420" s="66">
         <v>118</v>
       </c>
       <c r="H420" s="10" t="s">
@@ -18546,7 +18585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="12">
         <v>292</v>
       </c>
@@ -18565,7 +18604,7 @@
       <c r="F421" s="11">
         <v>3</v>
       </c>
-      <c r="G421" s="10">
+      <c r="G421" s="66">
         <v>119</v>
       </c>
       <c r="H421" s="10" t="s">
@@ -18584,7 +18623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="12">
         <v>292</v>
       </c>
@@ -18603,7 +18642,7 @@
       <c r="F422" s="11">
         <v>3</v>
       </c>
-      <c r="G422" s="10">
+      <c r="G422" s="66">
         <v>120</v>
       </c>
       <c r="H422" s="10" t="s">
@@ -18622,7 +18661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="12">
         <v>292</v>
       </c>
@@ -18641,7 +18680,7 @@
       <c r="F423" s="11">
         <v>3</v>
       </c>
-      <c r="G423" s="10">
+      <c r="G423" s="66">
         <v>121</v>
       </c>
       <c r="H423" s="10" t="s">
@@ -18660,7 +18699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="12">
         <v>292</v>
       </c>
@@ -18679,7 +18718,7 @@
       <c r="F424" s="11">
         <v>3</v>
       </c>
-      <c r="G424" s="10">
+      <c r="G424" s="66">
         <v>122</v>
       </c>
       <c r="H424" s="10" t="s">
@@ -18698,7 +18737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="12">
         <v>292</v>
       </c>
@@ -18717,7 +18756,7 @@
       <c r="F425" s="11">
         <v>3</v>
       </c>
-      <c r="G425" s="10">
+      <c r="G425" s="66">
         <v>123</v>
       </c>
       <c r="H425" s="10" t="s">
@@ -18736,7 +18775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="12">
         <v>292</v>
       </c>
@@ -18755,7 +18794,7 @@
       <c r="F426" s="11">
         <v>3</v>
       </c>
-      <c r="G426" s="10">
+      <c r="G426" s="66">
         <v>124</v>
       </c>
       <c r="H426" s="10" t="s">
@@ -18774,7 +18813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="12">
         <v>292</v>
       </c>
@@ -18793,7 +18832,7 @@
       <c r="F427" s="11">
         <v>3</v>
       </c>
-      <c r="G427" s="10">
+      <c r="G427" s="66">
         <v>125</v>
       </c>
       <c r="H427" s="10" t="s">
@@ -18812,7 +18851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="12">
         <v>292</v>
       </c>
@@ -18831,7 +18870,7 @@
       <c r="F428" s="11">
         <v>3</v>
       </c>
-      <c r="G428" s="10">
+      <c r="G428" s="66">
         <v>126</v>
       </c>
       <c r="H428" s="10" t="s">
@@ -18850,7 +18889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="12">
         <v>292</v>
       </c>
@@ -18869,7 +18908,7 @@
       <c r="F429" s="11">
         <v>3</v>
       </c>
-      <c r="G429" s="10">
+      <c r="G429" s="66">
         <v>127</v>
       </c>
       <c r="H429" s="10" t="s">
@@ -18888,7 +18927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="12">
         <v>292</v>
       </c>
@@ -18907,7 +18946,7 @@
       <c r="F430" s="11">
         <v>3</v>
       </c>
-      <c r="G430" s="10">
+      <c r="G430" s="66">
         <v>128</v>
       </c>
       <c r="H430" s="10" t="s">
@@ -18926,7 +18965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="12">
         <v>292</v>
       </c>
@@ -18945,7 +18984,7 @@
       <c r="F431" s="11">
         <v>3</v>
       </c>
-      <c r="G431" s="10">
+      <c r="G431" s="66">
         <v>129</v>
       </c>
       <c r="H431" s="16" t="s">
@@ -18983,7 +19022,7 @@
       <c r="F432" s="11">
         <v>1</v>
       </c>
-      <c r="G432" s="10">
+      <c r="G432" s="66">
         <v>1</v>
       </c>
       <c r="H432" s="16" t="s">
@@ -19021,7 +19060,7 @@
       <c r="F433" s="11">
         <v>1</v>
       </c>
-      <c r="G433" s="10">
+      <c r="G433" s="66">
         <v>2</v>
       </c>
       <c r="H433" s="10" t="s">
@@ -19059,7 +19098,7 @@
       <c r="F434" s="11">
         <v>1</v>
       </c>
-      <c r="G434" s="10">
+      <c r="G434" s="66">
         <v>3</v>
       </c>
       <c r="H434" s="10" t="s">
@@ -19097,7 +19136,7 @@
       <c r="F435" s="11">
         <v>1</v>
       </c>
-      <c r="G435" s="10">
+      <c r="G435" s="66">
         <v>4</v>
       </c>
       <c r="H435" s="16" t="s">
@@ -19135,7 +19174,7 @@
       <c r="F436" s="11">
         <v>1</v>
       </c>
-      <c r="G436" s="10">
+      <c r="G436" s="66">
         <v>5</v>
       </c>
       <c r="H436" s="16" t="s">
@@ -19173,7 +19212,7 @@
       <c r="F437" s="11">
         <v>1</v>
       </c>
-      <c r="G437" s="10">
+      <c r="G437" s="66">
         <v>6</v>
       </c>
       <c r="H437" s="10" t="s">
@@ -19211,7 +19250,7 @@
       <c r="F438" s="11">
         <v>1</v>
       </c>
-      <c r="G438" s="10">
+      <c r="G438" s="66">
         <v>7</v>
       </c>
       <c r="H438" s="10" t="s">
@@ -19249,7 +19288,7 @@
       <c r="F439" s="11">
         <v>1</v>
       </c>
-      <c r="G439" s="10">
+      <c r="G439" s="66">
         <v>8</v>
       </c>
       <c r="H439" s="10" t="s">
@@ -19287,7 +19326,7 @@
       <c r="F440" s="11">
         <v>1</v>
       </c>
-      <c r="G440" s="10">
+      <c r="G440" s="66">
         <v>9</v>
       </c>
       <c r="H440" s="10" t="s">
@@ -19325,7 +19364,7 @@
       <c r="F441" s="11">
         <v>1</v>
       </c>
-      <c r="G441" s="10">
+      <c r="G441" s="66">
         <v>10</v>
       </c>
       <c r="H441" s="10" t="s">
@@ -19363,7 +19402,7 @@
       <c r="F442" s="11">
         <v>1</v>
       </c>
-      <c r="G442" s="10">
+      <c r="G442" s="66">
         <v>11</v>
       </c>
       <c r="H442" s="10" t="s">
@@ -19401,7 +19440,7 @@
       <c r="F443" s="11">
         <v>2</v>
       </c>
-      <c r="G443" s="10">
+      <c r="G443" s="66">
         <v>51</v>
       </c>
       <c r="H443" s="16" t="s">
@@ -19439,7 +19478,7 @@
       <c r="F444" s="11">
         <v>2</v>
       </c>
-      <c r="G444" s="10">
+      <c r="G444" s="66">
         <v>52</v>
       </c>
       <c r="H444" s="10" t="s">
@@ -19477,7 +19516,7 @@
       <c r="F445" s="11">
         <v>2</v>
       </c>
-      <c r="G445" s="10">
+      <c r="G445" s="66">
         <v>53</v>
       </c>
       <c r="H445" s="10" t="s">
@@ -19515,7 +19554,7 @@
       <c r="F446" s="11">
         <v>2</v>
       </c>
-      <c r="G446" s="10">
+      <c r="G446" s="66">
         <v>54</v>
       </c>
       <c r="H446" s="10" t="s">
@@ -19553,7 +19592,7 @@
       <c r="F447" s="11">
         <v>2</v>
       </c>
-      <c r="G447" s="10">
+      <c r="G447" s="66">
         <v>55</v>
       </c>
       <c r="H447" s="10" t="s">
@@ -19591,7 +19630,7 @@
       <c r="F448" s="11">
         <v>2</v>
       </c>
-      <c r="G448" s="10">
+      <c r="G448" s="66">
         <v>56</v>
       </c>
       <c r="H448" s="10" t="s">
@@ -19629,7 +19668,7 @@
       <c r="F449" s="11">
         <v>2</v>
       </c>
-      <c r="G449" s="10">
+      <c r="G449" s="66">
         <v>57</v>
       </c>
       <c r="H449" s="10" t="s">
@@ -19667,7 +19706,7 @@
       <c r="F450" s="11">
         <v>2</v>
       </c>
-      <c r="G450" s="10">
+      <c r="G450" s="66">
         <v>58</v>
       </c>
       <c r="H450" s="10" t="s">
@@ -19705,7 +19744,7 @@
       <c r="F451" s="11">
         <v>2</v>
       </c>
-      <c r="G451" s="10">
+      <c r="G451" s="66">
         <v>59</v>
       </c>
       <c r="H451" s="10" t="s">
@@ -19743,7 +19782,7 @@
       <c r="F452" s="11">
         <v>2</v>
       </c>
-      <c r="G452" s="10">
+      <c r="G452" s="66">
         <v>60</v>
       </c>
       <c r="H452" s="10" t="s">
@@ -19781,7 +19820,7 @@
       <c r="F453" s="11">
         <v>2</v>
       </c>
-      <c r="G453" s="10">
+      <c r="G453" s="66">
         <v>61</v>
       </c>
       <c r="H453" s="10" t="s">
@@ -19819,7 +19858,7 @@
       <c r="F454" s="11">
         <v>2</v>
       </c>
-      <c r="G454" s="10">
+      <c r="G454" s="66">
         <v>62</v>
       </c>
       <c r="H454" s="10" t="s">
@@ -19857,7 +19896,7 @@
       <c r="F455" s="11">
         <v>2</v>
       </c>
-      <c r="G455" s="10">
+      <c r="G455" s="66">
         <v>63</v>
       </c>
       <c r="H455" s="10" t="s">
@@ -19895,7 +19934,7 @@
       <c r="F456" s="11">
         <v>2</v>
       </c>
-      <c r="G456" s="10">
+      <c r="G456" s="66">
         <v>64</v>
       </c>
       <c r="H456" s="10" t="s">
@@ -19933,7 +19972,7 @@
       <c r="F457" s="11">
         <v>2</v>
       </c>
-      <c r="G457" s="10">
+      <c r="G457" s="66">
         <v>65</v>
       </c>
       <c r="H457" s="10" t="s">
@@ -19971,7 +20010,7 @@
       <c r="F458" s="11">
         <v>2</v>
       </c>
-      <c r="G458" s="10">
+      <c r="G458" s="66">
         <v>66</v>
       </c>
       <c r="H458" s="10" t="s">
@@ -20009,7 +20048,7 @@
       <c r="F459" s="11">
         <v>2</v>
       </c>
-      <c r="G459" s="10">
+      <c r="G459" s="66">
         <v>67</v>
       </c>
       <c r="H459" s="10" t="s">
@@ -20047,7 +20086,7 @@
       <c r="F460" s="11">
         <v>2</v>
       </c>
-      <c r="G460" s="10">
+      <c r="G460" s="66">
         <v>68</v>
       </c>
       <c r="H460" s="10" t="s">
@@ -20085,7 +20124,7 @@
       <c r="F461" s="11">
         <v>2</v>
       </c>
-      <c r="G461" s="10">
+      <c r="G461" s="66">
         <v>69</v>
       </c>
       <c r="H461" s="10" t="s">
@@ -20123,7 +20162,7 @@
       <c r="F462" s="11">
         <v>2</v>
       </c>
-      <c r="G462" s="10">
+      <c r="G462" s="66">
         <v>70</v>
       </c>
       <c r="H462" s="10" t="s">
@@ -20161,7 +20200,7 @@
       <c r="F463" s="11">
         <v>2</v>
       </c>
-      <c r="G463" s="10">
+      <c r="G463" s="66">
         <v>71</v>
       </c>
       <c r="H463" s="10" t="s">
@@ -20199,7 +20238,7 @@
       <c r="F464" s="11">
         <v>2</v>
       </c>
-      <c r="G464" s="10">
+      <c r="G464" s="66">
         <v>72</v>
       </c>
       <c r="H464" s="10" t="s">
@@ -20237,7 +20276,7 @@
       <c r="F465" s="11">
         <v>2</v>
       </c>
-      <c r="G465" s="10">
+      <c r="G465" s="66">
         <v>73</v>
       </c>
       <c r="H465" s="10" t="s">
@@ -20275,7 +20314,7 @@
       <c r="F466" s="11">
         <v>2</v>
       </c>
-      <c r="G466" s="10">
+      <c r="G466" s="66">
         <v>74</v>
       </c>
       <c r="H466" s="10" t="s">
@@ -20313,7 +20352,7 @@
       <c r="F467" s="11">
         <v>2</v>
       </c>
-      <c r="G467" s="10">
+      <c r="G467" s="66">
         <v>75</v>
       </c>
       <c r="H467" s="10" t="s">
@@ -20351,7 +20390,7 @@
       <c r="F468" s="11">
         <v>3</v>
       </c>
-      <c r="G468" s="10">
+      <c r="G468" s="66">
         <v>101</v>
       </c>
       <c r="H468" s="10" t="s">
@@ -20389,7 +20428,7 @@
       <c r="F469" s="11">
         <v>3</v>
       </c>
-      <c r="G469" s="10">
+      <c r="G469" s="66">
         <v>102</v>
       </c>
       <c r="H469" s="10" t="s">
@@ -20427,7 +20466,7 @@
       <c r="F470" s="11">
         <v>3</v>
       </c>
-      <c r="G470" s="10">
+      <c r="G470" s="66">
         <v>103</v>
       </c>
       <c r="H470" s="10" t="s">
@@ -20465,7 +20504,7 @@
       <c r="F471" s="11">
         <v>3</v>
       </c>
-      <c r="G471" s="10">
+      <c r="G471" s="66">
         <v>104</v>
       </c>
       <c r="H471" s="10" t="s">
@@ -20503,7 +20542,7 @@
       <c r="F472" s="11">
         <v>3</v>
       </c>
-      <c r="G472" s="10">
+      <c r="G472" s="66">
         <v>105</v>
       </c>
       <c r="H472" s="10" t="s">
@@ -20541,7 +20580,7 @@
       <c r="F473" s="11">
         <v>3</v>
       </c>
-      <c r="G473" s="10">
+      <c r="G473" s="66">
         <v>106</v>
       </c>
       <c r="H473" s="10" t="s">
@@ -20579,7 +20618,7 @@
       <c r="F474" s="11">
         <v>3</v>
       </c>
-      <c r="G474" s="10">
+      <c r="G474" s="66">
         <v>107</v>
       </c>
       <c r="H474" s="10" t="s">
@@ -20617,7 +20656,7 @@
       <c r="F475" s="11">
         <v>3</v>
       </c>
-      <c r="G475" s="10">
+      <c r="G475" s="66">
         <v>108</v>
       </c>
       <c r="H475" s="10" t="s">
@@ -20655,7 +20694,7 @@
       <c r="F476" s="11">
         <v>3</v>
       </c>
-      <c r="G476" s="10">
+      <c r="G476" s="66">
         <v>109</v>
       </c>
       <c r="H476" s="10" t="s">
@@ -20693,7 +20732,7 @@
       <c r="F477" s="11">
         <v>3</v>
       </c>
-      <c r="G477" s="10">
+      <c r="G477" s="66">
         <v>110</v>
       </c>
       <c r="H477" s="10" t="s">
@@ -20731,7 +20770,7 @@
       <c r="F478" s="11">
         <v>3</v>
       </c>
-      <c r="G478" s="10">
+      <c r="G478" s="66">
         <v>111</v>
       </c>
       <c r="H478" s="10" t="s">
@@ -20769,7 +20808,7 @@
       <c r="F479" s="11">
         <v>3</v>
       </c>
-      <c r="G479" s="10">
+      <c r="G479" s="66">
         <v>112</v>
       </c>
       <c r="H479" s="10" t="s">
@@ -20807,7 +20846,7 @@
       <c r="F480" s="11">
         <v>3</v>
       </c>
-      <c r="G480" s="10">
+      <c r="G480" s="66">
         <v>113</v>
       </c>
       <c r="H480" s="10" t="s">
@@ -20845,7 +20884,7 @@
       <c r="F481" s="11">
         <v>3</v>
       </c>
-      <c r="G481" s="10">
+      <c r="G481" s="66">
         <v>114</v>
       </c>
       <c r="H481" s="10" t="s">
@@ -20883,7 +20922,7 @@
       <c r="F482" s="11">
         <v>3</v>
       </c>
-      <c r="G482" s="10">
+      <c r="G482" s="66">
         <v>115</v>
       </c>
       <c r="H482" s="10" t="s">
@@ -20921,7 +20960,7 @@
       <c r="F483" s="11">
         <v>3</v>
       </c>
-      <c r="G483" s="10">
+      <c r="G483" s="66">
         <v>116</v>
       </c>
       <c r="H483" s="10" t="s">
@@ -20959,7 +20998,7 @@
       <c r="F484" s="11">
         <v>3</v>
       </c>
-      <c r="G484" s="10">
+      <c r="G484" s="66">
         <v>117</v>
       </c>
       <c r="H484" s="10" t="s">
@@ -20997,7 +21036,7 @@
       <c r="F485" s="11">
         <v>3</v>
       </c>
-      <c r="G485" s="10">
+      <c r="G485" s="66">
         <v>118</v>
       </c>
       <c r="H485" s="10" t="s">
@@ -21035,7 +21074,7 @@
       <c r="F486" s="11">
         <v>3</v>
       </c>
-      <c r="G486" s="10">
+      <c r="G486" s="66">
         <v>119</v>
       </c>
       <c r="H486" s="10" t="s">
@@ -21073,7 +21112,7 @@
       <c r="F487" s="11">
         <v>3</v>
       </c>
-      <c r="G487" s="10">
+      <c r="G487" s="66">
         <v>120</v>
       </c>
       <c r="H487" s="10" t="s">
@@ -21111,7 +21150,7 @@
       <c r="F488" s="11">
         <v>3</v>
       </c>
-      <c r="G488" s="10">
+      <c r="G488" s="66">
         <v>121</v>
       </c>
       <c r="H488" s="10" t="s">
@@ -21149,7 +21188,7 @@
       <c r="F489" s="11">
         <v>3</v>
       </c>
-      <c r="G489" s="10">
+      <c r="G489" s="66">
         <v>122</v>
       </c>
       <c r="H489" s="10" t="s">
@@ -21187,7 +21226,7 @@
       <c r="F490" s="11">
         <v>3</v>
       </c>
-      <c r="G490" s="10">
+      <c r="G490" s="66">
         <v>123</v>
       </c>
       <c r="H490" s="10" t="s">
@@ -21225,7 +21264,7 @@
       <c r="F491" s="11">
         <v>3</v>
       </c>
-      <c r="G491" s="10">
+      <c r="G491" s="66">
         <v>124</v>
       </c>
       <c r="H491" s="10" t="s">
@@ -21263,7 +21302,7 @@
       <c r="F492" s="11">
         <v>3</v>
       </c>
-      <c r="G492" s="10">
+      <c r="G492" s="66">
         <v>125</v>
       </c>
       <c r="H492" s="10" t="s">
@@ -21301,7 +21340,7 @@
       <c r="F493" s="11">
         <v>3</v>
       </c>
-      <c r="G493" s="10">
+      <c r="G493" s="66">
         <v>126</v>
       </c>
       <c r="H493" s="10" t="s">
@@ -21339,7 +21378,7 @@
       <c r="F494" s="11">
         <v>3</v>
       </c>
-      <c r="G494" s="10">
+      <c r="G494" s="66">
         <v>127</v>
       </c>
       <c r="H494" s="10" t="s">
@@ -21377,7 +21416,7 @@
       <c r="F495" s="11">
         <v>3</v>
       </c>
-      <c r="G495" s="10">
+      <c r="G495" s="66">
         <v>128</v>
       </c>
       <c r="H495" s="10" t="s">
@@ -21415,7 +21454,7 @@
       <c r="F496" s="11">
         <v>3</v>
       </c>
-      <c r="G496" s="10">
+      <c r="G496" s="66">
         <v>129</v>
       </c>
       <c r="H496" s="10" t="s">
@@ -21453,7 +21492,7 @@
       <c r="F497" s="11">
         <v>3</v>
       </c>
-      <c r="G497" s="10">
+      <c r="G497" s="66">
         <v>130</v>
       </c>
       <c r="H497" s="10" t="s">
@@ -21491,7 +21530,7 @@
       <c r="F498" s="11">
         <v>3</v>
       </c>
-      <c r="G498" s="10">
+      <c r="G498" s="66">
         <v>131</v>
       </c>
       <c r="H498" s="10" t="s">
@@ -21529,7 +21568,7 @@
       <c r="F499" s="11">
         <v>4</v>
       </c>
-      <c r="G499" s="10">
+      <c r="G499" s="66">
         <v>151</v>
       </c>
       <c r="H499" s="10" t="s">
@@ -21567,7 +21606,7 @@
       <c r="F500" s="11">
         <v>4</v>
       </c>
-      <c r="G500" s="10">
+      <c r="G500" s="66">
         <v>152</v>
       </c>
       <c r="H500" s="10" t="s">
@@ -21605,7 +21644,7 @@
       <c r="F501" s="11">
         <v>4</v>
       </c>
-      <c r="G501" s="10">
+      <c r="G501" s="66">
         <v>153</v>
       </c>
       <c r="H501" s="10" t="s">
@@ -21643,7 +21682,7 @@
       <c r="F502" s="11">
         <v>4</v>
       </c>
-      <c r="G502" s="10">
+      <c r="G502" s="66">
         <v>154</v>
       </c>
       <c r="H502" s="10" t="s">
@@ -21681,7 +21720,7 @@
       <c r="F503" s="11">
         <v>4</v>
       </c>
-      <c r="G503" s="10">
+      <c r="G503" s="66">
         <v>155</v>
       </c>
       <c r="H503" s="10" t="s">
@@ -21719,7 +21758,7 @@
       <c r="F504" s="11">
         <v>4</v>
       </c>
-      <c r="G504" s="10">
+      <c r="G504" s="66">
         <v>156</v>
       </c>
       <c r="H504" s="10" t="s">
@@ -21757,7 +21796,7 @@
       <c r="F505" s="11">
         <v>4</v>
       </c>
-      <c r="G505" s="10">
+      <c r="G505" s="66">
         <v>157</v>
       </c>
       <c r="H505" s="16" t="s">
@@ -21795,7 +21834,7 @@
       <c r="F506" s="11">
         <v>4</v>
       </c>
-      <c r="G506" s="10">
+      <c r="G506" s="66">
         <v>158</v>
       </c>
       <c r="H506" s="10" t="s">
@@ -21833,7 +21872,7 @@
       <c r="F507" s="11">
         <v>4</v>
       </c>
-      <c r="G507" s="10">
+      <c r="G507" s="66">
         <v>159</v>
       </c>
       <c r="H507" s="10" t="s">
@@ -21871,7 +21910,7 @@
       <c r="F508" s="11">
         <v>4</v>
       </c>
-      <c r="G508" s="10">
+      <c r="G508" s="66">
         <v>160</v>
       </c>
       <c r="H508" s="10" t="s">
@@ -21909,7 +21948,7 @@
       <c r="F509" s="11">
         <v>4</v>
       </c>
-      <c r="G509" s="10">
+      <c r="G509" s="66">
         <v>161</v>
       </c>
       <c r="H509" s="10" t="s">
@@ -21947,7 +21986,7 @@
       <c r="F510" s="11">
         <v>4</v>
       </c>
-      <c r="G510" s="10">
+      <c r="G510" s="66">
         <v>162</v>
       </c>
       <c r="H510" s="10" t="s">
@@ -21985,7 +22024,7 @@
       <c r="F511" s="11">
         <v>4</v>
       </c>
-      <c r="G511" s="10">
+      <c r="G511" s="66">
         <v>163</v>
       </c>
       <c r="H511" s="10" t="s">
@@ -22023,7 +22062,7 @@
       <c r="F512" s="11">
         <v>4</v>
       </c>
-      <c r="G512" s="10">
+      <c r="G512" s="66">
         <v>164</v>
       </c>
       <c r="H512" s="10" t="s">
@@ -22061,7 +22100,7 @@
       <c r="F513" s="11">
         <v>4</v>
       </c>
-      <c r="G513" s="10">
+      <c r="G513" s="66">
         <v>165</v>
       </c>
       <c r="H513" s="10" t="s">
@@ -22099,7 +22138,7 @@
       <c r="F514" s="11">
         <v>4</v>
       </c>
-      <c r="G514" s="10">
+      <c r="G514" s="66">
         <v>166</v>
       </c>
       <c r="H514" s="10" t="s">
@@ -22137,7 +22176,7 @@
       <c r="F515" s="11">
         <v>4</v>
       </c>
-      <c r="G515" s="10">
+      <c r="G515" s="66">
         <v>167</v>
       </c>
       <c r="H515" s="10" t="s">
@@ -22175,7 +22214,7 @@
       <c r="F516" s="11">
         <v>4</v>
       </c>
-      <c r="G516" s="10">
+      <c r="G516" s="66">
         <v>168</v>
       </c>
       <c r="H516" s="10" t="s">
@@ -22213,7 +22252,7 @@
       <c r="F517" s="11">
         <v>4</v>
       </c>
-      <c r="G517" s="10">
+      <c r="G517" s="66">
         <v>169</v>
       </c>
       <c r="H517" s="10" t="s">
@@ -22251,7 +22290,7 @@
       <c r="F518" s="11">
         <v>4</v>
       </c>
-      <c r="G518" s="10">
+      <c r="G518" s="66">
         <v>170</v>
       </c>
       <c r="H518" s="10" t="s">
@@ -22289,7 +22328,7 @@
       <c r="F519" s="11">
         <v>4</v>
       </c>
-      <c r="G519" s="10">
+      <c r="G519" s="66">
         <v>171</v>
       </c>
       <c r="H519" s="10" t="s">
@@ -22327,7 +22366,7 @@
       <c r="F520" s="11">
         <v>4</v>
       </c>
-      <c r="G520" s="10">
+      <c r="G520" s="66">
         <v>172</v>
       </c>
       <c r="H520" s="10" t="s">
@@ -22365,7 +22404,7 @@
       <c r="F521" s="11">
         <v>4</v>
       </c>
-      <c r="G521" s="10">
+      <c r="G521" s="66">
         <v>173</v>
       </c>
       <c r="H521" s="10" t="s">
@@ -22403,7 +22442,7 @@
       <c r="F522" s="11">
         <v>4</v>
       </c>
-      <c r="G522" s="10">
+      <c r="G522" s="66">
         <v>174</v>
       </c>
       <c r="H522" s="10" t="s">
@@ -22441,7 +22480,7 @@
       <c r="F523" s="11">
         <v>4</v>
       </c>
-      <c r="G523" s="10">
+      <c r="G523" s="66">
         <v>175</v>
       </c>
       <c r="H523" s="10" t="s">
@@ -22479,7 +22518,7 @@
       <c r="F524" s="11">
         <v>4</v>
       </c>
-      <c r="G524" s="10">
+      <c r="G524" s="66">
         <v>176</v>
       </c>
       <c r="H524" s="10" t="s">
@@ -22517,7 +22556,7 @@
       <c r="F525" s="11">
         <v>4</v>
       </c>
-      <c r="G525" s="10">
+      <c r="G525" s="66">
         <v>177</v>
       </c>
       <c r="H525" s="10" t="s">
@@ -22555,7 +22594,7 @@
       <c r="F526" s="11">
         <v>4</v>
       </c>
-      <c r="G526" s="10">
+      <c r="G526" s="66">
         <v>178</v>
       </c>
       <c r="H526" s="10" t="s">
@@ -22596,7 +22635,7 @@
       <c r="F527" s="11">
         <v>4</v>
       </c>
-      <c r="G527" s="10">
+      <c r="G527" s="66">
         <v>179</v>
       </c>
       <c r="H527" s="10" t="s">
@@ -22637,7 +22676,7 @@
       <c r="F528" s="11">
         <v>4</v>
       </c>
-      <c r="G528" s="10">
+      <c r="G528" s="66">
         <v>180</v>
       </c>
       <c r="H528" s="10" t="s">
@@ -22678,7 +22717,7 @@
       <c r="F529" s="11">
         <v>4</v>
       </c>
-      <c r="G529" s="10">
+      <c r="G529" s="66">
         <v>181</v>
       </c>
       <c r="H529" s="10" t="s">
@@ -22719,7 +22758,7 @@
       <c r="F530" s="11">
         <v>3</v>
       </c>
-      <c r="G530" s="10">
+      <c r="G530" s="66">
         <v>101</v>
       </c>
       <c r="H530" s="10" t="s">
@@ -22760,7 +22799,7 @@
       <c r="F531" s="11">
         <v>3</v>
       </c>
-      <c r="G531" s="10">
+      <c r="G531" s="66">
         <v>112</v>
       </c>
       <c r="H531" s="10" t="s">
@@ -22801,7 +22840,7 @@
       <c r="F532" s="11">
         <v>3</v>
       </c>
-      <c r="G532" s="10">
+      <c r="G532" s="66">
         <v>113</v>
       </c>
       <c r="H532" s="10" t="s">
@@ -22842,7 +22881,7 @@
       <c r="F533" s="11">
         <v>3</v>
       </c>
-      <c r="G533" s="10">
+      <c r="G533" s="66">
         <v>114</v>
       </c>
       <c r="H533" s="16" t="s">
@@ -22883,7 +22922,7 @@
       <c r="F534" s="11">
         <v>3</v>
       </c>
-      <c r="G534" s="10">
+      <c r="G534" s="66">
         <v>102</v>
       </c>
       <c r="H534" s="10" t="s">
@@ -22924,7 +22963,7 @@
       <c r="F535" s="11">
         <v>3</v>
       </c>
-      <c r="G535" s="10">
+      <c r="G535" s="66">
         <v>103</v>
       </c>
       <c r="H535" s="10" t="s">
@@ -22965,7 +23004,7 @@
       <c r="F536" s="11">
         <v>3</v>
       </c>
-      <c r="G536" s="10">
+      <c r="G536" s="66">
         <v>104</v>
       </c>
       <c r="H536" s="10" t="s">
@@ -23006,7 +23045,7 @@
       <c r="F537" s="11">
         <v>3</v>
       </c>
-      <c r="G537" s="10">
+      <c r="G537" s="66">
         <v>105</v>
       </c>
       <c r="H537" s="10" t="s">
@@ -23047,7 +23086,7 @@
       <c r="F538" s="11">
         <v>3</v>
       </c>
-      <c r="G538" s="10">
+      <c r="G538" s="66">
         <v>106</v>
       </c>
       <c r="H538" s="10" t="s">
@@ -23088,7 +23127,7 @@
       <c r="F539" s="11">
         <v>3</v>
       </c>
-      <c r="G539" s="10">
+      <c r="G539" s="66">
         <v>107</v>
       </c>
       <c r="H539" s="10" t="s">
@@ -23129,7 +23168,7 @@
       <c r="F540" s="11">
         <v>3</v>
       </c>
-      <c r="G540" s="10">
+      <c r="G540" s="66">
         <v>108</v>
       </c>
       <c r="H540" s="16" t="s">
@@ -23170,7 +23209,7 @@
       <c r="F541" s="11">
         <v>3</v>
       </c>
-      <c r="G541" s="10">
+      <c r="G541" s="66">
         <v>109</v>
       </c>
       <c r="H541" s="10" t="s">
@@ -23211,7 +23250,7 @@
       <c r="F542" s="11">
         <v>3</v>
       </c>
-      <c r="G542" s="10">
+      <c r="G542" s="66">
         <v>110</v>
       </c>
       <c r="H542" s="10" t="s">
@@ -23252,7 +23291,7 @@
       <c r="F543" s="11">
         <v>3</v>
       </c>
-      <c r="G543" s="10">
+      <c r="G543" s="66">
         <v>111</v>
       </c>
       <c r="H543" s="10" t="s">
@@ -23293,7 +23332,7 @@
       <c r="F544" s="11">
         <v>1</v>
       </c>
-      <c r="G544" s="10">
+      <c r="G544" s="66">
         <v>1</v>
       </c>
       <c r="H544" s="10" t="s">
@@ -23334,7 +23373,7 @@
       <c r="F545" s="11">
         <v>1</v>
       </c>
-      <c r="G545" s="10">
+      <c r="G545" s="66">
         <v>2</v>
       </c>
       <c r="H545" s="10" t="s">
@@ -23375,7 +23414,7 @@
       <c r="F546" s="11">
         <v>1</v>
       </c>
-      <c r="G546" s="10">
+      <c r="G546" s="66">
         <v>3</v>
       </c>
       <c r="H546" s="10" t="s">
@@ -23416,7 +23455,7 @@
       <c r="F547" s="11">
         <v>1</v>
       </c>
-      <c r="G547" s="10">
+      <c r="G547" s="66">
         <v>4</v>
       </c>
       <c r="H547" s="10" t="s">
@@ -23457,7 +23496,7 @@
       <c r="F548" s="11">
         <v>1</v>
       </c>
-      <c r="G548" s="10">
+      <c r="G548" s="66">
         <v>5</v>
       </c>
       <c r="H548" s="10" t="s">
@@ -23498,7 +23537,7 @@
       <c r="F549" s="11">
         <v>1</v>
       </c>
-      <c r="G549" s="10">
+      <c r="G549" s="66">
         <v>6</v>
       </c>
       <c r="H549" s="16" t="s">
@@ -23539,7 +23578,7 @@
       <c r="F550" s="11">
         <v>1</v>
       </c>
-      <c r="G550" s="10">
+      <c r="G550" s="66">
         <v>7</v>
       </c>
       <c r="H550" s="10" t="s">
@@ -23580,7 +23619,7 @@
       <c r="F551" s="11">
         <v>1</v>
       </c>
-      <c r="G551" s="10">
+      <c r="G551" s="66">
         <v>8</v>
       </c>
       <c r="H551" s="10" t="s">
@@ -23621,7 +23660,7 @@
       <c r="F552" s="11">
         <v>1</v>
       </c>
-      <c r="G552" s="10">
+      <c r="G552" s="66">
         <v>9</v>
       </c>
       <c r="H552" s="10" t="s">
@@ -23662,7 +23701,7 @@
       <c r="F553" s="11">
         <v>1</v>
       </c>
-      <c r="G553" s="10">
+      <c r="G553" s="66">
         <v>10</v>
       </c>
       <c r="H553" s="10" t="s">
@@ -23703,7 +23742,7 @@
       <c r="F554" s="11">
         <v>2</v>
       </c>
-      <c r="G554" s="10">
+      <c r="G554" s="66">
         <v>51</v>
       </c>
       <c r="H554" s="10" t="s">
@@ -23744,7 +23783,7 @@
       <c r="F555" s="11">
         <v>2</v>
       </c>
-      <c r="G555" s="10">
+      <c r="G555" s="66">
         <v>52</v>
       </c>
       <c r="H555" s="10" t="s">
@@ -23785,7 +23824,7 @@
       <c r="F556" s="11">
         <v>2</v>
       </c>
-      <c r="G556" s="10">
+      <c r="G556" s="66">
         <v>53</v>
       </c>
       <c r="H556" s="10" t="s">
@@ -23826,7 +23865,7 @@
       <c r="F557" s="11">
         <v>2</v>
       </c>
-      <c r="G557" s="10">
+      <c r="G557" s="66">
         <v>54</v>
       </c>
       <c r="H557" s="10" t="s">
@@ -23867,7 +23906,7 @@
       <c r="F558" s="11">
         <v>2</v>
       </c>
-      <c r="G558" s="10">
+      <c r="G558" s="66">
         <v>55</v>
       </c>
       <c r="H558" s="10" t="s">
@@ -23908,7 +23947,7 @@
       <c r="F559" s="11">
         <v>2</v>
       </c>
-      <c r="G559" s="10">
+      <c r="G559" s="66">
         <v>56</v>
       </c>
       <c r="H559" s="10" t="s">
@@ -23949,7 +23988,7 @@
       <c r="F560" s="11">
         <v>2</v>
       </c>
-      <c r="G560" s="10">
+      <c r="G560" s="66">
         <v>57</v>
       </c>
       <c r="H560" s="10" t="s">
@@ -23990,7 +24029,7 @@
       <c r="F561" s="11">
         <v>2</v>
       </c>
-      <c r="G561" s="10">
+      <c r="G561" s="66">
         <v>58</v>
       </c>
       <c r="H561" s="16" t="s">
@@ -24031,7 +24070,7 @@
       <c r="F562" s="11">
         <v>2</v>
       </c>
-      <c r="G562" s="10">
+      <c r="G562" s="66">
         <v>59</v>
       </c>
       <c r="H562" s="10" t="s">
@@ -24072,7 +24111,7 @@
       <c r="F563" s="11">
         <v>2</v>
       </c>
-      <c r="G563" s="10">
+      <c r="G563" s="66">
         <v>60</v>
       </c>
       <c r="H563" s="10" t="s">
@@ -24113,7 +24152,7 @@
       <c r="F564" s="11">
         <v>2</v>
       </c>
-      <c r="G564" s="10">
+      <c r="G564" s="66">
         <v>61</v>
       </c>
       <c r="H564" s="10" t="s">
@@ -24154,7 +24193,7 @@
       <c r="F565" s="11">
         <v>2</v>
       </c>
-      <c r="G565" s="10">
+      <c r="G565" s="66">
         <v>62</v>
       </c>
       <c r="H565" s="10" t="s">
@@ -24195,7 +24234,7 @@
       <c r="F566" s="11">
         <v>2</v>
       </c>
-      <c r="G566" s="10">
+      <c r="G566" s="66">
         <v>63</v>
       </c>
       <c r="H566" s="10" t="s">
@@ -24236,7 +24275,7 @@
       <c r="F567" s="11">
         <v>2</v>
       </c>
-      <c r="G567" s="10">
+      <c r="G567" s="66">
         <v>64</v>
       </c>
       <c r="H567" s="10" t="s">
@@ -24277,7 +24316,7 @@
       <c r="F568" s="11">
         <v>2</v>
       </c>
-      <c r="G568" s="10">
+      <c r="G568" s="66">
         <v>65</v>
       </c>
       <c r="H568" s="10" t="s">
@@ -24318,7 +24357,7 @@
       <c r="F569" s="11">
         <v>1</v>
       </c>
-      <c r="G569" s="10">
+      <c r="G569" s="66">
         <v>1</v>
       </c>
       <c r="H569" s="16" t="s">
@@ -24359,7 +24398,7 @@
       <c r="F570" s="11">
         <v>1</v>
       </c>
-      <c r="G570" s="10">
+      <c r="G570" s="66">
         <v>2</v>
       </c>
       <c r="H570" s="10" t="s">
@@ -24400,7 +24439,7 @@
       <c r="F571" s="11">
         <v>1</v>
       </c>
-      <c r="G571" s="10">
+      <c r="G571" s="66">
         <v>3</v>
       </c>
       <c r="H571" s="10" t="s">
@@ -24441,7 +24480,7 @@
       <c r="F572" s="11">
         <v>1</v>
       </c>
-      <c r="G572" s="10">
+      <c r="G572" s="66">
         <v>4</v>
       </c>
       <c r="H572" s="10" t="s">
@@ -24482,7 +24521,7 @@
       <c r="F573" s="11">
         <v>1</v>
       </c>
-      <c r="G573" s="10">
+      <c r="G573" s="66">
         <v>5</v>
       </c>
       <c r="H573" s="10" t="s">
@@ -24523,7 +24562,7 @@
       <c r="F574" s="11">
         <v>2</v>
       </c>
-      <c r="G574" s="10">
+      <c r="G574" s="66">
         <v>51</v>
       </c>
       <c r="H574" s="10" t="s">
@@ -24564,7 +24603,7 @@
       <c r="F575" s="11">
         <v>2</v>
       </c>
-      <c r="G575" s="10">
+      <c r="G575" s="66">
         <v>52</v>
       </c>
       <c r="H575" s="10" t="s">
@@ -24605,7 +24644,7 @@
       <c r="F576" s="11">
         <v>2</v>
       </c>
-      <c r="G576" s="10">
+      <c r="G576" s="66">
         <v>53</v>
       </c>
       <c r="H576" s="10" t="s">
@@ -24646,7 +24685,7 @@
       <c r="F577" s="11">
         <v>2</v>
       </c>
-      <c r="G577" s="10">
+      <c r="G577" s="66">
         <v>54</v>
       </c>
       <c r="H577" s="16" t="s">
@@ -24687,7 +24726,7 @@
       <c r="F578" s="11">
         <v>2</v>
       </c>
-      <c r="G578" s="10">
+      <c r="G578" s="66">
         <v>55</v>
       </c>
       <c r="H578" s="10" t="s">
@@ -24728,7 +24767,7 @@
       <c r="F579" s="11">
         <v>2</v>
       </c>
-      <c r="G579" s="10">
+      <c r="G579" s="66">
         <v>56</v>
       </c>
       <c r="H579" s="10" t="s">
@@ -24769,7 +24808,7 @@
       <c r="F580" s="11">
         <v>2</v>
       </c>
-      <c r="G580" s="10">
+      <c r="G580" s="66">
         <v>57</v>
       </c>
       <c r="H580" s="10" t="s">
@@ -24810,7 +24849,7 @@
       <c r="F581" s="11">
         <v>2</v>
       </c>
-      <c r="G581" s="10">
+      <c r="G581" s="66">
         <v>58</v>
       </c>
       <c r="H581" s="10" t="s">
@@ -24851,7 +24890,7 @@
       <c r="F582" s="11">
         <v>2</v>
       </c>
-      <c r="G582" s="10">
+      <c r="G582" s="66">
         <v>59</v>
       </c>
       <c r="H582" s="10" t="s">
@@ -24892,7 +24931,7 @@
       <c r="F583" s="11">
         <v>2</v>
       </c>
-      <c r="G583" s="10">
+      <c r="G583" s="66">
         <v>60</v>
       </c>
       <c r="H583" s="10" t="s">
@@ -24927,7 +24966,7 @@
       <c r="F584" s="11">
         <v>2</v>
       </c>
-      <c r="G584" s="10">
+      <c r="G584" s="66">
         <v>61</v>
       </c>
       <c r="H584" s="10" t="s">
@@ -24968,7 +25007,7 @@
       <c r="F585" s="11">
         <v>2</v>
       </c>
-      <c r="G585" s="10">
+      <c r="G585" s="66">
         <v>62</v>
       </c>
       <c r="H585" s="10" t="s">
@@ -25009,7 +25048,7 @@
       <c r="F586" s="11">
         <v>2</v>
       </c>
-      <c r="G586" s="10">
+      <c r="G586" s="66">
         <v>63</v>
       </c>
       <c r="H586" s="10" t="s">
@@ -25050,7 +25089,7 @@
       <c r="F587" s="11">
         <v>2</v>
       </c>
-      <c r="G587" s="10">
+      <c r="G587" s="66">
         <v>64</v>
       </c>
       <c r="H587" s="10" t="s">
@@ -25085,7 +25124,7 @@
       <c r="F588" s="11">
         <v>2</v>
       </c>
-      <c r="G588" s="10">
+      <c r="G588" s="66">
         <v>65</v>
       </c>
       <c r="H588" s="10" t="s">
@@ -25126,7 +25165,7 @@
       <c r="F589" s="11">
         <v>2</v>
       </c>
-      <c r="G589" s="10">
+      <c r="G589" s="66">
         <v>66</v>
       </c>
       <c r="H589" s="10" t="s">
@@ -25167,7 +25206,7 @@
       <c r="F590" s="11">
         <v>2</v>
       </c>
-      <c r="G590" s="10">
+      <c r="G590" s="66">
         <v>67</v>
       </c>
       <c r="H590" s="10" t="s">
@@ -25208,7 +25247,7 @@
       <c r="F591" s="11">
         <v>2</v>
       </c>
-      <c r="G591" s="10">
+      <c r="G591" s="66">
         <v>68</v>
       </c>
       <c r="H591" s="10" t="s">
@@ -25249,7 +25288,7 @@
       <c r="F592" s="11">
         <v>2</v>
       </c>
-      <c r="G592" s="10">
+      <c r="G592" s="66">
         <v>69</v>
       </c>
       <c r="H592" s="10" t="s">
@@ -25290,7 +25329,7 @@
       <c r="F593" s="11">
         <v>2</v>
       </c>
-      <c r="G593" s="10">
+      <c r="G593" s="66">
         <v>70</v>
       </c>
       <c r="H593" s="10" t="s">
@@ -25331,7 +25370,7 @@
       <c r="F594" s="11">
         <v>2</v>
       </c>
-      <c r="G594" s="10">
+      <c r="G594" s="66">
         <v>71</v>
       </c>
       <c r="H594" s="10" t="s">
@@ -25372,7 +25411,7 @@
       <c r="F595" s="11">
         <v>2</v>
       </c>
-      <c r="G595" s="10">
+      <c r="G595" s="66">
         <v>72</v>
       </c>
       <c r="H595" s="10" t="s">
@@ -25413,7 +25452,7 @@
       <c r="F596" s="11">
         <v>2</v>
       </c>
-      <c r="G596" s="10">
+      <c r="G596" s="66">
         <v>73</v>
       </c>
       <c r="H596" s="10" t="s">
@@ -25454,7 +25493,7 @@
       <c r="F597" s="11">
         <v>2</v>
       </c>
-      <c r="G597" s="10">
+      <c r="G597" s="66">
         <v>74</v>
       </c>
       <c r="H597" s="10" t="s">
@@ -25495,7 +25534,7 @@
       <c r="F598" s="11">
         <v>3</v>
       </c>
-      <c r="G598" s="10">
+      <c r="G598" s="66">
         <v>101</v>
       </c>
       <c r="H598" s="10" t="s">
@@ -25536,7 +25575,7 @@
       <c r="F599" s="11">
         <v>3</v>
       </c>
-      <c r="G599" s="10">
+      <c r="G599" s="66">
         <v>102</v>
       </c>
       <c r="H599" s="16" t="s">
@@ -25577,7 +25616,7 @@
       <c r="F600" s="11">
         <v>3</v>
       </c>
-      <c r="G600" s="10">
+      <c r="G600" s="66">
         <v>103</v>
       </c>
       <c r="H600" s="10" t="s">
@@ -25618,7 +25657,7 @@
       <c r="F601" s="11">
         <v>3</v>
       </c>
-      <c r="G601" s="10">
+      <c r="G601" s="66">
         <v>104</v>
       </c>
       <c r="H601" s="10" t="s">
@@ -25659,7 +25698,7 @@
       <c r="F602" s="11">
         <v>3</v>
       </c>
-      <c r="G602" s="10">
+      <c r="G602" s="66">
         <v>105</v>
       </c>
       <c r="H602" s="10" t="s">
@@ -25689,7 +25728,7 @@
       <c r="F603" s="11">
         <v>3</v>
       </c>
-      <c r="G603" s="10">
+      <c r="G603" s="66">
         <v>106</v>
       </c>
       <c r="H603" s="10" t="s">
@@ -25730,7 +25769,7 @@
       <c r="F604" s="11">
         <v>3</v>
       </c>
-      <c r="G604" s="10">
+      <c r="G604" s="66">
         <v>107</v>
       </c>
       <c r="H604" s="10" t="s">
@@ -25771,7 +25810,7 @@
       <c r="F605" s="11">
         <v>3</v>
       </c>
-      <c r="G605" s="10">
+      <c r="G605" s="66">
         <v>108</v>
       </c>
       <c r="H605" s="10" t="s">
@@ -25801,7 +25840,7 @@
       <c r="F606" s="11">
         <v>3</v>
       </c>
-      <c r="G606" s="10">
+      <c r="G606" s="66">
         <v>109</v>
       </c>
       <c r="H606" s="10" t="s">
@@ -25842,7 +25881,7 @@
       <c r="F607" s="11">
         <v>3</v>
       </c>
-      <c r="G607" s="10">
+      <c r="G607" s="66">
         <v>110</v>
       </c>
       <c r="H607" s="10" t="s">
@@ -25883,7 +25922,7 @@
       <c r="F608" s="11">
         <v>3</v>
       </c>
-      <c r="G608" s="10">
+      <c r="G608" s="66">
         <v>111</v>
       </c>
       <c r="H608" s="10" t="s">
@@ -25913,7 +25952,7 @@
       <c r="F609" s="11">
         <v>3</v>
       </c>
-      <c r="G609" s="10">
+      <c r="G609" s="66">
         <v>112</v>
       </c>
       <c r="H609" s="10" t="s">
@@ -25954,7 +25993,7 @@
       <c r="F610" s="11">
         <v>3</v>
       </c>
-      <c r="G610" s="10">
+      <c r="G610" s="66">
         <v>113</v>
       </c>
       <c r="H610" s="10" t="s">
@@ -25995,7 +26034,7 @@
       <c r="F611" s="11">
         <v>3</v>
       </c>
-      <c r="G611" s="10">
+      <c r="G611" s="66">
         <v>114</v>
       </c>
       <c r="H611" s="10" t="s">
@@ -26036,7 +26075,7 @@
       <c r="F612" s="11">
         <v>4</v>
       </c>
-      <c r="G612" s="10">
+      <c r="G612" s="66">
         <v>151</v>
       </c>
       <c r="H612" s="10" t="s">
@@ -26077,7 +26116,7 @@
       <c r="F613" s="11">
         <v>4</v>
       </c>
-      <c r="G613" s="10">
+      <c r="G613" s="66">
         <v>152</v>
       </c>
       <c r="H613" s="10" t="s">
@@ -26118,7 +26157,7 @@
       <c r="F614" s="11">
         <v>4</v>
       </c>
-      <c r="G614" s="10">
+      <c r="G614" s="66">
         <v>153</v>
       </c>
       <c r="H614" s="10" t="s">
@@ -26159,7 +26198,7 @@
       <c r="F615" s="11">
         <v>4</v>
       </c>
-      <c r="G615" s="10">
+      <c r="G615" s="66">
         <v>154</v>
       </c>
       <c r="H615" s="10" t="s">
@@ -26200,7 +26239,7 @@
       <c r="F616" s="11">
         <v>4</v>
       </c>
-      <c r="G616" s="10">
+      <c r="G616" s="66">
         <v>155</v>
       </c>
       <c r="H616" s="10" t="s">
@@ -26241,7 +26280,7 @@
       <c r="F617" s="11">
         <v>4</v>
       </c>
-      <c r="G617" s="10">
+      <c r="G617" s="66">
         <v>156</v>
       </c>
       <c r="H617" s="10" t="s">
@@ -26282,7 +26321,7 @@
       <c r="F618" s="11">
         <v>4</v>
       </c>
-      <c r="G618" s="10">
+      <c r="G618" s="66">
         <v>157</v>
       </c>
       <c r="H618" s="10" t="s">
@@ -26323,7 +26362,7 @@
       <c r="F619" s="11">
         <v>4</v>
       </c>
-      <c r="G619" s="10">
+      <c r="G619" s="66">
         <v>158</v>
       </c>
       <c r="H619" s="10" t="s">
@@ -26364,7 +26403,7 @@
       <c r="F620" s="11">
         <v>4</v>
       </c>
-      <c r="G620" s="10">
+      <c r="G620" s="66">
         <v>159</v>
       </c>
       <c r="H620" s="10" t="s">
@@ -26405,7 +26444,7 @@
       <c r="F621" s="11">
         <v>4</v>
       </c>
-      <c r="G621" s="10">
+      <c r="G621" s="66">
         <v>160</v>
       </c>
       <c r="H621" s="10" t="s">
@@ -26446,7 +26485,7 @@
       <c r="F622" s="11">
         <v>4</v>
       </c>
-      <c r="G622" s="10">
+      <c r="G622" s="66">
         <v>161</v>
       </c>
       <c r="H622" s="10" t="s">
@@ -26487,7 +26526,7 @@
       <c r="F623" s="11">
         <v>4</v>
       </c>
-      <c r="G623" s="10">
+      <c r="G623" s="66">
         <v>162</v>
       </c>
       <c r="H623" s="16" t="s">
@@ -26528,7 +26567,7 @@
       <c r="F624" s="11">
         <v>4</v>
       </c>
-      <c r="G624" s="10">
+      <c r="G624" s="66">
         <v>163</v>
       </c>
       <c r="H624" s="10" t="s">
@@ -26569,7 +26608,7 @@
       <c r="F625" s="11">
         <v>4</v>
       </c>
-      <c r="G625" s="10">
+      <c r="G625" s="66">
         <v>164</v>
       </c>
       <c r="H625" s="10" t="s">
@@ -26610,7 +26649,7 @@
       <c r="F626" s="11">
         <v>4</v>
       </c>
-      <c r="G626" s="10">
+      <c r="G626" s="66">
         <v>165</v>
       </c>
       <c r="H626" s="10" t="s">
@@ -26651,7 +26690,7 @@
       <c r="F627" s="11">
         <v>4</v>
       </c>
-      <c r="G627" s="10">
+      <c r="G627" s="66">
         <v>166</v>
       </c>
       <c r="H627" s="10" t="s">
@@ -26692,7 +26731,7 @@
       <c r="F628" s="11">
         <v>4</v>
       </c>
-      <c r="G628" s="10">
+      <c r="G628" s="66">
         <v>167</v>
       </c>
       <c r="H628" s="10" t="s">
@@ -26733,7 +26772,7 @@
       <c r="F629" s="11">
         <v>4</v>
       </c>
-      <c r="G629" s="10">
+      <c r="G629" s="66">
         <v>168</v>
       </c>
       <c r="H629" s="10" t="s">
@@ -26774,7 +26813,7 @@
       <c r="F630" s="11">
         <v>4</v>
       </c>
-      <c r="G630" s="10">
+      <c r="G630" s="66">
         <v>169</v>
       </c>
       <c r="H630" s="10" t="s">
@@ -26815,7 +26854,7 @@
       <c r="F631" s="11">
         <v>4</v>
       </c>
-      <c r="G631" s="10">
+      <c r="G631" s="66">
         <v>170</v>
       </c>
       <c r="H631" s="10" t="s">
@@ -26856,7 +26895,7 @@
       <c r="F632" s="11">
         <v>4</v>
       </c>
-      <c r="G632" s="10">
+      <c r="G632" s="66">
         <v>171</v>
       </c>
       <c r="H632" s="10" t="s">
@@ -26897,7 +26936,7 @@
       <c r="F633" s="11">
         <v>4</v>
       </c>
-      <c r="G633" s="10">
+      <c r="G633" s="66">
         <v>172</v>
       </c>
       <c r="H633" s="10" t="s">
@@ -26938,7 +26977,7 @@
       <c r="F634" s="11">
         <v>4</v>
       </c>
-      <c r="G634" s="10">
+      <c r="G634" s="66">
         <v>173</v>
       </c>
       <c r="H634" s="10" t="s">
@@ -26979,7 +27018,7 @@
       <c r="F635" s="11">
         <v>4</v>
       </c>
-      <c r="G635" s="10">
+      <c r="G635" s="66">
         <v>174</v>
       </c>
       <c r="H635" s="16" t="s">
@@ -27020,7 +27059,7 @@
       <c r="F636" s="11">
         <v>4</v>
       </c>
-      <c r="G636" s="10">
+      <c r="G636" s="66">
         <v>175</v>
       </c>
       <c r="H636" s="10" t="s">
@@ -27061,7 +27100,7 @@
       <c r="F637" s="11">
         <v>4</v>
       </c>
-      <c r="G637" s="10">
+      <c r="G637" s="66">
         <v>176</v>
       </c>
       <c r="H637" s="10" t="s">
@@ -27102,7 +27141,7 @@
       <c r="F638" s="11">
         <v>4</v>
       </c>
-      <c r="G638" s="10">
+      <c r="G638" s="66">
         <v>177</v>
       </c>
       <c r="H638" s="10" t="s">
@@ -27143,7 +27182,7 @@
       <c r="F639" s="11">
         <v>4</v>
       </c>
-      <c r="G639" s="10">
+      <c r="G639" s="66">
         <v>178</v>
       </c>
       <c r="H639" s="10" t="s">
@@ -27184,7 +27223,7 @@
       <c r="F640" s="11">
         <v>4</v>
       </c>
-      <c r="G640" s="10">
+      <c r="G640" s="66">
         <v>179</v>
       </c>
       <c r="H640" s="10" t="s">
@@ -27225,7 +27264,7 @@
       <c r="F641" s="11">
         <v>4</v>
       </c>
-      <c r="G641" s="10">
+      <c r="G641" s="66">
         <v>180</v>
       </c>
       <c r="H641" s="10" t="s">
@@ -27266,7 +27305,7 @@
       <c r="F642" s="11">
         <v>4</v>
       </c>
-      <c r="G642" s="10">
+      <c r="G642" s="66">
         <v>181</v>
       </c>
       <c r="H642" s="10" t="s">
@@ -27307,7 +27346,7 @@
       <c r="F643" s="11">
         <v>1</v>
       </c>
-      <c r="G643" s="10">
+      <c r="G643" s="66">
         <v>1</v>
       </c>
       <c r="H643" s="16" t="s">
@@ -27348,7 +27387,7 @@
       <c r="F644" s="11">
         <v>1</v>
       </c>
-      <c r="G644" s="10">
+      <c r="G644" s="66">
         <v>2</v>
       </c>
       <c r="H644" s="10" t="s">
@@ -27389,7 +27428,7 @@
       <c r="F645" s="11">
         <v>1</v>
       </c>
-      <c r="G645" s="10">
+      <c r="G645" s="66">
         <v>3</v>
       </c>
       <c r="H645" s="10" t="s">
@@ -27430,7 +27469,7 @@
       <c r="F646" s="11">
         <v>1</v>
       </c>
-      <c r="G646" s="10">
+      <c r="G646" s="66">
         <v>4</v>
       </c>
       <c r="H646" s="10" t="s">
@@ -27471,7 +27510,7 @@
       <c r="F647" s="11">
         <v>1</v>
       </c>
-      <c r="G647" s="10">
+      <c r="G647" s="66">
         <v>5</v>
       </c>
       <c r="H647" s="10" t="s">
@@ -27512,7 +27551,7 @@
       <c r="F648" s="11">
         <v>2</v>
       </c>
-      <c r="G648" s="10">
+      <c r="G648" s="66">
         <v>51</v>
       </c>
       <c r="H648" s="10" t="s">
@@ -27553,7 +27592,7 @@
       <c r="F649" s="11">
         <v>2</v>
       </c>
-      <c r="G649" s="10">
+      <c r="G649" s="66">
         <v>52</v>
       </c>
       <c r="H649" s="10" t="s">
@@ -27594,7 +27633,7 @@
       <c r="F650" s="11">
         <v>2</v>
       </c>
-      <c r="G650" s="10">
+      <c r="G650" s="66">
         <v>53</v>
       </c>
       <c r="H650" s="10" t="s">
@@ -27635,7 +27674,7 @@
       <c r="F651" s="11">
         <v>2</v>
       </c>
-      <c r="G651" s="10">
+      <c r="G651" s="66">
         <v>54</v>
       </c>
       <c r="H651" s="10" t="s">
@@ -27676,7 +27715,7 @@
       <c r="F652" s="11">
         <v>2</v>
       </c>
-      <c r="G652" s="10">
+      <c r="G652" s="66">
         <v>55</v>
       </c>
       <c r="H652" s="10" t="s">
@@ -27717,7 +27756,7 @@
       <c r="F653" s="11">
         <v>2</v>
       </c>
-      <c r="G653" s="10">
+      <c r="G653" s="66">
         <v>56</v>
       </c>
       <c r="H653" s="10" t="s">
@@ -27758,7 +27797,7 @@
       <c r="F654" s="11">
         <v>2</v>
       </c>
-      <c r="G654" s="10">
+      <c r="G654" s="66">
         <v>57</v>
       </c>
       <c r="H654" s="10" t="s">
@@ -27799,7 +27838,7 @@
       <c r="F655" s="11">
         <v>2</v>
       </c>
-      <c r="G655" s="10">
+      <c r="G655" s="66">
         <v>58</v>
       </c>
       <c r="H655" s="10" t="s">
@@ -27840,7 +27879,7 @@
       <c r="F656" s="11">
         <v>2</v>
       </c>
-      <c r="G656" s="10">
+      <c r="G656" s="66">
         <v>59</v>
       </c>
       <c r="H656" s="10" t="s">
@@ -27881,7 +27920,7 @@
       <c r="F657" s="11">
         <v>2</v>
       </c>
-      <c r="G657" s="10">
+      <c r="G657" s="66">
         <v>60</v>
       </c>
       <c r="H657" s="10" t="s">
@@ -27922,7 +27961,7 @@
       <c r="F658" s="11">
         <v>2</v>
       </c>
-      <c r="G658" s="10">
+      <c r="G658" s="66">
         <v>61</v>
       </c>
       <c r="H658" s="10" t="s">
@@ -27963,7 +28002,7 @@
       <c r="F659" s="11">
         <v>2</v>
       </c>
-      <c r="G659" s="10">
+      <c r="G659" s="66">
         <v>62</v>
       </c>
       <c r="H659" s="10" t="s">
@@ -28004,7 +28043,7 @@
       <c r="F660" s="11">
         <v>2</v>
       </c>
-      <c r="G660" s="10">
+      <c r="G660" s="66">
         <v>63</v>
       </c>
       <c r="H660" s="10" t="s">
@@ -28045,7 +28084,7 @@
       <c r="F661" s="11">
         <v>2</v>
       </c>
-      <c r="G661" s="10">
+      <c r="G661" s="66">
         <v>64</v>
       </c>
       <c r="H661" s="10" t="s">
@@ -28086,7 +28125,7 @@
       <c r="F662" s="11">
         <v>2</v>
       </c>
-      <c r="G662" s="10">
+      <c r="G662" s="66">
         <v>65</v>
       </c>
       <c r="H662" s="10" t="s">
@@ -28127,7 +28166,7 @@
       <c r="F663" s="27">
         <v>2</v>
       </c>
-      <c r="G663" s="18">
+      <c r="G663" s="70">
         <v>67</v>
       </c>
       <c r="H663" s="18" t="s">
@@ -28168,7 +28207,7 @@
       <c r="F664" s="11">
         <v>2</v>
       </c>
-      <c r="G664" s="10">
+      <c r="G664" s="66">
         <v>66</v>
       </c>
       <c r="H664" s="10" t="s">
@@ -28209,7 +28248,7 @@
       <c r="F665" s="11">
         <v>3</v>
       </c>
-      <c r="G665" s="10">
+      <c r="G665" s="66">
         <v>101</v>
       </c>
       <c r="H665" s="10" t="s">
@@ -28250,7 +28289,7 @@
       <c r="F666" s="11">
         <v>3</v>
       </c>
-      <c r="G666" s="10">
+      <c r="G666" s="66">
         <v>102</v>
       </c>
       <c r="H666" s="10" t="s">
@@ -28291,7 +28330,7 @@
       <c r="F667" s="11">
         <v>3</v>
       </c>
-      <c r="G667" s="10">
+      <c r="G667" s="66">
         <v>103</v>
       </c>
       <c r="H667" s="10" t="s">
@@ -28332,7 +28371,7 @@
       <c r="F668" s="11">
         <v>3</v>
       </c>
-      <c r="G668" s="10">
+      <c r="G668" s="66">
         <v>104</v>
       </c>
       <c r="H668" s="10" t="s">
@@ -28373,7 +28412,7 @@
       <c r="F669" s="11">
         <v>3</v>
       </c>
-      <c r="G669" s="10">
+      <c r="G669" s="66">
         <v>105</v>
       </c>
       <c r="H669" s="10" t="s">
@@ -28414,7 +28453,7 @@
       <c r="F670" s="11">
         <v>3</v>
       </c>
-      <c r="G670" s="10">
+      <c r="G670" s="66">
         <v>106</v>
       </c>
       <c r="H670" s="10" t="s">
@@ -28455,7 +28494,7 @@
       <c r="F671" s="11">
         <v>3</v>
       </c>
-      <c r="G671" s="10">
+      <c r="G671" s="66">
         <v>107</v>
       </c>
       <c r="H671" s="10" t="s">
@@ -28496,7 +28535,7 @@
       <c r="F672" s="11">
         <v>3</v>
       </c>
-      <c r="G672" s="10">
+      <c r="G672" s="66">
         <v>108</v>
       </c>
       <c r="H672" s="10" t="s">
@@ -28537,7 +28576,7 @@
       <c r="F673" s="11">
         <v>3</v>
       </c>
-      <c r="G673" s="10">
+      <c r="G673" s="66">
         <v>109</v>
       </c>
       <c r="H673" s="10" t="s">
@@ -28578,7 +28617,7 @@
       <c r="F674" s="11">
         <v>3</v>
       </c>
-      <c r="G674" s="10">
+      <c r="G674" s="66">
         <v>110</v>
       </c>
       <c r="H674" s="10" t="s">
@@ -28619,7 +28658,7 @@
       <c r="F675" s="11">
         <v>3</v>
       </c>
-      <c r="G675" s="10">
+      <c r="G675" s="66">
         <v>111</v>
       </c>
       <c r="H675" s="10" t="s">
@@ -28660,7 +28699,7 @@
       <c r="F676" s="11">
         <v>3</v>
       </c>
-      <c r="G676" s="10">
+      <c r="G676" s="66">
         <v>112</v>
       </c>
       <c r="H676" s="10" t="s">
@@ -28701,7 +28740,7 @@
       <c r="F677" s="11">
         <v>3</v>
       </c>
-      <c r="G677" s="10">
+      <c r="G677" s="66">
         <v>113</v>
       </c>
       <c r="H677" s="10" t="s">
@@ -28742,7 +28781,7 @@
       <c r="F678" s="11">
         <v>3</v>
       </c>
-      <c r="G678" s="10">
+      <c r="G678" s="66">
         <v>114</v>
       </c>
       <c r="H678" s="10" t="s">
@@ -28783,7 +28822,7 @@
       <c r="F679" s="11">
         <v>3</v>
       </c>
-      <c r="G679" s="10">
+      <c r="G679" s="66">
         <v>115</v>
       </c>
       <c r="H679" s="10" t="s">
@@ -28824,7 +28863,7 @@
       <c r="F680" s="11">
         <v>3</v>
       </c>
-      <c r="G680" s="10">
+      <c r="G680" s="66">
         <v>116</v>
       </c>
       <c r="H680" s="10" t="s">
@@ -28865,7 +28904,7 @@
       <c r="F681" s="11">
         <v>3</v>
       </c>
-      <c r="G681" s="10">
+      <c r="G681" s="66">
         <v>117</v>
       </c>
       <c r="H681" s="10" t="s">
@@ -28906,7 +28945,7 @@
       <c r="F682" s="11">
         <v>1</v>
       </c>
-      <c r="G682" s="10">
+      <c r="G682" s="66">
         <v>1</v>
       </c>
       <c r="H682" s="10" t="s">
@@ -28947,7 +28986,7 @@
       <c r="F683" s="11">
         <v>1</v>
       </c>
-      <c r="G683" s="10">
+      <c r="G683" s="66">
         <v>2</v>
       </c>
       <c r="H683" s="10" t="s">
@@ -28988,7 +29027,7 @@
       <c r="F684" s="11">
         <v>2</v>
       </c>
-      <c r="G684" s="10">
+      <c r="G684" s="66">
         <v>51</v>
       </c>
       <c r="H684" s="10" t="s">
@@ -29029,7 +29068,7 @@
       <c r="F685" s="11">
         <v>2</v>
       </c>
-      <c r="G685" s="10">
+      <c r="G685" s="66">
         <v>52</v>
       </c>
       <c r="H685" s="10" t="s">
@@ -29070,7 +29109,7 @@
       <c r="F686" s="11">
         <v>2</v>
       </c>
-      <c r="G686" s="10">
+      <c r="G686" s="66">
         <v>53</v>
       </c>
       <c r="H686" s="16" t="s">
@@ -29111,7 +29150,7 @@
       <c r="F687" s="11">
         <v>2</v>
       </c>
-      <c r="G687" s="10">
+      <c r="G687" s="66">
         <v>54</v>
       </c>
       <c r="H687" s="10" t="s">
@@ -29152,7 +29191,7 @@
       <c r="F688" s="11">
         <v>2</v>
       </c>
-      <c r="G688" s="10">
+      <c r="G688" s="66">
         <v>56</v>
       </c>
       <c r="H688" s="10" t="s">
@@ -29193,7 +29232,7 @@
       <c r="F689" s="11">
         <v>2</v>
       </c>
-      <c r="G689" s="10">
+      <c r="G689" s="66">
         <v>55</v>
       </c>
       <c r="H689" s="10" t="s">
@@ -29234,7 +29273,7 @@
       <c r="F690" s="11">
         <v>2</v>
       </c>
-      <c r="G690" s="10">
+      <c r="G690" s="66">
         <v>57</v>
       </c>
       <c r="H690" s="10" t="s">
@@ -29275,7 +29314,7 @@
       <c r="F691" s="11">
         <v>1</v>
       </c>
-      <c r="G691" s="10">
+      <c r="G691" s="66">
         <v>1</v>
       </c>
       <c r="H691" s="10" t="s">
@@ -29316,7 +29355,7 @@
       <c r="F692" s="11">
         <v>1</v>
       </c>
-      <c r="G692" s="10">
+      <c r="G692" s="66">
         <v>2</v>
       </c>
       <c r="H692" s="10" t="s">
@@ -29357,7 +29396,7 @@
       <c r="F693" s="11">
         <v>1</v>
       </c>
-      <c r="G693" s="10">
+      <c r="G693" s="66">
         <v>3</v>
       </c>
       <c r="H693" s="16" t="s">
@@ -29398,7 +29437,7 @@
       <c r="F694" s="11">
         <v>1</v>
       </c>
-      <c r="G694" s="10">
+      <c r="G694" s="66">
         <v>4</v>
       </c>
       <c r="H694" s="10" t="s">
@@ -29439,7 +29478,7 @@
       <c r="F695" s="11">
         <v>1</v>
       </c>
-      <c r="G695" s="10">
+      <c r="G695" s="66">
         <v>5</v>
       </c>
       <c r="H695" s="10" t="s">
@@ -29480,7 +29519,7 @@
       <c r="F696" s="11">
         <v>1</v>
       </c>
-      <c r="G696" s="10">
+      <c r="G696" s="66">
         <v>6</v>
       </c>
       <c r="H696" s="10" t="s">
@@ -29521,7 +29560,7 @@
       <c r="F697" s="11">
         <v>1</v>
       </c>
-      <c r="G697" s="10">
+      <c r="G697" s="66">
         <v>7</v>
       </c>
       <c r="H697" s="10" t="s">
@@ -29562,7 +29601,7 @@
       <c r="F698" s="11">
         <v>1</v>
       </c>
-      <c r="G698" s="10">
+      <c r="G698" s="66">
         <v>8</v>
       </c>
       <c r="H698" s="10" t="s">
@@ -29603,7 +29642,7 @@
       <c r="F699" s="11">
         <v>2</v>
       </c>
-      <c r="G699" s="10">
+      <c r="G699" s="66">
         <v>51</v>
       </c>
       <c r="H699" s="16" t="s">
@@ -29644,7 +29683,7 @@
       <c r="F700" s="11">
         <v>2</v>
       </c>
-      <c r="G700" s="10">
+      <c r="G700" s="66">
         <v>52</v>
       </c>
       <c r="H700" s="10" t="s">
@@ -29685,7 +29724,7 @@
       <c r="F701" s="11">
         <v>2</v>
       </c>
-      <c r="G701" s="10">
+      <c r="G701" s="66">
         <v>53</v>
       </c>
       <c r="H701" s="10" t="s">
@@ -29726,7 +29765,7 @@
       <c r="F702" s="11">
         <v>2</v>
       </c>
-      <c r="G702" s="10">
+      <c r="G702" s="66">
         <v>54</v>
       </c>
       <c r="H702" s="10" t="s">
@@ -29767,7 +29806,7 @@
       <c r="F703" s="11">
         <v>2</v>
       </c>
-      <c r="G703" s="10">
+      <c r="G703" s="66">
         <v>55</v>
       </c>
       <c r="H703" s="10" t="s">
@@ -29808,7 +29847,7 @@
       <c r="F704" s="11">
         <v>2</v>
       </c>
-      <c r="G704" s="10">
+      <c r="G704" s="66">
         <v>56</v>
       </c>
       <c r="H704" s="10" t="s">
@@ -29849,7 +29888,7 @@
       <c r="F705" s="11">
         <v>2</v>
       </c>
-      <c r="G705" s="10">
+      <c r="G705" s="66">
         <v>57</v>
       </c>
       <c r="H705" s="10" t="s">
@@ -29890,7 +29929,7 @@
       <c r="F706" s="11">
         <v>2</v>
       </c>
-      <c r="G706" s="10">
+      <c r="G706" s="66">
         <v>58</v>
       </c>
       <c r="H706" s="10" t="s">
@@ -29931,7 +29970,7 @@
       <c r="F707" s="11">
         <v>2</v>
       </c>
-      <c r="G707" s="10">
+      <c r="G707" s="66">
         <v>59</v>
       </c>
       <c r="H707" s="10" t="s">
@@ -29972,7 +30011,7 @@
       <c r="F708" s="27">
         <v>2</v>
       </c>
-      <c r="G708" s="18">
+      <c r="G708" s="70">
         <v>60</v>
       </c>
       <c r="H708" s="18" t="s">
@@ -30013,7 +30052,7 @@
       <c r="F709" s="11">
         <v>1</v>
       </c>
-      <c r="G709" s="11">
+      <c r="G709" s="66">
         <v>1</v>
       </c>
       <c r="H709" s="26" t="s">
@@ -30054,7 +30093,7 @@
       <c r="F710" s="11">
         <v>1</v>
       </c>
-      <c r="G710" s="11">
+      <c r="G710" s="66">
         <v>2</v>
       </c>
       <c r="H710" s="11" t="s">
@@ -30095,7 +30134,7 @@
       <c r="F711" s="11">
         <v>1</v>
       </c>
-      <c r="G711" s="11">
+      <c r="G711" s="66">
         <v>3</v>
       </c>
       <c r="H711" s="11" t="s">
@@ -30136,7 +30175,7 @@
       <c r="F712" s="30">
         <v>2</v>
       </c>
-      <c r="G712" s="30">
+      <c r="G712" s="67">
         <v>51</v>
       </c>
       <c r="H712" s="30" t="s">
@@ -30177,7 +30216,7 @@
       <c r="F713" s="30">
         <v>2</v>
       </c>
-      <c r="G713" s="30">
+      <c r="G713" s="67">
         <v>52</v>
       </c>
       <c r="H713" s="30" t="s">
@@ -30218,7 +30257,7 @@
       <c r="F714" s="30">
         <v>2</v>
       </c>
-      <c r="G714" s="30">
+      <c r="G714" s="67">
         <v>53</v>
       </c>
       <c r="H714" s="30" t="s">
@@ -30259,7 +30298,7 @@
       <c r="F715" s="30">
         <v>2</v>
       </c>
-      <c r="G715" s="30">
+      <c r="G715" s="67">
         <v>54</v>
       </c>
       <c r="H715" s="30" t="s">
@@ -30300,7 +30339,7 @@
       <c r="F716" s="11">
         <v>2</v>
       </c>
-      <c r="G716" s="11">
+      <c r="G716" s="66">
         <v>55</v>
       </c>
       <c r="H716" s="11" t="s">
@@ -30341,7 +30380,7 @@
       <c r="F717" s="11">
         <v>2</v>
       </c>
-      <c r="G717" s="11">
+      <c r="G717" s="66">
         <v>56</v>
       </c>
       <c r="H717" s="26" t="s">
@@ -30382,7 +30421,7 @@
       <c r="F718" s="11">
         <v>2</v>
       </c>
-      <c r="G718" s="11">
+      <c r="G718" s="66">
         <v>57</v>
       </c>
       <c r="H718" s="11" t="s">
@@ -30423,7 +30462,7 @@
       <c r="F719" s="11">
         <v>2</v>
       </c>
-      <c r="G719" s="11">
+      <c r="G719" s="66">
         <v>58</v>
       </c>
       <c r="H719" s="11" t="s">
@@ -30464,7 +30503,7 @@
       <c r="F720" s="11">
         <v>2</v>
       </c>
-      <c r="G720" s="11">
+      <c r="G720" s="66">
         <v>59</v>
       </c>
       <c r="H720" s="11" t="s">
@@ -30505,7 +30544,7 @@
       <c r="F721" s="11">
         <v>2</v>
       </c>
-      <c r="G721" s="11">
+      <c r="G721" s="66">
         <v>60</v>
       </c>
       <c r="H721" s="11" t="s">
@@ -30546,7 +30585,7 @@
       <c r="F722" s="11">
         <v>2</v>
       </c>
-      <c r="G722" s="11">
+      <c r="G722" s="66">
         <v>61</v>
       </c>
       <c r="H722" s="11" t="s">
@@ -30587,7 +30626,7 @@
       <c r="F723" s="11">
         <v>2</v>
       </c>
-      <c r="G723" s="11">
+      <c r="G723" s="66">
         <v>62</v>
       </c>
       <c r="H723" s="11" t="s">
@@ -30628,7 +30667,7 @@
       <c r="F724" s="11">
         <v>2</v>
       </c>
-      <c r="G724" s="11">
+      <c r="G724" s="66">
         <v>63</v>
       </c>
       <c r="H724" s="11" t="s">
@@ -30669,7 +30708,7 @@
       <c r="F725" s="11">
         <v>2</v>
       </c>
-      <c r="G725" s="11">
+      <c r="G725" s="66">
         <v>64</v>
       </c>
       <c r="H725" s="11" t="s">
@@ -30710,7 +30749,7 @@
       <c r="F726" s="11">
         <v>2</v>
       </c>
-      <c r="G726" s="11">
+      <c r="G726" s="66">
         <v>65</v>
       </c>
       <c r="H726" s="11" t="s">
@@ -30751,7 +30790,7 @@
       <c r="F727" s="11">
         <v>2</v>
       </c>
-      <c r="G727" s="11">
+      <c r="G727" s="66">
         <v>66</v>
       </c>
       <c r="H727" s="11" t="s">
@@ -30792,7 +30831,7 @@
       <c r="F728" s="11">
         <v>2</v>
       </c>
-      <c r="G728" s="11">
+      <c r="G728" s="66">
         <v>67</v>
       </c>
       <c r="H728" s="11" t="s">
@@ -30833,7 +30872,7 @@
       <c r="F729" s="11">
         <v>2</v>
       </c>
-      <c r="G729" s="11">
+      <c r="G729" s="66">
         <v>68</v>
       </c>
       <c r="H729" s="11" t="s">
@@ -30874,7 +30913,7 @@
       <c r="F730" s="11">
         <v>2</v>
       </c>
-      <c r="G730" s="11">
+      <c r="G730" s="66">
         <v>69</v>
       </c>
       <c r="H730" s="11" t="s">
@@ -30915,7 +30954,7 @@
       <c r="F731" s="11">
         <v>3</v>
       </c>
-      <c r="G731" s="11">
+      <c r="G731" s="66">
         <v>101</v>
       </c>
       <c r="H731" s="26" t="s">
@@ -30956,7 +30995,7 @@
       <c r="F732" s="11">
         <v>3</v>
       </c>
-      <c r="G732" s="11">
+      <c r="G732" s="66">
         <v>102</v>
       </c>
       <c r="H732" s="11" t="s">
@@ -30997,7 +31036,7 @@
       <c r="F733" s="11">
         <v>3</v>
       </c>
-      <c r="G733" s="11">
+      <c r="G733" s="66">
         <v>103</v>
       </c>
       <c r="H733" s="11" t="s">
@@ -31038,7 +31077,7 @@
       <c r="F734" s="11">
         <v>3</v>
       </c>
-      <c r="G734" s="11">
+      <c r="G734" s="66">
         <v>104</v>
       </c>
       <c r="H734" s="11" t="s">
@@ -31079,7 +31118,7 @@
       <c r="F735" s="11">
         <v>3</v>
       </c>
-      <c r="G735" s="11">
+      <c r="G735" s="66">
         <v>105</v>
       </c>
       <c r="H735" s="11" t="s">
@@ -31120,7 +31159,7 @@
       <c r="F736" s="27">
         <v>3</v>
       </c>
-      <c r="G736" s="11">
+      <c r="G736" s="66">
         <v>106</v>
       </c>
       <c r="H736" s="11" t="s">
@@ -31161,7 +31200,7 @@
       <c r="F737" s="27">
         <v>3</v>
       </c>
-      <c r="G737" s="11">
+      <c r="G737" s="66">
         <v>107</v>
       </c>
       <c r="H737" s="11" t="s">
@@ -31202,7 +31241,7 @@
       <c r="F738" s="11">
         <v>3</v>
       </c>
-      <c r="G738" s="11">
+      <c r="G738" s="66">
         <v>108</v>
       </c>
       <c r="H738" s="11" t="s">
@@ -31243,7 +31282,7 @@
       <c r="F739" s="11">
         <v>3</v>
       </c>
-      <c r="G739" s="11">
+      <c r="G739" s="66">
         <v>109</v>
       </c>
       <c r="H739" s="11" t="s">
@@ -31284,7 +31323,7 @@
       <c r="F740" s="11">
         <v>3</v>
       </c>
-      <c r="G740" s="11">
+      <c r="G740" s="66">
         <v>110</v>
       </c>
       <c r="H740" s="11" t="s">
@@ -31325,7 +31364,7 @@
       <c r="F741" s="11">
         <v>3</v>
       </c>
-      <c r="G741" s="11">
+      <c r="G741" s="66">
         <v>111</v>
       </c>
       <c r="H741" s="11" t="s">
@@ -31366,7 +31405,7 @@
       <c r="F742" s="11">
         <v>3</v>
       </c>
-      <c r="G742" s="11">
+      <c r="G742" s="66">
         <v>112</v>
       </c>
       <c r="H742" s="11" t="s">
@@ -31407,7 +31446,7 @@
       <c r="F743" s="11">
         <v>3</v>
       </c>
-      <c r="G743" s="11">
+      <c r="G743" s="66">
         <v>113</v>
       </c>
       <c r="H743" s="11" t="s">
@@ -31448,7 +31487,7 @@
       <c r="F744" s="11">
         <v>3</v>
       </c>
-      <c r="G744" s="11">
+      <c r="G744" s="66">
         <v>114</v>
       </c>
       <c r="H744" s="11" t="s">
@@ -31489,7 +31528,7 @@
       <c r="F745" s="11">
         <v>3</v>
       </c>
-      <c r="G745" s="11">
+      <c r="G745" s="66">
         <v>115</v>
       </c>
       <c r="H745" s="11" t="s">
@@ -31530,7 +31569,7 @@
       <c r="F746" s="11">
         <v>3</v>
       </c>
-      <c r="G746" s="11">
+      <c r="G746" s="66">
         <v>116</v>
       </c>
       <c r="H746" s="11" t="s">
@@ -31571,7 +31610,7 @@
       <c r="F747" s="11">
         <v>3</v>
       </c>
-      <c r="G747" s="11">
+      <c r="G747" s="66">
         <v>117</v>
       </c>
       <c r="H747" s="11" t="s">
@@ -31612,7 +31651,7 @@
       <c r="F748" s="11">
         <v>3</v>
       </c>
-      <c r="G748" s="11">
+      <c r="G748" s="66">
         <v>118</v>
       </c>
       <c r="H748" s="11" t="s">
@@ -31653,7 +31692,7 @@
       <c r="F749" s="11">
         <v>3</v>
       </c>
-      <c r="G749" s="11">
+      <c r="G749" s="66">
         <v>119</v>
       </c>
       <c r="H749" s="11" t="s">
@@ -31694,7 +31733,7 @@
       <c r="F750" s="11">
         <v>3</v>
       </c>
-      <c r="G750" s="11">
+      <c r="G750" s="66">
         <v>120</v>
       </c>
       <c r="H750" s="11" t="s">
@@ -31735,7 +31774,7 @@
       <c r="F751" s="11">
         <v>1</v>
       </c>
-      <c r="G751" s="10">
+      <c r="G751" s="66">
         <v>1</v>
       </c>
       <c r="H751" s="10" t="s">
@@ -31776,7 +31815,7 @@
       <c r="F752" s="11">
         <v>1</v>
       </c>
-      <c r="G752" s="10">
+      <c r="G752" s="66">
         <v>2</v>
       </c>
       <c r="H752" s="10" t="s">
@@ -31817,7 +31856,7 @@
       <c r="F753" s="11">
         <v>1</v>
       </c>
-      <c r="G753" s="10">
+      <c r="G753" s="66">
         <v>3</v>
       </c>
       <c r="H753" s="10" t="s">
@@ -31858,7 +31897,7 @@
       <c r="F754" s="11">
         <v>1</v>
       </c>
-      <c r="G754" s="10">
+      <c r="G754" s="66">
         <v>4</v>
       </c>
       <c r="H754" s="10" t="s">
@@ -31899,7 +31938,7 @@
       <c r="F755" s="11">
         <v>1</v>
       </c>
-      <c r="G755" s="10">
+      <c r="G755" s="66">
         <v>5</v>
       </c>
       <c r="H755" s="10" t="s">
@@ -31940,7 +31979,7 @@
       <c r="F756" s="11">
         <v>1</v>
       </c>
-      <c r="G756" s="10">
+      <c r="G756" s="66">
         <v>6</v>
       </c>
       <c r="H756" s="10" t="s">
@@ -31981,7 +32020,7 @@
       <c r="F757" s="11">
         <v>1</v>
       </c>
-      <c r="G757" s="10">
+      <c r="G757" s="66">
         <v>7</v>
       </c>
       <c r="H757" s="10" t="s">
@@ -32022,7 +32061,7 @@
       <c r="F758" s="11">
         <v>1</v>
       </c>
-      <c r="G758" s="10">
+      <c r="G758" s="66">
         <v>8</v>
       </c>
       <c r="H758" s="10" t="s">
@@ -32063,7 +32102,7 @@
       <c r="F759" s="11">
         <v>1</v>
       </c>
-      <c r="G759" s="10">
+      <c r="G759" s="66">
         <v>9</v>
       </c>
       <c r="H759" s="16" t="s">
@@ -32104,7 +32143,7 @@
       <c r="F760" s="11">
         <v>1</v>
       </c>
-      <c r="G760" s="10">
+      <c r="G760" s="66">
         <v>10</v>
       </c>
       <c r="H760" s="10" t="s">
@@ -32145,7 +32184,7 @@
       <c r="F761" s="11">
         <v>1</v>
       </c>
-      <c r="G761" s="10">
+      <c r="G761" s="66">
         <v>11</v>
       </c>
       <c r="H761" s="10" t="s">
@@ -32186,7 +32225,7 @@
       <c r="F762" s="11">
         <v>1</v>
       </c>
-      <c r="G762" s="10">
+      <c r="G762" s="66">
         <v>12</v>
       </c>
       <c r="H762" s="10" t="s">
@@ -32227,7 +32266,7 @@
       <c r="F763" s="11">
         <v>1</v>
       </c>
-      <c r="G763" s="10">
+      <c r="G763" s="66">
         <v>13</v>
       </c>
       <c r="H763" s="10" t="s">
@@ -32268,7 +32307,7 @@
       <c r="F764" s="11">
         <v>1</v>
       </c>
-      <c r="G764" s="10">
+      <c r="G764" s="66">
         <v>14</v>
       </c>
       <c r="H764" s="10" t="s">
@@ -32309,7 +32348,7 @@
       <c r="F765" s="11">
         <v>1</v>
       </c>
-      <c r="G765" s="10">
+      <c r="G765" s="66">
         <v>15</v>
       </c>
       <c r="H765" s="10" t="s">
@@ -32350,7 +32389,7 @@
       <c r="F766" s="11">
         <v>1</v>
       </c>
-      <c r="G766" s="10">
+      <c r="G766" s="66">
         <v>16</v>
       </c>
       <c r="H766" s="10" t="s">
@@ -32391,7 +32430,7 @@
       <c r="F767" s="11">
         <v>2</v>
       </c>
-      <c r="G767" s="10">
+      <c r="G767" s="66">
         <v>56</v>
       </c>
       <c r="H767" s="16" t="s">
@@ -32432,7 +32471,7 @@
       <c r="F768" s="11">
         <v>2</v>
       </c>
-      <c r="G768" s="10">
+      <c r="G768" s="66">
         <v>57</v>
       </c>
       <c r="H768" s="10" t="s">
@@ -32473,7 +32512,7 @@
       <c r="F769" s="11">
         <v>2</v>
       </c>
-      <c r="G769" s="10">
+      <c r="G769" s="66">
         <v>58</v>
       </c>
       <c r="H769" s="10" t="s">
@@ -32514,7 +32553,7 @@
       <c r="F770" s="11">
         <v>2</v>
       </c>
-      <c r="G770" s="10">
+      <c r="G770" s="66">
         <v>59</v>
       </c>
       <c r="H770" s="10" t="s">
@@ -32555,7 +32594,7 @@
       <c r="F771" s="11">
         <v>2</v>
       </c>
-      <c r="G771" s="10">
+      <c r="G771" s="66">
         <v>51</v>
       </c>
       <c r="H771" s="16" t="s">
@@ -32596,7 +32635,7 @@
       <c r="F772" s="11">
         <v>2</v>
       </c>
-      <c r="G772" s="10">
+      <c r="G772" s="66">
         <v>52</v>
       </c>
       <c r="H772" s="10" t="s">
@@ -32637,7 +32676,7 @@
       <c r="F773" s="11">
         <v>2</v>
       </c>
-      <c r="G773" s="10">
+      <c r="G773" s="66">
         <v>53</v>
       </c>
       <c r="H773" s="10" t="s">
@@ -32678,7 +32717,7 @@
       <c r="F774" s="11">
         <v>2</v>
       </c>
-      <c r="G774" s="10">
+      <c r="G774" s="66">
         <v>54</v>
       </c>
       <c r="H774" s="10" t="s">
@@ -32719,7 +32758,7 @@
       <c r="F775" s="11">
         <v>2</v>
       </c>
-      <c r="G775" s="10">
+      <c r="G775" s="66">
         <v>55</v>
       </c>
       <c r="H775" s="10" t="s">
@@ -32760,7 +32799,7 @@
       <c r="F776" s="11">
         <v>3</v>
       </c>
-      <c r="G776" s="10">
+      <c r="G776" s="66">
         <v>101</v>
       </c>
       <c r="H776" s="10" t="s">
@@ -32801,7 +32840,7 @@
       <c r="F777" s="11">
         <v>3</v>
       </c>
-      <c r="G777" s="10">
+      <c r="G777" s="66">
         <v>102</v>
       </c>
       <c r="H777" s="10" t="s">
@@ -32842,7 +32881,7 @@
       <c r="F778" s="11">
         <v>3</v>
       </c>
-      <c r="G778" s="10">
+      <c r="G778" s="66">
         <v>103</v>
       </c>
       <c r="H778" s="10" t="s">
@@ -32883,7 +32922,7 @@
       <c r="F779" s="11">
         <v>3</v>
       </c>
-      <c r="G779" s="10">
+      <c r="G779" s="66">
         <v>104</v>
       </c>
       <c r="H779" s="10" t="s">
@@ -32924,7 +32963,7 @@
       <c r="F780" s="11">
         <v>3</v>
       </c>
-      <c r="G780" s="10">
+      <c r="G780" s="66">
         <v>105</v>
       </c>
       <c r="H780" s="10" t="s">
@@ -32965,7 +33004,7 @@
       <c r="F781" s="11">
         <v>3</v>
       </c>
-      <c r="G781" s="10">
+      <c r="G781" s="66">
         <v>106</v>
       </c>
       <c r="H781" s="10" t="s">
@@ -33006,7 +33045,7 @@
       <c r="F782" s="11">
         <v>3</v>
       </c>
-      <c r="G782" s="10">
+      <c r="G782" s="66">
         <v>107</v>
       </c>
       <c r="H782" s="10" t="s">
@@ -33047,7 +33086,7 @@
       <c r="F783" s="11">
         <v>3</v>
       </c>
-      <c r="G783" s="10">
+      <c r="G783" s="66">
         <v>108</v>
       </c>
       <c r="H783" s="10" t="s">
@@ -33088,7 +33127,7 @@
       <c r="F784" s="11">
         <v>3</v>
       </c>
-      <c r="G784" s="10">
+      <c r="G784" s="66">
         <v>109</v>
       </c>
       <c r="H784" s="10" t="s">
@@ -33129,7 +33168,7 @@
       <c r="F785" s="11">
         <v>3</v>
       </c>
-      <c r="G785" s="10">
+      <c r="G785" s="66">
         <v>110</v>
       </c>
       <c r="H785" s="10" t="s">
@@ -33170,7 +33209,7 @@
       <c r="F786" s="11">
         <v>3</v>
       </c>
-      <c r="G786" s="10">
+      <c r="G786" s="66">
         <v>111</v>
       </c>
       <c r="H786" s="10" t="s">
@@ -33211,7 +33250,7 @@
       <c r="F787" s="11">
         <v>3</v>
       </c>
-      <c r="G787" s="10">
+      <c r="G787" s="66">
         <v>112</v>
       </c>
       <c r="H787" s="10" t="s">
@@ -33252,7 +33291,7 @@
       <c r="F788" s="11">
         <v>3</v>
       </c>
-      <c r="G788" s="10">
+      <c r="G788" s="66">
         <v>113</v>
       </c>
       <c r="H788" s="10" t="s">
@@ -33293,7 +33332,7 @@
       <c r="F789" s="11">
         <v>3</v>
       </c>
-      <c r="G789" s="10">
+      <c r="G789" s="66">
         <v>114</v>
       </c>
       <c r="H789" s="10" t="s">
@@ -33334,7 +33373,7 @@
       <c r="F790" s="11">
         <v>3</v>
       </c>
-      <c r="G790" s="10">
+      <c r="G790" s="66">
         <v>115</v>
       </c>
       <c r="H790" s="10" t="s">
@@ -33375,7 +33414,7 @@
       <c r="F791" s="11">
         <v>3</v>
       </c>
-      <c r="G791" s="10">
+      <c r="G791" s="66">
         <v>116</v>
       </c>
       <c r="H791" s="10" t="s">
@@ -33416,7 +33455,7 @@
       <c r="F792" s="11">
         <v>3</v>
       </c>
-      <c r="G792" s="10">
+      <c r="G792" s="66">
         <v>117</v>
       </c>
       <c r="H792" s="10" t="s">
@@ -33457,7 +33496,7 @@
       <c r="F793" s="11">
         <v>3</v>
       </c>
-      <c r="G793" s="10">
+      <c r="G793" s="66">
         <v>118</v>
       </c>
       <c r="H793" s="10" t="s">
@@ -33498,7 +33537,7 @@
       <c r="F794" s="11">
         <v>3</v>
       </c>
-      <c r="G794" s="10">
+      <c r="G794" s="66">
         <v>119</v>
       </c>
       <c r="H794" s="10" t="s">
@@ -33539,7 +33578,7 @@
       <c r="F795" s="11">
         <v>3</v>
       </c>
-      <c r="G795" s="10">
+      <c r="G795" s="66">
         <v>120</v>
       </c>
       <c r="H795" s="10" t="s">
@@ -33580,7 +33619,7 @@
       <c r="F796" s="11">
         <v>3</v>
       </c>
-      <c r="G796" s="10">
+      <c r="G796" s="66">
         <v>121</v>
       </c>
       <c r="H796" s="16" t="s">
@@ -33621,7 +33660,7 @@
       <c r="F797" s="11">
         <v>3</v>
       </c>
-      <c r="G797" s="10">
+      <c r="G797" s="66">
         <v>122</v>
       </c>
       <c r="H797" s="10" t="s">
@@ -33662,7 +33701,7 @@
       <c r="F798" s="11">
         <v>3</v>
       </c>
-      <c r="G798" s="10">
+      <c r="G798" s="66">
         <v>123</v>
       </c>
       <c r="H798" s="10" t="s">
@@ -33703,7 +33742,7 @@
       <c r="F799" s="11">
         <v>3</v>
       </c>
-      <c r="G799" s="10">
+      <c r="G799" s="66">
         <v>123</v>
       </c>
       <c r="H799" s="10" t="s">
@@ -33744,7 +33783,7 @@
       <c r="F800" s="11">
         <v>1</v>
       </c>
-      <c r="G800" s="10">
+      <c r="G800" s="66">
         <v>8</v>
       </c>
       <c r="H800" s="10" t="s">
@@ -33785,7 +33824,7 @@
       <c r="F801" s="11">
         <v>1</v>
       </c>
-      <c r="G801" s="10">
+      <c r="G801" s="66">
         <v>9</v>
       </c>
       <c r="H801" s="10" t="s">
@@ -33826,7 +33865,7 @@
       <c r="F802" s="11">
         <v>1</v>
       </c>
-      <c r="G802" s="10">
+      <c r="G802" s="66">
         <v>10</v>
       </c>
       <c r="H802" s="16" t="s">
@@ -33867,7 +33906,7 @@
       <c r="F803" s="11">
         <v>1</v>
       </c>
-      <c r="G803" s="10">
+      <c r="G803" s="66">
         <v>1</v>
       </c>
       <c r="H803" s="16" t="s">
@@ -33908,7 +33947,7 @@
       <c r="F804" s="11">
         <v>1</v>
       </c>
-      <c r="G804" s="10">
+      <c r="G804" s="66">
         <v>2</v>
       </c>
       <c r="H804" s="10" t="s">
@@ -33949,7 +33988,7 @@
       <c r="F805" s="11">
         <v>1</v>
       </c>
-      <c r="G805" s="10">
+      <c r="G805" s="66">
         <v>3</v>
       </c>
       <c r="H805" s="10" t="s">
@@ -33990,7 +34029,7 @@
       <c r="F806" s="11">
         <v>1</v>
       </c>
-      <c r="G806" s="10">
+      <c r="G806" s="66">
         <v>4</v>
       </c>
       <c r="H806" s="10" t="s">
@@ -34031,7 +34070,7 @@
       <c r="F807" s="11">
         <v>1</v>
       </c>
-      <c r="G807" s="10">
+      <c r="G807" s="66">
         <v>5</v>
       </c>
       <c r="H807" s="10" t="s">
@@ -34072,7 +34111,7 @@
       <c r="F808" s="11">
         <v>1</v>
       </c>
-      <c r="G808" s="10">
+      <c r="G808" s="66">
         <v>6</v>
       </c>
       <c r="H808" s="10" t="s">
@@ -34113,7 +34152,7 @@
       <c r="F809" s="11">
         <v>1</v>
       </c>
-      <c r="G809" s="10">
+      <c r="G809" s="66">
         <v>7</v>
       </c>
       <c r="H809" s="10" t="s">
@@ -34154,7 +34193,7 @@
       <c r="F810" s="11">
         <v>2</v>
       </c>
-      <c r="G810" s="10">
+      <c r="G810" s="66">
         <v>51</v>
       </c>
       <c r="H810" s="16" t="s">
@@ -34195,7 +34234,7 @@
       <c r="F811" s="11">
         <v>2</v>
       </c>
-      <c r="G811" s="10">
+      <c r="G811" s="66">
         <v>52</v>
       </c>
       <c r="H811" s="10" t="s">
@@ -34236,7 +34275,7 @@
       <c r="F812" s="11">
         <v>2</v>
       </c>
-      <c r="G812" s="10">
+      <c r="G812" s="66">
         <v>53</v>
       </c>
       <c r="H812" s="10" t="s">
@@ -34277,7 +34316,7 @@
       <c r="F813" s="11">
         <v>2</v>
       </c>
-      <c r="G813" s="10">
+      <c r="G813" s="66">
         <v>54</v>
       </c>
       <c r="H813" s="10" t="s">
@@ -34318,7 +34357,7 @@
       <c r="F814" s="11">
         <v>2</v>
       </c>
-      <c r="G814" s="10">
+      <c r="G814" s="66">
         <v>55</v>
       </c>
       <c r="H814" s="10" t="s">
@@ -34359,7 +34398,7 @@
       <c r="F815" s="11">
         <v>2</v>
       </c>
-      <c r="G815" s="10">
+      <c r="G815" s="66">
         <v>56</v>
       </c>
       <c r="H815" s="10" t="s">
@@ -34400,7 +34439,7 @@
       <c r="F816" s="11">
         <v>2</v>
       </c>
-      <c r="G816" s="10">
+      <c r="G816" s="66">
         <v>57</v>
       </c>
       <c r="H816" s="10" t="s">
@@ -34441,7 +34480,7 @@
       <c r="F817" s="11">
         <v>2</v>
       </c>
-      <c r="G817" s="10">
+      <c r="G817" s="66">
         <v>58</v>
       </c>
       <c r="H817" s="10" t="s">
@@ -34482,7 +34521,7 @@
       <c r="F818" s="11">
         <v>2</v>
       </c>
-      <c r="G818" s="10">
+      <c r="G818" s="66">
         <v>59</v>
       </c>
       <c r="H818" s="16" t="s">
@@ -34523,7 +34562,7 @@
       <c r="F819" s="11">
         <v>3</v>
       </c>
-      <c r="G819" s="10">
+      <c r="G819" s="66">
         <v>101</v>
       </c>
       <c r="H819" s="16" t="s">
@@ -34564,7 +34603,7 @@
       <c r="F820" s="11">
         <v>3</v>
       </c>
-      <c r="G820" s="10">
+      <c r="G820" s="66">
         <v>102</v>
       </c>
       <c r="H820" s="10" t="s">
@@ -34605,7 +34644,7 @@
       <c r="F821" s="11">
         <v>3</v>
       </c>
-      <c r="G821" s="10">
+      <c r="G821" s="66">
         <v>103</v>
       </c>
       <c r="H821" s="10" t="s">
@@ -34646,7 +34685,7 @@
       <c r="F822" s="11">
         <v>3</v>
       </c>
-      <c r="G822" s="10">
+      <c r="G822" s="66">
         <v>104</v>
       </c>
       <c r="H822" s="10" t="s">
@@ -34687,7 +34726,7 @@
       <c r="F823" s="11">
         <v>3</v>
       </c>
-      <c r="G823" s="10">
+      <c r="G823" s="66">
         <v>105</v>
       </c>
       <c r="H823" s="16" t="s">
@@ -34728,7 +34767,7 @@
       <c r="F824" s="11">
         <v>3</v>
       </c>
-      <c r="G824" s="10">
+      <c r="G824" s="66">
         <v>106</v>
       </c>
       <c r="H824" s="10" t="s">
@@ -34769,7 +34808,7 @@
       <c r="F825" s="11">
         <v>3</v>
       </c>
-      <c r="G825" s="10">
+      <c r="G825" s="66">
         <v>107</v>
       </c>
       <c r="H825" s="10" t="s">
@@ -34810,7 +34849,7 @@
       <c r="F826" s="11">
         <v>3</v>
       </c>
-      <c r="G826" s="10">
+      <c r="G826" s="66">
         <v>108</v>
       </c>
       <c r="H826" s="10" t="s">
@@ -34851,7 +34890,7 @@
       <c r="F827" s="11">
         <v>3</v>
       </c>
-      <c r="G827" s="10">
+      <c r="G827" s="66">
         <v>109</v>
       </c>
       <c r="H827" s="10" t="s">
@@ -34892,7 +34931,7 @@
       <c r="F828" s="11">
         <v>2</v>
       </c>
-      <c r="G828" s="10">
+      <c r="G828" s="66">
         <v>53</v>
       </c>
       <c r="H828" s="10" t="s">
@@ -34933,7 +34972,7 @@
       <c r="F829" s="11">
         <v>2</v>
       </c>
-      <c r="G829" s="10">
+      <c r="G829" s="66">
         <v>54</v>
       </c>
       <c r="H829" s="10" t="s">
@@ -34974,7 +35013,7 @@
       <c r="F830" s="11">
         <v>2</v>
       </c>
-      <c r="G830" s="10">
+      <c r="G830" s="66">
         <v>55</v>
       </c>
       <c r="H830" s="16" t="s">
@@ -35015,7 +35054,7 @@
       <c r="F831" s="11">
         <v>2</v>
       </c>
-      <c r="G831" s="10">
+      <c r="G831" s="66">
         <v>51</v>
       </c>
       <c r="H831" s="10" t="s">
@@ -35056,7 +35095,7 @@
       <c r="F832" s="11">
         <v>2</v>
       </c>
-      <c r="G832" s="10">
+      <c r="G832" s="66">
         <v>52</v>
       </c>
       <c r="H832" s="10" t="s">
@@ -35097,7 +35136,7 @@
       <c r="F833" s="11">
         <v>2</v>
       </c>
-      <c r="G833" s="10">
+      <c r="G833" s="66">
         <v>56</v>
       </c>
       <c r="H833" s="16" t="s">
@@ -35138,7 +35177,7 @@
       <c r="F834" s="11">
         <v>2</v>
       </c>
-      <c r="G834" s="10">
+      <c r="G834" s="66">
         <v>57</v>
       </c>
       <c r="H834" s="10" t="s">
@@ -35179,7 +35218,7 @@
       <c r="F835" s="11">
         <v>2</v>
       </c>
-      <c r="G835" s="10">
+      <c r="G835" s="66">
         <v>58</v>
       </c>
       <c r="H835" s="10" t="s">
@@ -35220,7 +35259,7 @@
       <c r="F836" s="11">
         <v>2</v>
       </c>
-      <c r="G836" s="10">
+      <c r="G836" s="66">
         <v>59</v>
       </c>
       <c r="H836" s="10" t="s">
@@ -35261,7 +35300,7 @@
       <c r="F837" s="11">
         <v>2</v>
       </c>
-      <c r="G837" s="10">
+      <c r="G837" s="66">
         <v>60</v>
       </c>
       <c r="H837" s="10" t="s">
@@ -35302,7 +35341,7 @@
       <c r="F838" s="11">
         <v>2</v>
       </c>
-      <c r="G838" s="10">
+      <c r="G838" s="66">
         <v>61</v>
       </c>
       <c r="H838" s="10" t="s">
@@ -35343,7 +35382,7 @@
       <c r="F839" s="11">
         <v>1</v>
       </c>
-      <c r="G839" s="10">
+      <c r="G839" s="66">
         <v>1</v>
       </c>
       <c r="H839" s="10" t="s">
@@ -35384,7 +35423,7 @@
       <c r="F840" s="11">
         <v>1</v>
       </c>
-      <c r="G840" s="10">
+      <c r="G840" s="66">
         <v>2</v>
       </c>
       <c r="H840" s="10" t="s">
@@ -35425,7 +35464,7 @@
       <c r="F841" s="11">
         <v>1</v>
       </c>
-      <c r="G841" s="10">
+      <c r="G841" s="66">
         <v>3</v>
       </c>
       <c r="H841" s="10" t="s">
@@ -35466,7 +35505,7 @@
       <c r="F842" s="11">
         <v>1</v>
       </c>
-      <c r="G842" s="10">
+      <c r="G842" s="66">
         <v>8</v>
       </c>
       <c r="H842" s="16" t="s">
@@ -35507,7 +35546,7 @@
       <c r="F843" s="11">
         <v>1</v>
       </c>
-      <c r="G843" s="10">
+      <c r="G843" s="66">
         <v>9</v>
       </c>
       <c r="H843" s="10" t="s">
@@ -35548,7 +35587,7 @@
       <c r="F844" s="11">
         <v>1</v>
       </c>
-      <c r="G844" s="10">
+      <c r="G844" s="66">
         <v>4</v>
       </c>
       <c r="H844" s="10" t="s">
@@ -35589,7 +35628,7 @@
       <c r="F845" s="11">
         <v>1</v>
       </c>
-      <c r="G845" s="10">
+      <c r="G845" s="66">
         <v>5</v>
       </c>
       <c r="H845" s="10" t="s">
@@ -35630,7 +35669,7 @@
       <c r="F846" s="11">
         <v>1</v>
       </c>
-      <c r="G846" s="10">
+      <c r="G846" s="66">
         <v>6</v>
       </c>
       <c r="H846" s="10" t="s">
@@ -35671,7 +35710,7 @@
       <c r="F847" s="11">
         <v>1</v>
       </c>
-      <c r="G847" s="10">
+      <c r="G847" s="66">
         <v>7</v>
       </c>
       <c r="H847" s="16" t="s">
@@ -35693,7 +35732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="848" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A848" s="12">
         <v>292</v>
       </c>
@@ -35712,7 +35751,7 @@
       <c r="F848" s="11">
         <v>1</v>
       </c>
-      <c r="G848" s="10">
+      <c r="G848" s="66">
         <v>1</v>
       </c>
       <c r="H848" s="10" t="s">
@@ -35731,7 +35770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="849" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A849" s="12">
         <v>292</v>
       </c>
@@ -35750,7 +35789,7 @@
       <c r="F849" s="11">
         <v>1</v>
       </c>
-      <c r="G849" s="10">
+      <c r="G849" s="66">
         <v>2</v>
       </c>
       <c r="H849" s="10" t="s">
@@ -35769,7 +35808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="850" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A850" s="12">
         <v>292</v>
       </c>
@@ -35788,7 +35827,7 @@
       <c r="F850" s="11">
         <v>1</v>
       </c>
-      <c r="G850" s="10">
+      <c r="G850" s="66">
         <v>3</v>
       </c>
       <c r="H850" s="10" t="s">
@@ -35807,7 +35846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="851" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A851" s="12">
         <v>292</v>
       </c>
@@ -35826,7 +35865,7 @@
       <c r="F851" s="11">
         <v>1</v>
       </c>
-      <c r="G851" s="10">
+      <c r="G851" s="66">
         <v>4</v>
       </c>
       <c r="H851" s="10" t="s">
@@ -35845,7 +35884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="852" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A852" s="12">
         <v>292</v>
       </c>
@@ -35864,7 +35903,7 @@
       <c r="F852" s="11">
         <v>1</v>
       </c>
-      <c r="G852" s="10">
+      <c r="G852" s="66">
         <v>5</v>
       </c>
       <c r="H852" s="10" t="s">
@@ -35883,7 +35922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="853" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A853" s="12">
         <v>292</v>
       </c>
@@ -35902,7 +35941,7 @@
       <c r="F853" s="11">
         <v>1</v>
       </c>
-      <c r="G853" s="10">
+      <c r="G853" s="66">
         <v>6</v>
       </c>
       <c r="H853" s="10" t="s">
@@ -35921,7 +35960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="854" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A854" s="12">
         <v>292</v>
       </c>
@@ -35940,7 +35979,7 @@
       <c r="F854" s="11">
         <v>1</v>
       </c>
-      <c r="G854" s="10">
+      <c r="G854" s="66">
         <v>7</v>
       </c>
       <c r="H854" s="10" t="s">
@@ -35959,7 +35998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="855" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A855" s="12">
         <v>292</v>
       </c>
@@ -35978,7 +36017,7 @@
       <c r="F855" s="11">
         <v>1</v>
       </c>
-      <c r="G855" s="10">
+      <c r="G855" s="66">
         <v>8</v>
       </c>
       <c r="H855" s="10" t="s">
@@ -35997,7 +36036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="856" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A856" s="12">
         <v>292</v>
       </c>
@@ -36016,7 +36055,7 @@
       <c r="F856" s="11">
         <v>1</v>
       </c>
-      <c r="G856" s="10">
+      <c r="G856" s="66">
         <v>9</v>
       </c>
       <c r="H856" s="10" t="s">
@@ -36035,7 +36074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="857" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A857" s="12">
         <v>292</v>
       </c>
@@ -36054,7 +36093,7 @@
       <c r="F857" s="11">
         <v>1</v>
       </c>
-      <c r="G857" s="10">
+      <c r="G857" s="66">
         <v>10</v>
       </c>
       <c r="H857" s="10" t="s">
@@ -36073,7 +36112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="858" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A858" s="12">
         <v>292</v>
       </c>
@@ -36092,7 +36131,7 @@
       <c r="F858" s="11">
         <v>1</v>
       </c>
-      <c r="G858" s="10">
+      <c r="G858" s="66">
         <v>11</v>
       </c>
       <c r="H858" s="10" t="s">
@@ -36111,7 +36150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="859" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A859" s="12">
         <v>292</v>
       </c>
@@ -36130,7 +36169,7 @@
       <c r="F859" s="11">
         <v>1</v>
       </c>
-      <c r="G859" s="10">
+      <c r="G859" s="66">
         <v>12</v>
       </c>
       <c r="H859" s="10" t="s">
@@ -36149,7 +36188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="860" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A860" s="12">
         <v>292</v>
       </c>
@@ -36168,7 +36207,7 @@
       <c r="F860" s="11">
         <v>1</v>
       </c>
-      <c r="G860" s="10">
+      <c r="G860" s="66">
         <v>13</v>
       </c>
       <c r="H860" s="10" t="s">
@@ -36187,7 +36226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="861" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A861" s="12">
         <v>292</v>
       </c>
@@ -36206,7 +36245,7 @@
       <c r="F861" s="11">
         <v>1</v>
       </c>
-      <c r="G861" s="10">
+      <c r="G861" s="66">
         <v>14</v>
       </c>
       <c r="H861" s="10" t="s">
@@ -36225,7 +36264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="862" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A862" s="12">
         <v>292</v>
       </c>
@@ -36244,7 +36283,7 @@
       <c r="F862" s="11">
         <v>1</v>
       </c>
-      <c r="G862" s="10">
+      <c r="G862" s="66">
         <v>15</v>
       </c>
       <c r="H862" s="10" t="s">
@@ -36263,7 +36302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="863" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A863" s="12">
         <v>292</v>
       </c>
@@ -36282,7 +36321,7 @@
       <c r="F863" s="11">
         <v>1</v>
       </c>
-      <c r="G863" s="10">
+      <c r="G863" s="66">
         <v>16</v>
       </c>
       <c r="H863" s="10" t="s">
@@ -36301,7 +36340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="864" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A864" s="12">
         <v>292</v>
       </c>
@@ -36320,7 +36359,7 @@
       <c r="F864" s="11">
         <v>2</v>
       </c>
-      <c r="G864" s="10">
+      <c r="G864" s="66">
         <v>51</v>
       </c>
       <c r="H864" s="10" t="s">
@@ -36339,7 +36378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="865" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A865" s="12">
         <v>292</v>
       </c>
@@ -36358,7 +36397,7 @@
       <c r="F865" s="11">
         <v>2</v>
       </c>
-      <c r="G865" s="10">
+      <c r="G865" s="66">
         <v>52</v>
       </c>
       <c r="H865" s="10" t="s">
@@ -36377,7 +36416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="866" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A866" s="12">
         <v>292</v>
       </c>
@@ -36396,7 +36435,7 @@
       <c r="F866" s="11">
         <v>2</v>
       </c>
-      <c r="G866" s="10">
+      <c r="G866" s="66">
         <v>53</v>
       </c>
       <c r="H866" s="10" t="s">
@@ -36415,7 +36454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="867" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A867" s="12">
         <v>292</v>
       </c>
@@ -36434,7 +36473,7 @@
       <c r="F867" s="11">
         <v>2</v>
       </c>
-      <c r="G867" s="10">
+      <c r="G867" s="66">
         <v>54</v>
       </c>
       <c r="H867" s="10" t="s">
@@ -36453,7 +36492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="868" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A868" s="12">
         <v>292</v>
       </c>
@@ -36472,7 +36511,7 @@
       <c r="F868" s="11">
         <v>2</v>
       </c>
-      <c r="G868" s="10">
+      <c r="G868" s="66">
         <v>55</v>
       </c>
       <c r="H868" s="10" t="s">
@@ -36491,7 +36530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="869" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A869" s="12">
         <v>292</v>
       </c>
@@ -36510,7 +36549,7 @@
       <c r="F869" s="11">
         <v>2</v>
       </c>
-      <c r="G869" s="10">
+      <c r="G869" s="66">
         <v>56</v>
       </c>
       <c r="H869" s="10" t="s">
@@ -36529,7 +36568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="870" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A870" s="12">
         <v>292</v>
       </c>
@@ -36548,7 +36587,7 @@
       <c r="F870" s="11">
         <v>2</v>
       </c>
-      <c r="G870" s="10">
+      <c r="G870" s="66">
         <v>57</v>
       </c>
       <c r="H870" s="10" t="s">
@@ -36567,7 +36606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="871" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A871" s="12">
         <v>292</v>
       </c>
@@ -36586,7 +36625,7 @@
       <c r="F871" s="11">
         <v>2</v>
       </c>
-      <c r="G871" s="10">
+      <c r="G871" s="66">
         <v>58</v>
       </c>
       <c r="H871" s="16" t="s">
@@ -36605,7 +36644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="872" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A872" s="12">
         <v>292</v>
       </c>
@@ -36624,7 +36663,7 @@
       <c r="F872" s="11">
         <v>2</v>
       </c>
-      <c r="G872" s="10">
+      <c r="G872" s="66">
         <v>59</v>
       </c>
       <c r="H872" s="10" t="s">
@@ -36643,7 +36682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="873" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A873" s="12">
         <v>292</v>
       </c>
@@ -36662,7 +36701,7 @@
       <c r="F873" s="11">
         <v>2</v>
       </c>
-      <c r="G873" s="10">
+      <c r="G873" s="66">
         <v>60</v>
       </c>
       <c r="H873" s="10" t="s">
@@ -36681,7 +36720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="874" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A874" s="12">
         <v>292</v>
       </c>
@@ -36700,7 +36739,7 @@
       <c r="F874" s="11">
         <v>2</v>
       </c>
-      <c r="G874" s="10">
+      <c r="G874" s="66">
         <v>61</v>
       </c>
       <c r="H874" s="10" t="s">
@@ -36719,7 +36758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="875" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A875" s="12">
         <v>292</v>
       </c>
@@ -36738,7 +36777,7 @@
       <c r="F875" s="11">
         <v>2</v>
       </c>
-      <c r="G875" s="10">
+      <c r="G875" s="66">
         <v>62</v>
       </c>
       <c r="H875" s="10" t="s">
@@ -36757,7 +36796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="876" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A876" s="12">
         <v>292</v>
       </c>
@@ -36776,7 +36815,7 @@
       <c r="F876" s="11">
         <v>2</v>
       </c>
-      <c r="G876" s="10">
+      <c r="G876" s="66">
         <v>63</v>
       </c>
       <c r="H876" s="10" t="s">
@@ -36795,7 +36834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="877" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A877" s="12">
         <v>292</v>
       </c>
@@ -36814,7 +36853,7 @@
       <c r="F877" s="11">
         <v>2</v>
       </c>
-      <c r="G877" s="10">
+      <c r="G877" s="66">
         <v>64</v>
       </c>
       <c r="H877" s="10" t="s">
@@ -36833,7 +36872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="878" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A878" s="12">
         <v>292</v>
       </c>
@@ -36852,7 +36891,7 @@
       <c r="F878" s="11">
         <v>2</v>
       </c>
-      <c r="G878" s="10">
+      <c r="G878" s="66">
         <v>65</v>
       </c>
       <c r="H878" s="10" t="s">
@@ -36871,7 +36910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="879" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A879" s="12">
         <v>292</v>
       </c>
@@ -36890,7 +36929,7 @@
       <c r="F879" s="11">
         <v>2</v>
       </c>
-      <c r="G879" s="10">
+      <c r="G879" s="66">
         <v>66</v>
       </c>
       <c r="H879" s="10" t="s">
@@ -36909,7 +36948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="880" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A880" s="12">
         <v>292</v>
       </c>
@@ -36928,7 +36967,7 @@
       <c r="F880" s="11">
         <v>2</v>
       </c>
-      <c r="G880" s="10">
+      <c r="G880" s="66">
         <v>67</v>
       </c>
       <c r="H880" s="10" t="s">
@@ -36947,7 +36986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="881" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A881" s="12">
         <v>292</v>
       </c>
@@ -36966,7 +37005,7 @@
       <c r="F881" s="11">
         <v>2</v>
       </c>
-      <c r="G881" s="10">
+      <c r="G881" s="66">
         <v>68</v>
       </c>
       <c r="H881" s="10" t="s">
@@ -36985,7 +37024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="882" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A882" s="12">
         <v>292</v>
       </c>
@@ -37004,7 +37043,7 @@
       <c r="F882" s="11">
         <v>2</v>
       </c>
-      <c r="G882" s="10">
+      <c r="G882" s="66">
         <v>69</v>
       </c>
       <c r="H882" s="10" t="s">
@@ -37023,7 +37062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="883" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A883" s="12">
         <v>292</v>
       </c>
@@ -37042,7 +37081,7 @@
       <c r="F883" s="11">
         <v>2</v>
       </c>
-      <c r="G883" s="10">
+      <c r="G883" s="66">
         <v>70</v>
       </c>
       <c r="H883" s="10" t="s">
@@ -37061,7 +37100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="884" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A884" s="12">
         <v>292</v>
       </c>
@@ -37080,7 +37119,7 @@
       <c r="F884" s="11">
         <v>2</v>
       </c>
-      <c r="G884" s="10">
+      <c r="G884" s="66">
         <v>71</v>
       </c>
       <c r="H884" s="10" t="s">
@@ -37099,7 +37138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="885" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A885" s="12">
         <v>292</v>
       </c>
@@ -37118,7 +37157,7 @@
       <c r="F885" s="11">
         <v>2</v>
       </c>
-      <c r="G885" s="10">
+      <c r="G885" s="66">
         <v>72</v>
       </c>
       <c r="H885" s="10" t="s">
@@ -37137,7 +37176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="886" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A886" s="12">
         <v>292</v>
       </c>
@@ -37156,7 +37195,7 @@
       <c r="F886" s="11">
         <v>2</v>
       </c>
-      <c r="G886" s="10">
+      <c r="G886" s="66">
         <v>73</v>
       </c>
       <c r="H886" s="10" t="s">
@@ -37175,7 +37214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="887" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A887" s="12">
         <v>292</v>
       </c>
@@ -37194,7 +37233,7 @@
       <c r="F887" s="11">
         <v>3</v>
       </c>
-      <c r="G887" s="10">
+      <c r="G887" s="66">
         <v>101</v>
       </c>
       <c r="H887" s="10" t="s">
@@ -37213,7 +37252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="888" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A888" s="12">
         <v>292</v>
       </c>
@@ -37232,7 +37271,7 @@
       <c r="F888" s="11">
         <v>3</v>
       </c>
-      <c r="G888" s="10">
+      <c r="G888" s="66">
         <v>102</v>
       </c>
       <c r="H888" s="10" t="s">
@@ -37251,7 +37290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="889" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A889" s="12">
         <v>292</v>
       </c>
@@ -37270,7 +37309,7 @@
       <c r="F889" s="11">
         <v>3</v>
       </c>
-      <c r="G889" s="10">
+      <c r="G889" s="66">
         <v>103</v>
       </c>
       <c r="H889" s="10" t="s">
@@ -37289,7 +37328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="890" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A890" s="12">
         <v>292</v>
       </c>
@@ -37308,7 +37347,7 @@
       <c r="F890" s="11">
         <v>3</v>
       </c>
-      <c r="G890" s="10">
+      <c r="G890" s="66">
         <v>104</v>
       </c>
       <c r="H890" s="10" t="s">
@@ -37327,7 +37366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="891" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A891" s="12">
         <v>292</v>
       </c>
@@ -37346,7 +37385,7 @@
       <c r="F891" s="11">
         <v>3</v>
       </c>
-      <c r="G891" s="10">
+      <c r="G891" s="66">
         <v>105</v>
       </c>
       <c r="H891" s="16" t="s">
@@ -37365,7 +37404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="892" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A892" s="12">
         <v>292</v>
       </c>
@@ -37384,7 +37423,7 @@
       <c r="F892" s="11">
         <v>3</v>
       </c>
-      <c r="G892" s="10">
+      <c r="G892" s="66">
         <v>106</v>
       </c>
       <c r="H892" s="10" t="s">
@@ -37403,7 +37442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="893" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A893" s="12">
         <v>292</v>
       </c>
@@ -37422,7 +37461,7 @@
       <c r="F893" s="11">
         <v>3</v>
       </c>
-      <c r="G893" s="10">
+      <c r="G893" s="66">
         <v>107</v>
       </c>
       <c r="H893" s="10" t="s">
@@ -37445,7 +37484,7 @@
       <c r="A894" s="12">
         <v>292</v>
       </c>
-      <c r="G894" s="11" t="s">
+      <c r="G894" s="66" t="s">
         <v>330</v>
       </c>
       <c r="J894" s="14">
@@ -39121,7 +39160,7 @@
       <c r="F952" s="11">
         <v>2</v>
       </c>
-      <c r="G952" s="11">
+      <c r="G952" s="66">
         <v>51</v>
       </c>
       <c r="H952" s="11" t="s">
@@ -39162,7 +39201,7 @@
       <c r="F953" s="11">
         <v>2</v>
       </c>
-      <c r="G953" s="11">
+      <c r="G953" s="66">
         <v>81</v>
       </c>
       <c r="H953" s="11" t="s">
@@ -39203,7 +39242,7 @@
       <c r="F954" s="11">
         <v>2</v>
       </c>
-      <c r="G954" s="11">
+      <c r="G954" s="66">
         <v>77</v>
       </c>
       <c r="H954" s="11" t="s">
@@ -39244,7 +39283,7 @@
       <c r="F955" s="11">
         <v>2</v>
       </c>
-      <c r="G955" s="11">
+      <c r="G955" s="66">
         <v>73</v>
       </c>
       <c r="H955" s="11" t="s">
@@ -39285,7 +39324,7 @@
       <c r="F956" s="11">
         <v>2</v>
       </c>
-      <c r="G956" s="11">
+      <c r="G956" s="66">
         <v>86</v>
       </c>
       <c r="H956" s="11" t="s">
@@ -39326,7 +39365,7 @@
       <c r="F957" s="11">
         <v>2</v>
       </c>
-      <c r="G957" s="11">
+      <c r="G957" s="66">
         <v>85</v>
       </c>
       <c r="H957" s="11" t="s">
@@ -39367,7 +39406,7 @@
       <c r="F958" s="11">
         <v>2</v>
       </c>
-      <c r="G958" s="11">
+      <c r="G958" s="66">
         <v>70</v>
       </c>
       <c r="H958" s="11" t="s">
@@ -39408,7 +39447,7 @@
       <c r="F959" s="11">
         <v>2</v>
       </c>
-      <c r="G959" s="11">
+      <c r="G959" s="66">
         <v>53</v>
       </c>
       <c r="H959" s="11" t="s">
@@ -39449,7 +39488,7 @@
       <c r="F960" s="11">
         <v>2</v>
       </c>
-      <c r="G960" s="11">
+      <c r="G960" s="66">
         <v>52</v>
       </c>
       <c r="H960" s="11" t="s">
@@ -39490,7 +39529,7 @@
       <c r="F961" s="11">
         <v>2</v>
       </c>
-      <c r="G961" s="11">
+      <c r="G961" s="66">
         <v>84</v>
       </c>
       <c r="H961" s="11" t="s">
@@ -39531,7 +39570,7 @@
       <c r="F962" s="11">
         <v>2</v>
       </c>
-      <c r="G962" s="11">
+      <c r="G962" s="66">
         <v>79</v>
       </c>
       <c r="H962" s="11" t="s">
@@ -39572,7 +39611,7 @@
       <c r="F963" s="11">
         <v>2</v>
       </c>
-      <c r="G963" s="11">
+      <c r="G963" s="66">
         <v>54</v>
       </c>
       <c r="H963" s="11" t="s">
@@ -39613,7 +39652,7 @@
       <c r="F964" s="11">
         <v>2</v>
       </c>
-      <c r="G964" s="11">
+      <c r="G964" s="66">
         <v>71</v>
       </c>
       <c r="H964" s="26" t="s">
@@ -39654,7 +39693,7 @@
       <c r="F965" s="11">
         <v>2</v>
       </c>
-      <c r="G965" s="11">
+      <c r="G965" s="66">
         <v>72</v>
       </c>
       <c r="H965" s="11" t="s">
@@ -39695,7 +39734,7 @@
       <c r="F966" s="11">
         <v>2</v>
       </c>
-      <c r="G966" s="11">
+      <c r="G966" s="66">
         <v>78</v>
       </c>
       <c r="H966" s="11" t="s">
@@ -39736,7 +39775,7 @@
       <c r="F967" s="11">
         <v>2</v>
       </c>
-      <c r="G967" s="11">
+      <c r="G967" s="66">
         <v>75</v>
       </c>
       <c r="H967" s="11" t="s">
@@ -39777,7 +39816,7 @@
       <c r="F968" s="11">
         <v>2</v>
       </c>
-      <c r="G968" s="11">
+      <c r="G968" s="66">
         <v>80</v>
       </c>
       <c r="H968" s="11" t="s">
@@ -39818,7 +39857,7 @@
       <c r="F969" s="11">
         <v>2</v>
       </c>
-      <c r="G969" s="11">
+      <c r="G969" s="66">
         <v>76</v>
       </c>
       <c r="H969" s="11" t="s">
@@ -39859,7 +39898,7 @@
       <c r="F970" s="11">
         <v>2</v>
       </c>
-      <c r="G970" s="11">
+      <c r="G970" s="66">
         <v>74</v>
       </c>
       <c r="H970" s="11" t="s">
@@ -39900,7 +39939,7 @@
       <c r="F971" s="11">
         <v>2</v>
       </c>
-      <c r="G971" s="11">
+      <c r="G971" s="66">
         <v>83</v>
       </c>
       <c r="H971" s="11" t="s">
@@ -39941,7 +39980,7 @@
       <c r="F972" s="11">
         <v>2</v>
       </c>
-      <c r="G972" s="11">
+      <c r="G972" s="66">
         <v>82</v>
       </c>
       <c r="H972" s="11" t="s">
@@ -40108,20 +40147,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="978" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A978" s="12">
         <v>292</v>
+      </c>
+      <c r="B978" s="11">
+        <v>19</v>
       </c>
       <c r="C978" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D978" s="7">
+      <c r="D978" s="72">
         <v>40005724</v>
       </c>
-      <c r="E978" s="12" t="s">
+      <c r="E978" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="H978" s="11" t="s">
+      <c r="F978" s="74">
+        <v>3</v>
+      </c>
+      <c r="G978" s="75">
+        <v>108</v>
+      </c>
+      <c r="H978" s="10" t="s">
         <v>335</v>
       </c>
       <c r="J978" s="14">
@@ -40450,9 +40498,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M987">
-    <filterColumn colId="4">
+    <filterColumn colId="1">
       <filters>
-        <filter val="BTR"/>
+        <filter val="19"/>
       </filters>
     </filterColumn>
     <sortState ref="A709:M750">
@@ -40472,7 +40520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -40485,13 +40533,13 @@
       <c r="B1" t="s">
         <v>522</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="56" t="s">
         <v>523</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -40500,11 +40548,11 @@
       <c r="B2">
         <v>43</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -40513,32 +40561,32 @@
       <c r="B3">
         <v>50</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -41362,72 +41410,72 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="56" t="s">
         <v>477</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/宜科电子/大庆沃尔沃总装物流PTL项目/大庆沃尔沃PTL项目信息汇总.xlsx
+++ b/宜科电子/大庆沃尔沃总装物流PTL项目/大庆沃尔沃PTL项目信息汇总.xlsx
@@ -2165,36 +2165,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2233,6 +2203,36 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2613,7 +2613,7 @@
   <dimension ref="A1:M1015"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A887" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H892" sqref="H892"/>
+      <selection activeCell="E991" sqref="E991"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2624,7 @@
     <col min="4" max="4" width="16.08984375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" style="12" customWidth="1"/>
     <col min="6" max="6" width="10.90625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="66" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="56" customWidth="1"/>
     <col min="8" max="8" width="10.1796875" style="11" customWidth="1"/>
     <col min="9" max="9" width="14.08984375" style="10" customWidth="1"/>
     <col min="10" max="10" width="11.7265625" style="15" customWidth="1"/>
@@ -2653,7 +2653,7 @@
       <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="61" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -2694,7 +2694,7 @@
       <c r="F2" s="11">
         <v>1</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="58">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -2732,7 +2732,7 @@
       <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="58">
         <v>2</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -2770,7 +2770,7 @@
       <c r="F4" s="11">
         <v>1</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="58">
         <v>3</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -2808,7 +2808,7 @@
       <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="58">
         <v>4</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -2846,7 +2846,7 @@
       <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="58">
         <v>5</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -2884,7 +2884,7 @@
       <c r="F7" s="11">
         <v>1</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="58">
         <v>6</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -2922,7 +2922,7 @@
       <c r="F8" s="11">
         <v>1</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="58">
         <v>7</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -2960,7 +2960,7 @@
       <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="58">
         <v>8</v>
       </c>
       <c r="H9" s="10" t="s">
@@ -2998,7 +2998,7 @@
       <c r="F10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="58">
         <v>9</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -3036,7 +3036,7 @@
       <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="58">
         <v>10</v>
       </c>
       <c r="H11" s="10" t="s">
@@ -3074,7 +3074,7 @@
       <c r="F12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="58">
         <v>11</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -3112,7 +3112,7 @@
       <c r="F13" s="11">
         <v>1</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="58">
         <v>12</v>
       </c>
       <c r="H13" s="10" t="s">
@@ -3150,7 +3150,7 @@
       <c r="F14" s="11">
         <v>1</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="58">
         <v>13</v>
       </c>
       <c r="H14" s="10" t="s">
@@ -3188,7 +3188,7 @@
       <c r="F15" s="11">
         <v>1</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="58">
         <v>14</v>
       </c>
       <c r="H15" s="10" t="s">
@@ -3226,7 +3226,7 @@
       <c r="F16" s="11">
         <v>1</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="58">
         <v>15</v>
       </c>
       <c r="H16" s="10" t="s">
@@ -3264,7 +3264,7 @@
       <c r="F17" s="11">
         <v>1</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="58">
         <v>16</v>
       </c>
       <c r="H17" s="10" t="s">
@@ -3302,7 +3302,7 @@
       <c r="F18" s="11">
         <v>1</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="58">
         <v>17</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -3340,7 +3340,7 @@
       <c r="F19" s="11">
         <v>1</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="58">
         <v>18</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -3378,7 +3378,7 @@
       <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="58">
         <v>19</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -3416,7 +3416,7 @@
       <c r="F21" s="11">
         <v>1</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="58">
         <v>20</v>
       </c>
       <c r="H21" s="10" t="s">
@@ -3454,7 +3454,7 @@
       <c r="F22" s="11">
         <v>1</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="58">
         <v>21</v>
       </c>
       <c r="H22" s="10" t="s">
@@ -3492,7 +3492,7 @@
       <c r="F23" s="11">
         <v>1</v>
       </c>
-      <c r="G23" s="68">
+      <c r="G23" s="58">
         <v>22</v>
       </c>
       <c r="H23" s="10" t="s">
@@ -3530,7 +3530,7 @@
       <c r="F24" s="11">
         <v>1</v>
       </c>
-      <c r="G24" s="68">
+      <c r="G24" s="58">
         <v>23</v>
       </c>
       <c r="H24" s="10" t="s">
@@ -3568,7 +3568,7 @@
       <c r="F25" s="11">
         <v>1</v>
       </c>
-      <c r="G25" s="68">
+      <c r="G25" s="58">
         <v>24</v>
       </c>
       <c r="H25" s="16" t="s">
@@ -3606,7 +3606,7 @@
       <c r="F26" s="11">
         <v>1</v>
       </c>
-      <c r="G26" s="68">
+      <c r="G26" s="58">
         <v>25</v>
       </c>
       <c r="H26" s="10" t="s">
@@ -3644,7 +3644,7 @@
       <c r="F27" s="11">
         <v>1</v>
       </c>
-      <c r="G27" s="68">
+      <c r="G27" s="58">
         <v>26</v>
       </c>
       <c r="H27" s="10" t="s">
@@ -3682,7 +3682,7 @@
       <c r="F28" s="11">
         <v>1</v>
       </c>
-      <c r="G28" s="68">
+      <c r="G28" s="58">
         <v>27</v>
       </c>
       <c r="H28" s="16" t="s">
@@ -3720,7 +3720,7 @@
       <c r="F29" s="11">
         <v>1</v>
       </c>
-      <c r="G29" s="68">
+      <c r="G29" s="58">
         <v>28</v>
       </c>
       <c r="H29" s="10" t="s">
@@ -3758,7 +3758,7 @@
       <c r="F30" s="11">
         <v>1</v>
       </c>
-      <c r="G30" s="68">
+      <c r="G30" s="58">
         <v>29</v>
       </c>
       <c r="H30" s="10" t="s">
@@ -3796,7 +3796,7 @@
       <c r="F31" s="11">
         <v>2</v>
       </c>
-      <c r="G31" s="68">
+      <c r="G31" s="58">
         <v>51</v>
       </c>
       <c r="H31" s="16" t="s">
@@ -3834,7 +3834,7 @@
       <c r="F32" s="11">
         <v>2</v>
       </c>
-      <c r="G32" s="68">
+      <c r="G32" s="58">
         <v>52</v>
       </c>
       <c r="H32" s="10" t="s">
@@ -3872,7 +3872,7 @@
       <c r="F33" s="11">
         <v>2</v>
       </c>
-      <c r="G33" s="68">
+      <c r="G33" s="58">
         <v>53</v>
       </c>
       <c r="H33" s="10" t="s">
@@ -3910,7 +3910,7 @@
       <c r="F34" s="11">
         <v>2</v>
       </c>
-      <c r="G34" s="68">
+      <c r="G34" s="58">
         <v>54</v>
       </c>
       <c r="H34" s="10" t="s">
@@ -3948,7 +3948,7 @@
       <c r="F35" s="11">
         <v>2</v>
       </c>
-      <c r="G35" s="68">
+      <c r="G35" s="58">
         <v>55</v>
       </c>
       <c r="H35" s="10" t="s">
@@ -3986,7 +3986,7 @@
       <c r="F36" s="11">
         <v>2</v>
       </c>
-      <c r="G36" s="68">
+      <c r="G36" s="58">
         <v>56</v>
       </c>
       <c r="H36" s="10" t="s">
@@ -4024,7 +4024,7 @@
       <c r="F37" s="11">
         <v>2</v>
       </c>
-      <c r="G37" s="68">
+      <c r="G37" s="58">
         <v>57</v>
       </c>
       <c r="H37" s="10" t="s">
@@ -4062,7 +4062,7 @@
       <c r="F38" s="11">
         <v>2</v>
       </c>
-      <c r="G38" s="68">
+      <c r="G38" s="58">
         <v>58</v>
       </c>
       <c r="H38" s="10" t="s">
@@ -4100,7 +4100,7 @@
       <c r="F39" s="11">
         <v>2</v>
       </c>
-      <c r="G39" s="68">
+      <c r="G39" s="58">
         <v>59</v>
       </c>
       <c r="H39" s="10" t="s">
@@ -4138,7 +4138,7 @@
       <c r="F40" s="11">
         <v>2</v>
       </c>
-      <c r="G40" s="68">
+      <c r="G40" s="58">
         <v>60</v>
       </c>
       <c r="H40" s="10" t="s">
@@ -4176,7 +4176,7 @@
       <c r="F41" s="11">
         <v>2</v>
       </c>
-      <c r="G41" s="68">
+      <c r="G41" s="58">
         <v>61</v>
       </c>
       <c r="H41" s="10" t="s">
@@ -4214,7 +4214,7 @@
       <c r="F42" s="11">
         <v>2</v>
       </c>
-      <c r="G42" s="68">
+      <c r="G42" s="58">
         <v>62</v>
       </c>
       <c r="H42" s="10" t="s">
@@ -4252,7 +4252,7 @@
       <c r="F43" s="11">
         <v>2</v>
       </c>
-      <c r="G43" s="68">
+      <c r="G43" s="58">
         <v>63</v>
       </c>
       <c r="H43" s="10" t="s">
@@ -4290,7 +4290,7 @@
       <c r="F44" s="11">
         <v>2</v>
       </c>
-      <c r="G44" s="68">
+      <c r="G44" s="58">
         <v>64</v>
       </c>
       <c r="H44" s="10" t="s">
@@ -4328,7 +4328,7 @@
       <c r="F45" s="11">
         <v>2</v>
       </c>
-      <c r="G45" s="68">
+      <c r="G45" s="58">
         <v>65</v>
       </c>
       <c r="H45" s="10" t="s">
@@ -4366,7 +4366,7 @@
       <c r="F46" s="11">
         <v>2</v>
       </c>
-      <c r="G46" s="68">
+      <c r="G46" s="58">
         <v>66</v>
       </c>
       <c r="H46" s="10" t="s">
@@ -4404,7 +4404,7 @@
       <c r="F47" s="11">
         <v>2</v>
       </c>
-      <c r="G47" s="68">
+      <c r="G47" s="58">
         <v>67</v>
       </c>
       <c r="H47" s="10" t="s">
@@ -4442,7 +4442,7 @@
       <c r="F48" s="11">
         <v>2</v>
       </c>
-      <c r="G48" s="68">
+      <c r="G48" s="58">
         <v>68</v>
       </c>
       <c r="H48" s="10" t="s">
@@ -4480,7 +4480,7 @@
       <c r="F49" s="11">
         <v>2</v>
       </c>
-      <c r="G49" s="68">
+      <c r="G49" s="58">
         <v>69</v>
       </c>
       <c r="H49" s="10" t="s">
@@ -4518,7 +4518,7 @@
       <c r="F50" s="11">
         <v>2</v>
       </c>
-      <c r="G50" s="68">
+      <c r="G50" s="58">
         <v>70</v>
       </c>
       <c r="H50" s="10" t="s">
@@ -4556,7 +4556,7 @@
       <c r="F51" s="11">
         <v>2</v>
       </c>
-      <c r="G51" s="68">
+      <c r="G51" s="58">
         <v>71</v>
       </c>
       <c r="H51" s="10" t="s">
@@ -4594,7 +4594,7 @@
       <c r="F52" s="11">
         <v>2</v>
       </c>
-      <c r="G52" s="68">
+      <c r="G52" s="58">
         <v>72</v>
       </c>
       <c r="H52" s="10" t="s">
@@ -4632,7 +4632,7 @@
       <c r="F53" s="11">
         <v>2</v>
       </c>
-      <c r="G53" s="68">
+      <c r="G53" s="58">
         <v>73</v>
       </c>
       <c r="H53" s="10" t="s">
@@ -4670,7 +4670,7 @@
       <c r="F54" s="11">
         <v>2</v>
       </c>
-      <c r="G54" s="68">
+      <c r="G54" s="58">
         <v>74</v>
       </c>
       <c r="H54" s="10" t="s">
@@ -4708,7 +4708,7 @@
       <c r="F55" s="11">
         <v>2</v>
       </c>
-      <c r="G55" s="68">
+      <c r="G55" s="58">
         <v>75</v>
       </c>
       <c r="H55" s="10" t="s">
@@ -4746,7 +4746,7 @@
       <c r="F56" s="11">
         <v>2</v>
       </c>
-      <c r="G56" s="68">
+      <c r="G56" s="58">
         <v>76</v>
       </c>
       <c r="H56" s="10" t="s">
@@ -4784,7 +4784,7 @@
       <c r="F57" s="11">
         <v>2</v>
       </c>
-      <c r="G57" s="68">
+      <c r="G57" s="58">
         <v>77</v>
       </c>
       <c r="H57" s="10" t="s">
@@ -4822,7 +4822,7 @@
       <c r="F58" s="11">
         <v>2</v>
       </c>
-      <c r="G58" s="68">
+      <c r="G58" s="58">
         <v>78</v>
       </c>
       <c r="H58" s="10" t="s">
@@ -4860,7 +4860,7 @@
       <c r="F59" s="11">
         <v>2</v>
       </c>
-      <c r="G59" s="68">
+      <c r="G59" s="58">
         <v>79</v>
       </c>
       <c r="H59" s="10" t="s">
@@ -4898,7 +4898,7 @@
       <c r="F60" s="11">
         <v>2</v>
       </c>
-      <c r="G60" s="68">
+      <c r="G60" s="58">
         <v>80</v>
       </c>
       <c r="H60" s="10" t="s">
@@ -4936,7 +4936,7 @@
       <c r="F61" s="11">
         <v>2</v>
       </c>
-      <c r="G61" s="68">
+      <c r="G61" s="58">
         <v>81</v>
       </c>
       <c r="H61" s="10" t="s">
@@ -4974,7 +4974,7 @@
       <c r="F62" s="11">
         <v>2</v>
       </c>
-      <c r="G62" s="68">
+      <c r="G62" s="58">
         <v>82</v>
       </c>
       <c r="H62" s="10" t="s">
@@ -5012,7 +5012,7 @@
       <c r="F63" s="11">
         <v>2</v>
       </c>
-      <c r="G63" s="68">
+      <c r="G63" s="58">
         <v>83</v>
       </c>
       <c r="H63" s="10" t="s">
@@ -5050,7 +5050,7 @@
       <c r="F64" s="11">
         <v>2</v>
       </c>
-      <c r="G64" s="68">
+      <c r="G64" s="58">
         <v>84</v>
       </c>
       <c r="H64" s="10" t="s">
@@ -5088,7 +5088,7 @@
       <c r="F65" s="11">
         <v>2</v>
       </c>
-      <c r="G65" s="68">
+      <c r="G65" s="58">
         <v>85</v>
       </c>
       <c r="H65" s="10" t="s">
@@ -5126,7 +5126,7 @@
       <c r="F66" s="11">
         <v>2</v>
       </c>
-      <c r="G66" s="68">
+      <c r="G66" s="58">
         <v>86</v>
       </c>
       <c r="H66" s="10" t="s">
@@ -5164,7 +5164,7 @@
       <c r="F67" s="11">
         <v>2</v>
       </c>
-      <c r="G67" s="68">
+      <c r="G67" s="58">
         <v>87</v>
       </c>
       <c r="H67" s="10" t="s">
@@ -5202,7 +5202,7 @@
       <c r="F68" s="11">
         <v>3</v>
       </c>
-      <c r="G68" s="66">
+      <c r="G68" s="56">
         <v>101</v>
       </c>
       <c r="H68" s="10" t="s">
@@ -5240,7 +5240,7 @@
       <c r="F69" s="11">
         <v>3</v>
       </c>
-      <c r="G69" s="66">
+      <c r="G69" s="56">
         <v>102</v>
       </c>
       <c r="H69" s="10" t="s">
@@ -5278,7 +5278,7 @@
       <c r="F70" s="11">
         <v>3</v>
       </c>
-      <c r="G70" s="66">
+      <c r="G70" s="56">
         <v>103</v>
       </c>
       <c r="H70" s="10" t="s">
@@ -5316,7 +5316,7 @@
       <c r="F71" s="11">
         <v>3</v>
       </c>
-      <c r="G71" s="66">
+      <c r="G71" s="56">
         <v>104</v>
       </c>
       <c r="H71" s="10" t="s">
@@ -5354,7 +5354,7 @@
       <c r="F72" s="11">
         <v>3</v>
       </c>
-      <c r="G72" s="66">
+      <c r="G72" s="56">
         <v>105</v>
       </c>
       <c r="H72" s="10" t="s">
@@ -5392,7 +5392,7 @@
       <c r="F73" s="11">
         <v>3</v>
       </c>
-      <c r="G73" s="66">
+      <c r="G73" s="56">
         <v>106</v>
       </c>
       <c r="H73" s="10" t="s">
@@ -5430,7 +5430,7 @@
       <c r="F74" s="11">
         <v>3</v>
       </c>
-      <c r="G74" s="66">
+      <c r="G74" s="56">
         <v>107</v>
       </c>
       <c r="H74" s="10" t="s">
@@ -5468,7 +5468,7 @@
       <c r="F75" s="11">
         <v>3</v>
       </c>
-      <c r="G75" s="66">
+      <c r="G75" s="56">
         <v>108</v>
       </c>
       <c r="H75" s="10" t="s">
@@ -5506,7 +5506,7 @@
       <c r="F76" s="11">
         <v>3</v>
       </c>
-      <c r="G76" s="66">
+      <c r="G76" s="56">
         <v>109</v>
       </c>
       <c r="H76" s="10" t="s">
@@ -5544,7 +5544,7 @@
       <c r="F77" s="11">
         <v>3</v>
       </c>
-      <c r="G77" s="66">
+      <c r="G77" s="56">
         <v>110</v>
       </c>
       <c r="H77" s="10" t="s">
@@ -5582,7 +5582,7 @@
       <c r="F78" s="11">
         <v>3</v>
       </c>
-      <c r="G78" s="66">
+      <c r="G78" s="56">
         <v>111</v>
       </c>
       <c r="H78" s="10" t="s">
@@ -5620,7 +5620,7 @@
       <c r="F79" s="11">
         <v>3</v>
       </c>
-      <c r="G79" s="66">
+      <c r="G79" s="56">
         <v>112</v>
       </c>
       <c r="H79" s="10" t="s">
@@ -5658,7 +5658,7 @@
       <c r="F80" s="11">
         <v>3</v>
       </c>
-      <c r="G80" s="66">
+      <c r="G80" s="56">
         <v>113</v>
       </c>
       <c r="H80" s="10" t="s">
@@ -5696,7 +5696,7 @@
       <c r="F81" s="11">
         <v>3</v>
       </c>
-      <c r="G81" s="66">
+      <c r="G81" s="56">
         <v>114</v>
       </c>
       <c r="H81" s="10" t="s">
@@ -5734,7 +5734,7 @@
       <c r="F82" s="11">
         <v>3</v>
       </c>
-      <c r="G82" s="66">
+      <c r="G82" s="56">
         <v>115</v>
       </c>
       <c r="H82" s="10" t="s">
@@ -5772,7 +5772,7 @@
       <c r="F83" s="11">
         <v>3</v>
       </c>
-      <c r="G83" s="66">
+      <c r="G83" s="56">
         <v>116</v>
       </c>
       <c r="H83" s="10" t="s">
@@ -5810,7 +5810,7 @@
       <c r="F84" s="11">
         <v>3</v>
       </c>
-      <c r="G84" s="66">
+      <c r="G84" s="56">
         <v>117</v>
       </c>
       <c r="H84" s="10" t="s">
@@ -5848,7 +5848,7 @@
       <c r="F85" s="11">
         <v>3</v>
       </c>
-      <c r="G85" s="66">
+      <c r="G85" s="56">
         <v>118</v>
       </c>
       <c r="H85" s="10" t="s">
@@ -5886,7 +5886,7 @@
       <c r="F86" s="11">
         <v>3</v>
       </c>
-      <c r="G86" s="66">
+      <c r="G86" s="56">
         <v>119</v>
       </c>
       <c r="H86" s="10" t="s">
@@ -5924,7 +5924,7 @@
       <c r="F87" s="11">
         <v>3</v>
       </c>
-      <c r="G87" s="66">
+      <c r="G87" s="56">
         <v>120</v>
       </c>
       <c r="H87" s="16" t="s">
@@ -5962,7 +5962,7 @@
       <c r="F88" s="11">
         <v>4</v>
       </c>
-      <c r="G88" s="66">
+      <c r="G88" s="56">
         <v>151</v>
       </c>
       <c r="H88" s="10" t="s">
@@ -6000,7 +6000,7 @@
       <c r="F89" s="11">
         <v>4</v>
       </c>
-      <c r="G89" s="66">
+      <c r="G89" s="56">
         <v>152</v>
       </c>
       <c r="H89" s="10" t="s">
@@ -6038,7 +6038,7 @@
       <c r="F90" s="11">
         <v>4</v>
       </c>
-      <c r="G90" s="66">
+      <c r="G90" s="56">
         <v>153</v>
       </c>
       <c r="H90" s="10" t="s">
@@ -6076,7 +6076,7 @@
       <c r="F91" s="11">
         <v>4</v>
       </c>
-      <c r="G91" s="66">
+      <c r="G91" s="56">
         <v>154</v>
       </c>
       <c r="H91" s="10" t="s">
@@ -6114,7 +6114,7 @@
       <c r="F92" s="11">
         <v>1</v>
       </c>
-      <c r="G92" s="66">
+      <c r="G92" s="56">
         <v>1</v>
       </c>
       <c r="H92" s="16" t="s">
@@ -6152,7 +6152,7 @@
       <c r="F93" s="11">
         <v>1</v>
       </c>
-      <c r="G93" s="66">
+      <c r="G93" s="56">
         <v>2</v>
       </c>
       <c r="H93" s="10" t="s">
@@ -6190,7 +6190,7 @@
       <c r="F94" s="11">
         <v>1</v>
       </c>
-      <c r="G94" s="66">
+      <c r="G94" s="56">
         <v>3</v>
       </c>
       <c r="H94" s="10" t="s">
@@ -6228,7 +6228,7 @@
       <c r="F95" s="11">
         <v>1</v>
       </c>
-      <c r="G95" s="66">
+      <c r="G95" s="56">
         <v>4</v>
       </c>
       <c r="H95" s="10" t="s">
@@ -6266,7 +6266,7 @@
       <c r="F96" s="11">
         <v>1</v>
       </c>
-      <c r="G96" s="66">
+      <c r="G96" s="56">
         <v>5</v>
       </c>
       <c r="H96" s="10" t="s">
@@ -6304,7 +6304,7 @@
       <c r="F97" s="11">
         <v>2</v>
       </c>
-      <c r="G97" s="66">
+      <c r="G97" s="56">
         <v>51</v>
       </c>
       <c r="H97" s="10" t="s">
@@ -6342,7 +6342,7 @@
       <c r="F98" s="11">
         <v>2</v>
       </c>
-      <c r="G98" s="66">
+      <c r="G98" s="56">
         <v>52</v>
       </c>
       <c r="H98" s="10" t="s">
@@ -6380,7 +6380,7 @@
       <c r="F99" s="11">
         <v>2</v>
       </c>
-      <c r="G99" s="66">
+      <c r="G99" s="56">
         <v>53</v>
       </c>
       <c r="H99" s="10" t="s">
@@ -6418,7 +6418,7 @@
       <c r="F100" s="11">
         <v>2</v>
       </c>
-      <c r="G100" s="66">
+      <c r="G100" s="56">
         <v>54</v>
       </c>
       <c r="H100" s="10" t="s">
@@ -6456,7 +6456,7 @@
       <c r="F101" s="11">
         <v>2</v>
       </c>
-      <c r="G101" s="66">
+      <c r="G101" s="56">
         <v>55</v>
       </c>
       <c r="H101" s="10" t="s">
@@ -6494,7 +6494,7 @@
       <c r="F102" s="11">
         <v>2</v>
       </c>
-      <c r="G102" s="66">
+      <c r="G102" s="56">
         <v>56</v>
       </c>
       <c r="H102" s="16" t="s">
@@ -6532,7 +6532,7 @@
       <c r="F103" s="11">
         <v>2</v>
       </c>
-      <c r="G103" s="66">
+      <c r="G103" s="56">
         <v>57</v>
       </c>
       <c r="H103" s="10" t="s">
@@ -6570,7 +6570,7 @@
       <c r="F104" s="11">
         <v>2</v>
       </c>
-      <c r="G104" s="66">
+      <c r="G104" s="56">
         <v>58</v>
       </c>
       <c r="H104" s="10" t="s">
@@ -6608,7 +6608,7 @@
       <c r="F105" s="11">
         <v>2</v>
       </c>
-      <c r="G105" s="66">
+      <c r="G105" s="56">
         <v>59</v>
       </c>
       <c r="H105" s="10" t="s">
@@ -6646,7 +6646,7 @@
       <c r="F106" s="11">
         <v>2</v>
       </c>
-      <c r="G106" s="66">
+      <c r="G106" s="56">
         <v>60</v>
       </c>
       <c r="H106" s="10" t="s">
@@ -6684,7 +6684,7 @@
       <c r="F107" s="11">
         <v>2</v>
       </c>
-      <c r="G107" s="66">
+      <c r="G107" s="56">
         <v>61</v>
       </c>
       <c r="H107" s="16" t="s">
@@ -6722,7 +6722,7 @@
       <c r="F108" s="11">
         <v>2</v>
       </c>
-      <c r="G108" s="66">
+      <c r="G108" s="56">
         <v>62</v>
       </c>
       <c r="H108" s="10" t="s">
@@ -6760,7 +6760,7 @@
       <c r="F109" s="11">
         <v>2</v>
       </c>
-      <c r="G109" s="66">
+      <c r="G109" s="56">
         <v>63</v>
       </c>
       <c r="H109" s="16" t="s">
@@ -6798,7 +6798,7 @@
       <c r="F110" s="11">
         <v>2</v>
       </c>
-      <c r="G110" s="66">
+      <c r="G110" s="56">
         <v>64</v>
       </c>
       <c r="H110" s="10" t="s">
@@ -6836,7 +6836,7 @@
       <c r="F111" s="11">
         <v>3</v>
       </c>
-      <c r="G111" s="66">
+      <c r="G111" s="56">
         <v>101</v>
       </c>
       <c r="H111" s="10" t="s">
@@ -6874,7 +6874,7 @@
       <c r="F112" s="11">
         <v>3</v>
       </c>
-      <c r="G112" s="66">
+      <c r="G112" s="56">
         <v>102</v>
       </c>
       <c r="H112" s="10" t="s">
@@ -6912,7 +6912,7 @@
       <c r="F113" s="11">
         <v>3</v>
       </c>
-      <c r="G113" s="66">
+      <c r="G113" s="56">
         <v>103</v>
       </c>
       <c r="H113" s="10" t="s">
@@ -6950,7 +6950,7 @@
       <c r="F114" s="11">
         <v>3</v>
       </c>
-      <c r="G114" s="66">
+      <c r="G114" s="56">
         <v>104</v>
       </c>
       <c r="H114" s="16" t="s">
@@ -6988,7 +6988,7 @@
       <c r="F115" s="11">
         <v>3</v>
       </c>
-      <c r="G115" s="68">
+      <c r="G115" s="58">
         <v>105</v>
       </c>
       <c r="H115" s="10" t="s">
@@ -7026,7 +7026,7 @@
       <c r="F116" s="11">
         <v>3</v>
       </c>
-      <c r="G116" s="68">
+      <c r="G116" s="58">
         <v>106</v>
       </c>
       <c r="H116" s="10" t="s">
@@ -7064,7 +7064,7 @@
       <c r="F117" s="11">
         <v>3</v>
       </c>
-      <c r="G117" s="68">
+      <c r="G117" s="58">
         <v>107</v>
       </c>
       <c r="H117" s="10" t="s">
@@ -7102,7 +7102,7 @@
       <c r="F118" s="11">
         <v>3</v>
       </c>
-      <c r="G118" s="68">
+      <c r="G118" s="58">
         <v>108</v>
       </c>
       <c r="H118" s="10" t="s">
@@ -7140,7 +7140,7 @@
       <c r="F119" s="11">
         <v>3</v>
       </c>
-      <c r="G119" s="68">
+      <c r="G119" s="58">
         <v>109</v>
       </c>
       <c r="H119" s="10" t="s">
@@ -7178,7 +7178,7 @@
       <c r="F120" s="11">
         <v>3</v>
       </c>
-      <c r="G120" s="68">
+      <c r="G120" s="58">
         <v>110</v>
       </c>
       <c r="H120" s="10" t="s">
@@ -7216,7 +7216,7 @@
       <c r="F121" s="11">
         <v>3</v>
       </c>
-      <c r="G121" s="68">
+      <c r="G121" s="58">
         <v>111</v>
       </c>
       <c r="H121" s="10" t="s">
@@ -7254,7 +7254,7 @@
       <c r="F122" s="11">
         <v>3</v>
       </c>
-      <c r="G122" s="68">
+      <c r="G122" s="58">
         <v>112</v>
       </c>
       <c r="H122" s="10" t="s">
@@ -7292,7 +7292,7 @@
       <c r="F123" s="11">
         <v>3</v>
       </c>
-      <c r="G123" s="68">
+      <c r="G123" s="58">
         <v>113</v>
       </c>
       <c r="H123" s="10" t="s">
@@ -7330,7 +7330,7 @@
       <c r="F124" s="11">
         <v>3</v>
       </c>
-      <c r="G124" s="68">
+      <c r="G124" s="58">
         <v>114</v>
       </c>
       <c r="H124" s="10" t="s">
@@ -7368,7 +7368,7 @@
       <c r="F125" s="11">
         <v>3</v>
       </c>
-      <c r="G125" s="68">
+      <c r="G125" s="58">
         <v>115</v>
       </c>
       <c r="H125" s="10" t="s">
@@ -7406,7 +7406,7 @@
       <c r="F126" s="11">
         <v>3</v>
       </c>
-      <c r="G126" s="68">
+      <c r="G126" s="58">
         <v>116</v>
       </c>
       <c r="H126" s="10" t="s">
@@ -7444,7 +7444,7 @@
       <c r="F127" s="11">
         <v>3</v>
       </c>
-      <c r="G127" s="68">
+      <c r="G127" s="58">
         <v>117</v>
       </c>
       <c r="H127" s="10" t="s">
@@ -7482,7 +7482,7 @@
       <c r="F128" s="11">
         <v>3</v>
       </c>
-      <c r="G128" s="68">
+      <c r="G128" s="58">
         <v>118</v>
       </c>
       <c r="H128" s="10" t="s">
@@ -7520,7 +7520,7 @@
       <c r="F129" s="11">
         <v>3</v>
       </c>
-      <c r="G129" s="68">
+      <c r="G129" s="58">
         <v>119</v>
       </c>
       <c r="H129" s="10" t="s">
@@ -7558,7 +7558,7 @@
       <c r="F130" s="11">
         <v>3</v>
       </c>
-      <c r="G130" s="68">
+      <c r="G130" s="58">
         <v>120</v>
       </c>
       <c r="H130" s="10" t="s">
@@ -7596,7 +7596,7 @@
       <c r="F131" s="11">
         <v>3</v>
       </c>
-      <c r="G131" s="68">
+      <c r="G131" s="58">
         <v>121</v>
       </c>
       <c r="H131" s="16" t="s">
@@ -7634,7 +7634,7 @@
       <c r="F132" s="11">
         <v>1</v>
       </c>
-      <c r="G132" s="66">
+      <c r="G132" s="56">
         <v>1</v>
       </c>
       <c r="H132" s="16" t="s">
@@ -7672,7 +7672,7 @@
       <c r="F133" s="11">
         <v>1</v>
       </c>
-      <c r="G133" s="66">
+      <c r="G133" s="56">
         <v>2</v>
       </c>
       <c r="H133" s="10" t="s">
@@ -7710,7 +7710,7 @@
       <c r="F134" s="11">
         <v>1</v>
       </c>
-      <c r="G134" s="66">
+      <c r="G134" s="56">
         <v>3</v>
       </c>
       <c r="H134" s="10" t="s">
@@ -7748,7 +7748,7 @@
       <c r="F135" s="11">
         <v>1</v>
       </c>
-      <c r="G135" s="66">
+      <c r="G135" s="56">
         <v>5</v>
       </c>
       <c r="H135" s="10" t="s">
@@ -7786,7 +7786,7 @@
       <c r="F136" s="11">
         <v>1</v>
       </c>
-      <c r="G136" s="66">
+      <c r="G136" s="56">
         <v>6</v>
       </c>
       <c r="H136" s="10" t="s">
@@ -7824,7 +7824,7 @@
       <c r="F137" s="11">
         <v>1</v>
       </c>
-      <c r="G137" s="66">
+      <c r="G137" s="56">
         <v>7</v>
       </c>
       <c r="H137" s="10" t="s">
@@ -7862,7 +7862,7 @@
       <c r="F138" s="11">
         <v>1</v>
       </c>
-      <c r="G138" s="66">
+      <c r="G138" s="56">
         <v>8</v>
       </c>
       <c r="H138" s="10" t="s">
@@ -7900,7 +7900,7 @@
       <c r="F139" s="11">
         <v>1</v>
       </c>
-      <c r="G139" s="66">
+      <c r="G139" s="56">
         <v>9</v>
       </c>
       <c r="H139" s="10" t="s">
@@ -7938,7 +7938,7 @@
       <c r="F140" s="11">
         <v>2</v>
       </c>
-      <c r="G140" s="66">
+      <c r="G140" s="56">
         <v>51</v>
       </c>
       <c r="H140" s="10" t="s">
@@ -7976,7 +7976,7 @@
       <c r="F141" s="11">
         <v>2</v>
       </c>
-      <c r="G141" s="66">
+      <c r="G141" s="56">
         <v>52</v>
       </c>
       <c r="H141" s="10" t="s">
@@ -8014,7 +8014,7 @@
       <c r="F142" s="11">
         <v>2</v>
       </c>
-      <c r="G142" s="66">
+      <c r="G142" s="56">
         <v>53</v>
       </c>
       <c r="H142" s="10" t="s">
@@ -8052,7 +8052,7 @@
       <c r="F143" s="11">
         <v>2</v>
       </c>
-      <c r="G143" s="66">
+      <c r="G143" s="56">
         <v>62</v>
       </c>
       <c r="H143" s="10" t="s">
@@ -8090,7 +8090,7 @@
       <c r="F144" s="11">
         <v>2</v>
       </c>
-      <c r="G144" s="66">
+      <c r="G144" s="56">
         <v>63</v>
       </c>
       <c r="H144" s="10" t="s">
@@ -8128,7 +8128,7 @@
       <c r="F145" s="11">
         <v>2</v>
       </c>
-      <c r="G145" s="66">
+      <c r="G145" s="56">
         <v>64</v>
       </c>
       <c r="H145" s="10" t="s">
@@ -8166,7 +8166,7 @@
       <c r="F146" s="11">
         <v>2</v>
       </c>
-      <c r="G146" s="66">
+      <c r="G146" s="56">
         <v>65</v>
       </c>
       <c r="H146" s="10" t="s">
@@ -8204,7 +8204,7 @@
       <c r="F147" s="11">
         <v>2</v>
       </c>
-      <c r="G147" s="66">
+      <c r="G147" s="56">
         <v>66</v>
       </c>
       <c r="H147" s="10" t="s">
@@ -8242,7 +8242,7 @@
       <c r="F148" s="11">
         <v>2</v>
       </c>
-      <c r="G148" s="66">
+      <c r="G148" s="56">
         <v>67</v>
       </c>
       <c r="H148" s="16" t="s">
@@ -8280,7 +8280,7 @@
       <c r="F149" s="11">
         <v>2</v>
       </c>
-      <c r="G149" s="66">
+      <c r="G149" s="56">
         <v>77</v>
       </c>
       <c r="H149" s="10" t="s">
@@ -8318,7 +8318,7 @@
       <c r="F150" s="11">
         <v>2</v>
       </c>
-      <c r="G150" s="66">
+      <c r="G150" s="56">
         <v>78</v>
       </c>
       <c r="H150" s="10" t="s">
@@ -8356,7 +8356,7 @@
       <c r="F151" s="11">
         <v>2</v>
       </c>
-      <c r="G151" s="66">
+      <c r="G151" s="56">
         <v>79</v>
       </c>
       <c r="H151" s="10" t="s">
@@ -8394,7 +8394,7 @@
       <c r="F152" s="23">
         <v>2</v>
       </c>
-      <c r="G152" s="68">
+      <c r="G152" s="58">
         <v>80</v>
       </c>
       <c r="H152" s="10" t="s">
@@ -8432,7 +8432,7 @@
       <c r="F153" s="23">
         <v>2</v>
       </c>
-      <c r="G153" s="68">
+      <c r="G153" s="58">
         <v>81</v>
       </c>
       <c r="H153" s="10" t="s">
@@ -8470,7 +8470,7 @@
       <c r="F154" s="23">
         <v>2</v>
       </c>
-      <c r="G154" s="68">
+      <c r="G154" s="58">
         <v>82</v>
       </c>
       <c r="H154" s="10" t="s">
@@ -8508,7 +8508,7 @@
       <c r="F155" s="23">
         <v>2</v>
       </c>
-      <c r="G155" s="68">
+      <c r="G155" s="58">
         <v>83</v>
       </c>
       <c r="H155" s="10" t="s">
@@ -8546,7 +8546,7 @@
       <c r="F156" s="23">
         <v>2</v>
       </c>
-      <c r="G156" s="68">
+      <c r="G156" s="58">
         <v>84</v>
       </c>
       <c r="H156" s="10" t="s">
@@ -8584,7 +8584,7 @@
       <c r="F157" s="23">
         <v>2</v>
       </c>
-      <c r="G157" s="68">
+      <c r="G157" s="58">
         <v>85</v>
       </c>
       <c r="H157" s="10" t="s">
@@ -8622,7 +8622,7 @@
       <c r="F158" s="23">
         <v>2</v>
       </c>
-      <c r="G158" s="68">
+      <c r="G158" s="58">
         <v>86</v>
       </c>
       <c r="H158" s="10" t="s">
@@ -8660,7 +8660,7 @@
       <c r="F159" s="23">
         <v>2</v>
       </c>
-      <c r="G159" s="68">
+      <c r="G159" s="58">
         <v>87</v>
       </c>
       <c r="H159" s="10" t="s">
@@ -8698,7 +8698,7 @@
       <c r="F160" s="23">
         <v>2</v>
       </c>
-      <c r="G160" s="68">
+      <c r="G160" s="58">
         <v>88</v>
       </c>
       <c r="H160" s="10" t="s">
@@ -8736,7 +8736,7 @@
       <c r="F161" s="23">
         <v>2</v>
       </c>
-      <c r="G161" s="68">
+      <c r="G161" s="58">
         <v>89</v>
       </c>
       <c r="H161" s="10" t="s">
@@ -8774,7 +8774,7 @@
       <c r="F162" s="23">
         <v>2</v>
       </c>
-      <c r="G162" s="68">
+      <c r="G162" s="58">
         <v>90</v>
       </c>
       <c r="H162" s="10" t="s">
@@ -8812,7 +8812,7 @@
       <c r="F163" s="11">
         <v>3</v>
       </c>
-      <c r="G163" s="66">
+      <c r="G163" s="56">
         <v>105</v>
       </c>
       <c r="H163" s="10" t="s">
@@ -8850,7 +8850,7 @@
       <c r="F164" s="11">
         <v>3</v>
       </c>
-      <c r="G164" s="66">
+      <c r="G164" s="56">
         <v>106</v>
       </c>
       <c r="H164" s="10" t="s">
@@ -8888,7 +8888,7 @@
       <c r="F165" s="11">
         <v>3</v>
       </c>
-      <c r="G165" s="66">
+      <c r="G165" s="56">
         <v>107</v>
       </c>
       <c r="H165" s="10" t="s">
@@ -8926,7 +8926,7 @@
       <c r="F166" s="11">
         <v>2</v>
       </c>
-      <c r="G166" s="66">
+      <c r="G166" s="56">
         <v>68</v>
       </c>
       <c r="H166" s="10" t="s">
@@ -8964,7 +8964,7 @@
       <c r="F167" s="11">
         <v>2</v>
       </c>
-      <c r="G167" s="66">
+      <c r="G167" s="56">
         <v>69</v>
       </c>
       <c r="H167" s="10" t="s">
@@ -9002,7 +9002,7 @@
       <c r="F168" s="11">
         <v>2</v>
       </c>
-      <c r="G168" s="66">
+      <c r="G168" s="56">
         <v>70</v>
       </c>
       <c r="H168" s="16" t="s">
@@ -9040,7 +9040,7 @@
       <c r="F169" s="11">
         <v>2</v>
       </c>
-      <c r="G169" s="66">
+      <c r="G169" s="56">
         <v>71</v>
       </c>
       <c r="H169" s="10" t="s">
@@ -9078,7 +9078,7 @@
       <c r="F170" s="11">
         <v>2</v>
       </c>
-      <c r="G170" s="66">
+      <c r="G170" s="56">
         <v>72</v>
       </c>
       <c r="H170" s="10" t="s">
@@ -9116,7 +9116,7 @@
       <c r="F171" s="11">
         <v>2</v>
       </c>
-      <c r="G171" s="66">
+      <c r="G171" s="56">
         <v>73</v>
       </c>
       <c r="H171" s="10" t="s">
@@ -9154,7 +9154,7 @@
       <c r="F172" s="11">
         <v>2</v>
       </c>
-      <c r="G172" s="66">
+      <c r="G172" s="56">
         <v>74</v>
       </c>
       <c r="H172" s="10" t="s">
@@ -9192,7 +9192,7 @@
       <c r="F173" s="11">
         <v>2</v>
       </c>
-      <c r="G173" s="66">
+      <c r="G173" s="56">
         <v>75</v>
       </c>
       <c r="H173" s="10" t="s">
@@ -9230,7 +9230,7 @@
       <c r="F174" s="11">
         <v>2</v>
       </c>
-      <c r="G174" s="66">
+      <c r="G174" s="56">
         <v>76</v>
       </c>
       <c r="H174" s="10" t="s">
@@ -9268,7 +9268,7 @@
       <c r="F175" s="11">
         <v>4</v>
       </c>
-      <c r="G175" s="66">
+      <c r="G175" s="56">
         <v>151</v>
       </c>
       <c r="H175" s="16" t="s">
@@ -9306,7 +9306,7 @@
       <c r="F176" s="11">
         <v>4</v>
       </c>
-      <c r="G176" s="66">
+      <c r="G176" s="56">
         <v>152</v>
       </c>
       <c r="H176" s="10" t="s">
@@ -9344,7 +9344,7 @@
       <c r="F177" s="11">
         <v>4</v>
       </c>
-      <c r="G177" s="66">
+      <c r="G177" s="56">
         <v>153</v>
       </c>
       <c r="H177" s="10" t="s">
@@ -9382,7 +9382,7 @@
       <c r="F178" s="11">
         <v>4</v>
       </c>
-      <c r="G178" s="66">
+      <c r="G178" s="56">
         <v>154</v>
       </c>
       <c r="H178" s="10" t="s">
@@ -9420,7 +9420,7 @@
       <c r="F179" s="26">
         <v>4</v>
       </c>
-      <c r="G179" s="69">
+      <c r="G179" s="59">
         <v>155</v>
       </c>
       <c r="H179" s="10" t="s">
@@ -9458,7 +9458,7 @@
       <c r="F180" s="26">
         <v>4</v>
       </c>
-      <c r="G180" s="69">
+      <c r="G180" s="59">
         <v>156</v>
       </c>
       <c r="H180" s="10" t="s">
@@ -9496,7 +9496,7 @@
       <c r="F181" s="26">
         <v>4</v>
       </c>
-      <c r="G181" s="69">
+      <c r="G181" s="59">
         <v>157</v>
       </c>
       <c r="H181" s="10" t="s">
@@ -9534,7 +9534,7 @@
       <c r="F182" s="11">
         <v>4</v>
       </c>
-      <c r="G182" s="66">
+      <c r="G182" s="56">
         <v>162</v>
       </c>
       <c r="H182" s="10" t="s">
@@ -9572,7 +9572,7 @@
       <c r="F183" s="11">
         <v>4</v>
       </c>
-      <c r="G183" s="66">
+      <c r="G183" s="56">
         <v>163</v>
       </c>
       <c r="H183" s="10" t="s">
@@ -9610,7 +9610,7 @@
       <c r="F184" s="11">
         <v>4</v>
       </c>
-      <c r="G184" s="66">
+      <c r="G184" s="56">
         <v>164</v>
       </c>
       <c r="H184" s="10" t="s">
@@ -9648,7 +9648,7 @@
       <c r="F185" s="11">
         <v>4</v>
       </c>
-      <c r="G185" s="66">
+      <c r="G185" s="56">
         <v>165</v>
       </c>
       <c r="H185" s="10" t="s">
@@ -9686,7 +9686,7 @@
       <c r="F186" s="11">
         <v>4</v>
       </c>
-      <c r="G186" s="66">
+      <c r="G186" s="56">
         <v>166</v>
       </c>
       <c r="H186" s="10" t="s">
@@ -9724,7 +9724,7 @@
       <c r="F187" s="11">
         <v>4</v>
       </c>
-      <c r="G187" s="66">
+      <c r="G187" s="56">
         <v>167</v>
       </c>
       <c r="H187" s="10" t="s">
@@ -9762,7 +9762,7 @@
       <c r="F188" s="11">
         <v>4</v>
       </c>
-      <c r="G188" s="66">
+      <c r="G188" s="56">
         <v>168</v>
       </c>
       <c r="H188" s="16" t="s">
@@ -9800,7 +9800,7 @@
       <c r="F189" s="11">
         <v>4</v>
       </c>
-      <c r="G189" s="66">
+      <c r="G189" s="56">
         <v>169</v>
       </c>
       <c r="H189" s="10" t="s">
@@ -9838,7 +9838,7 @@
       <c r="F190" s="11">
         <v>4</v>
       </c>
-      <c r="G190" s="66">
+      <c r="G190" s="56">
         <v>170</v>
       </c>
       <c r="H190" s="10" t="s">
@@ -9876,7 +9876,7 @@
       <c r="F191" s="11">
         <v>4</v>
       </c>
-      <c r="G191" s="66">
+      <c r="G191" s="56">
         <v>171</v>
       </c>
       <c r="H191" s="10" t="s">
@@ -9914,7 +9914,7 @@
       <c r="F192" s="11">
         <v>4</v>
       </c>
-      <c r="G192" s="66">
+      <c r="G192" s="56">
         <v>172</v>
       </c>
       <c r="H192" s="10" t="s">
@@ -9952,7 +9952,7 @@
       <c r="F193" s="11">
         <v>4</v>
       </c>
-      <c r="G193" s="66">
+      <c r="G193" s="56">
         <v>173</v>
       </c>
       <c r="H193" s="10" t="s">
@@ -9990,7 +9990,7 @@
       <c r="F194" s="11">
         <v>4</v>
       </c>
-      <c r="G194" s="66">
+      <c r="G194" s="56">
         <v>174</v>
       </c>
       <c r="H194" s="10" t="s">
@@ -10028,7 +10028,7 @@
       <c r="F195" s="11">
         <v>3</v>
       </c>
-      <c r="G195" s="66">
+      <c r="G195" s="56">
         <v>101</v>
       </c>
       <c r="H195" s="10" t="s">
@@ -10066,7 +10066,7 @@
       <c r="F196" s="11">
         <v>3</v>
       </c>
-      <c r="G196" s="66">
+      <c r="G196" s="56">
         <v>102</v>
       </c>
       <c r="H196" s="10" t="s">
@@ -10104,7 +10104,7 @@
       <c r="F197" s="11">
         <v>3</v>
       </c>
-      <c r="G197" s="66">
+      <c r="G197" s="56">
         <v>103</v>
       </c>
       <c r="H197" s="10" t="s">
@@ -10142,7 +10142,7 @@
       <c r="F198" s="11">
         <v>3</v>
       </c>
-      <c r="G198" s="66">
+      <c r="G198" s="56">
         <v>115</v>
       </c>
       <c r="H198" s="10" t="s">
@@ -10180,7 +10180,7 @@
       <c r="F199" s="11">
         <v>3</v>
       </c>
-      <c r="G199" s="66">
+      <c r="G199" s="56">
         <v>116</v>
       </c>
       <c r="H199" s="16" t="s">
@@ -10218,7 +10218,7 @@
       <c r="F200" s="11">
         <v>1</v>
       </c>
-      <c r="G200" s="66">
+      <c r="G200" s="56">
         <v>10</v>
       </c>
       <c r="H200" s="16" t="s">
@@ -10256,7 +10256,7 @@
       <c r="F201" s="11">
         <v>1</v>
       </c>
-      <c r="G201" s="66">
+      <c r="G201" s="56">
         <v>11</v>
       </c>
       <c r="H201" s="16" t="s">
@@ -10294,7 +10294,7 @@
       <c r="F202" s="11">
         <v>1</v>
       </c>
-      <c r="G202" s="66">
+      <c r="G202" s="56">
         <v>12</v>
       </c>
       <c r="H202" s="10" t="s">
@@ -10332,7 +10332,7 @@
       <c r="F203" s="11">
         <v>1</v>
       </c>
-      <c r="G203" s="66">
+      <c r="G203" s="56">
         <v>13</v>
       </c>
       <c r="H203" s="10" t="s">
@@ -10370,7 +10370,7 @@
       <c r="F204" s="11">
         <v>1</v>
       </c>
-      <c r="G204" s="66">
+      <c r="G204" s="56">
         <v>14</v>
       </c>
       <c r="H204" s="10" t="s">
@@ -10408,7 +10408,7 @@
       <c r="F205" s="11">
         <v>1</v>
       </c>
-      <c r="G205" s="66">
+      <c r="G205" s="56">
         <v>15</v>
       </c>
       <c r="H205" s="10" t="s">
@@ -10446,7 +10446,7 @@
       <c r="F206" s="11">
         <v>1</v>
       </c>
-      <c r="G206" s="66">
+      <c r="G206" s="56">
         <v>16</v>
       </c>
       <c r="H206" s="10" t="s">
@@ -10484,7 +10484,7 @@
       <c r="F207" s="11">
         <v>1</v>
       </c>
-      <c r="G207" s="66">
+      <c r="G207" s="56">
         <v>17</v>
       </c>
       <c r="H207" s="10" t="s">
@@ -10522,7 +10522,7 @@
       <c r="F208" s="11">
         <v>3</v>
       </c>
-      <c r="G208" s="66">
+      <c r="G208" s="56">
         <v>117</v>
       </c>
       <c r="H208" s="10" t="s">
@@ -10560,7 +10560,7 @@
       <c r="F209" s="11">
         <v>3</v>
       </c>
-      <c r="G209" s="66">
+      <c r="G209" s="56">
         <v>118</v>
       </c>
       <c r="H209" s="10" t="s">
@@ -10598,7 +10598,7 @@
       <c r="F210" s="11">
         <v>3</v>
       </c>
-      <c r="G210" s="66">
+      <c r="G210" s="56">
         <v>119</v>
       </c>
       <c r="H210" s="10" t="s">
@@ -10636,7 +10636,7 @@
       <c r="F211" s="11">
         <v>3</v>
       </c>
-      <c r="G211" s="66">
+      <c r="G211" s="56">
         <v>120</v>
       </c>
       <c r="H211" s="10" t="s">
@@ -10674,7 +10674,7 @@
       <c r="F212" s="11">
         <v>3</v>
       </c>
-      <c r="G212" s="66">
+      <c r="G212" s="56">
         <v>121</v>
       </c>
       <c r="H212" s="10" t="s">
@@ -10712,7 +10712,7 @@
       <c r="F213" s="11">
         <v>3</v>
       </c>
-      <c r="G213" s="66">
+      <c r="G213" s="56">
         <v>122</v>
       </c>
       <c r="H213" s="10" t="s">
@@ -10750,7 +10750,7 @@
       <c r="F214" s="11">
         <v>3</v>
       </c>
-      <c r="G214" s="66">
+      <c r="G214" s="56">
         <v>123</v>
       </c>
       <c r="H214" s="10" t="s">
@@ -10788,7 +10788,7 @@
       <c r="F215" s="11">
         <v>3</v>
       </c>
-      <c r="G215" s="66">
+      <c r="G215" s="56">
         <v>124</v>
       </c>
       <c r="H215" s="10" t="s">
@@ -10826,7 +10826,7 @@
       <c r="F216" s="11">
         <v>3</v>
       </c>
-      <c r="G216" s="66">
+      <c r="G216" s="56">
         <v>125</v>
       </c>
       <c r="H216" s="10" t="s">
@@ -10864,7 +10864,7 @@
       <c r="F217" s="11">
         <v>3</v>
       </c>
-      <c r="G217" s="66">
+      <c r="G217" s="56">
         <v>126</v>
       </c>
       <c r="H217" s="16" t="s">
@@ -10902,7 +10902,7 @@
       <c r="F218" s="26">
         <v>4</v>
       </c>
-      <c r="G218" s="69">
+      <c r="G218" s="59">
         <v>158</v>
       </c>
       <c r="H218" s="10" t="s">
@@ -10940,7 +10940,7 @@
       <c r="F219" s="11">
         <v>4</v>
       </c>
-      <c r="G219" s="66">
+      <c r="G219" s="56">
         <v>159</v>
       </c>
       <c r="H219" s="10" t="s">
@@ -10978,7 +10978,7 @@
       <c r="F220" s="11">
         <v>4</v>
       </c>
-      <c r="G220" s="66">
+      <c r="G220" s="56">
         <v>160</v>
       </c>
       <c r="H220" s="10" t="s">
@@ -11016,7 +11016,7 @@
       <c r="F221" s="11">
         <v>4</v>
       </c>
-      <c r="G221" s="66">
+      <c r="G221" s="56">
         <v>161</v>
       </c>
       <c r="H221" s="10" t="s">
@@ -11054,7 +11054,7 @@
       <c r="F222" s="11">
         <v>3</v>
       </c>
-      <c r="G222" s="66">
+      <c r="G222" s="56">
         <v>127</v>
       </c>
       <c r="H222" s="10" t="s">
@@ -11092,7 +11092,7 @@
       <c r="F223" s="11">
         <v>3</v>
       </c>
-      <c r="G223" s="66">
+      <c r="G223" s="56">
         <v>128</v>
       </c>
       <c r="H223" s="10" t="s">
@@ -11130,7 +11130,7 @@
       <c r="F224" s="11">
         <v>3</v>
       </c>
-      <c r="G224" s="66">
+      <c r="G224" s="56">
         <v>129</v>
       </c>
       <c r="H224" s="16" t="s">
@@ -11168,7 +11168,7 @@
       <c r="F225" s="11">
         <v>3</v>
       </c>
-      <c r="G225" s="66">
+      <c r="G225" s="56">
         <v>130</v>
       </c>
       <c r="H225" s="10" t="s">
@@ -11206,7 +11206,7 @@
       <c r="F226" s="11">
         <v>1</v>
       </c>
-      <c r="G226" s="66">
+      <c r="G226" s="56">
         <v>18</v>
       </c>
       <c r="H226" s="10" t="s">
@@ -11244,7 +11244,7 @@
       <c r="F227" s="11">
         <v>1</v>
       </c>
-      <c r="G227" s="66">
+      <c r="G227" s="56">
         <v>19</v>
       </c>
       <c r="H227" s="16" t="s">
@@ -11282,7 +11282,7 @@
       <c r="F228" s="11">
         <v>1</v>
       </c>
-      <c r="G228" s="66">
+      <c r="G228" s="56">
         <v>20</v>
       </c>
       <c r="H228" s="10" t="s">
@@ -11320,7 +11320,7 @@
       <c r="F229" s="11">
         <v>1</v>
       </c>
-      <c r="G229" s="66">
+      <c r="G229" s="56">
         <v>21</v>
       </c>
       <c r="H229" s="10" t="s">
@@ -11358,7 +11358,7 @@
       <c r="F230" s="11">
         <v>1</v>
       </c>
-      <c r="G230" s="66">
+      <c r="G230" s="56">
         <v>22</v>
       </c>
       <c r="H230" s="10" t="s">
@@ -11396,7 +11396,7 @@
       <c r="F231" s="11">
         <v>1</v>
       </c>
-      <c r="G231" s="66">
+      <c r="G231" s="56">
         <v>23</v>
       </c>
       <c r="H231" s="10" t="s">
@@ -11434,7 +11434,7 @@
       <c r="F232" s="11">
         <v>1</v>
       </c>
-      <c r="G232" s="66">
+      <c r="G232" s="56">
         <v>24</v>
       </c>
       <c r="H232" s="10" t="s">
@@ -11472,7 +11472,7 @@
       <c r="F233" s="11">
         <v>1</v>
       </c>
-      <c r="G233" s="66">
+      <c r="G233" s="56">
         <v>25</v>
       </c>
       <c r="H233" s="10" t="s">
@@ -11510,7 +11510,7 @@
       <c r="F234" s="11">
         <v>1</v>
       </c>
-      <c r="G234" s="66">
+      <c r="G234" s="56">
         <v>26</v>
       </c>
       <c r="H234" s="10" t="s">
@@ -11548,7 +11548,7 @@
       <c r="F235" s="11">
         <v>1</v>
       </c>
-      <c r="G235" s="66">
+      <c r="G235" s="56">
         <v>27</v>
       </c>
       <c r="H235" s="10" t="s">
@@ -11586,7 +11586,7 @@
       <c r="F236" s="11">
         <v>1</v>
       </c>
-      <c r="G236" s="66">
+      <c r="G236" s="56">
         <v>28</v>
       </c>
       <c r="H236" s="10" t="s">
@@ -11624,7 +11624,7 @@
       <c r="F237" s="11">
         <v>1</v>
       </c>
-      <c r="G237" s="66">
+      <c r="G237" s="56">
         <v>29</v>
       </c>
       <c r="H237" s="10" t="s">
@@ -11662,7 +11662,7 @@
       <c r="F238" s="11">
         <v>1</v>
       </c>
-      <c r="G238" s="66">
+      <c r="G238" s="56">
         <v>30</v>
       </c>
       <c r="H238" s="10" t="s">
@@ -11700,7 +11700,7 @@
       <c r="F239" s="11">
         <v>1</v>
       </c>
-      <c r="G239" s="66">
+      <c r="G239" s="56">
         <v>31</v>
       </c>
       <c r="H239" s="16" t="s">
@@ -11738,7 +11738,7 @@
       <c r="F240" s="11">
         <v>2</v>
       </c>
-      <c r="G240" s="66">
+      <c r="G240" s="56">
         <v>58</v>
       </c>
       <c r="H240" s="10" t="s">
@@ -11776,7 +11776,7 @@
       <c r="F241" s="11">
         <v>2</v>
       </c>
-      <c r="G241" s="66">
+      <c r="G241" s="56">
         <v>59</v>
       </c>
       <c r="H241" s="10" t="s">
@@ -11814,7 +11814,7 @@
       <c r="F242" s="11">
         <v>2</v>
       </c>
-      <c r="G242" s="66">
+      <c r="G242" s="56">
         <v>60</v>
       </c>
       <c r="H242" s="10" t="s">
@@ -11852,7 +11852,7 @@
       <c r="F243" s="11">
         <v>2</v>
       </c>
-      <c r="G243" s="66">
+      <c r="G243" s="56">
         <v>61</v>
       </c>
       <c r="H243" s="10" t="s">
@@ -11890,7 +11890,7 @@
       <c r="F244" s="11">
         <v>3</v>
       </c>
-      <c r="G244" s="66">
+      <c r="G244" s="56">
         <v>104</v>
       </c>
       <c r="H244" s="10" t="s">
@@ -11928,7 +11928,7 @@
       <c r="F245" s="11">
         <v>3</v>
       </c>
-      <c r="G245" s="66">
+      <c r="G245" s="56">
         <v>108</v>
       </c>
       <c r="H245" s="16" t="s">
@@ -11966,7 +11966,7 @@
       <c r="F246" s="11">
         <v>3</v>
       </c>
-      <c r="G246" s="66">
+      <c r="G246" s="56">
         <v>109</v>
       </c>
       <c r="H246" s="10" t="s">
@@ -12004,7 +12004,7 @@
       <c r="F247" s="11">
         <v>3</v>
       </c>
-      <c r="G247" s="66">
+      <c r="G247" s="56">
         <v>110</v>
       </c>
       <c r="H247" s="10" t="s">
@@ -12042,7 +12042,7 @@
       <c r="F248" s="11">
         <v>3</v>
       </c>
-      <c r="G248" s="66">
+      <c r="G248" s="56">
         <v>111</v>
       </c>
       <c r="H248" s="10" t="s">
@@ -12080,7 +12080,7 @@
       <c r="F249" s="11">
         <v>3</v>
       </c>
-      <c r="G249" s="66">
+      <c r="G249" s="56">
         <v>112</v>
       </c>
       <c r="H249" s="10" t="s">
@@ -12118,7 +12118,7 @@
       <c r="F250" s="11">
         <v>3</v>
       </c>
-      <c r="G250" s="66">
+      <c r="G250" s="56">
         <v>113</v>
       </c>
       <c r="H250" s="10" t="s">
@@ -12156,7 +12156,7 @@
       <c r="F251" s="11">
         <v>3</v>
       </c>
-      <c r="G251" s="66">
+      <c r="G251" s="56">
         <v>114</v>
       </c>
       <c r="H251" s="10" t="s">
@@ -12191,7 +12191,7 @@
       <c r="F252" s="11">
         <v>2</v>
       </c>
-      <c r="G252" s="66">
+      <c r="G252" s="56">
         <v>54</v>
       </c>
       <c r="H252" s="10" t="s">
@@ -12226,7 +12226,7 @@
       <c r="F253" s="11">
         <v>2</v>
       </c>
-      <c r="G253" s="66">
+      <c r="G253" s="56">
         <v>55</v>
       </c>
       <c r="H253" s="10" t="s">
@@ -12261,7 +12261,7 @@
       <c r="F254" s="11">
         <v>2</v>
       </c>
-      <c r="G254" s="66">
+      <c r="G254" s="56">
         <v>56</v>
       </c>
       <c r="H254" s="10" t="s">
@@ -12296,7 +12296,7 @@
       <c r="F255" s="11">
         <v>2</v>
       </c>
-      <c r="G255" s="66">
+      <c r="G255" s="56">
         <v>57</v>
       </c>
       <c r="H255" s="10" t="s">
@@ -12334,7 +12334,7 @@
       <c r="F256" s="11">
         <v>3</v>
       </c>
-      <c r="G256" s="66">
+      <c r="G256" s="56">
         <v>101</v>
       </c>
       <c r="H256" s="16" t="s">
@@ -12372,7 +12372,7 @@
       <c r="F257" s="11">
         <v>3</v>
       </c>
-      <c r="G257" s="66">
+      <c r="G257" s="56">
         <v>102</v>
       </c>
       <c r="H257" s="10" t="s">
@@ -12410,7 +12410,7 @@
       <c r="F258" s="11">
         <v>3</v>
       </c>
-      <c r="G258" s="66">
+      <c r="G258" s="56">
         <v>103</v>
       </c>
       <c r="H258" s="10" t="s">
@@ -12448,7 +12448,7 @@
       <c r="F259" s="11">
         <v>1</v>
       </c>
-      <c r="G259" s="66">
+      <c r="G259" s="56">
         <v>1</v>
       </c>
       <c r="H259" s="16" t="s">
@@ -12486,7 +12486,7 @@
       <c r="F260" s="11">
         <v>1</v>
       </c>
-      <c r="G260" s="66">
+      <c r="G260" s="56">
         <v>2</v>
       </c>
       <c r="H260" s="10" t="s">
@@ -12524,7 +12524,7 @@
       <c r="F261" s="11">
         <v>2</v>
       </c>
-      <c r="G261" s="66">
+      <c r="G261" s="56">
         <v>57</v>
       </c>
       <c r="H261" s="16" t="s">
@@ -12562,7 +12562,7 @@
       <c r="F262" s="11">
         <v>2</v>
       </c>
-      <c r="G262" s="66">
+      <c r="G262" s="56">
         <v>58</v>
       </c>
       <c r="H262" s="10" t="s">
@@ -12600,7 +12600,7 @@
       <c r="F263" s="11">
         <v>1</v>
       </c>
-      <c r="G263" s="66">
+      <c r="G263" s="56">
         <v>3</v>
       </c>
       <c r="H263" s="10" t="s">
@@ -12638,7 +12638,7 @@
       <c r="F264" s="11">
         <v>1</v>
       </c>
-      <c r="G264" s="66">
+      <c r="G264" s="56">
         <v>4</v>
       </c>
       <c r="H264" s="10" t="s">
@@ -12676,7 +12676,7 @@
       <c r="F265" s="11">
         <v>2</v>
       </c>
-      <c r="G265" s="66">
+      <c r="G265" s="56">
         <v>55</v>
       </c>
       <c r="H265" s="16" t="s">
@@ -12714,7 +12714,7 @@
       <c r="F266" s="11">
         <v>2</v>
       </c>
-      <c r="G266" s="66">
+      <c r="G266" s="56">
         <v>56</v>
       </c>
       <c r="H266" s="10" t="s">
@@ -12752,7 +12752,7 @@
       <c r="F267" s="11">
         <v>1</v>
       </c>
-      <c r="G267" s="66">
+      <c r="G267" s="56">
         <v>5</v>
       </c>
       <c r="H267" s="10" t="s">
@@ -12790,7 +12790,7 @@
       <c r="F268" s="11">
         <v>1</v>
       </c>
-      <c r="G268" s="66">
+      <c r="G268" s="56">
         <v>6</v>
       </c>
       <c r="H268" s="10" t="s">
@@ -12828,7 +12828,7 @@
       <c r="F269" s="11">
         <v>1</v>
       </c>
-      <c r="G269" s="66">
+      <c r="G269" s="56">
         <v>7</v>
       </c>
       <c r="H269" s="10" t="s">
@@ -12866,7 +12866,7 @@
       <c r="F270" s="11">
         <v>1</v>
       </c>
-      <c r="G270" s="66">
+      <c r="G270" s="56">
         <v>8</v>
       </c>
       <c r="H270" s="10" t="s">
@@ -12904,7 +12904,7 @@
       <c r="F271" s="11">
         <v>1</v>
       </c>
-      <c r="G271" s="66">
+      <c r="G271" s="56">
         <v>9</v>
       </c>
       <c r="H271" s="10" t="s">
@@ -12942,7 +12942,7 @@
       <c r="F272" s="11">
         <v>1</v>
       </c>
-      <c r="G272" s="66">
+      <c r="G272" s="56">
         <v>10</v>
       </c>
       <c r="H272" s="10" t="s">
@@ -12980,7 +12980,7 @@
       <c r="F273" s="11">
         <v>1</v>
       </c>
-      <c r="G273" s="66">
+      <c r="G273" s="56">
         <v>11</v>
       </c>
       <c r="H273" s="10" t="s">
@@ -13018,7 +13018,7 @@
       <c r="F274" s="11">
         <v>1</v>
       </c>
-      <c r="G274" s="66">
+      <c r="G274" s="56">
         <v>12</v>
       </c>
       <c r="H274" s="10" t="s">
@@ -13056,7 +13056,7 @@
       <c r="F275" s="11">
         <v>1</v>
       </c>
-      <c r="G275" s="66">
+      <c r="G275" s="56">
         <v>13</v>
       </c>
       <c r="H275" s="10" t="s">
@@ -13094,7 +13094,7 @@
       <c r="F276" s="11">
         <v>1</v>
       </c>
-      <c r="G276" s="66">
+      <c r="G276" s="56">
         <v>14</v>
       </c>
       <c r="H276" s="10" t="s">
@@ -13132,7 +13132,7 @@
       <c r="F277" s="11">
         <v>1</v>
       </c>
-      <c r="G277" s="66">
+      <c r="G277" s="56">
         <v>15</v>
       </c>
       <c r="H277" s="10" t="s">
@@ -13170,7 +13170,7 @@
       <c r="F278" s="11">
         <v>1</v>
       </c>
-      <c r="G278" s="66">
+      <c r="G278" s="56">
         <v>16</v>
       </c>
       <c r="H278" s="10" t="s">
@@ -13208,7 +13208,7 @@
       <c r="F279" s="11">
         <v>1</v>
       </c>
-      <c r="G279" s="66">
+      <c r="G279" s="56">
         <v>17</v>
       </c>
       <c r="H279" s="10" t="s">
@@ -13246,7 +13246,7 @@
       <c r="F280" s="11">
         <v>1</v>
       </c>
-      <c r="G280" s="66">
+      <c r="G280" s="56">
         <v>18</v>
       </c>
       <c r="H280" s="10" t="s">
@@ -13284,7 +13284,7 @@
       <c r="F281" s="11">
         <v>1</v>
       </c>
-      <c r="G281" s="66">
+      <c r="G281" s="56">
         <v>19</v>
       </c>
       <c r="H281" s="10" t="s">
@@ -13322,7 +13322,7 @@
       <c r="F282" s="11">
         <v>1</v>
       </c>
-      <c r="G282" s="66">
+      <c r="G282" s="56">
         <v>20</v>
       </c>
       <c r="H282" s="10" t="s">
@@ -13360,7 +13360,7 @@
       <c r="F283" s="11">
         <v>1</v>
       </c>
-      <c r="G283" s="66">
+      <c r="G283" s="56">
         <v>21</v>
       </c>
       <c r="H283" s="10" t="s">
@@ -13398,7 +13398,7 @@
       <c r="F284" s="11">
         <v>1</v>
       </c>
-      <c r="G284" s="66">
+      <c r="G284" s="56">
         <v>22</v>
       </c>
       <c r="H284" s="10" t="s">
@@ -13436,7 +13436,7 @@
       <c r="F285" s="11">
         <v>1</v>
       </c>
-      <c r="G285" s="66">
+      <c r="G285" s="56">
         <v>23</v>
       </c>
       <c r="H285" s="10" t="s">
@@ -13474,7 +13474,7 @@
       <c r="F286" s="11">
         <v>1</v>
       </c>
-      <c r="G286" s="66">
+      <c r="G286" s="56">
         <v>24</v>
       </c>
       <c r="H286" s="10" t="s">
@@ -13512,7 +13512,7 @@
       <c r="F287" s="11">
         <v>1</v>
       </c>
-      <c r="G287" s="66">
+      <c r="G287" s="56">
         <v>25</v>
       </c>
       <c r="H287" s="10" t="s">
@@ -13550,7 +13550,7 @@
       <c r="F288" s="11">
         <v>1</v>
       </c>
-      <c r="G288" s="66">
+      <c r="G288" s="56">
         <v>26</v>
       </c>
       <c r="H288" s="10" t="s">
@@ -13588,7 +13588,7 @@
       <c r="F289" s="11">
         <v>1</v>
       </c>
-      <c r="G289" s="66">
+      <c r="G289" s="56">
         <v>27</v>
       </c>
       <c r="H289" s="10" t="s">
@@ -13626,7 +13626,7 @@
       <c r="F290" s="11">
         <v>1</v>
       </c>
-      <c r="G290" s="66">
+      <c r="G290" s="56">
         <v>28</v>
       </c>
       <c r="H290" s="10" t="s">
@@ -13664,7 +13664,7 @@
       <c r="F291" s="11">
         <v>1</v>
       </c>
-      <c r="G291" s="66">
+      <c r="G291" s="56">
         <v>29</v>
       </c>
       <c r="H291" s="10" t="s">
@@ -13702,7 +13702,7 @@
       <c r="F292" s="11">
         <v>1</v>
       </c>
-      <c r="G292" s="66">
+      <c r="G292" s="56">
         <v>30</v>
       </c>
       <c r="H292" s="10" t="s">
@@ -13740,7 +13740,7 @@
       <c r="F293" s="11">
         <v>1</v>
       </c>
-      <c r="G293" s="66">
+      <c r="G293" s="56">
         <v>31</v>
       </c>
       <c r="H293" s="10" t="s">
@@ -13778,7 +13778,7 @@
       <c r="F294" s="11">
         <v>1</v>
       </c>
-      <c r="G294" s="66">
+      <c r="G294" s="56">
         <v>32</v>
       </c>
       <c r="H294" s="16" t="s">
@@ -13816,7 +13816,7 @@
       <c r="F295" s="11">
         <v>1</v>
       </c>
-      <c r="G295" s="66">
+      <c r="G295" s="56">
         <v>33</v>
       </c>
       <c r="H295" s="10" t="s">
@@ -13854,7 +13854,7 @@
       <c r="F296" s="11">
         <v>1</v>
       </c>
-      <c r="G296" s="66">
+      <c r="G296" s="56">
         <v>34</v>
       </c>
       <c r="H296" s="10" t="s">
@@ -13892,7 +13892,7 @@
       <c r="F297" s="11">
         <v>1</v>
       </c>
-      <c r="G297" s="66">
+      <c r="G297" s="56">
         <v>35</v>
       </c>
       <c r="H297" s="16" t="s">
@@ -13930,7 +13930,7 @@
       <c r="F298" s="11">
         <v>1</v>
       </c>
-      <c r="G298" s="66">
+      <c r="G298" s="56">
         <v>36</v>
       </c>
       <c r="H298" s="10" t="s">
@@ -13968,7 +13968,7 @@
       <c r="F299" s="11">
         <v>2</v>
       </c>
-      <c r="G299" s="66">
+      <c r="G299" s="56">
         <v>51</v>
       </c>
       <c r="H299" s="10" t="s">
@@ -14006,7 +14006,7 @@
       <c r="F300" s="11">
         <v>2</v>
       </c>
-      <c r="G300" s="66">
+      <c r="G300" s="56">
         <v>52</v>
       </c>
       <c r="H300" s="10" t="s">
@@ -14044,7 +14044,7 @@
       <c r="F301" s="11">
         <v>2</v>
       </c>
-      <c r="G301" s="66">
+      <c r="G301" s="56">
         <v>53</v>
       </c>
       <c r="H301" s="10" t="s">
@@ -14082,7 +14082,7 @@
       <c r="F302" s="11">
         <v>2</v>
       </c>
-      <c r="G302" s="66">
+      <c r="G302" s="56">
         <v>54</v>
       </c>
       <c r="H302" s="10" t="s">
@@ -14120,7 +14120,7 @@
       <c r="F303" s="11">
         <v>2</v>
       </c>
-      <c r="G303" s="66">
+      <c r="G303" s="56">
         <v>59</v>
       </c>
       <c r="H303" s="16" t="s">
@@ -14158,7 +14158,7 @@
       <c r="F304" s="11">
         <v>2</v>
       </c>
-      <c r="G304" s="66">
+      <c r="G304" s="56">
         <v>60</v>
       </c>
       <c r="H304" s="10" t="s">
@@ -14196,7 +14196,7 @@
       <c r="F305" s="11">
         <v>2</v>
       </c>
-      <c r="G305" s="66">
+      <c r="G305" s="56">
         <v>61</v>
       </c>
       <c r="H305" s="10" t="s">
@@ -14234,7 +14234,7 @@
       <c r="F306" s="11">
         <v>2</v>
       </c>
-      <c r="G306" s="66">
+      <c r="G306" s="56">
         <v>62</v>
       </c>
       <c r="H306" s="10" t="s">
@@ -14272,7 +14272,7 @@
       <c r="F307" s="11">
         <v>2</v>
       </c>
-      <c r="G307" s="66">
+      <c r="G307" s="56">
         <v>63</v>
       </c>
       <c r="H307" s="10" t="s">
@@ -14310,7 +14310,7 @@
       <c r="F308" s="11">
         <v>2</v>
       </c>
-      <c r="G308" s="66">
+      <c r="G308" s="56">
         <v>64</v>
       </c>
       <c r="H308" s="10" t="s">
@@ -14348,7 +14348,7 @@
       <c r="F309" s="11">
         <v>2</v>
       </c>
-      <c r="G309" s="66">
+      <c r="G309" s="56">
         <v>65</v>
       </c>
       <c r="H309" s="10" t="s">
@@ -14386,7 +14386,7 @@
       <c r="F310" s="11">
         <v>3</v>
       </c>
-      <c r="G310" s="66">
+      <c r="G310" s="56">
         <v>104</v>
       </c>
       <c r="H310" s="10" t="s">
@@ -14424,7 +14424,7 @@
       <c r="F311" s="11">
         <v>3</v>
       </c>
-      <c r="G311" s="66">
+      <c r="G311" s="56">
         <v>105</v>
       </c>
       <c r="H311" s="10" t="s">
@@ -14462,7 +14462,7 @@
       <c r="F312" s="11">
         <v>3</v>
       </c>
-      <c r="G312" s="66">
+      <c r="G312" s="56">
         <v>106</v>
       </c>
       <c r="H312" s="10" t="s">
@@ -14500,7 +14500,7 @@
       <c r="F313" s="11">
         <v>3</v>
       </c>
-      <c r="G313" s="66">
+      <c r="G313" s="56">
         <v>107</v>
       </c>
       <c r="H313" s="10" t="s">
@@ -14538,7 +14538,7 @@
       <c r="F314" s="11">
         <v>3</v>
       </c>
-      <c r="G314" s="66">
+      <c r="G314" s="56">
         <v>108</v>
       </c>
       <c r="H314" s="10" t="s">
@@ -14576,7 +14576,7 @@
       <c r="F315" s="11">
         <v>3</v>
       </c>
-      <c r="G315" s="66">
+      <c r="G315" s="56">
         <v>109</v>
       </c>
       <c r="H315" s="16" t="s">
@@ -14614,7 +14614,7 @@
       <c r="F316" s="11">
         <v>3</v>
       </c>
-      <c r="G316" s="66">
+      <c r="G316" s="56">
         <v>110</v>
       </c>
       <c r="H316" s="10" t="s">
@@ -14652,7 +14652,7 @@
       <c r="F317" s="11">
         <v>3</v>
       </c>
-      <c r="G317" s="66">
+      <c r="G317" s="56">
         <v>111</v>
       </c>
       <c r="H317" s="10" t="s">
@@ -14690,7 +14690,7 @@
       <c r="F318" s="11">
         <v>3</v>
       </c>
-      <c r="G318" s="66">
+      <c r="G318" s="56">
         <v>112</v>
       </c>
       <c r="H318" s="10" t="s">
@@ -14728,7 +14728,7 @@
       <c r="F319" s="11">
         <v>3</v>
       </c>
-      <c r="G319" s="66">
+      <c r="G319" s="56">
         <v>113</v>
       </c>
       <c r="H319" s="10" t="s">
@@ -14766,7 +14766,7 @@
       <c r="F320" s="11">
         <v>3</v>
       </c>
-      <c r="G320" s="66">
+      <c r="G320" s="56">
         <v>114</v>
       </c>
       <c r="H320" s="10" t="s">
@@ -14804,7 +14804,7 @@
       <c r="F321" s="11">
         <v>3</v>
       </c>
-      <c r="G321" s="66">
+      <c r="G321" s="56">
         <v>115</v>
       </c>
       <c r="H321" s="10" t="s">
@@ -14842,7 +14842,7 @@
       <c r="F322" s="11">
         <v>3</v>
       </c>
-      <c r="G322" s="66">
+      <c r="G322" s="56">
         <v>116</v>
       </c>
       <c r="H322" s="10" t="s">
@@ -14880,7 +14880,7 @@
       <c r="F323" s="11">
         <v>3</v>
       </c>
-      <c r="G323" s="66">
+      <c r="G323" s="56">
         <v>117</v>
       </c>
       <c r="H323" s="16" t="s">
@@ -14918,7 +14918,7 @@
       <c r="F324" s="11">
         <v>4</v>
       </c>
-      <c r="G324" s="66">
+      <c r="G324" s="56">
         <v>151</v>
       </c>
       <c r="H324" s="10" t="s">
@@ -14956,7 +14956,7 @@
       <c r="F325" s="11">
         <v>4</v>
       </c>
-      <c r="G325" s="66">
+      <c r="G325" s="56">
         <v>152</v>
       </c>
       <c r="H325" s="10" t="s">
@@ -14994,7 +14994,7 @@
       <c r="F326" s="11">
         <v>4</v>
       </c>
-      <c r="G326" s="66">
+      <c r="G326" s="56">
         <v>153</v>
       </c>
       <c r="H326" s="10" t="s">
@@ -15032,7 +15032,7 @@
       <c r="F327" s="11">
         <v>4</v>
       </c>
-      <c r="G327" s="66">
+      <c r="G327" s="56">
         <v>154</v>
       </c>
       <c r="H327" s="10" t="s">
@@ -15070,7 +15070,7 @@
       <c r="F328" s="11">
         <v>4</v>
       </c>
-      <c r="G328" s="66">
+      <c r="G328" s="56">
         <v>155</v>
       </c>
       <c r="H328" s="10" t="s">
@@ -15108,7 +15108,7 @@
       <c r="F329" s="11">
         <v>4</v>
       </c>
-      <c r="G329" s="66">
+      <c r="G329" s="56">
         <v>156</v>
       </c>
       <c r="H329" s="10" t="s">
@@ -15146,7 +15146,7 @@
       <c r="F330" s="11">
         <v>4</v>
       </c>
-      <c r="G330" s="66">
+      <c r="G330" s="56">
         <v>157</v>
       </c>
       <c r="H330" s="10" t="s">
@@ -15184,7 +15184,7 @@
       <c r="F331" s="11">
         <v>4</v>
       </c>
-      <c r="G331" s="66">
+      <c r="G331" s="56">
         <v>158</v>
       </c>
       <c r="H331" s="10" t="s">
@@ -15222,7 +15222,7 @@
       <c r="F332" s="11">
         <v>4</v>
       </c>
-      <c r="G332" s="66">
+      <c r="G332" s="56">
         <v>159</v>
       </c>
       <c r="H332" s="10" t="s">
@@ -15260,7 +15260,7 @@
       <c r="F333" s="11">
         <v>4</v>
       </c>
-      <c r="G333" s="66">
+      <c r="G333" s="56">
         <v>160</v>
       </c>
       <c r="H333" s="10" t="s">
@@ -15298,7 +15298,7 @@
       <c r="F334" s="11">
         <v>4</v>
       </c>
-      <c r="G334" s="66">
+      <c r="G334" s="56">
         <v>161</v>
       </c>
       <c r="H334" s="10" t="s">
@@ -15336,7 +15336,7 @@
       <c r="F335" s="11">
         <v>4</v>
       </c>
-      <c r="G335" s="66">
+      <c r="G335" s="56">
         <v>162</v>
       </c>
       <c r="H335" s="10" t="s">
@@ -15374,7 +15374,7 @@
       <c r="F336" s="11">
         <v>4</v>
       </c>
-      <c r="G336" s="66">
+      <c r="G336" s="56">
         <v>163</v>
       </c>
       <c r="H336" s="10" t="s">
@@ -15412,7 +15412,7 @@
       <c r="F337" s="11">
         <v>4</v>
       </c>
-      <c r="G337" s="66">
+      <c r="G337" s="56">
         <v>164</v>
       </c>
       <c r="H337" s="10" t="s">
@@ -15450,7 +15450,7 @@
       <c r="F338" s="11">
         <v>4</v>
       </c>
-      <c r="G338" s="66">
+      <c r="G338" s="56">
         <v>165</v>
       </c>
       <c r="H338" s="10" t="s">
@@ -15488,7 +15488,7 @@
       <c r="F339" s="11">
         <v>4</v>
       </c>
-      <c r="G339" s="66">
+      <c r="G339" s="56">
         <v>166</v>
       </c>
       <c r="H339" s="10" t="s">
@@ -15526,7 +15526,7 @@
       <c r="F340" s="11">
         <v>4</v>
       </c>
-      <c r="G340" s="66">
+      <c r="G340" s="56">
         <v>167</v>
       </c>
       <c r="H340" s="10" t="s">
@@ -15564,7 +15564,7 @@
       <c r="F341" s="11">
         <v>4</v>
       </c>
-      <c r="G341" s="66">
+      <c r="G341" s="56">
         <v>168</v>
       </c>
       <c r="H341" s="10" t="s">
@@ -15602,7 +15602,7 @@
       <c r="F342" s="11">
         <v>4</v>
       </c>
-      <c r="G342" s="66">
+      <c r="G342" s="56">
         <v>169</v>
       </c>
       <c r="H342" s="16" t="s">
@@ -15640,7 +15640,7 @@
       <c r="F343" s="11">
         <v>4</v>
       </c>
-      <c r="G343" s="66">
+      <c r="G343" s="56">
         <v>170</v>
       </c>
       <c r="H343" s="10" t="s">
@@ -15678,7 +15678,7 @@
       <c r="F344" s="11">
         <v>4</v>
       </c>
-      <c r="G344" s="66">
+      <c r="G344" s="56">
         <v>171</v>
       </c>
       <c r="H344" s="10" t="s">
@@ -15716,7 +15716,7 @@
       <c r="F345" s="11">
         <v>4</v>
       </c>
-      <c r="G345" s="66">
+      <c r="G345" s="56">
         <v>172</v>
       </c>
       <c r="H345" s="10" t="s">
@@ -15754,7 +15754,7 @@
       <c r="F346" s="11">
         <v>4</v>
       </c>
-      <c r="G346" s="66">
+      <c r="G346" s="56">
         <v>173</v>
       </c>
       <c r="H346" s="10" t="s">
@@ -15792,7 +15792,7 @@
       <c r="F347" s="11">
         <v>4</v>
       </c>
-      <c r="G347" s="66">
+      <c r="G347" s="56">
         <v>174</v>
       </c>
       <c r="H347" s="10" t="s">
@@ -15830,7 +15830,7 @@
       <c r="F348" s="11">
         <v>4</v>
       </c>
-      <c r="G348" s="66">
+      <c r="G348" s="56">
         <v>175</v>
       </c>
       <c r="H348" s="10" t="s">
@@ -15868,7 +15868,7 @@
       <c r="F349" s="11">
         <v>4</v>
       </c>
-      <c r="G349" s="66">
+      <c r="G349" s="56">
         <v>176</v>
       </c>
       <c r="H349" s="10" t="s">
@@ -15906,7 +15906,7 @@
       <c r="F350" s="11">
         <v>4</v>
       </c>
-      <c r="G350" s="66">
+      <c r="G350" s="56">
         <v>177</v>
       </c>
       <c r="H350" s="10" t="s">
@@ -15944,7 +15944,7 @@
       <c r="F351" s="11">
         <v>4</v>
       </c>
-      <c r="G351" s="66">
+      <c r="G351" s="56">
         <v>178</v>
       </c>
       <c r="H351" s="10" t="s">
@@ -15982,7 +15982,7 @@
       <c r="F352" s="11">
         <v>4</v>
       </c>
-      <c r="G352" s="66">
+      <c r="G352" s="56">
         <v>179</v>
       </c>
       <c r="H352" s="10" t="s">
@@ -16020,7 +16020,7 @@
       <c r="F353" s="11">
         <v>4</v>
       </c>
-      <c r="G353" s="66">
+      <c r="G353" s="56">
         <v>180</v>
       </c>
       <c r="H353" s="10" t="s">
@@ -16058,7 +16058,7 @@
       <c r="F354" s="11">
         <v>4</v>
       </c>
-      <c r="G354" s="66">
+      <c r="G354" s="56">
         <v>181</v>
       </c>
       <c r="H354" s="10" t="s">
@@ -16096,7 +16096,7 @@
       <c r="F355" s="11">
         <v>4</v>
       </c>
-      <c r="G355" s="66">
+      <c r="G355" s="56">
         <v>182</v>
       </c>
       <c r="H355" s="10" t="s">
@@ -16134,7 +16134,7 @@
       <c r="F356" s="11">
         <v>4</v>
       </c>
-      <c r="G356" s="66">
+      <c r="G356" s="56">
         <v>183</v>
       </c>
       <c r="H356" s="10" t="s">
@@ -16172,7 +16172,7 @@
       <c r="F357" s="11">
         <v>4</v>
       </c>
-      <c r="G357" s="66">
+      <c r="G357" s="56">
         <v>184</v>
       </c>
       <c r="H357" s="10" t="s">
@@ -16210,7 +16210,7 @@
       <c r="F358" s="11">
         <v>4</v>
       </c>
-      <c r="G358" s="66">
+      <c r="G358" s="56">
         <v>185</v>
       </c>
       <c r="H358" s="10" t="s">
@@ -16248,7 +16248,7 @@
       <c r="F359" s="11">
         <v>4</v>
       </c>
-      <c r="G359" s="66">
+      <c r="G359" s="56">
         <v>186</v>
       </c>
       <c r="H359" s="16" t="s">
@@ -16286,7 +16286,7 @@
       <c r="F360" s="11">
         <v>4</v>
       </c>
-      <c r="G360" s="66">
+      <c r="G360" s="56">
         <v>187</v>
       </c>
       <c r="H360" s="10" t="s">
@@ -16324,7 +16324,7 @@
       <c r="F361" s="11">
         <v>4</v>
       </c>
-      <c r="G361" s="66">
+      <c r="G361" s="56">
         <v>188</v>
       </c>
       <c r="H361" s="10" t="s">
@@ -16362,7 +16362,7 @@
       <c r="F362" s="11">
         <v>1</v>
       </c>
-      <c r="G362" s="66">
+      <c r="G362" s="56">
         <v>37</v>
       </c>
       <c r="H362" s="10" t="s">
@@ -16400,7 +16400,7 @@
       <c r="F363" s="11">
         <v>3</v>
       </c>
-      <c r="G363" s="66">
+      <c r="G363" s="56">
         <v>119</v>
       </c>
       <c r="H363" s="10" t="s">
@@ -16438,7 +16438,7 @@
       <c r="F364" s="11">
         <v>3</v>
       </c>
-      <c r="G364" s="66">
+      <c r="G364" s="56">
         <v>118</v>
       </c>
       <c r="H364" s="10" t="s">
@@ -16476,7 +16476,7 @@
       <c r="F365" s="11">
         <v>3</v>
       </c>
-      <c r="G365" s="66">
+      <c r="G365" s="56">
         <v>120</v>
       </c>
       <c r="H365" s="10" t="s">
@@ -16514,7 +16514,7 @@
       <c r="F366" s="11">
         <v>1</v>
       </c>
-      <c r="G366" s="66">
+      <c r="G366" s="56">
         <v>1</v>
       </c>
       <c r="H366" s="16" t="s">
@@ -16552,7 +16552,7 @@
       <c r="F367" s="11">
         <v>1</v>
       </c>
-      <c r="G367" s="66">
+      <c r="G367" s="56">
         <v>2</v>
       </c>
       <c r="H367" s="10" t="s">
@@ -16590,7 +16590,7 @@
       <c r="F368" s="11">
         <v>1</v>
       </c>
-      <c r="G368" s="66">
+      <c r="G368" s="56">
         <v>3</v>
       </c>
       <c r="H368" s="10" t="s">
@@ -16628,7 +16628,7 @@
       <c r="F369" s="11">
         <v>1</v>
       </c>
-      <c r="G369" s="66">
+      <c r="G369" s="56">
         <v>4</v>
       </c>
       <c r="H369" s="10" t="s">
@@ -16666,7 +16666,7 @@
       <c r="F370" s="11">
         <v>1</v>
       </c>
-      <c r="G370" s="66">
+      <c r="G370" s="56">
         <v>5</v>
       </c>
       <c r="H370" s="16" t="s">
@@ -16704,7 +16704,7 @@
       <c r="F371" s="11">
         <v>1</v>
       </c>
-      <c r="G371" s="66">
+      <c r="G371" s="56">
         <v>6</v>
       </c>
       <c r="H371" s="10" t="s">
@@ -16742,7 +16742,7 @@
       <c r="F372" s="11">
         <v>2</v>
       </c>
-      <c r="G372" s="66">
+      <c r="G372" s="56">
         <v>51</v>
       </c>
       <c r="H372" s="16" t="s">
@@ -16780,7 +16780,7 @@
       <c r="F373" s="11">
         <v>2</v>
       </c>
-      <c r="G373" s="66">
+      <c r="G373" s="56">
         <v>52</v>
       </c>
       <c r="H373" s="10" t="s">
@@ -16818,7 +16818,7 @@
       <c r="F374" s="11">
         <v>2</v>
       </c>
-      <c r="G374" s="66">
+      <c r="G374" s="56">
         <v>53</v>
       </c>
       <c r="H374" s="10" t="s">
@@ -16856,7 +16856,7 @@
       <c r="F375" s="11">
         <v>2</v>
       </c>
-      <c r="G375" s="66">
+      <c r="G375" s="56">
         <v>54</v>
       </c>
       <c r="H375" s="10" t="s">
@@ -16894,7 +16894,7 @@
       <c r="F376" s="11">
         <v>2</v>
       </c>
-      <c r="G376" s="66">
+      <c r="G376" s="56">
         <v>55</v>
       </c>
       <c r="H376" s="10" t="s">
@@ -16932,7 +16932,7 @@
       <c r="F377" s="11">
         <v>2</v>
       </c>
-      <c r="G377" s="66">
+      <c r="G377" s="56">
         <v>56</v>
       </c>
       <c r="H377" s="10" t="s">
@@ -16970,7 +16970,7 @@
       <c r="F378" s="11">
         <v>2</v>
       </c>
-      <c r="G378" s="66">
+      <c r="G378" s="56">
         <v>57</v>
       </c>
       <c r="H378" s="16" t="s">
@@ -17008,7 +17008,7 @@
       <c r="F379" s="11">
         <v>2</v>
       </c>
-      <c r="G379" s="66">
+      <c r="G379" s="56">
         <v>58</v>
       </c>
       <c r="H379" s="10" t="s">
@@ -17046,7 +17046,7 @@
       <c r="F380" s="11">
         <v>2</v>
       </c>
-      <c r="G380" s="66">
+      <c r="G380" s="56">
         <v>59</v>
       </c>
       <c r="H380" s="10" t="s">
@@ -17084,7 +17084,7 @@
       <c r="F381" s="11">
         <v>2</v>
       </c>
-      <c r="G381" s="66">
+      <c r="G381" s="56">
         <v>60</v>
       </c>
       <c r="H381" s="10" t="s">
@@ -17122,7 +17122,7 @@
       <c r="F382" s="11">
         <v>2</v>
       </c>
-      <c r="G382" s="66">
+      <c r="G382" s="56">
         <v>61</v>
       </c>
       <c r="H382" s="10" t="s">
@@ -17160,7 +17160,7 @@
       <c r="F383" s="11">
         <v>2</v>
       </c>
-      <c r="G383" s="66">
+      <c r="G383" s="56">
         <v>62</v>
       </c>
       <c r="H383" s="10" t="s">
@@ -17198,7 +17198,7 @@
       <c r="F384" s="11">
         <v>2</v>
       </c>
-      <c r="G384" s="66">
+      <c r="G384" s="56">
         <v>63</v>
       </c>
       <c r="H384" s="10" t="s">
@@ -17236,7 +17236,7 @@
       <c r="F385" s="11">
         <v>2</v>
       </c>
-      <c r="G385" s="66">
+      <c r="G385" s="56">
         <v>64</v>
       </c>
       <c r="H385" s="10" t="s">
@@ -17274,7 +17274,7 @@
       <c r="F386" s="11">
         <v>2</v>
       </c>
-      <c r="G386" s="66">
+      <c r="G386" s="56">
         <v>65</v>
       </c>
       <c r="H386" s="10" t="s">
@@ -17312,7 +17312,7 @@
       <c r="F387" s="11">
         <v>2</v>
       </c>
-      <c r="G387" s="66">
+      <c r="G387" s="56">
         <v>66</v>
       </c>
       <c r="H387" s="10" t="s">
@@ -17350,7 +17350,7 @@
       <c r="F388" s="11">
         <v>2</v>
       </c>
-      <c r="G388" s="66">
+      <c r="G388" s="56">
         <v>67</v>
       </c>
       <c r="H388" s="10" t="s">
@@ -17388,7 +17388,7 @@
       <c r="F389" s="11">
         <v>2</v>
       </c>
-      <c r="G389" s="66">
+      <c r="G389" s="56">
         <v>68</v>
       </c>
       <c r="H389" s="10" t="s">
@@ -17426,7 +17426,7 @@
       <c r="F390" s="11">
         <v>2</v>
       </c>
-      <c r="G390" s="66">
+      <c r="G390" s="56">
         <v>69</v>
       </c>
       <c r="H390" s="10" t="s">
@@ -17464,7 +17464,7 @@
       <c r="F391" s="11">
         <v>2</v>
       </c>
-      <c r="G391" s="66">
+      <c r="G391" s="56">
         <v>70</v>
       </c>
       <c r="H391" s="10" t="s">
@@ -17502,7 +17502,7 @@
       <c r="F392" s="11">
         <v>2</v>
       </c>
-      <c r="G392" s="66">
+      <c r="G392" s="56">
         <v>71</v>
       </c>
       <c r="H392" s="10" t="s">
@@ -17540,7 +17540,7 @@
       <c r="F393" s="11">
         <v>2</v>
       </c>
-      <c r="G393" s="66">
+      <c r="G393" s="56">
         <v>72</v>
       </c>
       <c r="H393" s="10" t="s">
@@ -17578,7 +17578,7 @@
       <c r="F394" s="11">
         <v>2</v>
       </c>
-      <c r="G394" s="66">
+      <c r="G394" s="56">
         <v>73</v>
       </c>
       <c r="H394" s="10" t="s">
@@ -17616,7 +17616,7 @@
       <c r="F395" s="11">
         <v>2</v>
       </c>
-      <c r="G395" s="66">
+      <c r="G395" s="56">
         <v>74</v>
       </c>
       <c r="H395" s="10" t="s">
@@ -17654,7 +17654,7 @@
       <c r="F396" s="11">
         <v>2</v>
       </c>
-      <c r="G396" s="66">
+      <c r="G396" s="56">
         <v>75</v>
       </c>
       <c r="H396" s="10" t="s">
@@ -17692,7 +17692,7 @@
       <c r="F397" s="11">
         <v>2</v>
       </c>
-      <c r="G397" s="66">
+      <c r="G397" s="56">
         <v>76</v>
       </c>
       <c r="H397" s="10" t="s">
@@ -17730,7 +17730,7 @@
       <c r="F398" s="11">
         <v>2</v>
       </c>
-      <c r="G398" s="66">
+      <c r="G398" s="56">
         <v>77</v>
       </c>
       <c r="H398" s="10" t="s">
@@ -17768,7 +17768,7 @@
       <c r="F399" s="11">
         <v>2</v>
       </c>
-      <c r="G399" s="66">
+      <c r="G399" s="56">
         <v>78</v>
       </c>
       <c r="H399" s="10" t="s">
@@ -17806,7 +17806,7 @@
       <c r="F400" s="11">
         <v>2</v>
       </c>
-      <c r="G400" s="66">
+      <c r="G400" s="56">
         <v>79</v>
       </c>
       <c r="H400" s="10" t="s">
@@ -17844,7 +17844,7 @@
       <c r="F401" s="11">
         <v>2</v>
       </c>
-      <c r="G401" s="66">
+      <c r="G401" s="56">
         <v>80</v>
       </c>
       <c r="H401" s="10" t="s">
@@ -17882,7 +17882,7 @@
       <c r="F402" s="11">
         <v>2</v>
       </c>
-      <c r="G402" s="66">
+      <c r="G402" s="56">
         <v>81</v>
       </c>
       <c r="H402" s="10" t="s">
@@ -17920,7 +17920,7 @@
       <c r="F403" s="11">
         <v>3</v>
       </c>
-      <c r="G403" s="66">
+      <c r="G403" s="56">
         <v>101</v>
       </c>
       <c r="H403" s="10" t="s">
@@ -17958,7 +17958,7 @@
       <c r="F404" s="11">
         <v>3</v>
       </c>
-      <c r="G404" s="66">
+      <c r="G404" s="56">
         <v>102</v>
       </c>
       <c r="H404" s="10" t="s">
@@ -17996,7 +17996,7 @@
       <c r="F405" s="11">
         <v>3</v>
       </c>
-      <c r="G405" s="66">
+      <c r="G405" s="56">
         <v>103</v>
       </c>
       <c r="H405" s="10" t="s">
@@ -18034,7 +18034,7 @@
       <c r="F406" s="11">
         <v>3</v>
       </c>
-      <c r="G406" s="66">
+      <c r="G406" s="56">
         <v>104</v>
       </c>
       <c r="H406" s="10" t="s">
@@ -18072,7 +18072,7 @@
       <c r="F407" s="11">
         <v>3</v>
       </c>
-      <c r="G407" s="66">
+      <c r="G407" s="56">
         <v>105</v>
       </c>
       <c r="H407" s="10" t="s">
@@ -18110,7 +18110,7 @@
       <c r="F408" s="11">
         <v>3</v>
       </c>
-      <c r="G408" s="66">
+      <c r="G408" s="56">
         <v>106</v>
       </c>
       <c r="H408" s="10" t="s">
@@ -18148,7 +18148,7 @@
       <c r="F409" s="11">
         <v>3</v>
       </c>
-      <c r="G409" s="66">
+      <c r="G409" s="56">
         <v>107</v>
       </c>
       <c r="H409" s="10" t="s">
@@ -18186,7 +18186,7 @@
       <c r="F410" s="11">
         <v>3</v>
       </c>
-      <c r="G410" s="66">
+      <c r="G410" s="56">
         <v>108</v>
       </c>
       <c r="H410" s="10" t="s">
@@ -18224,7 +18224,7 @@
       <c r="F411" s="11">
         <v>3</v>
       </c>
-      <c r="G411" s="66">
+      <c r="G411" s="56">
         <v>109</v>
       </c>
       <c r="H411" s="10" t="s">
@@ -18262,7 +18262,7 @@
       <c r="F412" s="11">
         <v>3</v>
       </c>
-      <c r="G412" s="66">
+      <c r="G412" s="56">
         <v>110</v>
       </c>
       <c r="H412" s="10" t="s">
@@ -18300,7 +18300,7 @@
       <c r="F413" s="11">
         <v>3</v>
       </c>
-      <c r="G413" s="66">
+      <c r="G413" s="56">
         <v>111</v>
       </c>
       <c r="H413" s="10" t="s">
@@ -18338,7 +18338,7 @@
       <c r="F414" s="11">
         <v>3</v>
       </c>
-      <c r="G414" s="66">
+      <c r="G414" s="56">
         <v>112</v>
       </c>
       <c r="H414" s="10" t="s">
@@ -18376,7 +18376,7 @@
       <c r="F415" s="11">
         <v>3</v>
       </c>
-      <c r="G415" s="66">
+      <c r="G415" s="56">
         <v>113</v>
       </c>
       <c r="H415" s="10" t="s">
@@ -18414,7 +18414,7 @@
       <c r="F416" s="11">
         <v>3</v>
       </c>
-      <c r="G416" s="66">
+      <c r="G416" s="56">
         <v>114</v>
       </c>
       <c r="H416" s="10" t="s">
@@ -18452,7 +18452,7 @@
       <c r="F417" s="11">
         <v>3</v>
       </c>
-      <c r="G417" s="66">
+      <c r="G417" s="56">
         <v>115</v>
       </c>
       <c r="H417" s="10" t="s">
@@ -18490,7 +18490,7 @@
       <c r="F418" s="11">
         <v>3</v>
       </c>
-      <c r="G418" s="66">
+      <c r="G418" s="56">
         <v>116</v>
       </c>
       <c r="H418" s="10" t="s">
@@ -18528,7 +18528,7 @@
       <c r="F419" s="11">
         <v>3</v>
       </c>
-      <c r="G419" s="66">
+      <c r="G419" s="56">
         <v>117</v>
       </c>
       <c r="H419" s="10" t="s">
@@ -18566,7 +18566,7 @@
       <c r="F420" s="11">
         <v>3</v>
       </c>
-      <c r="G420" s="66">
+      <c r="G420" s="56">
         <v>118</v>
       </c>
       <c r="H420" s="10" t="s">
@@ -18604,7 +18604,7 @@
       <c r="F421" s="11">
         <v>3</v>
       </c>
-      <c r="G421" s="66">
+      <c r="G421" s="56">
         <v>119</v>
       </c>
       <c r="H421" s="10" t="s">
@@ -18642,7 +18642,7 @@
       <c r="F422" s="11">
         <v>3</v>
       </c>
-      <c r="G422" s="66">
+      <c r="G422" s="56">
         <v>120</v>
       </c>
       <c r="H422" s="10" t="s">
@@ -18680,7 +18680,7 @@
       <c r="F423" s="11">
         <v>3</v>
       </c>
-      <c r="G423" s="66">
+      <c r="G423" s="56">
         <v>121</v>
       </c>
       <c r="H423" s="10" t="s">
@@ -18718,7 +18718,7 @@
       <c r="F424" s="11">
         <v>3</v>
       </c>
-      <c r="G424" s="66">
+      <c r="G424" s="56">
         <v>122</v>
       </c>
       <c r="H424" s="10" t="s">
@@ -18756,7 +18756,7 @@
       <c r="F425" s="11">
         <v>3</v>
       </c>
-      <c r="G425" s="66">
+      <c r="G425" s="56">
         <v>123</v>
       </c>
       <c r="H425" s="10" t="s">
@@ -18794,7 +18794,7 @@
       <c r="F426" s="11">
         <v>3</v>
       </c>
-      <c r="G426" s="66">
+      <c r="G426" s="56">
         <v>124</v>
       </c>
       <c r="H426" s="10" t="s">
@@ -18832,7 +18832,7 @@
       <c r="F427" s="11">
         <v>3</v>
       </c>
-      <c r="G427" s="66">
+      <c r="G427" s="56">
         <v>125</v>
       </c>
       <c r="H427" s="10" t="s">
@@ -18870,7 +18870,7 @@
       <c r="F428" s="11">
         <v>3</v>
       </c>
-      <c r="G428" s="66">
+      <c r="G428" s="56">
         <v>126</v>
       </c>
       <c r="H428" s="10" t="s">
@@ -18908,7 +18908,7 @@
       <c r="F429" s="11">
         <v>3</v>
       </c>
-      <c r="G429" s="66">
+      <c r="G429" s="56">
         <v>127</v>
       </c>
       <c r="H429" s="10" t="s">
@@ -18946,7 +18946,7 @@
       <c r="F430" s="11">
         <v>3</v>
       </c>
-      <c r="G430" s="66">
+      <c r="G430" s="56">
         <v>128</v>
       </c>
       <c r="H430" s="10" t="s">
@@ -18984,7 +18984,7 @@
       <c r="F431" s="11">
         <v>3</v>
       </c>
-      <c r="G431" s="66">
+      <c r="G431" s="56">
         <v>129</v>
       </c>
       <c r="H431" s="16" t="s">
@@ -19022,7 +19022,7 @@
       <c r="F432" s="11">
         <v>1</v>
       </c>
-      <c r="G432" s="66">
+      <c r="G432" s="56">
         <v>1</v>
       </c>
       <c r="H432" s="16" t="s">
@@ -19060,7 +19060,7 @@
       <c r="F433" s="11">
         <v>1</v>
       </c>
-      <c r="G433" s="66">
+      <c r="G433" s="56">
         <v>2</v>
       </c>
       <c r="H433" s="10" t="s">
@@ -19098,7 +19098,7 @@
       <c r="F434" s="11">
         <v>1</v>
       </c>
-      <c r="G434" s="66">
+      <c r="G434" s="56">
         <v>3</v>
       </c>
       <c r="H434" s="10" t="s">
@@ -19136,7 +19136,7 @@
       <c r="F435" s="11">
         <v>1</v>
       </c>
-      <c r="G435" s="66">
+      <c r="G435" s="56">
         <v>4</v>
       </c>
       <c r="H435" s="16" t="s">
@@ -19174,7 +19174,7 @@
       <c r="F436" s="11">
         <v>1</v>
       </c>
-      <c r="G436" s="66">
+      <c r="G436" s="56">
         <v>5</v>
       </c>
       <c r="H436" s="16" t="s">
@@ -19212,7 +19212,7 @@
       <c r="F437" s="11">
         <v>1</v>
       </c>
-      <c r="G437" s="66">
+      <c r="G437" s="56">
         <v>6</v>
       </c>
       <c r="H437" s="10" t="s">
@@ -19250,7 +19250,7 @@
       <c r="F438" s="11">
         <v>1</v>
       </c>
-      <c r="G438" s="66">
+      <c r="G438" s="56">
         <v>7</v>
       </c>
       <c r="H438" s="10" t="s">
@@ -19288,7 +19288,7 @@
       <c r="F439" s="11">
         <v>1</v>
       </c>
-      <c r="G439" s="66">
+      <c r="G439" s="56">
         <v>8</v>
       </c>
       <c r="H439" s="10" t="s">
@@ -19326,7 +19326,7 @@
       <c r="F440" s="11">
         <v>1</v>
       </c>
-      <c r="G440" s="66">
+      <c r="G440" s="56">
         <v>9</v>
       </c>
       <c r="H440" s="10" t="s">
@@ -19364,7 +19364,7 @@
       <c r="F441" s="11">
         <v>1</v>
       </c>
-      <c r="G441" s="66">
+      <c r="G441" s="56">
         <v>10</v>
       </c>
       <c r="H441" s="10" t="s">
@@ -19402,7 +19402,7 @@
       <c r="F442" s="11">
         <v>1</v>
       </c>
-      <c r="G442" s="66">
+      <c r="G442" s="56">
         <v>11</v>
       </c>
       <c r="H442" s="10" t="s">
@@ -19440,7 +19440,7 @@
       <c r="F443" s="11">
         <v>2</v>
       </c>
-      <c r="G443" s="66">
+      <c r="G443" s="56">
         <v>51</v>
       </c>
       <c r="H443" s="16" t="s">
@@ -19478,7 +19478,7 @@
       <c r="F444" s="11">
         <v>2</v>
       </c>
-      <c r="G444" s="66">
+      <c r="G444" s="56">
         <v>52</v>
       </c>
       <c r="H444" s="10" t="s">
@@ -19516,7 +19516,7 @@
       <c r="F445" s="11">
         <v>2</v>
       </c>
-      <c r="G445" s="66">
+      <c r="G445" s="56">
         <v>53</v>
       </c>
       <c r="H445" s="10" t="s">
@@ -19554,7 +19554,7 @@
       <c r="F446" s="11">
         <v>2</v>
       </c>
-      <c r="G446" s="66">
+      <c r="G446" s="56">
         <v>54</v>
       </c>
       <c r="H446" s="10" t="s">
@@ -19592,7 +19592,7 @@
       <c r="F447" s="11">
         <v>2</v>
       </c>
-      <c r="G447" s="66">
+      <c r="G447" s="56">
         <v>55</v>
       </c>
       <c r="H447" s="10" t="s">
@@ -19630,7 +19630,7 @@
       <c r="F448" s="11">
         <v>2</v>
       </c>
-      <c r="G448" s="66">
+      <c r="G448" s="56">
         <v>56</v>
       </c>
       <c r="H448" s="10" t="s">
@@ -19668,7 +19668,7 @@
       <c r="F449" s="11">
         <v>2</v>
       </c>
-      <c r="G449" s="66">
+      <c r="G449" s="56">
         <v>57</v>
       </c>
       <c r="H449" s="10" t="s">
@@ -19706,7 +19706,7 @@
       <c r="F450" s="11">
         <v>2</v>
       </c>
-      <c r="G450" s="66">
+      <c r="G450" s="56">
         <v>58</v>
       </c>
       <c r="H450" s="10" t="s">
@@ -19744,7 +19744,7 @@
       <c r="F451" s="11">
         <v>2</v>
       </c>
-      <c r="G451" s="66">
+      <c r="G451" s="56">
         <v>59</v>
       </c>
       <c r="H451" s="10" t="s">
@@ -19782,7 +19782,7 @@
       <c r="F452" s="11">
         <v>2</v>
       </c>
-      <c r="G452" s="66">
+      <c r="G452" s="56">
         <v>60</v>
       </c>
       <c r="H452" s="10" t="s">
@@ -19820,7 +19820,7 @@
       <c r="F453" s="11">
         <v>2</v>
       </c>
-      <c r="G453" s="66">
+      <c r="G453" s="56">
         <v>61</v>
       </c>
       <c r="H453" s="10" t="s">
@@ -19858,7 +19858,7 @@
       <c r="F454" s="11">
         <v>2</v>
       </c>
-      <c r="G454" s="66">
+      <c r="G454" s="56">
         <v>62</v>
       </c>
       <c r="H454" s="10" t="s">
@@ -19896,7 +19896,7 @@
       <c r="F455" s="11">
         <v>2</v>
       </c>
-      <c r="G455" s="66">
+      <c r="G455" s="56">
         <v>63</v>
       </c>
       <c r="H455" s="10" t="s">
@@ -19934,7 +19934,7 @@
       <c r="F456" s="11">
         <v>2</v>
       </c>
-      <c r="G456" s="66">
+      <c r="G456" s="56">
         <v>64</v>
       </c>
       <c r="H456" s="10" t="s">
@@ -19972,7 +19972,7 @@
       <c r="F457" s="11">
         <v>2</v>
       </c>
-      <c r="G457" s="66">
+      <c r="G457" s="56">
         <v>65</v>
       </c>
       <c r="H457" s="10" t="s">
@@ -20010,7 +20010,7 @@
       <c r="F458" s="11">
         <v>2</v>
       </c>
-      <c r="G458" s="66">
+      <c r="G458" s="56">
         <v>66</v>
       </c>
       <c r="H458" s="10" t="s">
@@ -20048,7 +20048,7 @@
       <c r="F459" s="11">
         <v>2</v>
       </c>
-      <c r="G459" s="66">
+      <c r="G459" s="56">
         <v>67</v>
       </c>
       <c r="H459" s="10" t="s">
@@ -20086,7 +20086,7 @@
       <c r="F460" s="11">
         <v>2</v>
       </c>
-      <c r="G460" s="66">
+      <c r="G460" s="56">
         <v>68</v>
       </c>
       <c r="H460" s="10" t="s">
@@ -20124,7 +20124,7 @@
       <c r="F461" s="11">
         <v>2</v>
       </c>
-      <c r="G461" s="66">
+      <c r="G461" s="56">
         <v>69</v>
       </c>
       <c r="H461" s="10" t="s">
@@ -20162,7 +20162,7 @@
       <c r="F462" s="11">
         <v>2</v>
       </c>
-      <c r="G462" s="66">
+      <c r="G462" s="56">
         <v>70</v>
       </c>
       <c r="H462" s="10" t="s">
@@ -20200,7 +20200,7 @@
       <c r="F463" s="11">
         <v>2</v>
       </c>
-      <c r="G463" s="66">
+      <c r="G463" s="56">
         <v>71</v>
       </c>
       <c r="H463" s="10" t="s">
@@ -20238,7 +20238,7 @@
       <c r="F464" s="11">
         <v>2</v>
       </c>
-      <c r="G464" s="66">
+      <c r="G464" s="56">
         <v>72</v>
       </c>
       <c r="H464" s="10" t="s">
@@ -20276,7 +20276,7 @@
       <c r="F465" s="11">
         <v>2</v>
       </c>
-      <c r="G465" s="66">
+      <c r="G465" s="56">
         <v>73</v>
       </c>
       <c r="H465" s="10" t="s">
@@ -20314,7 +20314,7 @@
       <c r="F466" s="11">
         <v>2</v>
       </c>
-      <c r="G466" s="66">
+      <c r="G466" s="56">
         <v>74</v>
       </c>
       <c r="H466" s="10" t="s">
@@ -20352,7 +20352,7 @@
       <c r="F467" s="11">
         <v>2</v>
       </c>
-      <c r="G467" s="66">
+      <c r="G467" s="56">
         <v>75</v>
       </c>
       <c r="H467" s="10" t="s">
@@ -20390,7 +20390,7 @@
       <c r="F468" s="11">
         <v>3</v>
       </c>
-      <c r="G468" s="66">
+      <c r="G468" s="56">
         <v>101</v>
       </c>
       <c r="H468" s="10" t="s">
@@ -20428,7 +20428,7 @@
       <c r="F469" s="11">
         <v>3</v>
       </c>
-      <c r="G469" s="66">
+      <c r="G469" s="56">
         <v>102</v>
       </c>
       <c r="H469" s="10" t="s">
@@ -20466,7 +20466,7 @@
       <c r="F470" s="11">
         <v>3</v>
       </c>
-      <c r="G470" s="66">
+      <c r="G470" s="56">
         <v>103</v>
       </c>
       <c r="H470" s="10" t="s">
@@ -20504,7 +20504,7 @@
       <c r="F471" s="11">
         <v>3</v>
       </c>
-      <c r="G471" s="66">
+      <c r="G471" s="56">
         <v>104</v>
       </c>
       <c r="H471" s="10" t="s">
@@ -20542,7 +20542,7 @@
       <c r="F472" s="11">
         <v>3</v>
       </c>
-      <c r="G472" s="66">
+      <c r="G472" s="56">
         <v>105</v>
       </c>
       <c r="H472" s="10" t="s">
@@ -20580,7 +20580,7 @@
       <c r="F473" s="11">
         <v>3</v>
       </c>
-      <c r="G473" s="66">
+      <c r="G473" s="56">
         <v>106</v>
       </c>
       <c r="H473" s="10" t="s">
@@ -20618,7 +20618,7 @@
       <c r="F474" s="11">
         <v>3</v>
       </c>
-      <c r="G474" s="66">
+      <c r="G474" s="56">
         <v>107</v>
       </c>
       <c r="H474" s="10" t="s">
@@ -20656,7 +20656,7 @@
       <c r="F475" s="11">
         <v>3</v>
       </c>
-      <c r="G475" s="66">
+      <c r="G475" s="56">
         <v>108</v>
       </c>
       <c r="H475" s="10" t="s">
@@ -20694,7 +20694,7 @@
       <c r="F476" s="11">
         <v>3</v>
       </c>
-      <c r="G476" s="66">
+      <c r="G476" s="56">
         <v>109</v>
       </c>
       <c r="H476" s="10" t="s">
@@ -20732,7 +20732,7 @@
       <c r="F477" s="11">
         <v>3</v>
       </c>
-      <c r="G477" s="66">
+      <c r="G477" s="56">
         <v>110</v>
       </c>
       <c r="H477" s="10" t="s">
@@ -20770,7 +20770,7 @@
       <c r="F478" s="11">
         <v>3</v>
       </c>
-      <c r="G478" s="66">
+      <c r="G478" s="56">
         <v>111</v>
       </c>
       <c r="H478" s="10" t="s">
@@ -20808,7 +20808,7 @@
       <c r="F479" s="11">
         <v>3</v>
       </c>
-      <c r="G479" s="66">
+      <c r="G479" s="56">
         <v>112</v>
       </c>
       <c r="H479" s="10" t="s">
@@ -20846,7 +20846,7 @@
       <c r="F480" s="11">
         <v>3</v>
       </c>
-      <c r="G480" s="66">
+      <c r="G480" s="56">
         <v>113</v>
       </c>
       <c r="H480" s="10" t="s">
@@ -20884,7 +20884,7 @@
       <c r="F481" s="11">
         <v>3</v>
       </c>
-      <c r="G481" s="66">
+      <c r="G481" s="56">
         <v>114</v>
       </c>
       <c r="H481" s="10" t="s">
@@ -20922,7 +20922,7 @@
       <c r="F482" s="11">
         <v>3</v>
       </c>
-      <c r="G482" s="66">
+      <c r="G482" s="56">
         <v>115</v>
       </c>
       <c r="H482" s="10" t="s">
@@ -20960,7 +20960,7 @@
       <c r="F483" s="11">
         <v>3</v>
       </c>
-      <c r="G483" s="66">
+      <c r="G483" s="56">
         <v>116</v>
       </c>
       <c r="H483" s="10" t="s">
@@ -20998,7 +20998,7 @@
       <c r="F484" s="11">
         <v>3</v>
       </c>
-      <c r="G484" s="66">
+      <c r="G484" s="56">
         <v>117</v>
       </c>
       <c r="H484" s="10" t="s">
@@ -21036,7 +21036,7 @@
       <c r="F485" s="11">
         <v>3</v>
       </c>
-      <c r="G485" s="66">
+      <c r="G485" s="56">
         <v>118</v>
       </c>
       <c r="H485" s="10" t="s">
@@ -21074,7 +21074,7 @@
       <c r="F486" s="11">
         <v>3</v>
       </c>
-      <c r="G486" s="66">
+      <c r="G486" s="56">
         <v>119</v>
       </c>
       <c r="H486" s="10" t="s">
@@ -21112,7 +21112,7 @@
       <c r="F487" s="11">
         <v>3</v>
       </c>
-      <c r="G487" s="66">
+      <c r="G487" s="56">
         <v>120</v>
       </c>
       <c r="H487" s="10" t="s">
@@ -21150,7 +21150,7 @@
       <c r="F488" s="11">
         <v>3</v>
       </c>
-      <c r="G488" s="66">
+      <c r="G488" s="56">
         <v>121</v>
       </c>
       <c r="H488" s="10" t="s">
@@ -21188,7 +21188,7 @@
       <c r="F489" s="11">
         <v>3</v>
       </c>
-      <c r="G489" s="66">
+      <c r="G489" s="56">
         <v>122</v>
       </c>
       <c r="H489" s="10" t="s">
@@ -21226,7 +21226,7 @@
       <c r="F490" s="11">
         <v>3</v>
       </c>
-      <c r="G490" s="66">
+      <c r="G490" s="56">
         <v>123</v>
       </c>
       <c r="H490" s="10" t="s">
@@ -21264,7 +21264,7 @@
       <c r="F491" s="11">
         <v>3</v>
       </c>
-      <c r="G491" s="66">
+      <c r="G491" s="56">
         <v>124</v>
       </c>
       <c r="H491" s="10" t="s">
@@ -21302,7 +21302,7 @@
       <c r="F492" s="11">
         <v>3</v>
       </c>
-      <c r="G492" s="66">
+      <c r="G492" s="56">
         <v>125</v>
       </c>
       <c r="H492" s="10" t="s">
@@ -21340,7 +21340,7 @@
       <c r="F493" s="11">
         <v>3</v>
       </c>
-      <c r="G493" s="66">
+      <c r="G493" s="56">
         <v>126</v>
       </c>
       <c r="H493" s="10" t="s">
@@ -21378,7 +21378,7 @@
       <c r="F494" s="11">
         <v>3</v>
       </c>
-      <c r="G494" s="66">
+      <c r="G494" s="56">
         <v>127</v>
       </c>
       <c r="H494" s="10" t="s">
@@ -21416,7 +21416,7 @@
       <c r="F495" s="11">
         <v>3</v>
       </c>
-      <c r="G495" s="66">
+      <c r="G495" s="56">
         <v>128</v>
       </c>
       <c r="H495" s="10" t="s">
@@ -21454,7 +21454,7 @@
       <c r="F496" s="11">
         <v>3</v>
       </c>
-      <c r="G496" s="66">
+      <c r="G496" s="56">
         <v>129</v>
       </c>
       <c r="H496" s="10" t="s">
@@ -21492,7 +21492,7 @@
       <c r="F497" s="11">
         <v>3</v>
       </c>
-      <c r="G497" s="66">
+      <c r="G497" s="56">
         <v>130</v>
       </c>
       <c r="H497" s="10" t="s">
@@ -21530,7 +21530,7 @@
       <c r="F498" s="11">
         <v>3</v>
       </c>
-      <c r="G498" s="66">
+      <c r="G498" s="56">
         <v>131</v>
       </c>
       <c r="H498" s="10" t="s">
@@ -21568,7 +21568,7 @@
       <c r="F499" s="11">
         <v>4</v>
       </c>
-      <c r="G499" s="66">
+      <c r="G499" s="56">
         <v>151</v>
       </c>
       <c r="H499" s="10" t="s">
@@ -21606,7 +21606,7 @@
       <c r="F500" s="11">
         <v>4</v>
       </c>
-      <c r="G500" s="66">
+      <c r="G500" s="56">
         <v>152</v>
       </c>
       <c r="H500" s="10" t="s">
@@ -21644,7 +21644,7 @@
       <c r="F501" s="11">
         <v>4</v>
       </c>
-      <c r="G501" s="66">
+      <c r="G501" s="56">
         <v>153</v>
       </c>
       <c r="H501" s="10" t="s">
@@ -21682,7 +21682,7 @@
       <c r="F502" s="11">
         <v>4</v>
       </c>
-      <c r="G502" s="66">
+      <c r="G502" s="56">
         <v>154</v>
       </c>
       <c r="H502" s="10" t="s">
@@ -21720,7 +21720,7 @@
       <c r="F503" s="11">
         <v>4</v>
       </c>
-      <c r="G503" s="66">
+      <c r="G503" s="56">
         <v>155</v>
       </c>
       <c r="H503" s="10" t="s">
@@ -21758,7 +21758,7 @@
       <c r="F504" s="11">
         <v>4</v>
       </c>
-      <c r="G504" s="66">
+      <c r="G504" s="56">
         <v>156</v>
       </c>
       <c r="H504" s="10" t="s">
@@ -21796,7 +21796,7 @@
       <c r="F505" s="11">
         <v>4</v>
       </c>
-      <c r="G505" s="66">
+      <c r="G505" s="56">
         <v>157</v>
       </c>
       <c r="H505" s="16" t="s">
@@ -21834,7 +21834,7 @@
       <c r="F506" s="11">
         <v>4</v>
       </c>
-      <c r="G506" s="66">
+      <c r="G506" s="56">
         <v>158</v>
       </c>
       <c r="H506" s="10" t="s">
@@ -21872,7 +21872,7 @@
       <c r="F507" s="11">
         <v>4</v>
       </c>
-      <c r="G507" s="66">
+      <c r="G507" s="56">
         <v>159</v>
       </c>
       <c r="H507" s="10" t="s">
@@ -21910,7 +21910,7 @@
       <c r="F508" s="11">
         <v>4</v>
       </c>
-      <c r="G508" s="66">
+      <c r="G508" s="56">
         <v>160</v>
       </c>
       <c r="H508" s="10" t="s">
@@ -21948,7 +21948,7 @@
       <c r="F509" s="11">
         <v>4</v>
       </c>
-      <c r="G509" s="66">
+      <c r="G509" s="56">
         <v>161</v>
       </c>
       <c r="H509" s="10" t="s">
@@ -21986,7 +21986,7 @@
       <c r="F510" s="11">
         <v>4</v>
       </c>
-      <c r="G510" s="66">
+      <c r="G510" s="56">
         <v>162</v>
       </c>
       <c r="H510" s="10" t="s">
@@ -22024,7 +22024,7 @@
       <c r="F511" s="11">
         <v>4</v>
       </c>
-      <c r="G511" s="66">
+      <c r="G511" s="56">
         <v>163</v>
       </c>
       <c r="H511" s="10" t="s">
@@ -22062,7 +22062,7 @@
       <c r="F512" s="11">
         <v>4</v>
       </c>
-      <c r="G512" s="66">
+      <c r="G512" s="56">
         <v>164</v>
       </c>
       <c r="H512" s="10" t="s">
@@ -22100,7 +22100,7 @@
       <c r="F513" s="11">
         <v>4</v>
       </c>
-      <c r="G513" s="66">
+      <c r="G513" s="56">
         <v>165</v>
       </c>
       <c r="H513" s="10" t="s">
@@ -22138,7 +22138,7 @@
       <c r="F514" s="11">
         <v>4</v>
       </c>
-      <c r="G514" s="66">
+      <c r="G514" s="56">
         <v>166</v>
       </c>
       <c r="H514" s="10" t="s">
@@ -22176,7 +22176,7 @@
       <c r="F515" s="11">
         <v>4</v>
       </c>
-      <c r="G515" s="66">
+      <c r="G515" s="56">
         <v>167</v>
       </c>
       <c r="H515" s="10" t="s">
@@ -22214,7 +22214,7 @@
       <c r="F516" s="11">
         <v>4</v>
       </c>
-      <c r="G516" s="66">
+      <c r="G516" s="56">
         <v>168</v>
       </c>
       <c r="H516" s="10" t="s">
@@ -22252,7 +22252,7 @@
       <c r="F517" s="11">
         <v>4</v>
       </c>
-      <c r="G517" s="66">
+      <c r="G517" s="56">
         <v>169</v>
       </c>
       <c r="H517" s="10" t="s">
@@ -22290,7 +22290,7 @@
       <c r="F518" s="11">
         <v>4</v>
       </c>
-      <c r="G518" s="66">
+      <c r="G518" s="56">
         <v>170</v>
       </c>
       <c r="H518" s="10" t="s">
@@ -22328,7 +22328,7 @@
       <c r="F519" s="11">
         <v>4</v>
       </c>
-      <c r="G519" s="66">
+      <c r="G519" s="56">
         <v>171</v>
       </c>
       <c r="H519" s="10" t="s">
@@ -22366,7 +22366,7 @@
       <c r="F520" s="11">
         <v>4</v>
       </c>
-      <c r="G520" s="66">
+      <c r="G520" s="56">
         <v>172</v>
       </c>
       <c r="H520" s="10" t="s">
@@ -22404,7 +22404,7 @@
       <c r="F521" s="11">
         <v>4</v>
       </c>
-      <c r="G521" s="66">
+      <c r="G521" s="56">
         <v>173</v>
       </c>
       <c r="H521" s="10" t="s">
@@ -22442,7 +22442,7 @@
       <c r="F522" s="11">
         <v>4</v>
       </c>
-      <c r="G522" s="66">
+      <c r="G522" s="56">
         <v>174</v>
       </c>
       <c r="H522" s="10" t="s">
@@ -22480,7 +22480,7 @@
       <c r="F523" s="11">
         <v>4</v>
       </c>
-      <c r="G523" s="66">
+      <c r="G523" s="56">
         <v>175</v>
       </c>
       <c r="H523" s="10" t="s">
@@ -22518,7 +22518,7 @@
       <c r="F524" s="11">
         <v>4</v>
       </c>
-      <c r="G524" s="66">
+      <c r="G524" s="56">
         <v>176</v>
       </c>
       <c r="H524" s="10" t="s">
@@ -22556,7 +22556,7 @@
       <c r="F525" s="11">
         <v>4</v>
       </c>
-      <c r="G525" s="66">
+      <c r="G525" s="56">
         <v>177</v>
       </c>
       <c r="H525" s="10" t="s">
@@ -22594,7 +22594,7 @@
       <c r="F526" s="11">
         <v>4</v>
       </c>
-      <c r="G526" s="66">
+      <c r="G526" s="56">
         <v>178</v>
       </c>
       <c r="H526" s="10" t="s">
@@ -22635,7 +22635,7 @@
       <c r="F527" s="11">
         <v>4</v>
       </c>
-      <c r="G527" s="66">
+      <c r="G527" s="56">
         <v>179</v>
       </c>
       <c r="H527" s="10" t="s">
@@ -22676,7 +22676,7 @@
       <c r="F528" s="11">
         <v>4</v>
       </c>
-      <c r="G528" s="66">
+      <c r="G528" s="56">
         <v>180</v>
       </c>
       <c r="H528" s="10" t="s">
@@ -22717,7 +22717,7 @@
       <c r="F529" s="11">
         <v>4</v>
       </c>
-      <c r="G529" s="66">
+      <c r="G529" s="56">
         <v>181</v>
       </c>
       <c r="H529" s="10" t="s">
@@ -22758,7 +22758,7 @@
       <c r="F530" s="11">
         <v>3</v>
       </c>
-      <c r="G530" s="66">
+      <c r="G530" s="56">
         <v>101</v>
       </c>
       <c r="H530" s="10" t="s">
@@ -22799,7 +22799,7 @@
       <c r="F531" s="11">
         <v>3</v>
       </c>
-      <c r="G531" s="66">
+      <c r="G531" s="56">
         <v>112</v>
       </c>
       <c r="H531" s="10" t="s">
@@ -22840,7 +22840,7 @@
       <c r="F532" s="11">
         <v>3</v>
       </c>
-      <c r="G532" s="66">
+      <c r="G532" s="56">
         <v>113</v>
       </c>
       <c r="H532" s="10" t="s">
@@ -22881,7 +22881,7 @@
       <c r="F533" s="11">
         <v>3</v>
       </c>
-      <c r="G533" s="66">
+      <c r="G533" s="56">
         <v>114</v>
       </c>
       <c r="H533" s="16" t="s">
@@ -22922,7 +22922,7 @@
       <c r="F534" s="11">
         <v>3</v>
       </c>
-      <c r="G534" s="66">
+      <c r="G534" s="56">
         <v>102</v>
       </c>
       <c r="H534" s="10" t="s">
@@ -22963,7 +22963,7 @@
       <c r="F535" s="11">
         <v>3</v>
       </c>
-      <c r="G535" s="66">
+      <c r="G535" s="56">
         <v>103</v>
       </c>
       <c r="H535" s="10" t="s">
@@ -23004,7 +23004,7 @@
       <c r="F536" s="11">
         <v>3</v>
       </c>
-      <c r="G536" s="66">
+      <c r="G536" s="56">
         <v>104</v>
       </c>
       <c r="H536" s="10" t="s">
@@ -23045,7 +23045,7 @@
       <c r="F537" s="11">
         <v>3</v>
       </c>
-      <c r="G537" s="66">
+      <c r="G537" s="56">
         <v>105</v>
       </c>
       <c r="H537" s="10" t="s">
@@ -23086,7 +23086,7 @@
       <c r="F538" s="11">
         <v>3</v>
       </c>
-      <c r="G538" s="66">
+      <c r="G538" s="56">
         <v>106</v>
       </c>
       <c r="H538" s="10" t="s">
@@ -23127,7 +23127,7 @@
       <c r="F539" s="11">
         <v>3</v>
       </c>
-      <c r="G539" s="66">
+      <c r="G539" s="56">
         <v>107</v>
       </c>
       <c r="H539" s="10" t="s">
@@ -23168,7 +23168,7 @@
       <c r="F540" s="11">
         <v>3</v>
       </c>
-      <c r="G540" s="66">
+      <c r="G540" s="56">
         <v>108</v>
       </c>
       <c r="H540" s="16" t="s">
@@ -23209,7 +23209,7 @@
       <c r="F541" s="11">
         <v>3</v>
       </c>
-      <c r="G541" s="66">
+      <c r="G541" s="56">
         <v>109</v>
       </c>
       <c r="H541" s="10" t="s">
@@ -23250,7 +23250,7 @@
       <c r="F542" s="11">
         <v>3</v>
       </c>
-      <c r="G542" s="66">
+      <c r="G542" s="56">
         <v>110</v>
       </c>
       <c r="H542" s="10" t="s">
@@ -23291,7 +23291,7 @@
       <c r="F543" s="11">
         <v>3</v>
       </c>
-      <c r="G543" s="66">
+      <c r="G543" s="56">
         <v>111</v>
       </c>
       <c r="H543" s="10" t="s">
@@ -23332,7 +23332,7 @@
       <c r="F544" s="11">
         <v>1</v>
       </c>
-      <c r="G544" s="66">
+      <c r="G544" s="56">
         <v>1</v>
       </c>
       <c r="H544" s="10" t="s">
@@ -23373,7 +23373,7 @@
       <c r="F545" s="11">
         <v>1</v>
       </c>
-      <c r="G545" s="66">
+      <c r="G545" s="56">
         <v>2</v>
       </c>
       <c r="H545" s="10" t="s">
@@ -23414,7 +23414,7 @@
       <c r="F546" s="11">
         <v>1</v>
       </c>
-      <c r="G546" s="66">
+      <c r="G546" s="56">
         <v>3</v>
       </c>
       <c r="H546" s="10" t="s">
@@ -23455,7 +23455,7 @@
       <c r="F547" s="11">
         <v>1</v>
       </c>
-      <c r="G547" s="66">
+      <c r="G547" s="56">
         <v>4</v>
       </c>
       <c r="H547" s="10" t="s">
@@ -23496,7 +23496,7 @@
       <c r="F548" s="11">
         <v>1</v>
       </c>
-      <c r="G548" s="66">
+      <c r="G548" s="56">
         <v>5</v>
       </c>
       <c r="H548" s="10" t="s">
@@ -23537,7 +23537,7 @@
       <c r="F549" s="11">
         <v>1</v>
       </c>
-      <c r="G549" s="66">
+      <c r="G549" s="56">
         <v>6</v>
       </c>
       <c r="H549" s="16" t="s">
@@ -23578,7 +23578,7 @@
       <c r="F550" s="11">
         <v>1</v>
       </c>
-      <c r="G550" s="66">
+      <c r="G550" s="56">
         <v>7</v>
       </c>
       <c r="H550" s="10" t="s">
@@ -23619,7 +23619,7 @@
       <c r="F551" s="11">
         <v>1</v>
       </c>
-      <c r="G551" s="66">
+      <c r="G551" s="56">
         <v>8</v>
       </c>
       <c r="H551" s="10" t="s">
@@ -23660,7 +23660,7 @@
       <c r="F552" s="11">
         <v>1</v>
       </c>
-      <c r="G552" s="66">
+      <c r="G552" s="56">
         <v>9</v>
       </c>
       <c r="H552" s="10" t="s">
@@ -23701,7 +23701,7 @@
       <c r="F553" s="11">
         <v>1</v>
       </c>
-      <c r="G553" s="66">
+      <c r="G553" s="56">
         <v>10</v>
       </c>
       <c r="H553" s="10" t="s">
@@ -23742,7 +23742,7 @@
       <c r="F554" s="11">
         <v>2</v>
       </c>
-      <c r="G554" s="66">
+      <c r="G554" s="56">
         <v>51</v>
       </c>
       <c r="H554" s="10" t="s">
@@ -23783,7 +23783,7 @@
       <c r="F555" s="11">
         <v>2</v>
       </c>
-      <c r="G555" s="66">
+      <c r="G555" s="56">
         <v>52</v>
       </c>
       <c r="H555" s="10" t="s">
@@ -23824,7 +23824,7 @@
       <c r="F556" s="11">
         <v>2</v>
       </c>
-      <c r="G556" s="66">
+      <c r="G556" s="56">
         <v>53</v>
       </c>
       <c r="H556" s="10" t="s">
@@ -23865,7 +23865,7 @@
       <c r="F557" s="11">
         <v>2</v>
       </c>
-      <c r="G557" s="66">
+      <c r="G557" s="56">
         <v>54</v>
       </c>
       <c r="H557" s="10" t="s">
@@ -23906,7 +23906,7 @@
       <c r="F558" s="11">
         <v>2</v>
       </c>
-      <c r="G558" s="66">
+      <c r="G558" s="56">
         <v>55</v>
       </c>
       <c r="H558" s="10" t="s">
@@ -23947,7 +23947,7 @@
       <c r="F559" s="11">
         <v>2</v>
       </c>
-      <c r="G559" s="66">
+      <c r="G559" s="56">
         <v>56</v>
       </c>
       <c r="H559" s="10" t="s">
@@ -23988,7 +23988,7 @@
       <c r="F560" s="11">
         <v>2</v>
       </c>
-      <c r="G560" s="66">
+      <c r="G560" s="56">
         <v>57</v>
       </c>
       <c r="H560" s="10" t="s">
@@ -24029,7 +24029,7 @@
       <c r="F561" s="11">
         <v>2</v>
       </c>
-      <c r="G561" s="66">
+      <c r="G561" s="56">
         <v>58</v>
       </c>
       <c r="H561" s="16" t="s">
@@ -24070,7 +24070,7 @@
       <c r="F562" s="11">
         <v>2</v>
       </c>
-      <c r="G562" s="66">
+      <c r="G562" s="56">
         <v>59</v>
       </c>
       <c r="H562" s="10" t="s">
@@ -24111,7 +24111,7 @@
       <c r="F563" s="11">
         <v>2</v>
       </c>
-      <c r="G563" s="66">
+      <c r="G563" s="56">
         <v>60</v>
       </c>
       <c r="H563" s="10" t="s">
@@ -24152,7 +24152,7 @@
       <c r="F564" s="11">
         <v>2</v>
       </c>
-      <c r="G564" s="66">
+      <c r="G564" s="56">
         <v>61</v>
       </c>
       <c r="H564" s="10" t="s">
@@ -24193,7 +24193,7 @@
       <c r="F565" s="11">
         <v>2</v>
       </c>
-      <c r="G565" s="66">
+      <c r="G565" s="56">
         <v>62</v>
       </c>
       <c r="H565" s="10" t="s">
@@ -24234,7 +24234,7 @@
       <c r="F566" s="11">
         <v>2</v>
       </c>
-      <c r="G566" s="66">
+      <c r="G566" s="56">
         <v>63</v>
       </c>
       <c r="H566" s="10" t="s">
@@ -24275,7 +24275,7 @@
       <c r="F567" s="11">
         <v>2</v>
       </c>
-      <c r="G567" s="66">
+      <c r="G567" s="56">
         <v>64</v>
       </c>
       <c r="H567" s="10" t="s">
@@ -24316,7 +24316,7 @@
       <c r="F568" s="11">
         <v>2</v>
       </c>
-      <c r="G568" s="66">
+      <c r="G568" s="56">
         <v>65</v>
       </c>
       <c r="H568" s="10" t="s">
@@ -24357,7 +24357,7 @@
       <c r="F569" s="11">
         <v>1</v>
       </c>
-      <c r="G569" s="66">
+      <c r="G569" s="56">
         <v>1</v>
       </c>
       <c r="H569" s="16" t="s">
@@ -24398,7 +24398,7 @@
       <c r="F570" s="11">
         <v>1</v>
       </c>
-      <c r="G570" s="66">
+      <c r="G570" s="56">
         <v>2</v>
       </c>
       <c r="H570" s="10" t="s">
@@ -24439,7 +24439,7 @@
       <c r="F571" s="11">
         <v>1</v>
       </c>
-      <c r="G571" s="66">
+      <c r="G571" s="56">
         <v>3</v>
       </c>
       <c r="H571" s="10" t="s">
@@ -24480,7 +24480,7 @@
       <c r="F572" s="11">
         <v>1</v>
       </c>
-      <c r="G572" s="66">
+      <c r="G572" s="56">
         <v>4</v>
       </c>
       <c r="H572" s="10" t="s">
@@ -24521,7 +24521,7 @@
       <c r="F573" s="11">
         <v>1</v>
       </c>
-      <c r="G573" s="66">
+      <c r="G573" s="56">
         <v>5</v>
       </c>
       <c r="H573" s="10" t="s">
@@ -24562,7 +24562,7 @@
       <c r="F574" s="11">
         <v>2</v>
       </c>
-      <c r="G574" s="66">
+      <c r="G574" s="56">
         <v>51</v>
       </c>
       <c r="H574" s="10" t="s">
@@ -24603,7 +24603,7 @@
       <c r="F575" s="11">
         <v>2</v>
       </c>
-      <c r="G575" s="66">
+      <c r="G575" s="56">
         <v>52</v>
       </c>
       <c r="H575" s="10" t="s">
@@ -24644,7 +24644,7 @@
       <c r="F576" s="11">
         <v>2</v>
       </c>
-      <c r="G576" s="66">
+      <c r="G576" s="56">
         <v>53</v>
       </c>
       <c r="H576" s="10" t="s">
@@ -24685,7 +24685,7 @@
       <c r="F577" s="11">
         <v>2</v>
       </c>
-      <c r="G577" s="66">
+      <c r="G577" s="56">
         <v>54</v>
       </c>
       <c r="H577" s="16" t="s">
@@ -24726,7 +24726,7 @@
       <c r="F578" s="11">
         <v>2</v>
       </c>
-      <c r="G578" s="66">
+      <c r="G578" s="56">
         <v>55</v>
       </c>
       <c r="H578" s="10" t="s">
@@ -24767,7 +24767,7 @@
       <c r="F579" s="11">
         <v>2</v>
       </c>
-      <c r="G579" s="66">
+      <c r="G579" s="56">
         <v>56</v>
       </c>
       <c r="H579" s="10" t="s">
@@ -24808,7 +24808,7 @@
       <c r="F580" s="11">
         <v>2</v>
       </c>
-      <c r="G580" s="66">
+      <c r="G580" s="56">
         <v>57</v>
       </c>
       <c r="H580" s="10" t="s">
@@ -24849,7 +24849,7 @@
       <c r="F581" s="11">
         <v>2</v>
       </c>
-      <c r="G581" s="66">
+      <c r="G581" s="56">
         <v>58</v>
       </c>
       <c r="H581" s="10" t="s">
@@ -24890,7 +24890,7 @@
       <c r="F582" s="11">
         <v>2</v>
       </c>
-      <c r="G582" s="66">
+      <c r="G582" s="56">
         <v>59</v>
       </c>
       <c r="H582" s="10" t="s">
@@ -24931,7 +24931,7 @@
       <c r="F583" s="11">
         <v>2</v>
       </c>
-      <c r="G583" s="66">
+      <c r="G583" s="56">
         <v>60</v>
       </c>
       <c r="H583" s="10" t="s">
@@ -24966,7 +24966,7 @@
       <c r="F584" s="11">
         <v>2</v>
       </c>
-      <c r="G584" s="66">
+      <c r="G584" s="56">
         <v>61</v>
       </c>
       <c r="H584" s="10" t="s">
@@ -25007,7 +25007,7 @@
       <c r="F585" s="11">
         <v>2</v>
       </c>
-      <c r="G585" s="66">
+      <c r="G585" s="56">
         <v>62</v>
       </c>
       <c r="H585" s="10" t="s">
@@ -25048,7 +25048,7 @@
       <c r="F586" s="11">
         <v>2</v>
       </c>
-      <c r="G586" s="66">
+      <c r="G586" s="56">
         <v>63</v>
       </c>
       <c r="H586" s="10" t="s">
@@ -25089,7 +25089,7 @@
       <c r="F587" s="11">
         <v>2</v>
       </c>
-      <c r="G587" s="66">
+      <c r="G587" s="56">
         <v>64</v>
       </c>
       <c r="H587" s="10" t="s">
@@ -25124,7 +25124,7 @@
       <c r="F588" s="11">
         <v>2</v>
       </c>
-      <c r="G588" s="66">
+      <c r="G588" s="56">
         <v>65</v>
       </c>
       <c r="H588" s="10" t="s">
@@ -25165,7 +25165,7 @@
       <c r="F589" s="11">
         <v>2</v>
       </c>
-      <c r="G589" s="66">
+      <c r="G589" s="56">
         <v>66</v>
       </c>
       <c r="H589" s="10" t="s">
@@ -25206,7 +25206,7 @@
       <c r="F590" s="11">
         <v>2</v>
       </c>
-      <c r="G590" s="66">
+      <c r="G590" s="56">
         <v>67</v>
       </c>
       <c r="H590" s="10" t="s">
@@ -25247,7 +25247,7 @@
       <c r="F591" s="11">
         <v>2</v>
       </c>
-      <c r="G591" s="66">
+      <c r="G591" s="56">
         <v>68</v>
       </c>
       <c r="H591" s="10" t="s">
@@ -25288,7 +25288,7 @@
       <c r="F592" s="11">
         <v>2</v>
       </c>
-      <c r="G592" s="66">
+      <c r="G592" s="56">
         <v>69</v>
       </c>
       <c r="H592" s="10" t="s">
@@ -25329,7 +25329,7 @@
       <c r="F593" s="11">
         <v>2</v>
       </c>
-      <c r="G593" s="66">
+      <c r="G593" s="56">
         <v>70</v>
       </c>
       <c r="H593" s="10" t="s">
@@ -25370,7 +25370,7 @@
       <c r="F594" s="11">
         <v>2</v>
       </c>
-      <c r="G594" s="66">
+      <c r="G594" s="56">
         <v>71</v>
       </c>
       <c r="H594" s="10" t="s">
@@ -25411,7 +25411,7 @@
       <c r="F595" s="11">
         <v>2</v>
       </c>
-      <c r="G595" s="66">
+      <c r="G595" s="56">
         <v>72</v>
       </c>
       <c r="H595" s="10" t="s">
@@ -25452,7 +25452,7 @@
       <c r="F596" s="11">
         <v>2</v>
       </c>
-      <c r="G596" s="66">
+      <c r="G596" s="56">
         <v>73</v>
       </c>
       <c r="H596" s="10" t="s">
@@ -25493,7 +25493,7 @@
       <c r="F597" s="11">
         <v>2</v>
       </c>
-      <c r="G597" s="66">
+      <c r="G597" s="56">
         <v>74</v>
       </c>
       <c r="H597" s="10" t="s">
@@ -25534,7 +25534,7 @@
       <c r="F598" s="11">
         <v>3</v>
       </c>
-      <c r="G598" s="66">
+      <c r="G598" s="56">
         <v>101</v>
       </c>
       <c r="H598" s="10" t="s">
@@ -25575,7 +25575,7 @@
       <c r="F599" s="11">
         <v>3</v>
       </c>
-      <c r="G599" s="66">
+      <c r="G599" s="56">
         <v>102</v>
       </c>
       <c r="H599" s="16" t="s">
@@ -25616,7 +25616,7 @@
       <c r="F600" s="11">
         <v>3</v>
       </c>
-      <c r="G600" s="66">
+      <c r="G600" s="56">
         <v>103</v>
       </c>
       <c r="H600" s="10" t="s">
@@ -25657,7 +25657,7 @@
       <c r="F601" s="11">
         <v>3</v>
       </c>
-      <c r="G601" s="66">
+      <c r="G601" s="56">
         <v>104</v>
       </c>
       <c r="H601" s="10" t="s">
@@ -25698,7 +25698,7 @@
       <c r="F602" s="11">
         <v>3</v>
       </c>
-      <c r="G602" s="66">
+      <c r="G602" s="56">
         <v>105</v>
       </c>
       <c r="H602" s="10" t="s">
@@ -25728,7 +25728,7 @@
       <c r="F603" s="11">
         <v>3</v>
       </c>
-      <c r="G603" s="66">
+      <c r="G603" s="56">
         <v>106</v>
       </c>
       <c r="H603" s="10" t="s">
@@ -25769,7 +25769,7 @@
       <c r="F604" s="11">
         <v>3</v>
       </c>
-      <c r="G604" s="66">
+      <c r="G604" s="56">
         <v>107</v>
       </c>
       <c r="H604" s="10" t="s">
@@ -25810,7 +25810,7 @@
       <c r="F605" s="11">
         <v>3</v>
       </c>
-      <c r="G605" s="66">
+      <c r="G605" s="56">
         <v>108</v>
       </c>
       <c r="H605" s="10" t="s">
@@ -25840,7 +25840,7 @@
       <c r="F606" s="11">
         <v>3</v>
       </c>
-      <c r="G606" s="66">
+      <c r="G606" s="56">
         <v>109</v>
       </c>
       <c r="H606" s="10" t="s">
@@ -25881,7 +25881,7 @@
       <c r="F607" s="11">
         <v>3</v>
       </c>
-      <c r="G607" s="66">
+      <c r="G607" s="56">
         <v>110</v>
       </c>
       <c r="H607" s="10" t="s">
@@ -25922,7 +25922,7 @@
       <c r="F608" s="11">
         <v>3</v>
       </c>
-      <c r="G608" s="66">
+      <c r="G608" s="56">
         <v>111</v>
       </c>
       <c r="H608" s="10" t="s">
@@ -25952,7 +25952,7 @@
       <c r="F609" s="11">
         <v>3</v>
       </c>
-      <c r="G609" s="66">
+      <c r="G609" s="56">
         <v>112</v>
       </c>
       <c r="H609" s="10" t="s">
@@ -25993,7 +25993,7 @@
       <c r="F610" s="11">
         <v>3</v>
       </c>
-      <c r="G610" s="66">
+      <c r="G610" s="56">
         <v>113</v>
       </c>
       <c r="H610" s="10" t="s">
@@ -26034,7 +26034,7 @@
       <c r="F611" s="11">
         <v>3</v>
       </c>
-      <c r="G611" s="66">
+      <c r="G611" s="56">
         <v>114</v>
       </c>
       <c r="H611" s="10" t="s">
@@ -26075,7 +26075,7 @@
       <c r="F612" s="11">
         <v>4</v>
       </c>
-      <c r="G612" s="66">
+      <c r="G612" s="56">
         <v>151</v>
       </c>
       <c r="H612" s="10" t="s">
@@ -26116,7 +26116,7 @@
       <c r="F613" s="11">
         <v>4</v>
       </c>
-      <c r="G613" s="66">
+      <c r="G613" s="56">
         <v>152</v>
       </c>
       <c r="H613" s="10" t="s">
@@ -26157,7 +26157,7 @@
       <c r="F614" s="11">
         <v>4</v>
       </c>
-      <c r="G614" s="66">
+      <c r="G614" s="56">
         <v>153</v>
       </c>
       <c r="H614" s="10" t="s">
@@ -26198,7 +26198,7 @@
       <c r="F615" s="11">
         <v>4</v>
       </c>
-      <c r="G615" s="66">
+      <c r="G615" s="56">
         <v>154</v>
       </c>
       <c r="H615" s="10" t="s">
@@ -26239,7 +26239,7 @@
       <c r="F616" s="11">
         <v>4</v>
       </c>
-      <c r="G616" s="66">
+      <c r="G616" s="56">
         <v>155</v>
       </c>
       <c r="H616" s="10" t="s">
@@ -26280,7 +26280,7 @@
       <c r="F617" s="11">
         <v>4</v>
       </c>
-      <c r="G617" s="66">
+      <c r="G617" s="56">
         <v>156</v>
       </c>
       <c r="H617" s="10" t="s">
@@ -26321,7 +26321,7 @@
       <c r="F618" s="11">
         <v>4</v>
       </c>
-      <c r="G618" s="66">
+      <c r="G618" s="56">
         <v>157</v>
       </c>
       <c r="H618" s="10" t="s">
@@ -26362,7 +26362,7 @@
       <c r="F619" s="11">
         <v>4</v>
       </c>
-      <c r="G619" s="66">
+      <c r="G619" s="56">
         <v>158</v>
       </c>
       <c r="H619" s="10" t="s">
@@ -26403,7 +26403,7 @@
       <c r="F620" s="11">
         <v>4</v>
       </c>
-      <c r="G620" s="66">
+      <c r="G620" s="56">
         <v>159</v>
       </c>
       <c r="H620" s="10" t="s">
@@ -26444,7 +26444,7 @@
       <c r="F621" s="11">
         <v>4</v>
       </c>
-      <c r="G621" s="66">
+      <c r="G621" s="56">
         <v>160</v>
       </c>
       <c r="H621" s="10" t="s">
@@ -26485,7 +26485,7 @@
       <c r="F622" s="11">
         <v>4</v>
       </c>
-      <c r="G622" s="66">
+      <c r="G622" s="56">
         <v>161</v>
       </c>
       <c r="H622" s="10" t="s">
@@ -26526,7 +26526,7 @@
       <c r="F623" s="11">
         <v>4</v>
       </c>
-      <c r="G623" s="66">
+      <c r="G623" s="56">
         <v>162</v>
       </c>
       <c r="H623" s="16" t="s">
@@ -26567,7 +26567,7 @@
       <c r="F624" s="11">
         <v>4</v>
       </c>
-      <c r="G624" s="66">
+      <c r="G624" s="56">
         <v>163</v>
       </c>
       <c r="H624" s="10" t="s">
@@ -26608,7 +26608,7 @@
       <c r="F625" s="11">
         <v>4</v>
       </c>
-      <c r="G625" s="66">
+      <c r="G625" s="56">
         <v>164</v>
       </c>
       <c r="H625" s="10" t="s">
@@ -26649,7 +26649,7 @@
       <c r="F626" s="11">
         <v>4</v>
       </c>
-      <c r="G626" s="66">
+      <c r="G626" s="56">
         <v>165</v>
       </c>
       <c r="H626" s="10" t="s">
@@ -26690,7 +26690,7 @@
       <c r="F627" s="11">
         <v>4</v>
       </c>
-      <c r="G627" s="66">
+      <c r="G627" s="56">
         <v>166</v>
       </c>
       <c r="H627" s="10" t="s">
@@ -26731,7 +26731,7 @@
       <c r="F628" s="11">
         <v>4</v>
       </c>
-      <c r="G628" s="66">
+      <c r="G628" s="56">
         <v>167</v>
       </c>
       <c r="H628" s="10" t="s">
@@ -26772,7 +26772,7 @@
       <c r="F629" s="11">
         <v>4</v>
       </c>
-      <c r="G629" s="66">
+      <c r="G629" s="56">
         <v>168</v>
       </c>
       <c r="H629" s="10" t="s">
@@ -26813,7 +26813,7 @@
       <c r="F630" s="11">
         <v>4</v>
       </c>
-      <c r="G630" s="66">
+      <c r="G630" s="56">
         <v>169</v>
       </c>
       <c r="H630" s="10" t="s">
@@ -26854,7 +26854,7 @@
       <c r="F631" s="11">
         <v>4</v>
       </c>
-      <c r="G631" s="66">
+      <c r="G631" s="56">
         <v>170</v>
       </c>
       <c r="H631" s="10" t="s">
@@ -26895,7 +26895,7 @@
       <c r="F632" s="11">
         <v>4</v>
       </c>
-      <c r="G632" s="66">
+      <c r="G632" s="56">
         <v>171</v>
       </c>
       <c r="H632" s="10" t="s">
@@ -26936,7 +26936,7 @@
       <c r="F633" s="11">
         <v>4</v>
       </c>
-      <c r="G633" s="66">
+      <c r="G633" s="56">
         <v>172</v>
       </c>
       <c r="H633" s="10" t="s">
@@ -26977,7 +26977,7 @@
       <c r="F634" s="11">
         <v>4</v>
       </c>
-      <c r="G634" s="66">
+      <c r="G634" s="56">
         <v>173</v>
       </c>
       <c r="H634" s="10" t="s">
@@ -27018,7 +27018,7 @@
       <c r="F635" s="11">
         <v>4</v>
       </c>
-      <c r="G635" s="66">
+      <c r="G635" s="56">
         <v>174</v>
       </c>
       <c r="H635" s="16" t="s">
@@ -27059,7 +27059,7 @@
       <c r="F636" s="11">
         <v>4</v>
       </c>
-      <c r="G636" s="66">
+      <c r="G636" s="56">
         <v>175</v>
       </c>
       <c r="H636" s="10" t="s">
@@ -27100,7 +27100,7 @@
       <c r="F637" s="11">
         <v>4</v>
       </c>
-      <c r="G637" s="66">
+      <c r="G637" s="56">
         <v>176</v>
       </c>
       <c r="H637" s="10" t="s">
@@ -27141,7 +27141,7 @@
       <c r="F638" s="11">
         <v>4</v>
       </c>
-      <c r="G638" s="66">
+      <c r="G638" s="56">
         <v>177</v>
       </c>
       <c r="H638" s="10" t="s">
@@ -27182,7 +27182,7 @@
       <c r="F639" s="11">
         <v>4</v>
       </c>
-      <c r="G639" s="66">
+      <c r="G639" s="56">
         <v>178</v>
       </c>
       <c r="H639" s="10" t="s">
@@ -27223,7 +27223,7 @@
       <c r="F640" s="11">
         <v>4</v>
       </c>
-      <c r="G640" s="66">
+      <c r="G640" s="56">
         <v>179</v>
       </c>
       <c r="H640" s="10" t="s">
@@ -27264,7 +27264,7 @@
       <c r="F641" s="11">
         <v>4</v>
       </c>
-      <c r="G641" s="66">
+      <c r="G641" s="56">
         <v>180</v>
       </c>
       <c r="H641" s="10" t="s">
@@ -27305,7 +27305,7 @@
       <c r="F642" s="11">
         <v>4</v>
       </c>
-      <c r="G642" s="66">
+      <c r="G642" s="56">
         <v>181</v>
       </c>
       <c r="H642" s="10" t="s">
@@ -27346,7 +27346,7 @@
       <c r="F643" s="11">
         <v>1</v>
       </c>
-      <c r="G643" s="66">
+      <c r="G643" s="56">
         <v>1</v>
       </c>
       <c r="H643" s="16" t="s">
@@ -27387,7 +27387,7 @@
       <c r="F644" s="11">
         <v>1</v>
       </c>
-      <c r="G644" s="66">
+      <c r="G644" s="56">
         <v>2</v>
       </c>
       <c r="H644" s="10" t="s">
@@ -27428,7 +27428,7 @@
       <c r="F645" s="11">
         <v>1</v>
       </c>
-      <c r="G645" s="66">
+      <c r="G645" s="56">
         <v>3</v>
       </c>
       <c r="H645" s="10" t="s">
@@ -27469,7 +27469,7 @@
       <c r="F646" s="11">
         <v>1</v>
       </c>
-      <c r="G646" s="66">
+      <c r="G646" s="56">
         <v>4</v>
       </c>
       <c r="H646" s="10" t="s">
@@ -27510,7 +27510,7 @@
       <c r="F647" s="11">
         <v>1</v>
       </c>
-      <c r="G647" s="66">
+      <c r="G647" s="56">
         <v>5</v>
       </c>
       <c r="H647" s="10" t="s">
@@ -27551,7 +27551,7 @@
       <c r="F648" s="11">
         <v>2</v>
       </c>
-      <c r="G648" s="66">
+      <c r="G648" s="56">
         <v>51</v>
       </c>
       <c r="H648" s="10" t="s">
@@ -27592,7 +27592,7 @@
       <c r="F649" s="11">
         <v>2</v>
       </c>
-      <c r="G649" s="66">
+      <c r="G649" s="56">
         <v>52</v>
       </c>
       <c r="H649" s="10" t="s">
@@ -27633,7 +27633,7 @@
       <c r="F650" s="11">
         <v>2</v>
       </c>
-      <c r="G650" s="66">
+      <c r="G650" s="56">
         <v>53</v>
       </c>
       <c r="H650" s="10" t="s">
@@ -27674,7 +27674,7 @@
       <c r="F651" s="11">
         <v>2</v>
       </c>
-      <c r="G651" s="66">
+      <c r="G651" s="56">
         <v>54</v>
       </c>
       <c r="H651" s="10" t="s">
@@ -27715,7 +27715,7 @@
       <c r="F652" s="11">
         <v>2</v>
       </c>
-      <c r="G652" s="66">
+      <c r="G652" s="56">
         <v>55</v>
       </c>
       <c r="H652" s="10" t="s">
@@ -27756,7 +27756,7 @@
       <c r="F653" s="11">
         <v>2</v>
       </c>
-      <c r="G653" s="66">
+      <c r="G653" s="56">
         <v>56</v>
       </c>
       <c r="H653" s="10" t="s">
@@ -27797,7 +27797,7 @@
       <c r="F654" s="11">
         <v>2</v>
       </c>
-      <c r="G654" s="66">
+      <c r="G654" s="56">
         <v>57</v>
       </c>
       <c r="H654" s="10" t="s">
@@ -27838,7 +27838,7 @@
       <c r="F655" s="11">
         <v>2</v>
       </c>
-      <c r="G655" s="66">
+      <c r="G655" s="56">
         <v>58</v>
       </c>
       <c r="H655" s="10" t="s">
@@ -27879,7 +27879,7 @@
       <c r="F656" s="11">
         <v>2</v>
       </c>
-      <c r="G656" s="66">
+      <c r="G656" s="56">
         <v>59</v>
       </c>
       <c r="H656" s="10" t="s">
@@ -27920,7 +27920,7 @@
       <c r="F657" s="11">
         <v>2</v>
       </c>
-      <c r="G657" s="66">
+      <c r="G657" s="56">
         <v>60</v>
       </c>
       <c r="H657" s="10" t="s">
@@ -27961,7 +27961,7 @@
       <c r="F658" s="11">
         <v>2</v>
       </c>
-      <c r="G658" s="66">
+      <c r="G658" s="56">
         <v>61</v>
       </c>
       <c r="H658" s="10" t="s">
@@ -28002,7 +28002,7 @@
       <c r="F659" s="11">
         <v>2</v>
       </c>
-      <c r="G659" s="66">
+      <c r="G659" s="56">
         <v>62</v>
       </c>
       <c r="H659" s="10" t="s">
@@ -28043,7 +28043,7 @@
       <c r="F660" s="11">
         <v>2</v>
       </c>
-      <c r="G660" s="66">
+      <c r="G660" s="56">
         <v>63</v>
       </c>
       <c r="H660" s="10" t="s">
@@ -28084,7 +28084,7 @@
       <c r="F661" s="11">
         <v>2</v>
       </c>
-      <c r="G661" s="66">
+      <c r="G661" s="56">
         <v>64</v>
       </c>
       <c r="H661" s="10" t="s">
@@ -28125,7 +28125,7 @@
       <c r="F662" s="11">
         <v>2</v>
       </c>
-      <c r="G662" s="66">
+      <c r="G662" s="56">
         <v>65</v>
       </c>
       <c r="H662" s="10" t="s">
@@ -28166,7 +28166,7 @@
       <c r="F663" s="27">
         <v>2</v>
       </c>
-      <c r="G663" s="70">
+      <c r="G663" s="60">
         <v>67</v>
       </c>
       <c r="H663" s="18" t="s">
@@ -28207,7 +28207,7 @@
       <c r="F664" s="11">
         <v>2</v>
       </c>
-      <c r="G664" s="66">
+      <c r="G664" s="56">
         <v>66</v>
       </c>
       <c r="H664" s="10" t="s">
@@ -28248,7 +28248,7 @@
       <c r="F665" s="11">
         <v>3</v>
       </c>
-      <c r="G665" s="66">
+      <c r="G665" s="56">
         <v>101</v>
       </c>
       <c r="H665" s="10" t="s">
@@ -28289,7 +28289,7 @@
       <c r="F666" s="11">
         <v>3</v>
       </c>
-      <c r="G666" s="66">
+      <c r="G666" s="56">
         <v>102</v>
       </c>
       <c r="H666" s="10" t="s">
@@ -28330,7 +28330,7 @@
       <c r="F667" s="11">
         <v>3</v>
       </c>
-      <c r="G667" s="66">
+      <c r="G667" s="56">
         <v>103</v>
       </c>
       <c r="H667" s="10" t="s">
@@ -28371,7 +28371,7 @@
       <c r="F668" s="11">
         <v>3</v>
       </c>
-      <c r="G668" s="66">
+      <c r="G668" s="56">
         <v>104</v>
       </c>
       <c r="H668" s="10" t="s">
@@ -28412,7 +28412,7 @@
       <c r="F669" s="11">
         <v>3</v>
       </c>
-      <c r="G669" s="66">
+      <c r="G669" s="56">
         <v>105</v>
       </c>
       <c r="H669" s="10" t="s">
@@ -28453,7 +28453,7 @@
       <c r="F670" s="11">
         <v>3</v>
       </c>
-      <c r="G670" s="66">
+      <c r="G670" s="56">
         <v>106</v>
       </c>
       <c r="H670" s="10" t="s">
@@ -28494,7 +28494,7 @@
       <c r="F671" s="11">
         <v>3</v>
       </c>
-      <c r="G671" s="66">
+      <c r="G671" s="56">
         <v>107</v>
       </c>
       <c r="H671" s="10" t="s">
@@ -28535,7 +28535,7 @@
       <c r="F672" s="11">
         <v>3</v>
       </c>
-      <c r="G672" s="66">
+      <c r="G672" s="56">
         <v>108</v>
       </c>
       <c r="H672" s="10" t="s">
@@ -28576,7 +28576,7 @@
       <c r="F673" s="11">
         <v>3</v>
       </c>
-      <c r="G673" s="66">
+      <c r="G673" s="56">
         <v>109</v>
       </c>
       <c r="H673" s="10" t="s">
@@ -28617,7 +28617,7 @@
       <c r="F674" s="11">
         <v>3</v>
       </c>
-      <c r="G674" s="66">
+      <c r="G674" s="56">
         <v>110</v>
       </c>
       <c r="H674" s="10" t="s">
@@ -28658,7 +28658,7 @@
       <c r="F675" s="11">
         <v>3</v>
       </c>
-      <c r="G675" s="66">
+      <c r="G675" s="56">
         <v>111</v>
       </c>
       <c r="H675" s="10" t="s">
@@ -28699,7 +28699,7 @@
       <c r="F676" s="11">
         <v>3</v>
       </c>
-      <c r="G676" s="66">
+      <c r="G676" s="56">
         <v>112</v>
       </c>
       <c r="H676" s="10" t="s">
@@ -28740,7 +28740,7 @@
       <c r="F677" s="11">
         <v>3</v>
       </c>
-      <c r="G677" s="66">
+      <c r="G677" s="56">
         <v>113</v>
       </c>
       <c r="H677" s="10" t="s">
@@ -28781,7 +28781,7 @@
       <c r="F678" s="11">
         <v>3</v>
       </c>
-      <c r="G678" s="66">
+      <c r="G678" s="56">
         <v>114</v>
       </c>
       <c r="H678" s="10" t="s">
@@ -28822,7 +28822,7 @@
       <c r="F679" s="11">
         <v>3</v>
       </c>
-      <c r="G679" s="66">
+      <c r="G679" s="56">
         <v>115</v>
       </c>
       <c r="H679" s="10" t="s">
@@ -28863,7 +28863,7 @@
       <c r="F680" s="11">
         <v>3</v>
       </c>
-      <c r="G680" s="66">
+      <c r="G680" s="56">
         <v>116</v>
       </c>
       <c r="H680" s="10" t="s">
@@ -28904,7 +28904,7 @@
       <c r="F681" s="11">
         <v>3</v>
       </c>
-      <c r="G681" s="66">
+      <c r="G681" s="56">
         <v>117</v>
       </c>
       <c r="H681" s="10" t="s">
@@ -28945,7 +28945,7 @@
       <c r="F682" s="11">
         <v>1</v>
       </c>
-      <c r="G682" s="66">
+      <c r="G682" s="56">
         <v>1</v>
       </c>
       <c r="H682" s="10" t="s">
@@ -28986,7 +28986,7 @@
       <c r="F683" s="11">
         <v>1</v>
       </c>
-      <c r="G683" s="66">
+      <c r="G683" s="56">
         <v>2</v>
       </c>
       <c r="H683" s="10" t="s">
@@ -29027,7 +29027,7 @@
       <c r="F684" s="11">
         <v>2</v>
       </c>
-      <c r="G684" s="66">
+      <c r="G684" s="56">
         <v>51</v>
       </c>
       <c r="H684" s="10" t="s">
@@ -29068,7 +29068,7 @@
       <c r="F685" s="11">
         <v>2</v>
       </c>
-      <c r="G685" s="66">
+      <c r="G685" s="56">
         <v>52</v>
       </c>
       <c r="H685" s="10" t="s">
@@ -29109,7 +29109,7 @@
       <c r="F686" s="11">
         <v>2</v>
       </c>
-      <c r="G686" s="66">
+      <c r="G686" s="56">
         <v>53</v>
       </c>
       <c r="H686" s="16" t="s">
@@ -29150,7 +29150,7 @@
       <c r="F687" s="11">
         <v>2</v>
       </c>
-      <c r="G687" s="66">
+      <c r="G687" s="56">
         <v>54</v>
       </c>
       <c r="H687" s="10" t="s">
@@ -29191,7 +29191,7 @@
       <c r="F688" s="11">
         <v>2</v>
       </c>
-      <c r="G688" s="66">
+      <c r="G688" s="56">
         <v>56</v>
       </c>
       <c r="H688" s="10" t="s">
@@ -29232,7 +29232,7 @@
       <c r="F689" s="11">
         <v>2</v>
       </c>
-      <c r="G689" s="66">
+      <c r="G689" s="56">
         <v>55</v>
       </c>
       <c r="H689" s="10" t="s">
@@ -29273,7 +29273,7 @@
       <c r="F690" s="11">
         <v>2</v>
       </c>
-      <c r="G690" s="66">
+      <c r="G690" s="56">
         <v>57</v>
       </c>
       <c r="H690" s="10" t="s">
@@ -29314,7 +29314,7 @@
       <c r="F691" s="11">
         <v>1</v>
       </c>
-      <c r="G691" s="66">
+      <c r="G691" s="56">
         <v>1</v>
       </c>
       <c r="H691" s="10" t="s">
@@ -29355,7 +29355,7 @@
       <c r="F692" s="11">
         <v>1</v>
       </c>
-      <c r="G692" s="66">
+      <c r="G692" s="56">
         <v>2</v>
       </c>
       <c r="H692" s="10" t="s">
@@ -29396,7 +29396,7 @@
       <c r="F693" s="11">
         <v>1</v>
       </c>
-      <c r="G693" s="66">
+      <c r="G693" s="56">
         <v>3</v>
       </c>
       <c r="H693" s="16" t="s">
@@ -29437,7 +29437,7 @@
       <c r="F694" s="11">
         <v>1</v>
       </c>
-      <c r="G694" s="66">
+      <c r="G694" s="56">
         <v>4</v>
       </c>
       <c r="H694" s="10" t="s">
@@ -29478,7 +29478,7 @@
       <c r="F695" s="11">
         <v>1</v>
       </c>
-      <c r="G695" s="66">
+      <c r="G695" s="56">
         <v>5</v>
       </c>
       <c r="H695" s="10" t="s">
@@ -29519,7 +29519,7 @@
       <c r="F696" s="11">
         <v>1</v>
       </c>
-      <c r="G696" s="66">
+      <c r="G696" s="56">
         <v>6</v>
       </c>
       <c r="H696" s="10" t="s">
@@ -29560,7 +29560,7 @@
       <c r="F697" s="11">
         <v>1</v>
       </c>
-      <c r="G697" s="66">
+      <c r="G697" s="56">
         <v>7</v>
       </c>
       <c r="H697" s="10" t="s">
@@ -29601,7 +29601,7 @@
       <c r="F698" s="11">
         <v>1</v>
       </c>
-      <c r="G698" s="66">
+      <c r="G698" s="56">
         <v>8</v>
       </c>
       <c r="H698" s="10" t="s">
@@ -29642,7 +29642,7 @@
       <c r="F699" s="11">
         <v>2</v>
       </c>
-      <c r="G699" s="66">
+      <c r="G699" s="56">
         <v>51</v>
       </c>
       <c r="H699" s="16" t="s">
@@ -29683,7 +29683,7 @@
       <c r="F700" s="11">
         <v>2</v>
       </c>
-      <c r="G700" s="66">
+      <c r="G700" s="56">
         <v>52</v>
       </c>
       <c r="H700" s="10" t="s">
@@ -29724,7 +29724,7 @@
       <c r="F701" s="11">
         <v>2</v>
       </c>
-      <c r="G701" s="66">
+      <c r="G701" s="56">
         <v>53</v>
       </c>
       <c r="H701" s="10" t="s">
@@ -29765,7 +29765,7 @@
       <c r="F702" s="11">
         <v>2</v>
       </c>
-      <c r="G702" s="66">
+      <c r="G702" s="56">
         <v>54</v>
       </c>
       <c r="H702" s="10" t="s">
@@ -29806,7 +29806,7 @@
       <c r="F703" s="11">
         <v>2</v>
       </c>
-      <c r="G703" s="66">
+      <c r="G703" s="56">
         <v>55</v>
       </c>
       <c r="H703" s="10" t="s">
@@ -29847,7 +29847,7 @@
       <c r="F704" s="11">
         <v>2</v>
       </c>
-      <c r="G704" s="66">
+      <c r="G704" s="56">
         <v>56</v>
       </c>
       <c r="H704" s="10" t="s">
@@ -29888,7 +29888,7 @@
       <c r="F705" s="11">
         <v>2</v>
       </c>
-      <c r="G705" s="66">
+      <c r="G705" s="56">
         <v>57</v>
       </c>
       <c r="H705" s="10" t="s">
@@ -29929,7 +29929,7 @@
       <c r="F706" s="11">
         <v>2</v>
       </c>
-      <c r="G706" s="66">
+      <c r="G706" s="56">
         <v>58</v>
       </c>
       <c r="H706" s="10" t="s">
@@ -29970,7 +29970,7 @@
       <c r="F707" s="11">
         <v>2</v>
       </c>
-      <c r="G707" s="66">
+      <c r="G707" s="56">
         <v>59</v>
       </c>
       <c r="H707" s="10" t="s">
@@ -30011,7 +30011,7 @@
       <c r="F708" s="27">
         <v>2</v>
       </c>
-      <c r="G708" s="70">
+      <c r="G708" s="60">
         <v>60</v>
       </c>
       <c r="H708" s="18" t="s">
@@ -30052,7 +30052,7 @@
       <c r="F709" s="11">
         <v>1</v>
       </c>
-      <c r="G709" s="66">
+      <c r="G709" s="56">
         <v>1</v>
       </c>
       <c r="H709" s="26" t="s">
@@ -30093,7 +30093,7 @@
       <c r="F710" s="11">
         <v>1</v>
       </c>
-      <c r="G710" s="66">
+      <c r="G710" s="56">
         <v>2</v>
       </c>
       <c r="H710" s="11" t="s">
@@ -30134,7 +30134,7 @@
       <c r="F711" s="11">
         <v>1</v>
       </c>
-      <c r="G711" s="66">
+      <c r="G711" s="56">
         <v>3</v>
       </c>
       <c r="H711" s="11" t="s">
@@ -30175,7 +30175,7 @@
       <c r="F712" s="30">
         <v>2</v>
       </c>
-      <c r="G712" s="67">
+      <c r="G712" s="57">
         <v>51</v>
       </c>
       <c r="H712" s="30" t="s">
@@ -30216,7 +30216,7 @@
       <c r="F713" s="30">
         <v>2</v>
       </c>
-      <c r="G713" s="67">
+      <c r="G713" s="57">
         <v>52</v>
       </c>
       <c r="H713" s="30" t="s">
@@ -30257,7 +30257,7 @@
       <c r="F714" s="30">
         <v>2</v>
       </c>
-      <c r="G714" s="67">
+      <c r="G714" s="57">
         <v>53</v>
       </c>
       <c r="H714" s="30" t="s">
@@ -30298,7 +30298,7 @@
       <c r="F715" s="30">
         <v>2</v>
       </c>
-      <c r="G715" s="67">
+      <c r="G715" s="57">
         <v>54</v>
       </c>
       <c r="H715" s="30" t="s">
@@ -30339,7 +30339,7 @@
       <c r="F716" s="11">
         <v>2</v>
       </c>
-      <c r="G716" s="66">
+      <c r="G716" s="56">
         <v>55</v>
       </c>
       <c r="H716" s="11" t="s">
@@ -30380,7 +30380,7 @@
       <c r="F717" s="11">
         <v>2</v>
       </c>
-      <c r="G717" s="66">
+      <c r="G717" s="56">
         <v>56</v>
       </c>
       <c r="H717" s="26" t="s">
@@ -30421,7 +30421,7 @@
       <c r="F718" s="11">
         <v>2</v>
       </c>
-      <c r="G718" s="66">
+      <c r="G718" s="56">
         <v>57</v>
       </c>
       <c r="H718" s="11" t="s">
@@ -30462,7 +30462,7 @@
       <c r="F719" s="11">
         <v>2</v>
       </c>
-      <c r="G719" s="66">
+      <c r="G719" s="56">
         <v>58</v>
       </c>
       <c r="H719" s="11" t="s">
@@ -30503,7 +30503,7 @@
       <c r="F720" s="11">
         <v>2</v>
       </c>
-      <c r="G720" s="66">
+      <c r="G720" s="56">
         <v>59</v>
       </c>
       <c r="H720" s="11" t="s">
@@ -30544,7 +30544,7 @@
       <c r="F721" s="11">
         <v>2</v>
       </c>
-      <c r="G721" s="66">
+      <c r="G721" s="56">
         <v>60</v>
       </c>
       <c r="H721" s="11" t="s">
@@ -30585,7 +30585,7 @@
       <c r="F722" s="11">
         <v>2</v>
       </c>
-      <c r="G722" s="66">
+      <c r="G722" s="56">
         <v>61</v>
       </c>
       <c r="H722" s="11" t="s">
@@ -30626,7 +30626,7 @@
       <c r="F723" s="11">
         <v>2</v>
       </c>
-      <c r="G723" s="66">
+      <c r="G723" s="56">
         <v>62</v>
       </c>
       <c r="H723" s="11" t="s">
@@ -30667,7 +30667,7 @@
       <c r="F724" s="11">
         <v>2</v>
       </c>
-      <c r="G724" s="66">
+      <c r="G724" s="56">
         <v>63</v>
       </c>
       <c r="H724" s="11" t="s">
@@ -30708,7 +30708,7 @@
       <c r="F725" s="11">
         <v>2</v>
       </c>
-      <c r="G725" s="66">
+      <c r="G725" s="56">
         <v>64</v>
       </c>
       <c r="H725" s="11" t="s">
@@ -30749,7 +30749,7 @@
       <c r="F726" s="11">
         <v>2</v>
       </c>
-      <c r="G726" s="66">
+      <c r="G726" s="56">
         <v>65</v>
       </c>
       <c r="H726" s="11" t="s">
@@ -30790,7 +30790,7 @@
       <c r="F727" s="11">
         <v>2</v>
       </c>
-      <c r="G727" s="66">
+      <c r="G727" s="56">
         <v>66</v>
       </c>
       <c r="H727" s="11" t="s">
@@ -30831,7 +30831,7 @@
       <c r="F728" s="11">
         <v>2</v>
       </c>
-      <c r="G728" s="66">
+      <c r="G728" s="56">
         <v>67</v>
       </c>
       <c r="H728" s="11" t="s">
@@ -30872,7 +30872,7 @@
       <c r="F729" s="11">
         <v>2</v>
       </c>
-      <c r="G729" s="66">
+      <c r="G729" s="56">
         <v>68</v>
       </c>
       <c r="H729" s="11" t="s">
@@ -30913,7 +30913,7 @@
       <c r="F730" s="11">
         <v>2</v>
       </c>
-      <c r="G730" s="66">
+      <c r="G730" s="56">
         <v>69</v>
       </c>
       <c r="H730" s="11" t="s">
@@ -30954,7 +30954,7 @@
       <c r="F731" s="11">
         <v>3</v>
       </c>
-      <c r="G731" s="66">
+      <c r="G731" s="56">
         <v>101</v>
       </c>
       <c r="H731" s="26" t="s">
@@ -30995,7 +30995,7 @@
       <c r="F732" s="11">
         <v>3</v>
       </c>
-      <c r="G732" s="66">
+      <c r="G732" s="56">
         <v>102</v>
       </c>
       <c r="H732" s="11" t="s">
@@ -31036,7 +31036,7 @@
       <c r="F733" s="11">
         <v>3</v>
       </c>
-      <c r="G733" s="66">
+      <c r="G733" s="56">
         <v>103</v>
       </c>
       <c r="H733" s="11" t="s">
@@ -31077,7 +31077,7 @@
       <c r="F734" s="11">
         <v>3</v>
       </c>
-      <c r="G734" s="66">
+      <c r="G734" s="56">
         <v>104</v>
       </c>
       <c r="H734" s="11" t="s">
@@ -31118,7 +31118,7 @@
       <c r="F735" s="11">
         <v>3</v>
       </c>
-      <c r="G735" s="66">
+      <c r="G735" s="56">
         <v>105</v>
       </c>
       <c r="H735" s="11" t="s">
@@ -31159,7 +31159,7 @@
       <c r="F736" s="27">
         <v>3</v>
       </c>
-      <c r="G736" s="66">
+      <c r="G736" s="56">
         <v>106</v>
       </c>
       <c r="H736" s="11" t="s">
@@ -31200,7 +31200,7 @@
       <c r="F737" s="27">
         <v>3</v>
       </c>
-      <c r="G737" s="66">
+      <c r="G737" s="56">
         <v>107</v>
       </c>
       <c r="H737" s="11" t="s">
@@ -31241,7 +31241,7 @@
       <c r="F738" s="11">
         <v>3</v>
       </c>
-      <c r="G738" s="66">
+      <c r="G738" s="56">
         <v>108</v>
       </c>
       <c r="H738" s="11" t="s">
@@ -31282,7 +31282,7 @@
       <c r="F739" s="11">
         <v>3</v>
       </c>
-      <c r="G739" s="66">
+      <c r="G739" s="56">
         <v>109</v>
       </c>
       <c r="H739" s="11" t="s">
@@ -31323,7 +31323,7 @@
       <c r="F740" s="11">
         <v>3</v>
       </c>
-      <c r="G740" s="66">
+      <c r="G740" s="56">
         <v>110</v>
       </c>
       <c r="H740" s="11" t="s">
@@ -31364,7 +31364,7 @@
       <c r="F741" s="11">
         <v>3</v>
       </c>
-      <c r="G741" s="66">
+      <c r="G741" s="56">
         <v>111</v>
       </c>
       <c r="H741" s="11" t="s">
@@ -31405,7 +31405,7 @@
       <c r="F742" s="11">
         <v>3</v>
       </c>
-      <c r="G742" s="66">
+      <c r="G742" s="56">
         <v>112</v>
       </c>
       <c r="H742" s="11" t="s">
@@ -31446,7 +31446,7 @@
       <c r="F743" s="11">
         <v>3</v>
       </c>
-      <c r="G743" s="66">
+      <c r="G743" s="56">
         <v>113</v>
       </c>
       <c r="H743" s="11" t="s">
@@ -31487,7 +31487,7 @@
       <c r="F744" s="11">
         <v>3</v>
       </c>
-      <c r="G744" s="66">
+      <c r="G744" s="56">
         <v>114</v>
       </c>
       <c r="H744" s="11" t="s">
@@ -31528,7 +31528,7 @@
       <c r="F745" s="11">
         <v>3</v>
       </c>
-      <c r="G745" s="66">
+      <c r="G745" s="56">
         <v>115</v>
       </c>
       <c r="H745" s="11" t="s">
@@ -31569,7 +31569,7 @@
       <c r="F746" s="11">
         <v>3</v>
       </c>
-      <c r="G746" s="66">
+      <c r="G746" s="56">
         <v>116</v>
       </c>
       <c r="H746" s="11" t="s">
@@ -31610,7 +31610,7 @@
       <c r="F747" s="11">
         <v>3</v>
       </c>
-      <c r="G747" s="66">
+      <c r="G747" s="56">
         <v>117</v>
       </c>
       <c r="H747" s="11" t="s">
@@ -31651,7 +31651,7 @@
       <c r="F748" s="11">
         <v>3</v>
       </c>
-      <c r="G748" s="66">
+      <c r="G748" s="56">
         <v>118</v>
       </c>
       <c r="H748" s="11" t="s">
@@ -31692,7 +31692,7 @@
       <c r="F749" s="11">
         <v>3</v>
       </c>
-      <c r="G749" s="66">
+      <c r="G749" s="56">
         <v>119</v>
       </c>
       <c r="H749" s="11" t="s">
@@ -31733,7 +31733,7 @@
       <c r="F750" s="11">
         <v>3</v>
       </c>
-      <c r="G750" s="66">
+      <c r="G750" s="56">
         <v>120</v>
       </c>
       <c r="H750" s="11" t="s">
@@ -31774,7 +31774,7 @@
       <c r="F751" s="11">
         <v>1</v>
       </c>
-      <c r="G751" s="66">
+      <c r="G751" s="56">
         <v>1</v>
       </c>
       <c r="H751" s="10" t="s">
@@ -31815,7 +31815,7 @@
       <c r="F752" s="11">
         <v>1</v>
       </c>
-      <c r="G752" s="66">
+      <c r="G752" s="56">
         <v>2</v>
       </c>
       <c r="H752" s="10" t="s">
@@ -31856,7 +31856,7 @@
       <c r="F753" s="11">
         <v>1</v>
       </c>
-      <c r="G753" s="66">
+      <c r="G753" s="56">
         <v>3</v>
       </c>
       <c r="H753" s="10" t="s">
@@ -31897,7 +31897,7 @@
       <c r="F754" s="11">
         <v>1</v>
       </c>
-      <c r="G754" s="66">
+      <c r="G754" s="56">
         <v>4</v>
       </c>
       <c r="H754" s="10" t="s">
@@ -31938,7 +31938,7 @@
       <c r="F755" s="11">
         <v>1</v>
       </c>
-      <c r="G755" s="66">
+      <c r="G755" s="56">
         <v>5</v>
       </c>
       <c r="H755" s="10" t="s">
@@ -31979,7 +31979,7 @@
       <c r="F756" s="11">
         <v>1</v>
       </c>
-      <c r="G756" s="66">
+      <c r="G756" s="56">
         <v>6</v>
       </c>
       <c r="H756" s="10" t="s">
@@ -32020,7 +32020,7 @@
       <c r="F757" s="11">
         <v>1</v>
       </c>
-      <c r="G757" s="66">
+      <c r="G757" s="56">
         <v>7</v>
       </c>
       <c r="H757" s="10" t="s">
@@ -32061,7 +32061,7 @@
       <c r="F758" s="11">
         <v>1</v>
       </c>
-      <c r="G758" s="66">
+      <c r="G758" s="56">
         <v>8</v>
       </c>
       <c r="H758" s="10" t="s">
@@ -32102,7 +32102,7 @@
       <c r="F759" s="11">
         <v>1</v>
       </c>
-      <c r="G759" s="66">
+      <c r="G759" s="56">
         <v>9</v>
       </c>
       <c r="H759" s="16" t="s">
@@ -32143,7 +32143,7 @@
       <c r="F760" s="11">
         <v>1</v>
       </c>
-      <c r="G760" s="66">
+      <c r="G760" s="56">
         <v>10</v>
       </c>
       <c r="H760" s="10" t="s">
@@ -32184,7 +32184,7 @@
       <c r="F761" s="11">
         <v>1</v>
       </c>
-      <c r="G761" s="66">
+      <c r="G761" s="56">
         <v>11</v>
       </c>
       <c r="H761" s="10" t="s">
@@ -32225,7 +32225,7 @@
       <c r="F762" s="11">
         <v>1</v>
       </c>
-      <c r="G762" s="66">
+      <c r="G762" s="56">
         <v>12</v>
       </c>
       <c r="H762" s="10" t="s">
@@ -32266,7 +32266,7 @@
       <c r="F763" s="11">
         <v>1</v>
       </c>
-      <c r="G763" s="66">
+      <c r="G763" s="56">
         <v>13</v>
       </c>
       <c r="H763" s="10" t="s">
@@ -32307,7 +32307,7 @@
       <c r="F764" s="11">
         <v>1</v>
       </c>
-      <c r="G764" s="66">
+      <c r="G764" s="56">
         <v>14</v>
       </c>
       <c r="H764" s="10" t="s">
@@ -32348,7 +32348,7 @@
       <c r="F765" s="11">
         <v>1</v>
       </c>
-      <c r="G765" s="66">
+      <c r="G765" s="56">
         <v>15</v>
       </c>
       <c r="H765" s="10" t="s">
@@ -32389,7 +32389,7 @@
       <c r="F766" s="11">
         <v>1</v>
       </c>
-      <c r="G766" s="66">
+      <c r="G766" s="56">
         <v>16</v>
       </c>
       <c r="H766" s="10" t="s">
@@ -32430,7 +32430,7 @@
       <c r="F767" s="11">
         <v>2</v>
       </c>
-      <c r="G767" s="66">
+      <c r="G767" s="56">
         <v>56</v>
       </c>
       <c r="H767" s="16" t="s">
@@ -32471,7 +32471,7 @@
       <c r="F768" s="11">
         <v>2</v>
       </c>
-      <c r="G768" s="66">
+      <c r="G768" s="56">
         <v>57</v>
       </c>
       <c r="H768" s="10" t="s">
@@ -32512,7 +32512,7 @@
       <c r="F769" s="11">
         <v>2</v>
       </c>
-      <c r="G769" s="66">
+      <c r="G769" s="56">
         <v>58</v>
       </c>
       <c r="H769" s="10" t="s">
@@ -32553,7 +32553,7 @@
       <c r="F770" s="11">
         <v>2</v>
       </c>
-      <c r="G770" s="66">
+      <c r="G770" s="56">
         <v>59</v>
       </c>
       <c r="H770" s="10" t="s">
@@ -32594,7 +32594,7 @@
       <c r="F771" s="11">
         <v>2</v>
       </c>
-      <c r="G771" s="66">
+      <c r="G771" s="56">
         <v>51</v>
       </c>
       <c r="H771" s="16" t="s">
@@ -32635,7 +32635,7 @@
       <c r="F772" s="11">
         <v>2</v>
       </c>
-      <c r="G772" s="66">
+      <c r="G772" s="56">
         <v>52</v>
       </c>
       <c r="H772" s="10" t="s">
@@ -32676,7 +32676,7 @@
       <c r="F773" s="11">
         <v>2</v>
       </c>
-      <c r="G773" s="66">
+      <c r="G773" s="56">
         <v>53</v>
       </c>
       <c r="H773" s="10" t="s">
@@ -32717,7 +32717,7 @@
       <c r="F774" s="11">
         <v>2</v>
       </c>
-      <c r="G774" s="66">
+      <c r="G774" s="56">
         <v>54</v>
       </c>
       <c r="H774" s="10" t="s">
@@ -32758,7 +32758,7 @@
       <c r="F775" s="11">
         <v>2</v>
       </c>
-      <c r="G775" s="66">
+      <c r="G775" s="56">
         <v>55</v>
       </c>
       <c r="H775" s="10" t="s">
@@ -32799,7 +32799,7 @@
       <c r="F776" s="11">
         <v>3</v>
       </c>
-      <c r="G776" s="66">
+      <c r="G776" s="56">
         <v>101</v>
       </c>
       <c r="H776" s="10" t="s">
@@ -32840,7 +32840,7 @@
       <c r="F777" s="11">
         <v>3</v>
       </c>
-      <c r="G777" s="66">
+      <c r="G777" s="56">
         <v>102</v>
       </c>
       <c r="H777" s="10" t="s">
@@ -32881,7 +32881,7 @@
       <c r="F778" s="11">
         <v>3</v>
       </c>
-      <c r="G778" s="66">
+      <c r="G778" s="56">
         <v>103</v>
       </c>
       <c r="H778" s="10" t="s">
@@ -32922,7 +32922,7 @@
       <c r="F779" s="11">
         <v>3</v>
       </c>
-      <c r="G779" s="66">
+      <c r="G779" s="56">
         <v>104</v>
       </c>
       <c r="H779" s="10" t="s">
@@ -32963,7 +32963,7 @@
       <c r="F780" s="11">
         <v>3</v>
       </c>
-      <c r="G780" s="66">
+      <c r="G780" s="56">
         <v>105</v>
       </c>
       <c r="H780" s="10" t="s">
@@ -33004,7 +33004,7 @@
       <c r="F781" s="11">
         <v>3</v>
       </c>
-      <c r="G781" s="66">
+      <c r="G781" s="56">
         <v>106</v>
       </c>
       <c r="H781" s="10" t="s">
@@ -33045,7 +33045,7 @@
       <c r="F782" s="11">
         <v>3</v>
       </c>
-      <c r="G782" s="66">
+      <c r="G782" s="56">
         <v>107</v>
       </c>
       <c r="H782" s="10" t="s">
@@ -33086,7 +33086,7 @@
       <c r="F783" s="11">
         <v>3</v>
       </c>
-      <c r="G783" s="66">
+      <c r="G783" s="56">
         <v>108</v>
       </c>
       <c r="H783" s="10" t="s">
@@ -33127,7 +33127,7 @@
       <c r="F784" s="11">
         <v>3</v>
       </c>
-      <c r="G784" s="66">
+      <c r="G784" s="56">
         <v>109</v>
       </c>
       <c r="H784" s="10" t="s">
@@ -33168,7 +33168,7 @@
       <c r="F785" s="11">
         <v>3</v>
       </c>
-      <c r="G785" s="66">
+      <c r="G785" s="56">
         <v>110</v>
       </c>
       <c r="H785" s="10" t="s">
@@ -33209,7 +33209,7 @@
       <c r="F786" s="11">
         <v>3</v>
       </c>
-      <c r="G786" s="66">
+      <c r="G786" s="56">
         <v>111</v>
       </c>
       <c r="H786" s="10" t="s">
@@ -33250,7 +33250,7 @@
       <c r="F787" s="11">
         <v>3</v>
       </c>
-      <c r="G787" s="66">
+      <c r="G787" s="56">
         <v>112</v>
       </c>
       <c r="H787" s="10" t="s">
@@ -33291,7 +33291,7 @@
       <c r="F788" s="11">
         <v>3</v>
       </c>
-      <c r="G788" s="66">
+      <c r="G788" s="56">
         <v>113</v>
       </c>
       <c r="H788" s="10" t="s">
@@ -33332,7 +33332,7 @@
       <c r="F789" s="11">
         <v>3</v>
       </c>
-      <c r="G789" s="66">
+      <c r="G789" s="56">
         <v>114</v>
       </c>
       <c r="H789" s="10" t="s">
@@ -33373,7 +33373,7 @@
       <c r="F790" s="11">
         <v>3</v>
       </c>
-      <c r="G790" s="66">
+      <c r="G790" s="56">
         <v>115</v>
       </c>
       <c r="H790" s="10" t="s">
@@ -33414,7 +33414,7 @@
       <c r="F791" s="11">
         <v>3</v>
       </c>
-      <c r="G791" s="66">
+      <c r="G791" s="56">
         <v>116</v>
       </c>
       <c r="H791" s="10" t="s">
@@ -33455,7 +33455,7 @@
       <c r="F792" s="11">
         <v>3</v>
       </c>
-      <c r="G792" s="66">
+      <c r="G792" s="56">
         <v>117</v>
       </c>
       <c r="H792" s="10" t="s">
@@ -33496,7 +33496,7 @@
       <c r="F793" s="11">
         <v>3</v>
       </c>
-      <c r="G793" s="66">
+      <c r="G793" s="56">
         <v>118</v>
       </c>
       <c r="H793" s="10" t="s">
@@ -33537,7 +33537,7 @@
       <c r="F794" s="11">
         <v>3</v>
       </c>
-      <c r="G794" s="66">
+      <c r="G794" s="56">
         <v>119</v>
       </c>
       <c r="H794" s="10" t="s">
@@ -33578,7 +33578,7 @@
       <c r="F795" s="11">
         <v>3</v>
       </c>
-      <c r="G795" s="66">
+      <c r="G795" s="56">
         <v>120</v>
       </c>
       <c r="H795" s="10" t="s">
@@ -33619,7 +33619,7 @@
       <c r="F796" s="11">
         <v>3</v>
       </c>
-      <c r="G796" s="66">
+      <c r="G796" s="56">
         <v>121</v>
       </c>
       <c r="H796" s="16" t="s">
@@ -33660,7 +33660,7 @@
       <c r="F797" s="11">
         <v>3</v>
       </c>
-      <c r="G797" s="66">
+      <c r="G797" s="56">
         <v>122</v>
       </c>
       <c r="H797" s="10" t="s">
@@ -33701,7 +33701,7 @@
       <c r="F798" s="11">
         <v>3</v>
       </c>
-      <c r="G798" s="66">
+      <c r="G798" s="56">
         <v>123</v>
       </c>
       <c r="H798" s="10" t="s">
@@ -33742,7 +33742,7 @@
       <c r="F799" s="11">
         <v>3</v>
       </c>
-      <c r="G799" s="66">
+      <c r="G799" s="56">
         <v>123</v>
       </c>
       <c r="H799" s="10" t="s">
@@ -33783,7 +33783,7 @@
       <c r="F800" s="11">
         <v>1</v>
       </c>
-      <c r="G800" s="66">
+      <c r="G800" s="56">
         <v>8</v>
       </c>
       <c r="H800" s="10" t="s">
@@ -33824,7 +33824,7 @@
       <c r="F801" s="11">
         <v>1</v>
       </c>
-      <c r="G801" s="66">
+      <c r="G801" s="56">
         <v>9</v>
       </c>
       <c r="H801" s="10" t="s">
@@ -33865,7 +33865,7 @@
       <c r="F802" s="11">
         <v>1</v>
       </c>
-      <c r="G802" s="66">
+      <c r="G802" s="56">
         <v>10</v>
       </c>
       <c r="H802" s="16" t="s">
@@ -33906,7 +33906,7 @@
       <c r="F803" s="11">
         <v>1</v>
       </c>
-      <c r="G803" s="66">
+      <c r="G803" s="56">
         <v>1</v>
       </c>
       <c r="H803" s="16" t="s">
@@ -33947,7 +33947,7 @@
       <c r="F804" s="11">
         <v>1</v>
       </c>
-      <c r="G804" s="66">
+      <c r="G804" s="56">
         <v>2</v>
       </c>
       <c r="H804" s="10" t="s">
@@ -33988,7 +33988,7 @@
       <c r="F805" s="11">
         <v>1</v>
       </c>
-      <c r="G805" s="66">
+      <c r="G805" s="56">
         <v>3</v>
       </c>
       <c r="H805" s="10" t="s">
@@ -34029,7 +34029,7 @@
       <c r="F806" s="11">
         <v>1</v>
       </c>
-      <c r="G806" s="66">
+      <c r="G806" s="56">
         <v>4</v>
       </c>
       <c r="H806" s="10" t="s">
@@ -34070,7 +34070,7 @@
       <c r="F807" s="11">
         <v>1</v>
       </c>
-      <c r="G807" s="66">
+      <c r="G807" s="56">
         <v>5</v>
       </c>
       <c r="H807" s="10" t="s">
@@ -34111,7 +34111,7 @@
       <c r="F808" s="11">
         <v>1</v>
       </c>
-      <c r="G808" s="66">
+      <c r="G808" s="56">
         <v>6</v>
       </c>
       <c r="H808" s="10" t="s">
@@ -34152,7 +34152,7 @@
       <c r="F809" s="11">
         <v>1</v>
       </c>
-      <c r="G809" s="66">
+      <c r="G809" s="56">
         <v>7</v>
       </c>
       <c r="H809" s="10" t="s">
@@ -34193,7 +34193,7 @@
       <c r="F810" s="11">
         <v>2</v>
       </c>
-      <c r="G810" s="66">
+      <c r="G810" s="56">
         <v>51</v>
       </c>
       <c r="H810" s="16" t="s">
@@ -34234,7 +34234,7 @@
       <c r="F811" s="11">
         <v>2</v>
       </c>
-      <c r="G811" s="66">
+      <c r="G811" s="56">
         <v>52</v>
       </c>
       <c r="H811" s="10" t="s">
@@ -34275,7 +34275,7 @@
       <c r="F812" s="11">
         <v>2</v>
       </c>
-      <c r="G812" s="66">
+      <c r="G812" s="56">
         <v>53</v>
       </c>
       <c r="H812" s="10" t="s">
@@ -34316,7 +34316,7 @@
       <c r="F813" s="11">
         <v>2</v>
       </c>
-      <c r="G813" s="66">
+      <c r="G813" s="56">
         <v>54</v>
       </c>
       <c r="H813" s="10" t="s">
@@ -34357,7 +34357,7 @@
       <c r="F814" s="11">
         <v>2</v>
       </c>
-      <c r="G814" s="66">
+      <c r="G814" s="56">
         <v>55</v>
       </c>
       <c r="H814" s="10" t="s">
@@ -34398,7 +34398,7 @@
       <c r="F815" s="11">
         <v>2</v>
       </c>
-      <c r="G815" s="66">
+      <c r="G815" s="56">
         <v>56</v>
       </c>
       <c r="H815" s="10" t="s">
@@ -34439,7 +34439,7 @@
       <c r="F816" s="11">
         <v>2</v>
       </c>
-      <c r="G816" s="66">
+      <c r="G816" s="56">
         <v>57</v>
       </c>
       <c r="H816" s="10" t="s">
@@ -34480,7 +34480,7 @@
       <c r="F817" s="11">
         <v>2</v>
       </c>
-      <c r="G817" s="66">
+      <c r="G817" s="56">
         <v>58</v>
       </c>
       <c r="H817" s="10" t="s">
@@ -34521,7 +34521,7 @@
       <c r="F818" s="11">
         <v>2</v>
       </c>
-      <c r="G818" s="66">
+      <c r="G818" s="56">
         <v>59</v>
       </c>
       <c r="H818" s="16" t="s">
@@ -34562,7 +34562,7 @@
       <c r="F819" s="11">
         <v>3</v>
       </c>
-      <c r="G819" s="66">
+      <c r="G819" s="56">
         <v>101</v>
       </c>
       <c r="H819" s="16" t="s">
@@ -34603,7 +34603,7 @@
       <c r="F820" s="11">
         <v>3</v>
       </c>
-      <c r="G820" s="66">
+      <c r="G820" s="56">
         <v>102</v>
       </c>
       <c r="H820" s="10" t="s">
@@ -34644,7 +34644,7 @@
       <c r="F821" s="11">
         <v>3</v>
       </c>
-      <c r="G821" s="66">
+      <c r="G821" s="56">
         <v>103</v>
       </c>
       <c r="H821" s="10" t="s">
@@ -34685,7 +34685,7 @@
       <c r="F822" s="11">
         <v>3</v>
       </c>
-      <c r="G822" s="66">
+      <c r="G822" s="56">
         <v>104</v>
       </c>
       <c r="H822" s="10" t="s">
@@ -34726,7 +34726,7 @@
       <c r="F823" s="11">
         <v>3</v>
       </c>
-      <c r="G823" s="66">
+      <c r="G823" s="56">
         <v>105</v>
       </c>
       <c r="H823" s="16" t="s">
@@ -34767,7 +34767,7 @@
       <c r="F824" s="11">
         <v>3</v>
       </c>
-      <c r="G824" s="66">
+      <c r="G824" s="56">
         <v>106</v>
       </c>
       <c r="H824" s="10" t="s">
@@ -34808,7 +34808,7 @@
       <c r="F825" s="11">
         <v>3</v>
       </c>
-      <c r="G825" s="66">
+      <c r="G825" s="56">
         <v>107</v>
       </c>
       <c r="H825" s="10" t="s">
@@ -34849,7 +34849,7 @@
       <c r="F826" s="11">
         <v>3</v>
       </c>
-      <c r="G826" s="66">
+      <c r="G826" s="56">
         <v>108</v>
       </c>
       <c r="H826" s="10" t="s">
@@ -34890,7 +34890,7 @@
       <c r="F827" s="11">
         <v>3</v>
       </c>
-      <c r="G827" s="66">
+      <c r="G827" s="56">
         <v>109</v>
       </c>
       <c r="H827" s="10" t="s">
@@ -34931,7 +34931,7 @@
       <c r="F828" s="11">
         <v>2</v>
       </c>
-      <c r="G828" s="66">
+      <c r="G828" s="56">
         <v>53</v>
       </c>
       <c r="H828" s="10" t="s">
@@ -34972,7 +34972,7 @@
       <c r="F829" s="11">
         <v>2</v>
       </c>
-      <c r="G829" s="66">
+      <c r="G829" s="56">
         <v>54</v>
       </c>
       <c r="H829" s="10" t="s">
@@ -35013,7 +35013,7 @@
       <c r="F830" s="11">
         <v>2</v>
       </c>
-      <c r="G830" s="66">
+      <c r="G830" s="56">
         <v>55</v>
       </c>
       <c r="H830" s="16" t="s">
@@ -35054,7 +35054,7 @@
       <c r="F831" s="11">
         <v>2</v>
       </c>
-      <c r="G831" s="66">
+      <c r="G831" s="56">
         <v>51</v>
       </c>
       <c r="H831" s="10" t="s">
@@ -35095,7 +35095,7 @@
       <c r="F832" s="11">
         <v>2</v>
       </c>
-      <c r="G832" s="66">
+      <c r="G832" s="56">
         <v>52</v>
       </c>
       <c r="H832" s="10" t="s">
@@ -35136,7 +35136,7 @@
       <c r="F833" s="11">
         <v>2</v>
       </c>
-      <c r="G833" s="66">
+      <c r="G833" s="56">
         <v>56</v>
       </c>
       <c r="H833" s="16" t="s">
@@ -35177,7 +35177,7 @@
       <c r="F834" s="11">
         <v>2</v>
       </c>
-      <c r="G834" s="66">
+      <c r="G834" s="56">
         <v>57</v>
       </c>
       <c r="H834" s="10" t="s">
@@ -35218,7 +35218,7 @@
       <c r="F835" s="11">
         <v>2</v>
       </c>
-      <c r="G835" s="66">
+      <c r="G835" s="56">
         <v>58</v>
       </c>
       <c r="H835" s="10" t="s">
@@ -35259,7 +35259,7 @@
       <c r="F836" s="11">
         <v>2</v>
       </c>
-      <c r="G836" s="66">
+      <c r="G836" s="56">
         <v>59</v>
       </c>
       <c r="H836" s="10" t="s">
@@ -35300,7 +35300,7 @@
       <c r="F837" s="11">
         <v>2</v>
       </c>
-      <c r="G837" s="66">
+      <c r="G837" s="56">
         <v>60</v>
       </c>
       <c r="H837" s="10" t="s">
@@ -35341,7 +35341,7 @@
       <c r="F838" s="11">
         <v>2</v>
       </c>
-      <c r="G838" s="66">
+      <c r="G838" s="56">
         <v>61</v>
       </c>
       <c r="H838" s="10" t="s">
@@ -35382,7 +35382,7 @@
       <c r="F839" s="11">
         <v>1</v>
       </c>
-      <c r="G839" s="66">
+      <c r="G839" s="56">
         <v>1</v>
       </c>
       <c r="H839" s="10" t="s">
@@ -35423,7 +35423,7 @@
       <c r="F840" s="11">
         <v>1</v>
       </c>
-      <c r="G840" s="66">
+      <c r="G840" s="56">
         <v>2</v>
       </c>
       <c r="H840" s="10" t="s">
@@ -35464,7 +35464,7 @@
       <c r="F841" s="11">
         <v>1</v>
       </c>
-      <c r="G841" s="66">
+      <c r="G841" s="56">
         <v>3</v>
       </c>
       <c r="H841" s="10" t="s">
@@ -35505,7 +35505,7 @@
       <c r="F842" s="11">
         <v>1</v>
       </c>
-      <c r="G842" s="66">
+      <c r="G842" s="56">
         <v>8</v>
       </c>
       <c r="H842" s="16" t="s">
@@ -35546,7 +35546,7 @@
       <c r="F843" s="11">
         <v>1</v>
       </c>
-      <c r="G843" s="66">
+      <c r="G843" s="56">
         <v>9</v>
       </c>
       <c r="H843" s="10" t="s">
@@ -35587,7 +35587,7 @@
       <c r="F844" s="11">
         <v>1</v>
       </c>
-      <c r="G844" s="66">
+      <c r="G844" s="56">
         <v>4</v>
       </c>
       <c r="H844" s="10" t="s">
@@ -35628,7 +35628,7 @@
       <c r="F845" s="11">
         <v>1</v>
       </c>
-      <c r="G845" s="66">
+      <c r="G845" s="56">
         <v>5</v>
       </c>
       <c r="H845" s="10" t="s">
@@ -35669,7 +35669,7 @@
       <c r="F846" s="11">
         <v>1</v>
       </c>
-      <c r="G846" s="66">
+      <c r="G846" s="56">
         <v>6</v>
       </c>
       <c r="H846" s="10" t="s">
@@ -35710,7 +35710,7 @@
       <c r="F847" s="11">
         <v>1</v>
       </c>
-      <c r="G847" s="66">
+      <c r="G847" s="56">
         <v>7</v>
       </c>
       <c r="H847" s="16" t="s">
@@ -35751,7 +35751,7 @@
       <c r="F848" s="11">
         <v>1</v>
       </c>
-      <c r="G848" s="66">
+      <c r="G848" s="56">
         <v>1</v>
       </c>
       <c r="H848" s="10" t="s">
@@ -35789,7 +35789,7 @@
       <c r="F849" s="11">
         <v>1</v>
       </c>
-      <c r="G849" s="66">
+      <c r="G849" s="56">
         <v>2</v>
       </c>
       <c r="H849" s="10" t="s">
@@ -35827,7 +35827,7 @@
       <c r="F850" s="11">
         <v>1</v>
       </c>
-      <c r="G850" s="66">
+      <c r="G850" s="56">
         <v>3</v>
       </c>
       <c r="H850" s="10" t="s">
@@ -35865,7 +35865,7 @@
       <c r="F851" s="11">
         <v>1</v>
       </c>
-      <c r="G851" s="66">
+      <c r="G851" s="56">
         <v>4</v>
       </c>
       <c r="H851" s="10" t="s">
@@ -35903,7 +35903,7 @@
       <c r="F852" s="11">
         <v>1</v>
       </c>
-      <c r="G852" s="66">
+      <c r="G852" s="56">
         <v>5</v>
       </c>
       <c r="H852" s="10" t="s">
@@ -35941,7 +35941,7 @@
       <c r="F853" s="11">
         <v>1</v>
       </c>
-      <c r="G853" s="66">
+      <c r="G853" s="56">
         <v>6</v>
       </c>
       <c r="H853" s="10" t="s">
@@ -35979,7 +35979,7 @@
       <c r="F854" s="11">
         <v>1</v>
       </c>
-      <c r="G854" s="66">
+      <c r="G854" s="56">
         <v>7</v>
       </c>
       <c r="H854" s="10" t="s">
@@ -36017,7 +36017,7 @@
       <c r="F855" s="11">
         <v>1</v>
       </c>
-      <c r="G855" s="66">
+      <c r="G855" s="56">
         <v>8</v>
       </c>
       <c r="H855" s="10" t="s">
@@ -36055,7 +36055,7 @@
       <c r="F856" s="11">
         <v>1</v>
       </c>
-      <c r="G856" s="66">
+      <c r="G856" s="56">
         <v>9</v>
       </c>
       <c r="H856" s="10" t="s">
@@ -36093,7 +36093,7 @@
       <c r="F857" s="11">
         <v>1</v>
       </c>
-      <c r="G857" s="66">
+      <c r="G857" s="56">
         <v>10</v>
       </c>
       <c r="H857" s="10" t="s">
@@ -36131,7 +36131,7 @@
       <c r="F858" s="11">
         <v>1</v>
       </c>
-      <c r="G858" s="66">
+      <c r="G858" s="56">
         <v>11</v>
       </c>
       <c r="H858" s="10" t="s">
@@ -36169,7 +36169,7 @@
       <c r="F859" s="11">
         <v>1</v>
       </c>
-      <c r="G859" s="66">
+      <c r="G859" s="56">
         <v>12</v>
       </c>
       <c r="H859" s="10" t="s">
@@ -36207,7 +36207,7 @@
       <c r="F860" s="11">
         <v>1</v>
       </c>
-      <c r="G860" s="66">
+      <c r="G860" s="56">
         <v>13</v>
       </c>
       <c r="H860" s="10" t="s">
@@ -36245,7 +36245,7 @@
       <c r="F861" s="11">
         <v>1</v>
       </c>
-      <c r="G861" s="66">
+      <c r="G861" s="56">
         <v>14</v>
       </c>
       <c r="H861" s="10" t="s">
@@ -36283,7 +36283,7 @@
       <c r="F862" s="11">
         <v>1</v>
       </c>
-      <c r="G862" s="66">
+      <c r="G862" s="56">
         <v>15</v>
       </c>
       <c r="H862" s="10" t="s">
@@ -36321,7 +36321,7 @@
       <c r="F863" s="11">
         <v>1</v>
       </c>
-      <c r="G863" s="66">
+      <c r="G863" s="56">
         <v>16</v>
       </c>
       <c r="H863" s="10" t="s">
@@ -36359,7 +36359,7 @@
       <c r="F864" s="11">
         <v>2</v>
       </c>
-      <c r="G864" s="66">
+      <c r="G864" s="56">
         <v>51</v>
       </c>
       <c r="H864" s="10" t="s">
@@ -36397,7 +36397,7 @@
       <c r="F865" s="11">
         <v>2</v>
       </c>
-      <c r="G865" s="66">
+      <c r="G865" s="56">
         <v>52</v>
       </c>
       <c r="H865" s="10" t="s">
@@ -36435,7 +36435,7 @@
       <c r="F866" s="11">
         <v>2</v>
       </c>
-      <c r="G866" s="66">
+      <c r="G866" s="56">
         <v>53</v>
       </c>
       <c r="H866" s="10" t="s">
@@ -36473,7 +36473,7 @@
       <c r="F867" s="11">
         <v>2</v>
       </c>
-      <c r="G867" s="66">
+      <c r="G867" s="56">
         <v>54</v>
       </c>
       <c r="H867" s="10" t="s">
@@ -36511,7 +36511,7 @@
       <c r="F868" s="11">
         <v>2</v>
       </c>
-      <c r="G868" s="66">
+      <c r="G868" s="56">
         <v>55</v>
       </c>
       <c r="H868" s="10" t="s">
@@ -36549,7 +36549,7 @@
       <c r="F869" s="11">
         <v>2</v>
       </c>
-      <c r="G869" s="66">
+      <c r="G869" s="56">
         <v>56</v>
       </c>
       <c r="H869" s="10" t="s">
@@ -36587,7 +36587,7 @@
       <c r="F870" s="11">
         <v>2</v>
       </c>
-      <c r="G870" s="66">
+      <c r="G870" s="56">
         <v>57</v>
       </c>
       <c r="H870" s="10" t="s">
@@ -36625,7 +36625,7 @@
       <c r="F871" s="11">
         <v>2</v>
       </c>
-      <c r="G871" s="66">
+      <c r="G871" s="56">
         <v>58</v>
       </c>
       <c r="H871" s="16" t="s">
@@ -36663,7 +36663,7 @@
       <c r="F872" s="11">
         <v>2</v>
       </c>
-      <c r="G872" s="66">
+      <c r="G872" s="56">
         <v>59</v>
       </c>
       <c r="H872" s="10" t="s">
@@ -36701,7 +36701,7 @@
       <c r="F873" s="11">
         <v>2</v>
       </c>
-      <c r="G873" s="66">
+      <c r="G873" s="56">
         <v>60</v>
       </c>
       <c r="H873" s="10" t="s">
@@ -36739,7 +36739,7 @@
       <c r="F874" s="11">
         <v>2</v>
       </c>
-      <c r="G874" s="66">
+      <c r="G874" s="56">
         <v>61</v>
       </c>
       <c r="H874" s="10" t="s">
@@ -36777,7 +36777,7 @@
       <c r="F875" s="11">
         <v>2</v>
       </c>
-      <c r="G875" s="66">
+      <c r="G875" s="56">
         <v>62</v>
       </c>
       <c r="H875" s="10" t="s">
@@ -36815,7 +36815,7 @@
       <c r="F876" s="11">
         <v>2</v>
       </c>
-      <c r="G876" s="66">
+      <c r="G876" s="56">
         <v>63</v>
       </c>
       <c r="H876" s="10" t="s">
@@ -36853,7 +36853,7 @@
       <c r="F877" s="11">
         <v>2</v>
       </c>
-      <c r="G877" s="66">
+      <c r="G877" s="56">
         <v>64</v>
       </c>
       <c r="H877" s="10" t="s">
@@ -36891,7 +36891,7 @@
       <c r="F878" s="11">
         <v>2</v>
       </c>
-      <c r="G878" s="66">
+      <c r="G878" s="56">
         <v>65</v>
       </c>
       <c r="H878" s="10" t="s">
@@ -36929,7 +36929,7 @@
       <c r="F879" s="11">
         <v>2</v>
       </c>
-      <c r="G879" s="66">
+      <c r="G879" s="56">
         <v>66</v>
       </c>
       <c r="H879" s="10" t="s">
@@ -36967,7 +36967,7 @@
       <c r="F880" s="11">
         <v>2</v>
       </c>
-      <c r="G880" s="66">
+      <c r="G880" s="56">
         <v>67</v>
       </c>
       <c r="H880" s="10" t="s">
@@ -37005,7 +37005,7 @@
       <c r="F881" s="11">
         <v>2</v>
       </c>
-      <c r="G881" s="66">
+      <c r="G881" s="56">
         <v>68</v>
       </c>
       <c r="H881" s="10" t="s">
@@ -37043,7 +37043,7 @@
       <c r="F882" s="11">
         <v>2</v>
       </c>
-      <c r="G882" s="66">
+      <c r="G882" s="56">
         <v>69</v>
       </c>
       <c r="H882" s="10" t="s">
@@ -37081,7 +37081,7 @@
       <c r="F883" s="11">
         <v>2</v>
       </c>
-      <c r="G883" s="66">
+      <c r="G883" s="56">
         <v>70</v>
       </c>
       <c r="H883" s="10" t="s">
@@ -37119,7 +37119,7 @@
       <c r="F884" s="11">
         <v>2</v>
       </c>
-      <c r="G884" s="66">
+      <c r="G884" s="56">
         <v>71</v>
       </c>
       <c r="H884" s="10" t="s">
@@ -37157,7 +37157,7 @@
       <c r="F885" s="11">
         <v>2</v>
       </c>
-      <c r="G885" s="66">
+      <c r="G885" s="56">
         <v>72</v>
       </c>
       <c r="H885" s="10" t="s">
@@ -37195,7 +37195,7 @@
       <c r="F886" s="11">
         <v>2</v>
       </c>
-      <c r="G886" s="66">
+      <c r="G886" s="56">
         <v>73</v>
       </c>
       <c r="H886" s="10" t="s">
@@ -37233,7 +37233,7 @@
       <c r="F887" s="11">
         <v>3</v>
       </c>
-      <c r="G887" s="66">
+      <c r="G887" s="56">
         <v>101</v>
       </c>
       <c r="H887" s="10" t="s">
@@ -37271,7 +37271,7 @@
       <c r="F888" s="11">
         <v>3</v>
       </c>
-      <c r="G888" s="66">
+      <c r="G888" s="56">
         <v>102</v>
       </c>
       <c r="H888" s="10" t="s">
@@ -37309,7 +37309,7 @@
       <c r="F889" s="11">
         <v>3</v>
       </c>
-      <c r="G889" s="66">
+      <c r="G889" s="56">
         <v>103</v>
       </c>
       <c r="H889" s="10" t="s">
@@ -37347,7 +37347,7 @@
       <c r="F890" s="11">
         <v>3</v>
       </c>
-      <c r="G890" s="66">
+      <c r="G890" s="56">
         <v>104</v>
       </c>
       <c r="H890" s="10" t="s">
@@ -37385,7 +37385,7 @@
       <c r="F891" s="11">
         <v>3</v>
       </c>
-      <c r="G891" s="66">
+      <c r="G891" s="56">
         <v>105</v>
       </c>
       <c r="H891" s="16" t="s">
@@ -37423,7 +37423,7 @@
       <c r="F892" s="11">
         <v>3</v>
       </c>
-      <c r="G892" s="66">
+      <c r="G892" s="56">
         <v>106</v>
       </c>
       <c r="H892" s="10" t="s">
@@ -37461,7 +37461,7 @@
       <c r="F893" s="11">
         <v>3</v>
       </c>
-      <c r="G893" s="66">
+      <c r="G893" s="56">
         <v>107</v>
       </c>
       <c r="H893" s="10" t="s">
@@ -37484,7 +37484,7 @@
       <c r="A894" s="12">
         <v>292</v>
       </c>
-      <c r="G894" s="66" t="s">
+      <c r="G894" s="56" t="s">
         <v>330</v>
       </c>
       <c r="J894" s="14">
@@ -39160,7 +39160,7 @@
       <c r="F952" s="11">
         <v>2</v>
       </c>
-      <c r="G952" s="66">
+      <c r="G952" s="56">
         <v>51</v>
       </c>
       <c r="H952" s="11" t="s">
@@ -39201,7 +39201,7 @@
       <c r="F953" s="11">
         <v>2</v>
       </c>
-      <c r="G953" s="66">
+      <c r="G953" s="56">
         <v>81</v>
       </c>
       <c r="H953" s="11" t="s">
@@ -39242,7 +39242,7 @@
       <c r="F954" s="11">
         <v>2</v>
       </c>
-      <c r="G954" s="66">
+      <c r="G954" s="56">
         <v>77</v>
       </c>
       <c r="H954" s="11" t="s">
@@ -39283,7 +39283,7 @@
       <c r="F955" s="11">
         <v>2</v>
       </c>
-      <c r="G955" s="66">
+      <c r="G955" s="56">
         <v>73</v>
       </c>
       <c r="H955" s="11" t="s">
@@ -39324,7 +39324,7 @@
       <c r="F956" s="11">
         <v>2</v>
       </c>
-      <c r="G956" s="66">
+      <c r="G956" s="56">
         <v>86</v>
       </c>
       <c r="H956" s="11" t="s">
@@ -39365,7 +39365,7 @@
       <c r="F957" s="11">
         <v>2</v>
       </c>
-      <c r="G957" s="66">
+      <c r="G957" s="56">
         <v>85</v>
       </c>
       <c r="H957" s="11" t="s">
@@ -39406,7 +39406,7 @@
       <c r="F958" s="11">
         <v>2</v>
       </c>
-      <c r="G958" s="66">
+      <c r="G958" s="56">
         <v>70</v>
       </c>
       <c r="H958" s="11" t="s">
@@ -39447,7 +39447,7 @@
       <c r="F959" s="11">
         <v>2</v>
       </c>
-      <c r="G959" s="66">
+      <c r="G959" s="56">
         <v>53</v>
       </c>
       <c r="H959" s="11" t="s">
@@ -39488,7 +39488,7 @@
       <c r="F960" s="11">
         <v>2</v>
       </c>
-      <c r="G960" s="66">
+      <c r="G960" s="56">
         <v>52</v>
       </c>
       <c r="H960" s="11" t="s">
@@ -39529,7 +39529,7 @@
       <c r="F961" s="11">
         <v>2</v>
       </c>
-      <c r="G961" s="66">
+      <c r="G961" s="56">
         <v>84</v>
       </c>
       <c r="H961" s="11" t="s">
@@ -39570,7 +39570,7 @@
       <c r="F962" s="11">
         <v>2</v>
       </c>
-      <c r="G962" s="66">
+      <c r="G962" s="56">
         <v>79</v>
       </c>
       <c r="H962" s="11" t="s">
@@ -39611,7 +39611,7 @@
       <c r="F963" s="11">
         <v>2</v>
       </c>
-      <c r="G963" s="66">
+      <c r="G963" s="56">
         <v>54</v>
       </c>
       <c r="H963" s="11" t="s">
@@ -39652,7 +39652,7 @@
       <c r="F964" s="11">
         <v>2</v>
       </c>
-      <c r="G964" s="66">
+      <c r="G964" s="56">
         <v>71</v>
       </c>
       <c r="H964" s="26" t="s">
@@ -39693,7 +39693,7 @@
       <c r="F965" s="11">
         <v>2</v>
       </c>
-      <c r="G965" s="66">
+      <c r="G965" s="56">
         <v>72</v>
       </c>
       <c r="H965" s="11" t="s">
@@ -39734,7 +39734,7 @@
       <c r="F966" s="11">
         <v>2</v>
       </c>
-      <c r="G966" s="66">
+      <c r="G966" s="56">
         <v>78</v>
       </c>
       <c r="H966" s="11" t="s">
@@ -39775,7 +39775,7 @@
       <c r="F967" s="11">
         <v>2</v>
       </c>
-      <c r="G967" s="66">
+      <c r="G967" s="56">
         <v>75</v>
       </c>
       <c r="H967" s="11" t="s">
@@ -39816,7 +39816,7 @@
       <c r="F968" s="11">
         <v>2</v>
       </c>
-      <c r="G968" s="66">
+      <c r="G968" s="56">
         <v>80</v>
       </c>
       <c r="H968" s="11" t="s">
@@ -39857,7 +39857,7 @@
       <c r="F969" s="11">
         <v>2</v>
       </c>
-      <c r="G969" s="66">
+      <c r="G969" s="56">
         <v>76</v>
       </c>
       <c r="H969" s="11" t="s">
@@ -39898,7 +39898,7 @@
       <c r="F970" s="11">
         <v>2</v>
       </c>
-      <c r="G970" s="66">
+      <c r="G970" s="56">
         <v>74</v>
       </c>
       <c r="H970" s="11" t="s">
@@ -39939,7 +39939,7 @@
       <c r="F971" s="11">
         <v>2</v>
       </c>
-      <c r="G971" s="66">
+      <c r="G971" s="56">
         <v>83</v>
       </c>
       <c r="H971" s="11" t="s">
@@ -39980,7 +39980,7 @@
       <c r="F972" s="11">
         <v>2</v>
       </c>
-      <c r="G972" s="66">
+      <c r="G972" s="56">
         <v>82</v>
       </c>
       <c r="H972" s="11" t="s">
@@ -40157,16 +40157,16 @@
       <c r="C978" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D978" s="72">
+      <c r="D978" s="62">
         <v>40005724</v>
       </c>
-      <c r="E978" s="73" t="s">
+      <c r="E978" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="F978" s="74">
+      <c r="F978" s="64">
         <v>3</v>
       </c>
-      <c r="G978" s="75">
+      <c r="G978" s="65">
         <v>108</v>
       </c>
       <c r="H978" s="10" t="s">
@@ -40533,13 +40533,13 @@
       <c r="B1" t="s">
         <v>522</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="66" t="s">
         <v>523</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -40548,11 +40548,11 @@
       <c r="B2">
         <v>43</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -40561,32 +40561,32 @@
       <c r="B3">
         <v>50</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -41410,72 +41410,72 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="67" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="56" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -41539,7 +41539,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="69" t="s">
         <v>397</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -41568,7 +41568,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="1" t="s">
         <v>343</v>
       </c>
@@ -41593,7 +41593,7 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="1" t="s">
         <v>406</v>
       </c>
@@ -41618,7 +41618,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="1" t="s">
         <v>345</v>
       </c>
@@ -41643,7 +41643,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="1" t="s">
         <v>346</v>
       </c>
@@ -41668,7 +41668,7 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="1" t="s">
         <v>347</v>
       </c>
@@ -41693,7 +41693,7 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="1" t="s">
         <v>348</v>
       </c>
@@ -42190,10 +42190,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="71" t="s">
         <v>397</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="73" t="s">
         <v>502</v>
       </c>
       <c r="C2" s="36" t="s">
@@ -42204,8 +42204,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="36" t="s">
         <v>343</v>
       </c>
@@ -42226,8 +42226,8 @@
       <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="36" t="s">
         <v>503</v>
       </c>
@@ -42248,8 +42248,8 @@
       <c r="Q4" s="41"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="36" t="s">
         <v>345</v>
       </c>
@@ -42270,8 +42270,8 @@
       <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="36" t="s">
         <v>346</v>
       </c>
@@ -42292,8 +42292,8 @@
       <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="36" t="s">
         <v>347</v>
       </c>
@@ -42314,8 +42314,8 @@
       <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="36" t="s">
         <v>348</v>
       </c>

--- a/宜科电子/大庆沃尔沃总装物流PTL项目/大庆沃尔沃PTL项目信息汇总.xlsx
+++ b/宜科电子/大庆沃尔沃总装物流PTL项目/大庆沃尔沃PTL项目信息汇总.xlsx
@@ -2611,8 +2611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -41486,7 +41486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
